--- a/dataset/lg/bhaktamandaara.xlsx
+++ b/dataset/lg/bhaktamandaara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,42 +434,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>padyam</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>padyam</t>
+          <t>class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>satakam</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>satakam</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>lg</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
         <is>
           <t>శ్రీసాకేతపురీవరంబున సునాసీరోపలస్థాపిత-
 ప్రాసాదాంతర చంద్రకాంతమణియుక్పర్యంకభాగంబునన్
@@ -477,32 +474,29 @@
 మా సన్మానసవీథిఁ గొల్చెదము రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('సా', 'U'), ('కే', 'U'), ('త', '|'), ('పు', '|'), ('రీ', 'U'), ('వ', '|'), ('రం', 'U'), ('బు', '|'), ('న', '|'), ('సు', '|'), ('నా', 'U'), ('సీ', 'U'), ('రో', 'U'), ('ప', '|'), ('ల', 'U'), ('స్థా', 'U'), ('పి', '|'), ('త', 'U'), ('ప్రా', 'U'), ('సా', 'U'), ('దాం', 'U'), ('త', '|'), ('ర', '|'), ('చం', 'U'), ('ద్ర', '|'), ('కాం', 'U'), ('త', '|'), ('మ', '|'), ('ణి', '|'), ('యు', 'U'), ('క్ప', 'U'), ('ర్యం', 'U'), ('క', '|'), ('భా', 'U'), ('గం', 'U'), ('బు', '|'), ('నన్', 'U'), ('శ్రీ', 'U'), ('సీ', 'U'), ('తా', 'U'), ('స', '|'), ('తి', '|'), ('గూ', 'U'), ('డ', '|'), ('వే', 'U'), ('డ్క', '|'), ('ల', '|'), ('ల', '|'), ('రం', 'U'), ('గ్రీ', 'U'), ('డిం', 'U'), ('చు', '|'), ('మి', 'U'), ('మ్మె', 'U'), ('ప్పు', '|'), ('డున్', 'U'), ('మా', 'U'), ('స', 'U'), ('న్మా', 'U'), ('న', '|'), ('స', '|'), ('వీ', 'U'), ('థి', '|'), ('గొ', 'U'), ('ల్చె', '|'), ('ద', '|'), ('ము', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
         <is>
           <t>అస్తోకామలకీర్తికామ! లసదుద్యన్నీరదశ్యామ! భూ
 విస్తారప్రభుతాలలామ! త్రిజగత్ప్రఖ్యాతసన్నామ! ధీ-
@@ -510,32 +504,29 @@
 ర్మస్తస్తోమవిరామ! ధీమహిత! రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('స్తో', 'U'), ('కా', 'U'), ('మ', '|'), ('ల', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('కా', 'U'), ('మ', '|'), ('ల', '|'), ('స', '|'), ('దు', 'U'), ('ద్య', 'U'), ('న్నీ', 'U'), ('ర', '|'), ('ద', 'U'), ('శ్యా', 'U'), ('మ', '|'), ('భూ', 'U'), ('వి', 'U'), ('స్తా', 'U'), ('ర', 'U'), ('ప్ర', '|'), ('భు', '|'), ('తా', 'U'), ('ల', '|'), ('లా', 'U'), ('మ', 'U'), ('త్రి', '|'), ('జ', '|'), ('గ', 'U'), ('త్ప్ర', 'U'), ('ఖ్యా', 'U'), ('త', '|'), ('స', 'U'), ('న్నా', 'U'), ('మ', '|'), ('ధీ', 'U'), ('ర', 'U'), ('స్తు', 'U'), ('త్యో', 'U'), ('రు', '|'), ('గు', '|'), ('ణా', 'U'), ('భి', '|'), ('రా', 'U'), ('మ', '|'), ('భు', '|'), ('జ', '|'), ('సా', 'U'), ('ర', 'U'), ('స్ఫా', 'U'), ('ర', '|'), ('పౌ', 'U'), ('ల', 'U'), ('స్త్య', '|'), ('దు', '|'), ('ర్మ', 'U'), ('స్త', 'U'), ('స్తో', 'U'), ('మ', '|'), ('వి', '|'), ('రా', 'U'), ('మ', '|'), ('ధీ', 'U'), ('మ', '|'), ('హి', '|'), ('త', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>కదనప్రాంగణకార్తికేయ! విలసద్గాంగేయకౌశేయ! భా-
 స్వదుదంచద్ఘననీలకాయ! త్రిజగత్సంరక్షణోపాయ! స-
@@ -543,32 +534,29 @@
 త్మదమేయాశ్వ! సుధీవిధేయగుణ! రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ద', '|'), ('న', 'U'), ('ప్రాం', 'U'), ('గ', '|'), ('ణ', '|'), ('కా', 'U'), ('ర్తి', '|'), ('కే', 'U'), ('య', '|'), ('వి', '|'), ('ల', '|'), ('స', 'U'), ('ద్గాం', 'U'), ('గే', 'U'), ('య', '|'), ('కౌ', 'U'), ('శే', 'U'), ('య', '|'), ('భా', 'U'), ('స్వ', '|'), ('దు', '|'), ('దం', 'U'), ('చ', 'U'), ('ద్ఘ', '|'), ('న', '|'), ('నీ', 'U'), ('ల', '|'), ('కా', 'U'), ('య', 'U'), ('త్రి', '|'), ('జ', '|'), ('గ', 'U'), ('త్సం', 'U'), ('ర', 'U'), ('క్ష', '|'), ('ణో', 'U'), ('పా', 'U'), ('య', '|'), ('స', 'U'), ('మ్ము', '|'), ('ది', '|'), ('తా', 'U'), ('శే', 'U'), ('ష', '|'), ('మ', '|'), ('రు', 'U'), ('న్ని', '|'), ('కా', 'U'), ('య', '|'), ('ది', '|'), ('వి', '|'), ('ష', 'U'), ('న్ము', 'U'), ('ఖ్యా', 'U'), ('తి', '|'), ('గే', 'U'), ('యా', 'U'), ('గ', '|'), ('రు', 'U'), ('త్మ', '|'), ('ద', '|'), ('మే', 'U'), ('యా', 'U'), ('శ్వ', '|'), ('సు', '|'), ('ధీ', 'U'), ('వి', '|'), ('ధే', 'U'), ('య', '|'), ('గు', '|'), ('ణ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
         <is>
           <t>అకలంకాయతకీర్తి జాల! మహనీయాభీలశౌర్యస్ఫుర-
 న్మకరాక్షాసురరావణప్రముఖ నానాదానవోత్తాలతూ-
@@ -576,32 +564,29 @@
 మకనచ్చేల! బుధానుపాల! రఘురామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('క', '|'), ('లం', 'U'), ('కా', 'U'), ('య', '|'), ('త', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('జా', 'U'), ('ల', '|'), ('మ', '|'), ('హ', '|'), ('నీ', 'U'), ('యా', 'U'), ('భీ', 'U'), ('ల', '|'), ('శౌ', 'U'), ('ర్య', 'U'), ('స్ఫు', '|'), ('ర', 'U'), ('న్మ', '|'), ('క', '|'), ('రా', 'U'), ('క్షా', 'U'), ('సు', '|'), ('ర', '|'), ('రా', 'U'), ('వ', '|'), ('ణ', 'U'), ('ప్ర', '|'), ('ము', '|'), ('ఖ', '|'), ('నా', 'U'), ('నా', 'U'), ('దా', 'U'), ('న', '|'), ('వో', 'U'), ('త్తా', 'U'), ('ల', '|'), ('తూ', 'U'), ('ల', '|'), ('క', '|'), ('రా', 'U'), ('ళ', 'U'), ('స్ఫు', '|'), ('ట', '|'), ('వ', 'U'), ('హ్ని', '|'), ('కీ', 'U'), ('ల', '|'), ('జ', '|'), ('య', '|'), ('శీ', 'U'), ('లా', 'U'), ('స', 'U'), ('ద్ద', '|'), ('యా', 'U'), ('వా', 'U'), ('ల', '|'), ('హే', 'U'), ('మ', '|'), ('క', '|'), ('న', 'U'), ('చ్చే', 'U'), ('ల', '|'), ('బు', '|'), ('ధా', 'U'), ('ను', '|'), ('పా', 'U'), ('ల', '|'), ('ర', '|'), ('ఘు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
         <is>
           <t>దురితధ్వాంతపతంగ! సంగరమహాదుర్వారగర్వాహితో-
 త్కర సేనాకదళీమతంగ! లసదేకాంతాత్మపంకేజసం-
@@ -609,32 +594,29 @@
 మ్రరమాలింగనసంగతాంగ! రఘురామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>[('దు', '|'), ('రి', '|'), ('త', 'U'), ('ధ్వాం', 'U'), ('త', '|'), ('ప', '|'), ('తం', 'U'), ('గ', '|'), ('సం', 'U'), ('గ', '|'), ('ర', '|'), ('మ', '|'), ('హా', 'U'), ('దు', 'U'), ('ర్వా', 'U'), ('ర', '|'), ('గ', 'U'), ('ర్వా', 'U'), ('హి', '|'), ('తో', 'U'), ('త్క', '|'), ('ర', '|'), ('సే', 'U'), ('నా', 'U'), ('క', '|'), ('ద', '|'), ('ళీ', 'U'), ('మ', '|'), ('తం', 'U'), ('గ', '|'), ('ల', '|'), ('స', '|'), ('దే', 'U'), ('కాం', 'U'), ('తా', 'U'), ('త్మ', '|'), ('పం', 'U'), ('కే', 'U'), ('జ', '|'), ('సం', 'U'), ('చ', '|'), ('ర', '|'), ('దు', 'U'), ('ద్య', 'U'), ('న్మ', '|'), ('ద', '|'), ('భృం', 'U'), ('గ', '|'), ('పుం', 'U'), ('గ', '|'), ('వ', '|'), ('ఘ', '|'), ('న', 'U'), ('శ్యా', 'U'), ('మాం', 'U'), ('గ', '|'), ('స', 'U'), ('ద్గం', 'U'), ('గ', '|'), ('క', '|'), ('మ్ర', '|'), ('ర', '|'), ('మా', 'U'), ('లిం', 'U'), ('గ', '|'), ('న', '|'), ('సం', 'U'), ('గ', '|'), ('తాం', 'U'), ('గ', '|'), ('ర', '|'), ('ఘు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
         <is>
           <t>దండం బీయదె నీకుఁ గైకొనుము దోర్దండాగ్రజాగ్రన్మహో-
 దండోత్తాలవిశాల దివ్యతరకోదండాగ్రనిర్ముక్త స-
@@ -642,32 +624,29 @@
 మాండవ్యాది తపోధనప్రణుత! రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>[('దం', 'U'), ('డం', 'U'), ('బీ', 'U'), ('య', '|'), ('దె', '|'), ('నీ', 'U'), ('కు', '|'), ('గై', 'U'), ('కొ', '|'), ('ను', '|'), ('ము', '|'), ('దో', 'U'), ('ర్దం', 'U'), ('డా', 'U'), ('గ్ర', '|'), ('జా', 'U'), ('గ్ర', 'U'), ('న్మ', '|'), ('హో', 'U'), ('దం', 'U'), ('డో', 'U'), ('త్తా', 'U'), ('ల', '|'), ('వి', '|'), ('శా', 'U'), ('ల', '|'), ('ది', 'U'), ('వ్య', '|'), ('త', '|'), ('ర', '|'), ('కో', 'U'), ('దం', 'U'), ('డా', 'U'), ('గ్ర', '|'), ('ని', '|'), ('ర్ము', 'U'), ('క్త', '|'), ('స', 'U'), ('త్కాం', 'U'), ('డ', 'U'), ('వ్రా', 'U'), ('త', '|'), ('వి', '|'), ('ఖం', 'U'), ('డి', '|'), ('తా', 'U'), ('హి', '|'), ('త', '|'), ('శి', '|'), ('రః', 'U'), ('కాం', 'U'), ('డా', 'U'), ('క', '|'), ('న', 'U'), ('త్కుం', 'U'), ('డ', '|'), ('లా', 'U'), ('మాం', 'U'), ('డ', 'U'), ('వ్యా', 'U'), ('ది', '|'), ('త', '|'), ('పో', 'U'), ('ధ', '|'), ('న', 'U'), ('ప్ర', '|'), ('ణు', '|'), ('త', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>వింతల్‍గాఁ గడు మీకు సత్కృతులు గావింతున్ దుషారాద్రిజా-
 కాంతాక్రాంతజటాంతరాళవిలుఠద్గంగాతరంగచ్ఛటో-
@@ -675,32 +654,29 @@
 మంతా! సంతతశాంతిమంత! జయరామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>[('విం', 'U'), ('త', 'U'), ('ల్గా', 'U'), ('గ', '|'), ('డు', '|'), ('మీ', 'U'), ('కు', '|'), ('స', 'U'), ('త్కృ', '|'), ('తు', '|'), ('లు', '|'), ('గా', 'U'), ('విం', 'U'), ('తున్', 'U'), ('దు', '|'), ('షా', 'U'), ('రా', 'U'), ('ద్రి', '|'), ('జా', 'U'), ('కాం', 'U'), ('తా', 'U'), ('క్రాం', 'U'), ('త', '|'), ('జ', '|'), ('టాం', 'U'), ('త', '|'), ('రా', 'U'), ('ళ', '|'), ('వి', '|'), ('లు', '|'), ('ఠ', 'U'), ('ద్గం', 'U'), ('గా', 'U'), ('త', '|'), ('రం', 'U'), ('గ', 'U'), ('చ్ఛ', '|'), ('టో', 'U'), ('త్క్రాం', 'U'), ('తా', 'U'), ('త్యం', 'U'), ('త', '|'), ('ఝ', '|'), ('ళం', 'U'), ('ఝ', '|'), ('ళ', 'U'), ('న్ని', '|'), ('న', '|'), ('ద', '|'), ('రం', 'U'), ('గ', 'U'), ('ద్ధా', 'U'), ('టి', '|'), ('మీ', 'U'), ('ఱం', 'U'), ('గ', '|'), ('సా', 'U'), ('మం', 'U'), ('తా', 'U'), ('సం', 'U'), ('త', '|'), ('త', '|'), ('శాం', 'U'), ('తి', '|'), ('మం', 'U'), ('త', '|'), ('జ', '|'), ('య', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
         <is>
           <t>రకపుం గావ్యకళాకలాపరచనాప్రాగల్భ్యసంసిద్ధికై
 ప్రకటప్రేమ భజింతు నీశ మకుటప్రస్ఫీతగంగాజలా-
@@ -708,32 +684,29 @@
 మ్మకవిశ్రేష్ఠు మదగ్రజున్ మదిని రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
           <t>[('ర', '|'), ('క', '|'), ('పుం', 'U'), ('గా', 'U'), ('వ్య', '|'), ('క', '|'), ('ళా', 'U'), ('క', '|'), ('లా', 'U'), ('ప', '|'), ('ర', '|'), ('చ', '|'), ('నా', 'U'), ('ప్రా', 'U'), ('గ', 'U'), ('ల్భ్య', '|'), ('సం', 'U'), ('సి', 'U'), ('ద్ధి', '|'), ('కై', 'U'), ('ప్ర', '|'), ('క', '|'), ('ట', 'U'), ('ప్రే', 'U'), ('మ', '|'), ('భ', '|'), ('జిం', 'U'), ('తు', '|'), ('నీ', 'U'), ('శ', '|'), ('మ', '|'), ('కు', '|'), ('ట', 'U'), ('ప్ర', 'U'), ('స్ఫీ', 'U'), ('త', '|'), ('గం', 'U'), ('గా', 'U'), ('జ', '|'), ('లా', 'U'), ('ధి', '|'), ('క', '|'), ('మా', 'U'), ('ధు', 'U'), ('ర్య', '|'), ('క', '|'), ('వి', 'U'), ('త్వ', '|'), ('ధూ', 'U'), ('ర్వ', '|'), ('హ', '|'), ('న', '|'), ('ధీ', 'U'), ('ది', 'U'), ('వ్య', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వా', 'U'), ('ఢ్య', '|'), ('ది', 'U'), ('మ్మ', '|'), ('క', '|'), ('వి', 'U'), ('శ్రే', 'U'), ('ష్ఠు', '|'), ('మ', '|'), ('ద', 'U'), ('గ్ర', '|'), ('జున్', 'U'), ('మ', '|'), ('ది', '|'), ('ని', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
         <is>
           <t>సకలాభీష్టఫలప్రదాయకుఁడవై చంచద్దయాశాలివై
 ప్రకటస్నేహరసార్ద్రమానసుఁడవై భంగీకృతానేకపా-
@@ -741,32 +714,29 @@
 మక చిత్తాబ్జమునన్ వసించు మొగి, రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('క', '|'), ('లా', 'U'), ('భీ', 'U'), ('ష్ట', '|'), ('ఫ', '|'), ('ల', 'U'), ('ప్ర', '|'), ('దా', 'U'), ('య', '|'), ('కు', '|'), ('డ', '|'), ('వై', 'U'), ('చం', 'U'), ('చ', 'U'), ('ద్ద', '|'), ('యా', 'U'), ('శా', 'U'), ('లి', '|'), ('వై', 'U'), ('ప్ర', '|'), ('క', '|'), ('ట', 'U'), ('స్నే', 'U'), ('హ', '|'), ('ర', '|'), ('సా', 'U'), ('ర్ద్ర', '|'), ('మా', 'U'), ('న', '|'), ('సు', '|'), ('డ', '|'), ('వై', 'U'), ('భం', 'U'), ('గీ', 'U'), ('కృ', '|'), ('తా', 'U'), ('నే', 'U'), ('క', '|'), ('పా', 'U'), ('త', '|'), ('క', '|'), ('ఘో', 'U'), ('రా', 'U'), ('మ', '|'), ('య', '|'), ('శా', 'U'), ('త్ర', '|'), ('వో', 'U'), ('త్క', '|'), ('రు', '|'), ('డ', '|'), ('వై', 'U'), ('ధా', 'U'), ('త్రీ', 'U'), ('సు', '|'), ('తం', 'U'), ('గూ', 'U'), ('డి', '|'), ('మా', 'U'), ('మ', '|'), ('క', '|'), ('చి', 'U'), ('త్తా', 'U'), ('బ్జ', '|'), ('ము', '|'), ('నన్', 'U'), ('వ', '|'), ('సిం', 'U'), ('చు', '|'), ('మొ', '|'), ('గి', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
         <is>
           <t>మణిపుంఖాంకితకంకపత్రచయ సమ్యగ్దివ్యతూణద్వయం-
 బణుమధ్యంబునఁ దళ్కు గుల్క ఖలదైత్యానీకహృద్భేదకృ-
@@ -774,32 +744,29 @@
 క్ష్మణుడు న్నీవును నంటి త్రిమ్మరుము రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('ణి', '|'), ('పుం', 'U'), ('ఖాం', 'U'), ('కి', '|'), ('త', '|'), ('కం', 'U'), ('క', '|'), ('ప', 'U'), ('త్ర', '|'), ('చ', '|'), ('య', '|'), ('స', 'U'), ('మ్య', 'U'), ('గ్ది', 'U'), ('వ్య', '|'), ('తూ', 'U'), ('ణ', 'U'), ('ద్వ', '|'), ('యం', 'U'), ('బ', '|'), ('ణు', '|'), ('మ', 'U'), ('ధ్యం', 'U'), ('బు', '|'), ('న', '|'), ('ద', 'U'), ('ళ్కు', '|'), ('గు', 'U'), ('ల్క', '|'), ('ఖ', '|'), ('ల', '|'), ('దై', 'U'), ('త్యా', 'U'), ('నీ', 'U'), ('క', '|'), ('హృ', 'U'), ('ద్భే', 'U'), ('ద', '|'), ('కృ', 'U'), ('ద్ధ', '|'), ('ణ', '|'), ('నీ', 'U'), ('యో', 'U'), ('గ్ర', '|'), ('క', '|'), ('ఠో', 'U'), ('ర', '|'), ('కా', 'U'), ('ర్ము', '|'), ('క', '|'), ('ము', '|'), ('చే', 'U'), ('తం', 'U'), ('బూ', 'U'), ('ని', '|'), ('నా', 'U'), ('వెం', 'U'), ('ట', '|'), ('ల', 'U'), ('క్ష్మ', '|'), ('ణు', '|'), ('డు', 'U'), ('న్నీ', 'U'), ('వు', '|'), ('ను', '|'), ('నం', 'U'), ('టి', 'U'), ('త్రి', 'U'), ('మ్మ', '|'), ('రు', '|'), ('ము', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
         <is>
           <t>పలుమాఱున్ భవదీయకావ్యరచనాప్రాగల్భ్య మొప్పార ని-
 న్గొలుతున్ మామక మానసాబ్జమున బొంకుల్ గావు నీ వెచ్చటం
@@ -807,32 +774,29 @@
 మలవిభ్రాజితమందరావయవ! రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('లు', '|'), ('మా', 'U'), ('ఱున్', 'U'), ('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', '|'), ('కా', 'U'), ('వ్య', '|'), ('ర', '|'), ('చ', '|'), ('నా', 'U'), ('ప్రా', 'U'), ('గ', 'U'), ('ల్భ్య', '|'), ('మొ', 'U'), ('ప్పా', 'U'), ('ర', '|'), ('ని', 'U'), ('న్గొ', '|'), ('లు', '|'), ('తున్', 'U'), ('మా', 'U'), ('మ', '|'), ('క', '|'), ('మా', 'U'), ('న', '|'), ('సా', 'U'), ('బ్జ', '|'), ('ము', '|'), ('న', '|'), ('బొం', 'U'), ('కుల్', 'U'), ('గా', 'U'), ('వు', '|'), ('నీ', 'U'), ('వె', 'U'), ('చ్చ', '|'), ('టం', 'U'), ('గ', '|'), ('ల', '|'), ('లో', 'U'), ('నం', 'U'), ('బొ', '|'), ('డ', '|'), ('క', 'U'), ('ట్ట', '|'), ('వి', 'U'), ('ట్టి', '|'), ('వ', '|'), ('గ', '|'), ('బా', 'U'), ('గా', 'U'), ('మే', 'U'), ('ల్బ', '|'), ('ళా', 'U'), ('శ్యా', 'U'), ('మ', '|'), ('కో', 'U'), ('మ', '|'), ('ల', '|'), ('వి', 'U'), ('భ్రా', 'U'), ('జి', '|'), ('త', '|'), ('మం', 'U'), ('ద', '|'), ('రా', 'U'), ('వ', '|'), ('య', '|'), ('వ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
         <is>
           <t>రఘువంశాంబుధిపూర్ణచంద్ర! విలసద్రాజన్యదేవేంద్ర! నా
 యఘసంఘంబులఁ బాఱఁద్రోలి భవదీయామేయకారుణ్యదృ-
@@ -840,32 +804,29 @@
 మఘవప్రస్తుతసద్గుణాభరణ! రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
           <t>[('ర', '|'), ('ఘు', '|'), ('వం', 'U'), ('శాం', 'U'), ('బు', '|'), ('ధి', '|'), ('పూ', 'U'), ('ర్ణ', '|'), ('చం', 'U'), ('ద్ర', '|'), ('వి', '|'), ('ల', '|'), ('స', '|'), ('ద్రా', 'U'), ('జ', 'U'), ('న్య', '|'), ('దే', 'U'), ('వేం', 'U'), ('ద్ర', '|'), ('నా', 'U'), ('య', '|'), ('ఘ', '|'), ('సం', 'U'), ('ఘం', 'U'), ('బు', '|'), ('ల', '|'), ('బా', 'U'), ('ఱ', '|'), ('ద్రో', 'U'), ('లి', '|'), ('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('యా', 'U'), ('మే', 'U'), ('య', '|'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('దృ', 'U'), ('ష్టి', '|'), ('ఘ', '|'), ('న', 'U'), ('ప్ర', 'U'), ('క్రి', '|'), ('య', '|'), ('జూ', 'U'), ('చి', '|'), ('యే', 'U'), ('లు', '|'), ('కొ', '|'), ('ను', '|'), ('మా', 'U'), ('సే', 'U'), ('విం', 'U'), ('తు', '|'), ('న', 'U'), ('త్యం', 'U'), ('త', '|'), ('మున్', 'U'), ('మ', '|'), ('ఘ', '|'), ('వ', 'U'), ('ప్ర', 'U'), ('స్తు', '|'), ('త', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణా', 'U'), ('భ', '|'), ('ర', '|'), ('ణ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
         <is>
           <t>గణుతింతున్ భవదీయ సద్గుణకథల్ కౌతూహలం బొప్పఁగాఁ
 బ్రణుతింతున్ సచరాచరాదిక మహాబ్రహ్మాండభాండచ్ఛటా-
@@ -873,32 +834,29 @@
 మణివంశాంబుధిశీతభాను! రఘురామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
           <t>[('గ', '|'), ('ణు', '|'), ('తిం', 'U'), ('తున్', 'U'), ('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణ', '|'), ('క', '|'), ('థల్', 'U'), ('కౌ', 'U'), ('తూ', 'U'), ('హ', '|'), ('లం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గా', 'U'), ('బ్ర', '|'), ('ణు', '|'), ('తిం', 'U'), ('తున్', 'U'), ('స', '|'), ('చ', '|'), ('రా', 'U'), ('చ', '|'), ('రా', 'U'), ('ది', '|'), ('క', '|'), ('మ', '|'), ('హా', 'U'), ('బ్ర', 'U'), ('హ్మాం', 'U'), ('డ', '|'), ('భాం', 'U'), ('డ', 'U'), ('చ్ఛ', '|'), ('టా', 'U'), ('గ', '|'), ('ణి', '|'), ('త', 'U'), ('ప్రా', 'U'), ('ణి', '|'), ('జ', '|'), ('నాం', 'U'), ('త', '|'), ('రా', 'U'), ('త్మ', '|'), ('వ', '|'), ('ని', '|'), ('వే', 'U'), ('డ్కన్', 'U'), ('సం', 'U'), ('త', '|'), ('తం', 'U'), ('బున్', 'U'), ('న', '|'), ('భో', 'U'), ('మ', '|'), ('ణి', '|'), ('వం', 'U'), ('శాం', 'U'), ('బు', '|'), ('ధి', '|'), ('శీ', 'U'), ('త', '|'), ('భా', 'U'), ('ను', '|'), ('ర', '|'), ('ఘు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
         <is>
           <t>సారాసారవిచార! ధీరజనతాసంరక్షణాధార! స-
 త్కారుణ్యాకరమూర్తివంచు నెద నత్యంతంబు మీ దివ్యశృం-
@@ -906,32 +864,29 @@
 మారీచప్రమదప్రహారశర! రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
           <t>[('సా', 'U'), ('రా', 'U'), ('సా', 'U'), ('ర', '|'), ('వి', '|'), ('చా', 'U'), ('ర', '|'), ('ధీ', 'U'), ('ర', '|'), ('జ', '|'), ('న', '|'), ('తా', 'U'), ('సం', 'U'), ('ర', 'U'), ('క్ష', '|'), ('ణా', 'U'), ('ధా', 'U'), ('ర', '|'), ('స', 'U'), ('త్కా', 'U'), ('రు', 'U'), ('ణ్యా', 'U'), ('క', '|'), ('ర', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వం', 'U'), ('చు', '|'), ('నె', '|'), ('ద', '|'), ('న', 'U'), ('త్యం', 'U'), ('తం', 'U'), ('బు', '|'), ('మీ', 'U'), ('ది', 'U'), ('వ్య', '|'), ('శృం', 'U'), ('గా', 'U'), ('రా', 'U'), ('గా', 'U'), ('ర', '|'), ('ప', '|'), ('దా', 'U'), ('ర', '|'), ('విం', 'U'), ('ద', '|'), ('ము', '|'), ('లు', '|'), ('వే', 'U'), ('డ్కన్', 'U'), ('గొ', 'U'), ('ల్తు', '|'), ('నన్', 'U'), ('బ్రో', 'U'), ('వు', '|'), ('మీ', 'U'), ('మా', 'U'), ('రీ', 'U'), ('చ', 'U'), ('ప్ర', '|'), ('మ', '|'), ('ద', 'U'), ('ప్ర', '|'), ('హా', 'U'), ('ర', '|'), ('శ', '|'), ('ర', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
         <is>
           <t>మిహికాంశూపమసుందరాననముతో మేలీను కందోయితో
 నహిజిద్రత్నవినీలవిగ్రహముతో నంచత్కిరీటంబుతో
@@ -939,32 +894,29 @@
 మహసుత్రామముఖామరప్రణుత! రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
           <t>[('మి', '|'), ('హి', '|'), ('కాం', 'U'), ('శూ', 'U'), ('ప', '|'), ('మ', '|'), ('సుం', 'U'), ('ద', '|'), ('రా', 'U'), ('న', '|'), ('న', '|'), ('ము', '|'), ('తో', 'U'), ('మే', 'U'), ('లీ', 'U'), ('ను', '|'), ('కం', 'U'), ('దో', 'U'), ('యి', '|'), ('తో', 'U'), ('న', '|'), ('హి', '|'), ('జి', '|'), ('ద్ర', 'U'), ('త్న', '|'), ('వి', '|'), ('నీ', 'U'), ('ల', '|'), ('వి', 'U'), ('గ్ర', '|'), ('హ', '|'), ('ము', '|'), ('తో', 'U'), ('నం', 'U'), ('చ', 'U'), ('త్కి', '|'), ('రీ', 'U'), ('టం', 'U'), ('బు', '|'), ('తో', 'U'), ('వి', '|'), ('హ', '|'), ('గా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('నె', 'U'), ('క్కి', '|'), ('నా', 'U'), ('యె', '|'), ('దు', '|'), ('టి', '|'), ('కిన్', 'U'), ('వి', 'U'), ('చ్చే', 'U'), ('య', '|'), ('వే', 'U'), ('యో', 'U'), ('పి', '|'), ('తా', 'U'), ('మ', '|'), ('హ', '|'), ('సు', 'U'), ('త్రా', 'U'), ('మ', '|'), ('ము', '|'), ('ఖా', 'U'), ('మ', '|'), ('ర', 'U'), ('ప్ర', '|'), ('ణు', '|'), ('త', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
         <is>
           <t>కంజాతప్రభవాండభాండచయరంగచ్చేతనాచేతనా-
 ళిం జెన్నారఁగఁ బ్రోదిసేతువని హాళిన్ ధీజనుల్ దెల్ప హృత్
@@ -972,32 +924,29 @@
 మంజుశ్రీకరుణాకటాక్షమున రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
           <t>[('కం', 'U'), ('జా', 'U'), ('త', 'U'), ('ప్ర', '|'), ('భ', '|'), ('వాం', 'U'), ('డ', '|'), ('భాం', 'U'), ('డ', '|'), ('చ', '|'), ('య', '|'), ('రం', 'U'), ('గ', 'U'), ('చ్చే', 'U'), ('త', '|'), ('నా', 'U'), ('చే', 'U'), ('త', '|'), ('నా', 'U'), ('ళిం', 'U'), ('జె', 'U'), ('న్నా', 'U'), ('ర', '|'), ('గ', 'U'), ('బ్రో', 'U'), ('ది', '|'), ('సే', 'U'), ('తు', '|'), ('వ', '|'), ('ని', '|'), ('హా', 'U'), ('ళిన్', 'U'), ('ధీ', 'U'), ('జ', '|'), ('నుల్', 'U'), ('దె', 'U'), ('ల్ప', '|'), ('హృత్', 'U'), ('కం', 'U'), ('జా', 'U'), ('తం', 'U'), ('బు', '|'), ('న', '|'), ('మి', 'U'), ('మ్ము', '|'), ('గొ', 'U'), ('ల్తు', '|'), ('న', '|'), ('ను', '|'), ('వే', 'U'), ('డ్కన్', 'U'), ('వే', 'U'), ('గ', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('పు', '|'), ('మీ', 'U'), ('మం', 'U'), ('జు', 'U'), ('శ్రీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('ము', '|'), ('న', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
         <is>
           <t>తళుకుం బంగరుకామ గుబ్బగొడు గందంబొప్ప శత్రుఘ్నుఁడ-
 ర్మలి బట్టన్ భరతుండు చామరము గూర్మి న్వీవఁగా లక్ష్మణుం-
@@ -1005,32 +954,29 @@
 ర్మలలీలం గొలువుండు నిన్ దలఁతు రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ళు', '|'), ('కుం', 'U'), ('బం', 'U'), ('గ', '|'), ('రు', '|'), ('కా', 'U'), ('మ', '|'), ('గు', 'U'), ('బ్బ', '|'), ('గొ', '|'), ('డు', '|'), ('గం', 'U'), ('దం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('శ', 'U'), ('త్రు', 'U'), ('ఘ్ను', '|'), ('డ', '|'), ('ర్మ', '|'), ('లి', '|'), ('బ', '|'), ('ట్టన్', 'U'), ('భ', '|'), ('ర', '|'), ('తుం', 'U'), ('డు', '|'), ('చా', 'U'), ('మ', '|'), ('ర', '|'), ('ము', '|'), ('గూ', 'U'), ('ర్మి', 'U'), ('న్వీ', 'U'), ('వ', '|'), ('గా', 'U'), ('ల', 'U'), ('క్ష్మ', '|'), ('ణుం', 'U'), ('డ', '|'), ('ల', '|'), ('దుం', 'U'), ('దూ', 'U'), ('పు', '|'), ('ల', '|'), ('వి', 'U'), ('ల్లు', '|'), ('డా', 'U'), ('ల్ప', '|'), ('గ', '|'), ('పి', '|'), ('సే', 'U'), ('నా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('రుల్', 'U'), ('గొ', 'U'), ('ల్వ', '|'), ('ని', '|'), ('ర్మ', '|'), ('ల', '|'), ('లీ', 'U'), ('లం', 'U'), ('గొ', '|'), ('లు', '|'), ('వుం', 'U'), ('డు', '|'), ('నిన్', 'U'), ('ద', '|'), ('ల', '|'), ('తు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
         <is>
           <t>నిక్కంబారయఁ దావకాంఘ్రివిలసన్నీరేరుహద్వంద్వమే
 దిక్కెల్లప్పుడు మాకటంచు మదినెంతే వేడ్క భావించెదన్
@@ -1038,32 +984,29 @@
 మ్యక్కారుణ్యకటాక్షవీక్ష నను రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
           <t>[('ని', 'U'), ('క్కం', 'U'), ('బా', 'U'), ('ర', '|'), ('య', '|'), ('దా', 'U'), ('వ', '|'), ('కాం', 'U'), ('ఘ్రి', '|'), ('వి', '|'), ('ల', '|'), ('స', 'U'), ('న్నీ', 'U'), ('రే', 'U'), ('రు', '|'), ('హ', 'U'), ('ద్వం', 'U'), ('ద్వ', '|'), ('మే', 'U'), ('ది', 'U'), ('క్కె', 'U'), ('ల్ల', 'U'), ('ప్పు', '|'), ('డు', '|'), ('మా', 'U'), ('క', '|'), ('టం', 'U'), ('చు', '|'), ('మ', '|'), ('ది', '|'), ('నెం', 'U'), ('తే', 'U'), ('వే', 'U'), ('డ్క', '|'), ('భా', 'U'), ('విం', 'U'), ('చె', '|'), ('దన్', 'U'), ('జి', '|'), ('క్కుల్', 'U'), ('ప', 'U'), ('న్న', '|'), ('క', '|'), ('న', 'U'), ('మ్మి', '|'), ('కి', 'U'), ('చ్చి', '|'), ('స', '|'), ('ర', '|'), ('గం', 'U'), ('జే', 'U'), ('ప', 'U'), ('ట్టి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('పు', '|'), ('స', 'U'), ('మ్య', 'U'), ('క్కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('వీ', 'U'), ('క్ష', '|'), ('న', '|'), ('ను', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
         <is>
           <t>అతసీపుష్పసమానకోమలవినీలాంగున్ సముద్యన్మహో-
 న్నతకోదండనిషంగగంగు బలవన్నక్తంచరాఖర్వప-
@@ -1071,32 +1014,29 @@
 మ్యతరాపాంగుని నిన్ భజింతు మది రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('త', '|'), ('సీ', 'U'), ('పు', 'U'), ('ష్ప', '|'), ('స', '|'), ('మా', 'U'), ('న', '|'), ('కో', 'U'), ('మ', '|'), ('ల', '|'), ('వి', '|'), ('నీ', 'U'), ('లాం', 'U'), ('గున్', 'U'), ('స', '|'), ('ము', 'U'), ('ద్య', 'U'), ('న్మ', '|'), ('హో', 'U'), ('న్న', '|'), ('త', '|'), ('కో', 'U'), ('దం', 'U'), ('డ', '|'), ('ని', '|'), ('షం', 'U'), ('గ', '|'), ('గం', 'U'), ('గు', '|'), ('బ', '|'), ('ల', '|'), ('వ', 'U'), ('న్న', 'U'), ('క్తం', 'U'), ('చ', '|'), ('రా', 'U'), ('ఖ', 'U'), ('ర్వ', '|'), ('ప', 'U'), ('ర్వ', '|'), ('త', '|'), ('జీ', 'U'), ('మూ', 'U'), ('త', '|'), ('తు', '|'), ('రం', 'U'), ('గు', '|'), ('గిం', 'U'), ('క', '|'), ('ర', '|'), ('జ', '|'), ('న', 'U'), ('వ్రా', 'U'), ('తా', 'U'), ('వ', '|'), ('నా', 'U'), ('త్యం', 'U'), ('త', '|'), ('ర', 'U'), ('మ్య', '|'), ('త', '|'), ('రా', 'U'), ('పాం', 'U'), ('గు', '|'), ('ని', '|'), ('నిన్', 'U'), ('భ', '|'), ('జిం', 'U'), ('తు', '|'), ('మ', '|'), ('ది', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
         <is>
           <t>ఆర్తత్రాణపరాయణుండవని నిన్నత్యంతమున్ సజ్జను-
 ల్గీర్తింపన్ విని తావకీన పదనాళీకద్వయంబాత్మ వి-
@@ -1104,32 +1044,29 @@
 మార్తాండద్విజరాజసన్నయన! రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('ర్త', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('ప', '|'), ('రా', 'U'), ('య', '|'), ('ణుం', 'U'), ('డ', '|'), ('వ', '|'), ('ని', '|'), ('ని', 'U'), ('న్న', 'U'), ('త్యం', 'U'), ('త', '|'), ('మున్', 'U'), ('స', 'U'), ('జ్జ', '|'), ('ను', 'U'), ('ల్గీ', 'U'), ('ర్తిం', 'U'), ('పన్', 'U'), ('వి', '|'), ('ని', '|'), ('తా', 'U'), ('వ', '|'), ('కీ', 'U'), ('న', '|'), ('ప', '|'), ('ద', '|'), ('నా', 'U'), ('ళీ', 'U'), ('క', 'U'), ('ద్వ', '|'), ('యం', 'U'), ('బా', 'U'), ('త్మ', '|'), ('వి', 'U'), ('స్ఫూ', 'U'), ('ర్తిం', 'U'), ('జెం', 'U'), ('ద', '|'), ('గ', '|'), ('నెం', 'U'), ('తు', '|'), ('నె', 'U'), ('ల్ల', '|'), ('పు', '|'), ('డు', '|'), ('న', 'U'), ('న్బో', 'U'), ('షిం', 'U'), ('పు', '|'), ('మీ', 'U'), ('స', 'U'), ('త్కృ', '|'), ('పన్', 'U'), ('మా', 'U'), ('ర్తాం', 'U'), ('డ', 'U'), ('ద్వి', '|'), ('జ', '|'), ('రా', 'U'), ('జ', '|'), ('స', 'U'), ('న్న', '|'), ('య', '|'), ('న', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
         <is>
           <t>మదనాగాశ్వశతాంగ కాంచనకనన్మాణిక్యభూషా మృగీ
 మదదివ్యాంబరచామరధ్వజ లసన్మంజూషికాందోళికా-
@@ -1137,32 +1074,29 @@
 మదిలో నెప్పుడు గొల్చు మానవుఁడు రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('ద', '|'), ('నా', 'U'), ('గా', 'U'), ('శ్వ', '|'), ('శ', '|'), ('తాం', 'U'), ('గ', '|'), ('కాం', 'U'), ('చ', '|'), ('న', '|'), ('క', '|'), ('న', 'U'), ('న్మా', 'U'), ('ణి', 'U'), ('క్య', '|'), ('భూ', 'U'), ('షా', 'U'), ('మృ', '|'), ('గీ', 'U'), ('మ', '|'), ('ద', '|'), ('ది', 'U'), ('వ్యాం', 'U'), ('బ', '|'), ('ర', '|'), ('చా', 'U'), ('మ', '|'), ('ర', 'U'), ('ధ్వ', '|'), ('జ', '|'), ('ల', '|'), ('స', 'U'), ('న్మం', 'U'), ('జూ', 'U'), ('షి', '|'), ('కాం', 'U'), ('దో', 'U'), ('ళి', '|'), ('కా', 'U'), ('మృ', '|'), ('దు', '|'), ('త', 'U'), ('ల్పా', 'U'), ('ర్థ', '|'), ('స', '|'), ('మృ', 'U'), ('ద్ధి', '|'), ('గ', 'U'), ('ల్గి', '|'), ('పి', '|'), ('ద', '|'), ('ప', 'U'), ('న్నీ', 'U'), ('స', 'U'), ('న్ని', '|'), ('ధిం', 'U'), ('జే', 'U'), ('రు', '|'), ('నిన్', 'U'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('నె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('గొ', 'U'), ('ల్చు', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('డు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
         <is>
           <t>శ్రీకంఠాంబుజసంభవేంద్రరవిశోచిష్కేశముఖ్యామరా-
 నీకంబుల్ గడుభక్తి నిన్ గొలిచి పూన్కిన్ ధన్యులైనారు నేఁ-
@@ -1170,32 +1104,29 @@
 మాకుం బ్రాపును దాపు నీవగుచు రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('కం', 'U'), ('ఠాం', 'U'), ('బు', '|'), ('జ', '|'), ('సం', 'U'), ('భ', '|'), ('వేం', 'U'), ('ద్ర', '|'), ('ర', '|'), ('వి', '|'), ('శో', 'U'), ('చి', 'U'), ('ష్కే', 'U'), ('శ', '|'), ('ము', 'U'), ('ఖ్యా', 'U'), ('మ', '|'), ('రా', 'U'), ('నీ', 'U'), ('కం', 'U'), ('బుల్', 'U'), ('గ', '|'), ('డు', '|'), ('భ', 'U'), ('క్తి', '|'), ('నిన్', 'U'), ('గొ', '|'), ('లి', '|'), ('చి', '|'), ('పూ', 'U'), ('న్కిన్', 'U'), ('ధ', 'U'), ('న్యు', '|'), ('లై', 'U'), ('నా', 'U'), ('రు', '|'), ('నే', 'U'), ('డా', 'U'), ('కాం', 'U'), ('క్షన్', 'U'), ('భ', '|'), ('జి', '|'), ('యిం', 'U'), ('తు', '|'), ('మే', 'U'), ('మ', '|'), ('ఱ', '|'), ('క', '|'), ('చి', 'U'), ('త్తా', 'U'), ('నం', 'U'), ('ద', '|'), ('మొం', 'U'), ('దిం', 'U'), ('పు', '|'), ('మా', 'U'), ('మా', 'U'), ('కుం', 'U'), ('బ్రా', 'U'), ('పు', '|'), ('ను', '|'), ('దా', 'U'), ('పు', '|'), ('నీ', 'U'), ('వ', '|'), ('గు', '|'), ('చు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
         <is>
           <t>కరిరా, జార్జున, పుండరీక, శుక, గంగానందన వ్యాసులున్
 పరమాధీశ, బలీంద్ర, మారుతసుతుల్, సంప్రీతి సద్భక్తి మీ
@@ -1203,32 +1134,29 @@
 స్మరకోటిప్రతిమానరూపయుత రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('రి', '|'), ('రా', 'U'), ('జా', 'U'), ('ర్జు', '|'), ('న', '|'), ('పుం', 'U'), ('డ', '|'), ('రీ', 'U'), ('క', '|'), ('శు', '|'), ('క', '|'), ('గం', 'U'), ('గా', 'U'), ('నం', 'U'), ('ద', '|'), ('న', 'U'), ('వ్యా', 'U'), ('సు', '|'), ('లున్', 'U'), ('ప', '|'), ('ర', '|'), ('మా', 'U'), ('ధీ', 'U'), ('శ', '|'), ('బ', '|'), ('లీం', 'U'), ('ద్ర', '|'), ('మా', 'U'), ('రు', '|'), ('త', '|'), ('సు', '|'), ('తు', 'U'), ('ల్సం', 'U'), ('ప్రీ', 'U'), ('తి', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('మీ', 'U'), ('ప', '|'), ('ర', '|'), ('మాం', 'U'), ('ఘ్రి', 'U'), ('ద్వ', '|'), ('య', '|'), ('చిం', 'U'), ('త', '|'), ('నా', 'U'), ('భి', '|'), ('ర', '|'), ('తి', '|'), ('మై', 'U'), ('బ్రా', 'U'), ('పిం', 'U'), ('చి', '|'), ('రౌ', 'U'), ('స', 'U'), ('ద్గ', '|'), ('తిన్', 'U'), ('స్మ', '|'), ('ర', '|'), ('కో', 'U'), ('టి', 'U'), ('ప్ర', '|'), ('తి', '|'), ('మా', 'U'), ('న', '|'), ('రూ', 'U'), ('ప', '|'), ('యు', '|'), ('త', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
         <is>
           <t>అహితార్తుల్ వెడఁబాయు లేము లెడలున్ వ్యాధుల్ దొలంగు న్నవ-
 గ్రహదోషంబులు శాంతిఁ బొందుఁ గలుషవ్రాతంబు జాఱున్ శుభా-
@@ -1236,32 +1164,29 @@
 మహితోద్దండతరప్రతాపగుణ! రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('హి', '|'), ('తా', 'U'), ('ర్తుల్', 'U'), ('వె', '|'), ('డ', '|'), ('బా', 'U'), ('యు', '|'), ('లే', 'U'), ('ము', '|'), ('లె', '|'), ('డ', '|'), ('లున్', 'U'), ('వ్యా', 'U'), ('ధుల్', 'U'), ('దొ', '|'), ('లం', 'U'), ('గు', 'U'), ('న్న', '|'), ('వ', 'U'), ('గ్ర', '|'), ('హ', '|'), ('దో', 'U'), ('షం', 'U'), ('బు', '|'), ('లు', '|'), ('శాం', 'U'), ('తి', '|'), ('బొం', 'U'), ('దు', '|'), ('గ', '|'), ('లు', '|'), ('ష', 'U'), ('వ్రా', 'U'), ('తం', 'U'), ('బు', '|'), ('జా', 'U'), ('ఱున్', 'U'), ('శు', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('మౌ', 'U'), ('తా', 'U'), ('వ', '|'), ('క', '|'), ('ది', 'U'), ('వ్య', '|'), ('నా', 'U'), ('మ', '|'), ('మె', '|'), ('ల', '|'), ('మిన్', 'U'), ('వా', 'U'), ('క్రు', 'U'), ('చ్చి', '|'), ('నన్', 'U'), ('ధా', 'U'), ('త్రి', '|'), ('పై', 'U'), ('మ', '|'), ('హి', '|'), ('తో', 'U'), ('ద్దం', 'U'), ('డ', '|'), ('త', '|'), ('ర', 'U'), ('ప్ర', '|'), ('తా', 'U'), ('ప', '|'), ('గు', '|'), ('ణ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
         <is>
           <t>గర్గాగస్త్య వసిష్ఠశుక మార్కండేయగాధేయు లం-
 తర్గాఢాధికశత్రుశిక్షణకళాధౌరేయతాబుద్ధి సం-
@@ -1269,32 +1194,29 @@
 న్మార్గస్ఫాయదురఃకవాటతట! రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
           <t>[('గ', 'U'), ('ర్గా', 'U'), ('గ', 'U'), ('స్త్య', '|'), ('వ', '|'), ('సి', 'U'), ('ష్ఠ', '|'), ('శు', '|'), ('క', '|'), ('మా', 'U'), ('ర్కం', 'U'), ('డే', 'U'), ('య', '|'), ('గా', 'U'), ('ధే', 'U'), ('యు', '|'), ('లం', 'U'), ('త', 'U'), ('ర్గా', 'U'), ('ఢా', 'U'), ('ధి', '|'), ('క', '|'), ('శ', 'U'), ('త్రు', '|'), ('శి', 'U'), ('క్ష', '|'), ('ణ', '|'), ('క', '|'), ('ళా', 'U'), ('ధౌ', 'U'), ('రే', 'U'), ('య', '|'), ('తా', 'U'), ('బు', 'U'), ('ద్ధి', '|'), ('సం', 'U'), ('స', 'U'), ('ర్గ', 'U'), ('ప్ర', 'U'), ('క్రి', '|'), ('య', '|'), ('మి', 'U'), ('మ్ము', '|'), ('గొ', 'U'), ('ల్తు', '|'), ('రు', '|'), ('గ', '|'), ('దా', 'U'), ('క్ష్మా', 'U'), ('క', 'U'), ('న్య', '|'), ('కో', 'U'), ('రో', 'U'), ('జ', '|'), ('స', 'U'), ('న్మా', 'U'), ('ర్గ', 'U'), ('స్ఫా', 'U'), ('య', '|'), ('దు', '|'), ('రః', 'U'), ('క', '|'), ('వా', 'U'), ('ట', '|'), ('త', '|'), ('ట', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
         <is>
           <t>అకలంకాయతభోగభాగ్యదము నిత్యానందసంధానహే-
 తుక మాభీలతరాఘమేఘఘనవాతూలంబు ముక్తిప్రదా-
@@ -1302,32 +1224,29 @@
 మకమంత్రంబు భళీ! భవన్మహిమ! రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('క', '|'), ('లం', 'U'), ('కా', 'U'), ('య', '|'), ('త', '|'), ('భో', 'U'), ('గ', '|'), ('భా', 'U'), ('గ్య', '|'), ('ద', '|'), ('ము', '|'), ('ని', 'U'), ('త్యా', 'U'), ('నం', 'U'), ('ద', '|'), ('సం', 'U'), ('ధా', 'U'), ('న', '|'), ('హే', 'U'), ('తు', '|'), ('క', '|'), ('మా', 'U'), ('భీ', 'U'), ('ల', '|'), ('త', '|'), ('రా', 'U'), ('ఘ', '|'), ('మే', 'U'), ('ఘ', '|'), ('ఘ', '|'), ('న', '|'), ('వా', 'U'), ('తూ', 'U'), ('లం', 'U'), ('బు', '|'), ('ము', 'U'), ('క్తి', 'U'), ('ప్ర', '|'), ('దా', 'U'), ('య', '|'), ('క', '|'), ('మ', 'U'), ('త్యం', 'U'), ('త', '|'), ('ప', '|'), ('వి', 'U'), ('త్ర', '|'), ('మెం', 'U'), ('చ', '|'), ('ని', '|'), ('ల', '|'), ('నా', 'U'), ('హా', 'U'), ('తా', 'U'), ('ర', '|'), ('క', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('నా', 'U'), ('మ', '|'), ('క', '|'), ('మం', 'U'), ('త్రం', 'U'), ('బు', '|'), ('భ', '|'), ('ళీ', 'U'), ('భ', '|'), ('వ', 'U'), ('న్మ', '|'), ('హి', '|'), ('మ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
         <is>
           <t>ఇనుఁ డద్దంబగు నగ్ని నీరగు భుజగేంద్రుండు పూదండయౌ
 వనధుల్ పల్వలపంక్తులే జలధరాధ్వం బిల్లెయౌ రాజయో-
@@ -1335,32 +1254,29 @@
 మ నెదం బూని భజించు ధన్యులకు రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
           <t>[('ఇ', '|'), ('ను', '|'), ('డ', 'U'), ('ద్దం', 'U'), ('బ', '|'), ('గు', '|'), ('న', 'U'), ('గ్ని', '|'), ('నీ', 'U'), ('ర', '|'), ('గు', '|'), ('భు', '|'), ('జ', '|'), ('గేం', 'U'), ('ద్రుం', 'U'), ('డు', '|'), ('పూ', 'U'), ('దం', 'U'), ('డ', '|'), ('యౌ', 'U'), ('వ', '|'), ('న', '|'), ('ధుల్', 'U'), ('ప', 'U'), ('ల్వ', '|'), ('ల', '|'), ('పం', 'U'), ('క్తు', '|'), ('లే', 'U'), ('జ', '|'), ('ల', '|'), ('ధ', '|'), ('రా', 'U'), ('ధ్వం', 'U'), ('బి', 'U'), ('ల్లె', '|'), ('యౌ', 'U'), ('రా', 'U'), ('జ', '|'), ('యో', 'U'), ('గ', '|'), ('ని', '|'), ('రూ', 'U'), ('ఢ', 'U'), ('స్థి', '|'), ('తి', '|'), ('దా', 'U'), ('వ', '|'), ('కీ', 'U'), ('న', '|'), ('ప', '|'), ('ద', '|'), ('యు', 'U'), ('గ్మం', 'U'), ('బె', 'U'), ('ల్ల', '|'), ('కా', 'U'), ('లం', 'U'), ('బు', 'U'), ('ప్రే', 'U'), ('మ', '|'), ('నె', '|'), ('దం', 'U'), ('బూ', 'U'), ('ని', '|'), ('భ', '|'), ('జిం', 'U'), ('చు', '|'), ('ధ', 'U'), ('న్యు', '|'), ('ల', '|'), ('కు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
         <is>
           <t>ముదమొప్పార నిరంతరంబు బలవన్మోక్షప్రదామేయభా-
 స్వదుదలచ్ఛవదంఘ్రితామరససేవాసక్తచిత్తంబు దు-
@@ -1368,32 +1284,29 @@
 మదనోర్వీజము చెంతకుం జనునె రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
           <t>[('ము', '|'), ('ద', '|'), ('మొ', 'U'), ('ప్పా', 'U'), ('ర', '|'), ('ని', '|'), ('రం', 'U'), ('త', '|'), ('రం', 'U'), ('బు', '|'), ('బ', '|'), ('ల', '|'), ('వ', 'U'), ('న్మో', 'U'), ('క్ష', 'U'), ('ప్ర', '|'), ('దా', 'U'), ('మే', 'U'), ('య', '|'), ('భా', 'U'), ('స్వ', '|'), ('దు', '|'), ('ద', '|'), ('ల', 'U'), ('చ్ఛ', '|'), ('వ', '|'), ('దం', 'U'), ('ఘ్రి', '|'), ('తా', 'U'), ('మ', '|'), ('ర', '|'), ('స', '|'), ('సే', 'U'), ('వా', 'U'), ('స', 'U'), ('క్త', '|'), ('చి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('దు', '|'), ('ర్మ', '|'), ('దు', '|'), ('లం', 'U'), ('జే', 'U'), ('రు', '|'), ('నే', 'U'), ('పా', 'U'), ('రి', '|'), ('జా', 'U'), ('త', '|'), ('సు', '|'), ('మ', '|'), ('నో', 'U'), ('మ', 'U'), ('త్త', 'U'), ('ద్వి', '|'), ('రే', 'U'), ('ఫం', 'U'), ('బు', '|'), ('దా', 'U'), ('మ', '|'), ('ద', '|'), ('నో', 'U'), ('ర్వీ', 'U'), ('జ', '|'), ('ము', '|'), ('చెం', 'U'), ('త', '|'), ('కుం', 'U'), ('జ', '|'), ('ను', '|'), ('నె', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
         <is>
           <t>ఖండించున్ బహుజన్మసంచితచలద్గాఢోగ్రదోషావలిం
 జండప్రక్రియ శైలజావినుతభాస్వచ్చారుదివ్యన్మహో-
@@ -1401,32 +1314,29 @@
 ష్మాండవ్రాతఘనాఘనశ్వనన రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
           <t>[('ఖం', 'U'), ('డిం', 'U'), ('చున్', 'U'), ('బ', '|'), ('హు', '|'), ('జ', 'U'), ('న్మ', '|'), ('సం', 'U'), ('చి', '|'), ('త', '|'), ('చ', '|'), ('ల', 'U'), ('ద్గా', 'U'), ('ఢో', 'U'), ('గ్ర', '|'), ('దో', 'U'), ('షా', 'U'), ('వ', '|'), ('లిం', 'U'), ('జం', 'U'), ('డ', 'U'), ('ప్ర', 'U'), ('క్రి', '|'), ('య', '|'), ('శై', 'U'), ('ల', '|'), ('జా', 'U'), ('వి', '|'), ('ను', '|'), ('త', '|'), ('భా', 'U'), ('స్వ', 'U'), ('చ్చా', 'U'), ('రు', '|'), ('ది', 'U'), ('వ్య', 'U'), ('న్మ', '|'), ('హో', 'U'), ('ద్దం', 'U'), ('డ', 'U'), ('శ్రీ', 'U'), ('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', '|'), ('నా', 'U'), ('మ', '|'), ('మి', '|'), ('ల', '|'), ('మీ', 'U'), ('దన్', 'U'), ('భూ', 'U'), ('త', '|'), ('భే', 'U'), ('తా', 'U'), ('ళ', '|'), ('కూ', 'U'), ('ష్మాం', 'U'), ('డ', 'U'), ('వ్రా', 'U'), ('త', '|'), ('ఘ', '|'), ('నా', 'U'), ('ఘ', '|'), ('న', 'U'), ('శ్వ', '|'), ('న', '|'), ('న', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
         <is>
           <t>సారాసారకృపాకటాక్షమున నిచ్చల్ భూర్భువస్వః త్రిలో-
 కారూఢాఖిలజంతుజాలముల నెయ్యం బొప్పఁగాఁ బ్రోచు ని-
@@ -1434,32 +1344,29 @@
 స్మారభ్రాంతిమదాత్మమూఢు లిల రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
           <t>[('సా', 'U'), ('రా', 'U'), ('సా', 'U'), ('ర', '|'), ('కృ', '|'), ('పా', 'U'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('ము', '|'), ('న', '|'), ('ని', '|'), ('చ్చల్', 'U'), ('భూ', 'U'), ('ర్భు', '|'), ('వ', 'U'), ('స్వః', 'U'), ('త్రి', '|'), ('లో', 'U'), ('కా', 'U'), ('రూ', 'U'), ('ఢా', 'U'), ('ఖి', '|'), ('ల', '|'), ('జం', 'U'), ('తు', '|'), ('జా', 'U'), ('ల', '|'), ('ము', '|'), ('ల', '|'), ('నె', 'U'), ('య్యం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గా', 'U'), ('బ్రో', 'U'), ('చు', '|'), ('ని', 'U'), ('న్నా', 'U'), ('రా', 'U'), ('ధిం', 'U'), ('చి', '|'), ('సు', '|'), ('ఖిం', 'U'), ('ప', '|'), ('లే', 'U'), ('క', '|'), ('శి', '|'), ('ల', '|'), ('లం', 'U'), ('బ్రా', 'U'), ('ర్థిం', 'U'), ('తు', '|'), ('రెం', 'U'), ('తే', 'U'), ('న', '|'), ('ప', 'U'), ('స్మా', 'U'), ('ర', 'U'), ('భ్రాం', 'U'), ('తి', '|'), ('మ', '|'), ('దా', 'U'), ('త్మ', '|'), ('మూ', 'U'), ('ఢు', '|'), ('లి', '|'), ('ల', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
         <is>
           <t>సరసీజాతభవాభవామరుల్ చర్చింప మీ మాయ గా-
 నరటంచున్ సతతంబు ప్రాఁజదువులు న్నానాపురాణంబులున్
@@ -1467,32 +1374,29 @@
 మరిపోతుల్ నరులెట్లు గాంచెదరు? రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('ర', '|'), ('సీ', 'U'), ('జా', 'U'), ('త', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('రుల్', 'U'), ('చ', 'U'), ('ర్చిం', 'U'), ('ప', '|'), ('మీ', 'U'), ('మా', 'U'), ('య', '|'), ('గా', 'U'), ('న', '|'), ('ర', '|'), ('టం', 'U'), ('చున్', 'U'), ('స', '|'), ('త', '|'), ('తం', 'U'), ('బు', 'U'), ('ప్రా', 'U'), ('జ', '|'), ('దు', '|'), ('వు', '|'), ('లు', 'U'), ('న్నా', 'U'), ('నా', 'U'), ('పు', '|'), ('రా', 'U'), ('ణం', 'U'), ('బు', '|'), ('లున్', 'U'), ('స', '|'), ('ర', '|'), ('స', 'U'), ('ప్ర', 'U'), ('క్రి', '|'), ('య', '|'), ('జా', 'U'), ('టు', '|'), ('చుం', 'U'), ('డ', '|'), ('గ', '|'), ('బి', '|'), ('శా', 'U'), ('చ', 'U'), ('ప్రా', 'U'), ('యు', '|'), ('లెం', 'U'), ('తే', 'U'), ('ని', '|'), ('సో', 'U'), ('మ', '|'), ('రి', '|'), ('పో', 'U'), ('తుల్', 'U'), ('న', '|'), ('రు', '|'), ('లె', 'U'), ('ట్లు', '|'), ('గాం', 'U'), ('చె', '|'), ('ద', '|'), ('రు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
         <is>
           <t>ధర్మంబంచు నధర్మమంచుఁ గడుమిథ్యాలీల లేపారఁగా
 నిర్మాణం బొనరించి ప్రాణులను నిర్నిద్రప్రభావంబులన్
@@ -1500,32 +1404,29 @@
 మర్మం బెవ్వ రెఱుంగఁగాఁ గలరు? రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర్మం', 'U'), ('బం', 'U'), ('చు', '|'), ('న', '|'), ('ధ', '|'), ('ర్మ', '|'), ('మం', 'U'), ('చు', '|'), ('గ', '|'), ('డు', '|'), ('మి', 'U'), ('థ్యా', 'U'), ('లీ', 'U'), ('ల', '|'), ('లే', 'U'), ('పా', 'U'), ('ర', '|'), ('గా', 'U'), ('ని', '|'), ('ర్మా', 'U'), ('ణం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', 'U'), ('ప్రా', 'U'), ('ణు', '|'), ('ల', '|'), ('ను', '|'), ('ని', 'U'), ('ర్ని', '|'), ('ద్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('లన్', 'U'), ('బే', 'U'), ('ర్మిం', 'U'), ('జెం', 'U'), ('ద', '|'), ('గ', '|'), ('జే', 'U'), ('సి', '|'), ('యం', 'U'), ('త్ర', '|'), ('కు', '|'), ('గ', '|'), ('తిన్', 'U'), ('బి', 'U'), ('ట్టూ', 'U'), ('ర', '|'), ('కే', 'U'), ('త్రి', 'U'), ('ప్పు', '|'), ('నీ', 'U'), ('మ', '|'), ('ర్మం', 'U'), ('బె', 'U'), ('వ్వ', '|'), ('రె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('గా', 'U'), ('గ', '|'), ('ల', '|'), ('రు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
         <is>
           <t>వ్రతముల్ పట్టిన దేవభూసురగురువ్రాతంబులం గొల్చినం
 గ్రతుతంత్రంబులు దానధర్మము లపారంబౌనటుల్ చేసినన్
@@ -1533,32 +1434,29 @@
 ర్మతికిం దావక భక్తి గల్గమిని ? రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
           <t>[('వ్ర', '|'), ('త', '|'), ('ముల్', 'U'), ('ప', 'U'), ('ట్టి', '|'), ('న', '|'), ('దే', 'U'), ('వ', '|'), ('భూ', 'U'), ('సు', '|'), ('ర', '|'), ('గు', '|'), ('రు', 'U'), ('వ్రా', 'U'), ('తం', 'U'), ('బు', '|'), ('లం', 'U'), ('గొ', 'U'), ('ల్చి', '|'), ('నం', 'U'), ('గ్ర', '|'), ('తు', '|'), ('తం', 'U'), ('త్రం', 'U'), ('బు', '|'), ('లు', '|'), ('దా', 'U'), ('న', '|'), ('ధ', '|'), ('ర్మ', '|'), ('ము', '|'), ('ల', '|'), ('పా', 'U'), ('రం', 'U'), ('బౌ', 'U'), ('న', '|'), ('టుల్', 'U'), ('చే', 'U'), ('సి', '|'), ('నన్', 'U'), ('శ', '|'), ('త', '|'), ('వ', 'U'), ('ర్షం', 'U'), ('బు', '|'), ('లు', '|'), ('గం', 'U'), ('గ', '|'), ('లో', 'U'), ('ము', '|'), ('ని', '|'), ('గి', '|'), ('నన్', 'U'), ('సం', 'U'), ('ధి', 'U'), ('ల్లు', '|'), ('నే', 'U'), ('ము', 'U'), ('క్తి', '|'), ('దు', '|'), ('ర్మ', '|'), ('తి', '|'), ('కిం', 'U'), ('దా', 'U'), ('వ', '|'), ('క', '|'), ('భ', 'U'), ('క్తి', '|'), ('గ', 'U'), ('ల్గ', '|'), ('మి', '|'), ('ని', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
         <is>
           <t>సందేహింపక కొంచకెప్పుడు హృదబ్జాతంబులో భక్తి నీ
 యందంబై తగుమూర్తి నిల్పికొని యత్యాసక్తి సేవించువాఁ
@@ -1566,32 +1464,29 @@
 న్మందారంబవు గావె నీ వరయ, రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
           <t>[('సం', 'U'), ('దే', 'U'), ('హిం', 'U'), ('ప', '|'), ('క', '|'), ('కొం', 'U'), ('చ', '|'), ('కె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('హృ', '|'), ('ద', 'U'), ('బ్జా', 'U'), ('తం', 'U'), ('బు', '|'), ('లో', 'U'), ('భ', 'U'), ('క్తి', '|'), ('నీ', 'U'), ('యం', 'U'), ('దం', 'U'), ('బై', 'U'), ('త', '|'), ('గు', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('ని', 'U'), ('ల్పి', '|'), ('కొ', '|'), ('ని', '|'), ('య', 'U'), ('త్యా', 'U'), ('స', 'U'), ('క్తి', '|'), ('సే', 'U'), ('విం', 'U'), ('చు', '|'), ('వా', 'U'), ('డొం', 'U'), ('దుం', 'U'), ('గు', 'U'), ('ప్పు', '|'), ('న', '|'), ('వాం', 'U'), ('ఛి', '|'), ('తా', 'U'), ('ర్థ', '|'), ('ము', '|'), ('లు', '|'), ('బా', 'U'), ('గొ', 'U'), ('ప్పా', 'U'), ('రు', '|'), ('వం', 'U'), ('దా', 'U'), ('రు', '|'), ('స', 'U'), ('న్మం', 'U'), ('దా', 'U'), ('రం', 'U'), ('బ', '|'), ('వు', '|'), ('గా', 'U'), ('వె', '|'), ('నీ', 'U'), ('వ', '|'), ('ర', '|'), ('య', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
         <is>
           <t>అరిషడ్వర్గముఁ బాఱఁద్రోలి సకలవ్యామోహముల్ వీడి సు-
 స్థిరయోగాంతరదృష్టి మీ చరణముల్ సేవించు పుణ్యాత్మకుల్
@@ -1599,32 +1494,29 @@
 మరసాక్షీరతికేలిఁ జొక్కుదురు రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('రి', '|'), ('ష', 'U'), ('డ్వ', 'U'), ('ర్గ', '|'), ('ము', '|'), ('బా', 'U'), ('ఱ', '|'), ('ద్రో', 'U'), ('లి', '|'), ('స', '|'), ('క', '|'), ('ల', 'U'), ('వ్యా', 'U'), ('మో', 'U'), ('హ', '|'), ('ముల్', 'U'), ('వీ', 'U'), ('డి', '|'), ('సు', 'U'), ('స్థి', '|'), ('ర', '|'), ('యో', 'U'), ('గాం', 'U'), ('త', '|'), ('ర', '|'), ('దృ', 'U'), ('ష్టి', '|'), ('మీ', 'U'), ('చ', '|'), ('ర', '|'), ('ణ', '|'), ('ముల్', 'U'), ('సే', 'U'), ('విం', 'U'), ('చు', '|'), ('పు', 'U'), ('ణ్యా', 'U'), ('త్మ', '|'), ('కుల్', 'U'), ('వ', '|'), ('ర', '|'), ('వై', 'U'), ('కుం', 'U'), ('ఠ', '|'), ('పు', '|'), ('రాం', 'U'), ('త', '|'), ('రా', 'U'), ('ళ', '|'), ('ము', '|'), ('న', '|'), ('భా', 'U'), ('స్వ', 'U'), ('ల్లీ', 'U'), ('ల', '|'), ('లన్', 'U'), ('ము', 'U'), ('క్తి', '|'), ('తా', 'U'), ('మ', '|'), ('ర', '|'), ('సా', 'U'), ('క్షీ', 'U'), ('ర', '|'), ('తి', '|'), ('కే', 'U'), ('లి', '|'), ('జొ', 'U'), ('క్కు', '|'), ('దు', '|'), ('రు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
         <is>
           <t>ఉదయార్కాంశువికస్వరాంబుజరమాయుక్తంబులై యొప్పు నీ
 పదముల్ ధ్యానము చేసి ముక్తియువతిం బ్రాపింపఁగా లేక దు-
@@ -1632,32 +1524,29 @@
 మదిరాక్షీసురతేచ్ఛ, భూసురుఁడు రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
           <t>[('ఉ', '|'), ('ద', '|'), ('యా', 'U'), ('ర్కాం', 'U'), ('శు', '|'), ('వి', '|'), ('క', 'U'), ('స్వ', '|'), ('రాం', 'U'), ('బు', '|'), ('జ', '|'), ('ర', '|'), ('మా', 'U'), ('యు', 'U'), ('క్తం', 'U'), ('బు', '|'), ('లై', 'U'), ('యొ', 'U'), ('ప్పు', '|'), ('నీ', 'U'), ('ప', '|'), ('ద', '|'), ('ముల్', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('ము', '|'), ('చే', 'U'), ('సి', '|'), ('ము', 'U'), ('క్తి', '|'), ('యు', '|'), ('వ', '|'), ('తిం', 'U'), ('బ్రా', 'U'), ('పిం', 'U'), ('ప', '|'), ('గా', 'U'), ('లే', 'U'), ('క', '|'), ('దు', '|'), ('ర్మ', '|'), ('ద', '|'), ('వృ', '|'), ('త్తిన్', 'U'), ('బ', '|'), ('శు', '|'), ('మాం', 'U'), ('స', '|'), ('మ', 'U'), ('గ్ని', '|'), ('ద', '|'), ('న', '|'), ('రా', 'U'), ('రన్', 'U'), ('వే', 'U'), ('ల్చు', '|'), ('గా', 'U'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('మ', '|'), ('ది', '|'), ('రా', 'U'), ('క్షీ', 'U'), ('సు', '|'), ('ర', '|'), ('తే', 'U'), ('చ్ఛ', '|'), ('భూ', 'U'), ('సు', '|'), ('రు', '|'), ('డు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
         <is>
           <t>ప్రాణివ్యూహలలాటభాగముల లీలాలోలచిత్తంబునన్
 పాణీకోకిలవాణినాథుఁడు లిఖింపంబొల్చు భాగ్యాక్షర-
@@ -1665,32 +1554,29 @@
 మాణిక్యస్ఫురదంఘ్రితామరస రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
           <t>[('ప్రా', 'U'), ('ణి', 'U'), ('వ్యూ', 'U'), ('హ', '|'), ('ల', '|'), ('లా', 'U'), ('ట', '|'), ('భా', 'U'), ('గ', '|'), ('ము', '|'), ('ల', '|'), ('లీ', 'U'), ('లా', 'U'), ('లో', 'U'), ('ల', '|'), ('చి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('నన్', 'U'), ('పా', 'U'), ('ణీ', 'U'), ('కో', 'U'), ('కి', '|'), ('ల', '|'), ('వా', 'U'), ('ణి', '|'), ('నా', 'U'), ('థు', '|'), ('డు', '|'), ('లి', '|'), ('ఖిం', 'U'), ('పం', 'U'), ('బొ', 'U'), ('ల్చు', '|'), ('భా', 'U'), ('గ్యా', 'U'), ('క్ష', '|'), ('ర', 'U'), ('శ్రే', 'U'), ('ణిం', 'U'), ('బెం', 'U'), ('ప', '|'), ('గ', '|'), ('రం', 'U'), ('బె', '|'), ('యె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('కి', '|'), ('సం', 'U'), ('సి', 'U'), ('ద్ధం', 'U'), ('బు', 'U'), ('స్వా', 'U'), ('రా', 'U'), ('ట్ఛి', '|'), ('రో', 'U'), ('మా', 'U'), ('ణి', 'U'), ('క్య', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('దం', 'U'), ('ఘ్రి', '|'), ('తా', 'U'), ('మ', '|'), ('ర', '|'), ('స', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
         <is>
           <t>నిను సేవింపని పాపకర్ములకు వాణీనాథగోరాజవా-
 హనసుత్రామముఖామరప్రవర వాచాగోచరంబై సనా-
@@ -1698,32 +1584,29 @@
 మనురాడ్వంశసుధాబ్ధిసోమ! రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('ను', '|'), ('సే', 'U'), ('విం', 'U'), ('ప', '|'), ('ని', '|'), ('పా', 'U'), ('ప', '|'), ('క', '|'), ('ర్ము', '|'), ('ల', '|'), ('కు', '|'), ('వా', 'U'), ('ణీ', 'U'), ('నా', 'U'), ('థ', '|'), ('గో', 'U'), ('రా', 'U'), ('జ', '|'), ('వా', 'U'), ('హ', '|'), ('న', '|'), ('సు', 'U'), ('త్రా', 'U'), ('మ', '|'), ('ము', '|'), ('ఖా', 'U'), ('మ', '|'), ('ర', 'U'), ('ప్ర', '|'), ('వ', '|'), ('ర', '|'), ('వా', 'U'), ('చా', 'U'), ('గో', 'U'), ('చ', '|'), ('రం', 'U'), ('బై', 'U'), ('స', '|'), ('నా', 'U'), ('త', '|'), ('న', '|'), ('మై', 'U'), ('ము', 'U'), ('క్తి', '|'), ('ర', '|'), ('మా', 'U'), ('స', '|'), ('మే', 'U'), ('త', '|'), ('మ', '|'), ('గు', '|'), ('నీ', 'U'), ('ధా', 'U'), ('మం', 'U'), ('బు', '|'), ('సి', 'U'), ('ద్ధిం', 'U'), ('చు', '|'), ('నే', 'U'), ('మ', '|'), ('ను', '|'), ('రా', 'U'), ('డ్వం', 'U'), ('శ', '|'), ('సు', '|'), ('ధా', 'U'), ('బ్ధి', '|'), ('సో', 'U'), ('మ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
         <is>
           <t>మొదలంజేసిన పుణ్యపాపములు సన్మోదాతిఖేదంబులై
 యదన న్వచ్చి భుజింపఁ బాలుపడు నాహా! యెవ్వరి న్వేఁడిన
@@ -1731,32 +1614,29 @@
 మదనారాతికినైనఁ దథ్యమిది రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
           <t>[('మొ', '|'), ('ద', '|'), ('లం', 'U'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('పు', 'U'), ('ణ్య', '|'), ('పా', 'U'), ('ప', '|'), ('ము', '|'), ('లు', '|'), ('స', 'U'), ('న్మో', 'U'), ('దా', 'U'), ('తి', '|'), ('ఖే', 'U'), ('దం', 'U'), ('బు', '|'), ('లై', 'U'), ('య', '|'), ('ద', '|'), ('న', 'U'), ('న్వ', 'U'), ('చ్చి', '|'), ('భు', '|'), ('జిం', 'U'), ('ప', '|'), ('బా', 'U'), ('లు', '|'), ('ప', '|'), ('డు', '|'), ('నా', 'U'), ('హా', 'U'), ('యె', 'U'), ('వ్వ', '|'), ('రి', 'U'), ('న్వే', 'U'), ('డి', '|'), ('న', 'U'), ('న్వ', '|'), ('ద', '|'), ('లం', 'U'), ('జా', 'U'), ('ల', '|'), ('వ', '|'), ('వె', 'U'), ('న్ని', '|'), ('చం', 'U'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('దా', 'U'), ('వా', 'U'), ('రిం', 'U'), ('ప', '|'), ('జిం', 'U'), ('తిం', 'U'), ('చి', '|'), ('నన్', 'U'), ('మ', '|'), ('ద', '|'), ('నా', 'U'), ('రా', 'U'), ('తి', '|'), ('కి', '|'), ('నై', 'U'), ('న', '|'), ('ద', 'U'), ('థ్య', '|'), ('మి', '|'), ('ది', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
         <is>
           <t>ఇందందున్ సుఖమీయఁజాలని మహాహేయార్థసంసారఘో-
 రాంధూబృందనిబద్ధులై సతతమన్యాయప్రచారంబులన్
@@ -1764,32 +1644,29 @@
 మందుల్ సుందరమందహాసముఖ రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
           <t>[('ఇం', 'U'), ('దం', 'U'), ('దున్', 'U'), ('సు', '|'), ('ఖ', '|'), ('మీ', 'U'), ('య', '|'), ('జా', 'U'), ('ల', '|'), ('ని', '|'), ('మ', '|'), ('హా', 'U'), ('హే', 'U'), ('యా', 'U'), ('ర్థ', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('ఘో', 'U'), ('రాం', 'U'), ('ధూ', 'U'), ('బృం', 'U'), ('ద', '|'), ('ని', '|'), ('బ', 'U'), ('ద్ధు', '|'), ('లై', 'U'), ('స', '|'), ('త', '|'), ('త', '|'), ('మ', 'U'), ('న్యా', 'U'), ('య', 'U'), ('ప్ర', '|'), ('చా', 'U'), ('రం', 'U'), ('బు', '|'), ('లన్', 'U'), ('గ్రిం', 'U'), ('దు', 'U'), ('న్మీ', 'U'), ('దు', '|'), ('ను', '|'), ('గా', 'U'), ('న', '|'), ('కెం', 'U'), ('త', '|'), ('యు', '|'), ('ను', '|'), ('ర', '|'), ('క్తిన్', 'U'), ('ధా', 'U'), ('త్రి', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('తు', '|'), ('రౌ', 'U'), ('మం', 'U'), ('దుల్', 'U'), ('సుం', 'U'), ('ద', '|'), ('ర', '|'), ('మం', 'U'), ('ద', '|'), ('హా', 'U'), ('స', '|'), ('ము', '|'), ('ఖ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
         <is>
           <t>అమరశ్రేష్ఠుని వారువంబునకు దూండ్లాహార మీశానమౌ-
 ళి మహాభోగికి గాలిమేఁత, నిను హాళిన్మోయు మాద్యద్విహం-
@@ -1797,32 +1674,29 @@
 ర్మ మవశ్యంబ భుజింప కెట్లు చను ? రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('మ', '|'), ('ర', 'U'), ('శ్రే', 'U'), ('ష్ఠు', '|'), ('ని', '|'), ('వా', 'U'), ('రు', '|'), ('వం', 'U'), ('బు', '|'), ('న', '|'), ('కు', '|'), ('దూం', 'U'), ('డ్లా', 'U'), ('హా', 'U'), ('ర', '|'), ('మీ', 'U'), ('శా', 'U'), ('న', '|'), ('మౌ', 'U'), ('ళి', '|'), ('మ', '|'), ('హా', 'U'), ('భో', 'U'), ('గి', '|'), ('కి', '|'), ('గా', 'U'), ('లి', '|'), ('మే', 'U'), ('త', '|'), ('ని', '|'), ('ను', '|'), ('హా', 'U'), ('ళి', 'U'), ('న్మో', 'U'), ('యు', '|'), ('మా', 'U'), ('ద్య', 'U'), ('ద్వి', '|'), ('హం', 'U'), ('గ', '|'), ('మ', '|'), ('లో', 'U'), ('కేం', 'U'), ('ద్రు', '|'), ('న', '|'), ('కె', 'U'), ('ల్ల', '|'), ('బు', 'U'), ('ర్వు', '|'), ('గ', '|'), ('మి', '|'), ('యే', 'U'), ('బో', 'U'), ('నం', 'U'), ('బు', 'U'), ('ప్రా', 'U'), ('ర', 'U'), ('బ్ధ', '|'), ('క', '|'), ('ర్మ', '|'), ('మ', '|'), ('వ', 'U'), ('శ్యం', 'U'), ('బ', '|'), ('భు', '|'), ('జిం', 'U'), ('ప', '|'), ('కె', 'U'), ('ట్లు', '|'), ('చ', '|'), ('ను', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
         <is>
           <t>నరుఁడెల్లప్పుడు నాజవంజవభరానమ్రాత్ముఁడై యున్నఁగా-
 ని రహస్యంబుగ నీ పదద్వయము ధ్యానింపన్ వలెన్ భక్తితో
@@ -1830,32 +1704,29 @@
 మ్మరిపుర్వుం బలెఁ బంకదూరగతి రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('రు', '|'), ('డె', 'U'), ('ల్ల', 'U'), ('ప్పు', '|'), ('డు', '|'), ('నా', 'U'), ('జ', '|'), ('వం', 'U'), ('జ', '|'), ('వ', '|'), ('భ', '|'), ('రా', 'U'), ('న', '|'), ('మ్రా', 'U'), ('త్ము', '|'), ('డై', 'U'), ('యు', 'U'), ('న్న', '|'), ('గా', 'U'), ('ని', '|'), ('ర', '|'), ('హ', 'U'), ('స్యం', 'U'), ('బు', '|'), ('గ', '|'), ('నీ', 'U'), ('ప', '|'), ('ద', 'U'), ('ద్వ', '|'), ('య', '|'), ('ము', 'U'), ('ధ్యా', 'U'), ('నిం', 'U'), ('పన్', 'U'), ('వ', '|'), ('లెన్', 'U'), ('భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('బ', '|'), ('ర', '|'), ('మా', 'U'), ('నం', 'U'), ('ద', '|'), ('సు', '|'), ('ధా', 'U'), ('సా', 'U'), ('ర', '|'), ('ను', '|'), ('భ', '|'), ('వ', '|'), ('లి', 'U'), ('ప్సా', 'U'), ('బు', 'U'), ('ద్ధి', '|'), ('యై', 'U'), ('ను', 'U'), ('ర్వి', '|'), ('గు', 'U'), ('మ్మ', '|'), ('రి', '|'), ('పు', 'U'), ('ర్వుం', 'U'), ('బ', '|'), ('లె', '|'), ('బం', 'U'), ('క', '|'), ('దూ', 'U'), ('ర', '|'), ('గ', '|'), ('తి', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
         <is>
           <t>దానం బాభరణంబు హస్తమునకు దద్‍జ్ఞానికి న్నీపద-
 ధ్యానం బాభరణంబు భూసురున కత్యంతంబ గంగానదీ-
@@ -1863,32 +1734,29 @@
 మానం బాభరణంబు తథ్యమిది రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
           <t>[('దా', 'U'), ('నం', 'U'), ('బా', 'U'), ('భ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('హ', 'U'), ('స్త', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('ద', 'U'), ('ద్జ్ఞా', 'U'), ('ని', '|'), ('కి', 'U'), ('న్నీ', 'U'), ('ప', '|'), ('ద', 'U'), ('ధ్యా', 'U'), ('నం', 'U'), ('బా', 'U'), ('భ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('భూ', 'U'), ('సు', '|'), ('రు', '|'), ('న', '|'), ('క', 'U'), ('త్యం', 'U'), ('తం', 'U'), ('బ', '|'), ('గం', 'U'), ('గా', 'U'), ('న', '|'), ('దీ', 'U'), ('స్నా', 'U'), ('నం', 'U'), ('బా', 'U'), ('భ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('భూ', 'U'), ('త', '|'), ('ల', '|'), ('ము', '|'), ('నన్', 'U'), ('నా', 'U'), ('డెం', 'U'), ('పు', '|'), ('టి', 'U'), ('ల్లా', 'U'), ('లి', '|'), ('కిన్', 'U'), ('మా', 'U'), ('నం', 'U'), ('బా', 'U'), ('భ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('త', 'U'), ('థ్య', '|'), ('మి', '|'), ('ది', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
         <is>
           <t>అదన న్వేఁడిన యాచకప్రతతి కీయంగావలెన్ రొక్కమిం-
 పొదవన్ మీ కథలాలకింపవలె మేనుప్పొంగ గంగామహా-
@@ -1896,32 +1764,29 @@
 మ్మదచిత్తంబున మర్త్యుఁడెల్లపుడు రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ద', '|'), ('న', 'U'), ('న్వే', 'U'), ('డి', '|'), ('న', '|'), ('యా', 'U'), ('చ', '|'), ('క', 'U'), ('ప్ర', '|'), ('త', '|'), ('తి', '|'), ('కీ', 'U'), ('యం', 'U'), ('గా', 'U'), ('వ', '|'), ('లెన్', 'U'), ('రొ', 'U'), ('క్క', '|'), ('మిం', 'U'), ('పొ', '|'), ('ద', '|'), ('వన్', 'U'), ('మీ', 'U'), ('క', '|'), ('థ', '|'), ('లా', 'U'), ('ల', '|'), ('కిం', 'U'), ('ప', '|'), ('వ', '|'), ('లె', '|'), ('మే', 'U'), ('ను', 'U'), ('ప్పొం', 'U'), ('గ', '|'), ('గం', 'U'), ('గా', 'U'), ('మ', '|'), ('హా', 'U'), ('న', '|'), ('ది', '|'), ('లో', 'U'), ('స్నా', 'U'), ('న', '|'), ('ము', '|'), ('లా', 'U'), ('చ', '|'), ('రిం', 'U'), ('ప', '|'), ('వ', '|'), ('లె', '|'), ('హీ', 'U'), ('న', 'U'), ('ప్ర', 'U'), ('క్రి', '|'), ('య', 'U'), ('న్మా', 'U'), ('ని', '|'), ('స', 'U'), ('మ్మ', '|'), ('ద', '|'), ('చి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('న', '|'), ('మ', 'U'), ('ర్త్యు', '|'), ('డె', 'U'), ('ల్ల', '|'), ('పు', '|'), ('డు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
         <is>
           <t>ఉద్యానాదిక సప్తసంతతుల బాగొప్పార నిల్పన్ వలెన్
 సద్యోదానమునన్ బుధాళి కెపుడున్ సంప్రీతి సల్పన్ వలెన్
@@ -1929,32 +1794,29 @@
 మాద్యద్దానవకాననజ్వలన! రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
           <t>[('ఉ', 'U'), ('ద్యా', 'U'), ('నా', 'U'), ('ది', '|'), ('క', '|'), ('స', 'U'), ('ప్త', '|'), ('సం', 'U'), ('త', '|'), ('తు', '|'), ('ల', '|'), ('బా', 'U'), ('గొ', 'U'), ('ప్పా', 'U'), ('ర', '|'), ('ని', '|'), ('ల్పన్', 'U'), ('వ', '|'), ('లెన్', 'U'), ('స', 'U'), ('ద్యో', 'U'), ('దా', 'U'), ('న', '|'), ('ము', '|'), ('నన్', 'U'), ('బు', '|'), ('ధా', 'U'), ('ళి', '|'), ('కె', '|'), ('పు', '|'), ('డున్', 'U'), ('సం', 'U'), ('ప్రీ', 'U'), ('తి', '|'), ('స', '|'), ('ల్పన్', 'U'), ('వ', '|'), ('లెన్', 'U'), ('ప్రో', 'U'), ('ద్య', 'U'), ('ద్వి', 'U'), ('ద్య', '|'), ('లు', '|'), ('సం', 'U'), ('గ్ర', '|'), ('హిం', 'U'), ('ప', '|'), ('వ', '|'), ('లె', '|'), ('ని', 'U'), ('త్యో', 'U'), ('త్సా', 'U'), ('హి', '|'), ('యై', 'U'), ('మ', 'U'), ('ర్త్యు', '|'), ('డో', 'U'), ('మా', 'U'), ('ద్య', 'U'), ('ద్దా', 'U'), ('న', '|'), ('వ', '|'), ('కా', 'U'), ('న', '|'), ('న', 'U'), ('జ్వ', '|'), ('ల', '|'), ('న', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
         <is>
           <t>నిను భక్తిన్ భజియించినన్ గురువుల న్నిత్యంబు సేవించినన్
 ధనవంతుండయి గర్వదూరుఁడగుచున్ ధర్మంబు గావించినన్
@@ -1962,32 +1824,29 @@
 మనుజుం డారయ దేవుఁ డిమ్మహిని రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('ను', '|'), ('భ', '|'), ('క్తిన్', 'U'), ('భ', '|'), ('జి', '|'), ('యిం', 'U'), ('చి', '|'), ('నన్', 'U'), ('గు', '|'), ('రు', '|'), ('వు', '|'), ('ల', 'U'), ('న్ని', 'U'), ('త్యం', 'U'), ('బు', '|'), ('సే', 'U'), ('విం', 'U'), ('చి', '|'), ('నన్', 'U'), ('ధ', '|'), ('న', '|'), ('వం', 'U'), ('తుం', 'U'), ('డ', '|'), ('యి', '|'), ('గ', 'U'), ('ర్వ', '|'), ('దూ', 'U'), ('రు', '|'), ('డ', '|'), ('గు', '|'), ('చున్', 'U'), ('ధ', '|'), ('ర్మం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('నన్', 'U'), ('జ', '|'), ('న', '|'), ('తా', 'U'), ('మో', 'U'), ('ద', '|'), ('క', '|'), ('ప', 'U'), ('ద్ధ', '|'), ('తి', 'U'), ('న్మె', '|'), ('ల', '|'), ('గి', '|'), ('నన్', 'U'), ('జా', 'U'), ('రుం', 'U'), ('డు', '|'), ('గా', 'U'), ('కుం', 'U'), ('డి', '|'), ('నన్', 'U'), ('మ', '|'), ('ను', '|'), ('జుం', 'U'), ('డా', 'U'), ('ర', '|'), ('య', '|'), ('దే', 'U'), ('వు', '|'), ('డి', 'U'), ('మ్మ', '|'), ('హి', '|'), ('ని', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
         <is>
           <t>అన్యాయంబు దొఱంగి యెల్లరకు నత్యానంద మింపొంద సౌ-
 జన్యప్రక్రియ నేల యేలునతఁడున్ శాస్త్రానుసారంబుగాఁ
@@ -1995,32 +1854,29 @@
 న్మాన్యం బిచ్చినవాడు ధన్యుడిల రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('న్యా', 'U'), ('యం', 'U'), ('బు', '|'), ('దొ', '|'), ('ఱం', 'U'), ('గి', '|'), ('యె', 'U'), ('ల్ల', '|'), ('ర', '|'), ('కు', '|'), ('న', 'U'), ('త్యా', 'U'), ('నం', 'U'), ('ద', '|'), ('మిం', 'U'), ('పొం', 'U'), ('ద', '|'), ('సౌ', 'U'), ('జ', 'U'), ('న్య', 'U'), ('ప్ర', 'U'), ('క్రి', '|'), ('య', '|'), ('నే', 'U'), ('ల', '|'), ('యే', 'U'), ('లు', '|'), ('న', '|'), ('త', '|'), ('డున్', 'U'), ('శా', 'U'), ('స్త్రా', 'U'), ('ను', '|'), ('సా', 'U'), ('రం', 'U'), ('బు', '|'), ('గా', 'U'), ('గ', 'U'), ('న్యా', 'U'), ('దా', 'U'), ('న', '|'), ('ము', '|'), ('సే', 'U'), ('యు', '|'), ('నా', 'U'), ('త', '|'), ('డు', '|'), ('ను', '|'), ('వే', 'U'), ('డ్కన్', 'U'), ('భూ', 'U'), ('సు', '|'), ('రున్', 'U'), ('బి', 'U'), ('ల్చి', '|'), ('స', 'U'), ('న్మా', 'U'), ('న్యం', 'U'), ('బి', 'U'), ('చ్చి', '|'), ('న', '|'), ('వా', 'U'), ('డు', '|'), ('ధ', 'U'), ('న్యు', '|'), ('డి', '|'), ('ల', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
         <is>
           <t>చెఱువున్ సూనుఁడుఁ దోటయుం గృతియు నిక్షేపంబునుం దేవమం-
 దిరమున్ విప్రవివాహమున్ జగతి నెంతే వేడ్క గావించుచున్
@@ -2028,32 +1884,29 @@
 స్మరణం బూనెడువాఁడు ముక్తుఁడగు రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
           <t>[('చె', '|'), ('ఱు', '|'), ('వున్', 'U'), ('సూ', 'U'), ('ను', '|'), ('డు', '|'), ('దో', 'U'), ('ట', '|'), ('యుం', 'U'), ('గృ', '|'), ('తి', '|'), ('యు', '|'), ('ని', 'U'), ('క్షే', 'U'), ('పం', 'U'), ('బు', '|'), ('నుం', 'U'), ('దే', 'U'), ('వ', '|'), ('మం', 'U'), ('ది', '|'), ('ర', '|'), ('మున్', 'U'), ('వి', 'U'), ('ప్ర', '|'), ('వి', '|'), ('వా', 'U'), ('హ', '|'), ('మున్', 'U'), ('జ', '|'), ('గ', '|'), ('తి', '|'), ('నెం', 'U'), ('తే', 'U'), ('వే', 'U'), ('డ్క', '|'), ('గా', 'U'), ('విం', 'U'), ('చు', '|'), ('చున్', 'U'), ('ని', '|'), ('ర', '|'), ('తం', 'U'), ('బున్', 'U'), ('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', '|'), ('పా', 'U'), ('ద', '|'), ('వి', '|'), ('ల', '|'), ('స', 'U'), ('న్నీ', 'U'), ('రే', 'U'), ('రు', '|'), ('హ', 'U'), ('ద్వం', 'U'), ('ద్వ', '|'), ('సం', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణం', 'U'), ('బూ', 'U'), ('నె', '|'), ('డు', '|'), ('వా', 'U'), ('డు', '|'), ('ము', 'U'), ('క్తు', '|'), ('డ', '|'), ('గు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
         <is>
           <t>ఆకాంక్షన్ గృహదాసికాసురతలీలాసక్తి వర్తించినన్
 లోకస్తుత్యచరిత్ర! సత్కులవధూలోలుండు గాకుండినన్
@@ -2061,32 +1914,29 @@
 మా కారుణ్యకటాక్ష మూన దిల రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('కాం', 'U'), ('క్షన్', 'U'), ('గృ', '|'), ('హ', '|'), ('దా', 'U'), ('సి', '|'), ('కా', 'U'), ('సు', '|'), ('ర', '|'), ('త', '|'), ('లీ', 'U'), ('లా', 'U'), ('స', 'U'), ('క్తి', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('చి', '|'), ('నన్', 'U'), ('లో', 'U'), ('క', 'U'), ('స్తు', 'U'), ('త్య', '|'), ('చ', '|'), ('రి', 'U'), ('త్ర', '|'), ('స', 'U'), ('త్కు', '|'), ('ల', '|'), ('వ', '|'), ('ధూ', 'U'), ('లో', 'U'), ('లుం', 'U'), ('డు', '|'), ('గా', 'U'), ('కుం', 'U'), ('డి', '|'), ('నన్', 'U'), ('కో', 'U'), ('కా', 'U'), ('ప్తా', 'U'), ('స్త', '|'), ('మ', '|'), ('యో', 'U'), ('ద', '|'), ('యం', 'U'), ('బు', '|'), ('ల', '|'), ('యె', '|'), ('డన్', 'U'), ('గూ', 'U'), ('ర్కూ', 'U'), ('ని', '|'), ('నన్', 'U'), ('మ', 'U'), ('ర్త్యు', '|'), ('పై', 'U'), ('మా', 'U'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('మూ', 'U'), ('న', '|'), ('ది', '|'), ('ల', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
         <is>
           <t>గణుతింపంగ నరాధముల్ సుకవికిం గాసీనివాఁడున్ దయా-
 గుణ మొక్కింతయు లేనివాఁడు నొరుపై గొండెంబు గావించువాఁ
@@ -2094,32 +1944,29 @@
 హ్మణవిత్తంబు హరించువాఁ డరయ రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
           <t>[('గ', '|'), ('ణు', '|'), ('తిం', 'U'), ('పం', 'U'), ('గ', '|'), ('న', '|'), ('రా', 'U'), ('ధ', '|'), ('ముల్', 'U'), ('సు', '|'), ('క', '|'), ('వి', '|'), ('కిం', 'U'), ('గా', 'U'), ('సీ', 'U'), ('ని', '|'), ('వా', 'U'), ('డున్', 'U'), ('ద', '|'), ('యా', 'U'), ('గు', '|'), ('ణ', '|'), ('మొ', 'U'), ('క్కిం', 'U'), ('త', '|'), ('యు', '|'), ('లే', 'U'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('నొ', '|'), ('రు', '|'), ('పై', 'U'), ('గొం', 'U'), ('డెం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చు', '|'), ('వా', 'U'), ('డ', '|'), ('ణు', '|'), ('మ', '|'), ('ధ్యన్', 'U'), ('స', '|'), ('తి', '|'), ('బా', 'U'), ('సి', '|'), ('దా', 'U'), ('సి', '|'), ('పొం', 'U'), ('దా', 'U'), ('సిం', 'U'), ('చు', '|'), ('వా', 'U'), ('డు', 'U'), ('ర్వి', 'U'), ('బ్రా', 'U'), ('హ్మ', '|'), ('ణ', '|'), ('వి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('హ', '|'), ('రిం', 'U'), ('చు', '|'), ('వా', 'U'), ('డ', '|'), ('ర', '|'), ('య', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
         <is>
           <t>వృషలీభర్తయు దేవలుండు నటుఁడున్ వేదాభిశస్తుండు మా-
 హిషికుం డగ్నిద కుండగోళకులునున్ హింసాపరస్వాంతుడున్
@@ -2127,32 +1974,29 @@
 ల్మషమత్తద్విరదౌఘ పంచముఖరామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
           <t>[('వృ', '|'), ('ష', '|'), ('లీ', 'U'), ('భ', 'U'), ('ర్త', '|'), ('యు', '|'), ('దే', 'U'), ('వ', '|'), ('లుం', 'U'), ('డు', '|'), ('న', '|'), ('టు', '|'), ('డున్', 'U'), ('వే', 'U'), ('దా', 'U'), ('భి', '|'), ('శ', 'U'), ('స్తుం', 'U'), ('డు', '|'), ('మా', 'U'), ('హి', '|'), ('షి', '|'), ('కుం', 'U'), ('డ', 'U'), ('గ్ని', '|'), ('ద', '|'), ('కుం', 'U'), ('డ', '|'), ('గో', 'U'), ('ళ', '|'), ('కు', '|'), ('లు', '|'), ('నున్', 'U'), ('హిం', 'U'), ('సా', 'U'), ('ప', '|'), ('ర', 'U'), ('స్వాం', 'U'), ('తు', '|'), ('డున్', 'U'), ('వి', '|'), ('ష', '|'), ('దుం', 'U'), ('డుం', 'U'), ('గొ', '|'), ('ఱ', '|'), ('గా', 'U'), ('డు', '|'), ('పం', 'U'), ('క్తి', '|'), ('కె', '|'), ('పు', '|'), ('డు', '|'), ('ర్విన్', 'U'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('ఘా', 'U'), ('త', '|'), ('క', 'U'), ('ల్మ', '|'), ('ష', '|'), ('మ', 'U'), ('త్త', 'U'), ('ద్వి', '|'), ('ర', '|'), ('దౌ', 'U'), ('ఘ', '|'), ('పం', 'U'), ('చ', '|'), ('ము', '|'), ('ఖ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
         <is>
           <t>అగసాలిన్ దిలఘాతకున్ యవనునిన్ వ్యాపారి దాసున్ విటున్
 జగతీనాథుని వేటకాని గణికన్ జండాలునిన్ జోరునిన్
@@ -2160,32 +2004,29 @@
 మ్మఁగ రాదెంతయుఁ దథ్య మిద్ధరణి రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('గ', '|'), ('సా', 'U'), ('లిన్', 'U'), ('ది', '|'), ('ల', '|'), ('ఘా', 'U'), ('త', '|'), ('కున్', 'U'), ('య', '|'), ('వ', '|'), ('ను', '|'), ('నిన్', 'U'), ('వ్యా', 'U'), ('పా', 'U'), ('రి', '|'), ('దా', 'U'), ('సున్', 'U'), ('వి', '|'), ('టున్', 'U'), ('జ', '|'), ('గ', '|'), ('తీ', 'U'), ('నా', 'U'), ('థు', '|'), ('ని', '|'), ('వే', 'U'), ('ట', '|'), ('కా', 'U'), ('ని', '|'), ('గ', '|'), ('ణి', '|'), ('కన్', 'U'), ('జం', 'U'), ('డా', 'U'), ('లు', '|'), ('నిన్', 'U'), ('జో', 'U'), ('రు', '|'), ('నిన్', 'U'), ('బ్రె', '|'), ('గ', '|'), ('డం', 'U'), ('గో', 'U'), ('మ', '|'), ('టి', '|'), ('జూ', 'U'), ('ద', '|'), ('రిన్', 'U'), ('బు', '|'), ('ధ', '|'), ('జ', '|'), ('నుల్', 'U'), ('పె', 'U'), ('న్రొ', 'U'), ('క్క', '|'), ('మ', 'U'), ('ర్పిం', 'U'), ('ప', '|'), ('న', 'U'), ('మ్మ', '|'), ('గ', '|'), ('రా', 'U'), ('దెం', 'U'), ('త', '|'), ('యు', '|'), ('ద', 'U'), ('థ్య', '|'), ('మి', 'U'), ('ద్ధ', '|'), ('ర', '|'), ('ణి', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
         <is>
           <t>అలుకన్ మిక్కిలి సాహసంబు ఘనమన్యాయప్రచారంబునుం
 జలముం దట్టము కామమెక్కుడు మహాజాలంబు శీలంబహో
@@ -2193,32 +2034,29 @@
 మలుల న్నమ్మఁగరాదు పూరుషులు రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('లు', '|'), ('కన్', 'U'), ('మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('సా', 'U'), ('హ', '|'), ('సం', 'U'), ('బు', '|'), ('ఘ', '|'), ('న', '|'), ('మ', 'U'), ('న్యా', 'U'), ('య', 'U'), ('ప్ర', '|'), ('చా', 'U'), ('రం', 'U'), ('బు', '|'), ('నుం', 'U'), ('జ', '|'), ('ల', '|'), ('ముం', 'U'), ('ద', 'U'), ('ట్ట', '|'), ('ము', '|'), ('కా', 'U'), ('మ', '|'), ('మె', 'U'), ('క్కు', '|'), ('డు', '|'), ('మ', '|'), ('హా', 'U'), ('జా', 'U'), ('లం', 'U'), ('బు', '|'), ('శీ', 'U'), ('లం', 'U'), ('బ', '|'), ('హో', 'U'), ('త', '|'), ('ల', '|'), ('పై', 'U'), ('జే', 'U'), ('యి', '|'), ('డి', '|'), ('బా', 'U'), ('స', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('య', '|'), ('థా', 'U'), ('ర్థం', 'U'), ('బు', 'U'), ('ర్వి', '|'), ('పై', 'U'), ('బు', 'U'), ('ష్ప', '|'), ('కో', 'U'), ('మ', '|'), ('లు', '|'), ('ల', 'U'), ('న్న', 'U'), ('మ్మ', '|'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('పూ', 'U'), ('రు', '|'), ('షు', '|'), ('లు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
         <is>
           <t>కుకవుల్ కూళలు కొంటెతొత్తుకొడుకుల్ కొండీలు కోనారులుం
 దకతైతత్తలవారు పాచకులు జూదంబాడువారు న్మహిం
@@ -2226,32 +2064,29 @@
 మకరాక్షాసురగర్వసంహరణ రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
           <t>[('కు', '|'), ('క', '|'), ('వుల్', 'U'), ('కూ', 'U'), ('ళ', '|'), ('లు', '|'), ('కొం', 'U'), ('టె', '|'), ('తొ', 'U'), ('త్తు', '|'), ('కొ', '|'), ('డు', '|'), ('కుల్', 'U'), ('కొం', 'U'), ('డీ', 'U'), ('లు', '|'), ('కో', 'U'), ('నా', 'U'), ('రు', '|'), ('లుం', 'U'), ('ద', '|'), ('క', '|'), ('తై', 'U'), ('త', 'U'), ('త్త', '|'), ('ల', '|'), ('వా', 'U'), ('రు', '|'), ('పా', 'U'), ('చ', '|'), ('కు', '|'), ('లు', '|'), ('జూ', 'U'), ('దం', 'U'), ('బా', 'U'), ('డు', '|'), ('వా', 'U'), ('రు', 'U'), ('న్మ', '|'), ('హిం', 'U'), ('బ్ర', '|'), ('క', '|'), ('టం', 'U'), ('బై', 'U'), ('సి', '|'), ('రి', '|'), ('గాం', 'U'), ('చి', '|'), ('రీ', 'U'), ('క', '|'), ('లి', '|'), ('యు', '|'), ('గ', 'U'), ('ప్రా', 'U'), ('మా', 'U'), ('ణ్య', '|'), ('మా', 'U'), ('శ్చ', 'U'), ('ర్య', '|'), ('మో', 'U'), ('మ', '|'), ('క', '|'), ('రా', 'U'), ('క్షా', 'U'), ('సు', '|'), ('ర', '|'), ('గ', 'U'), ('ర్వ', '|'), ('సం', 'U'), ('హ', '|'), ('ర', '|'), ('ణ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
         <is>
           <t>కలికాలంబున వైద్యలక్షణపరీక్షాశూన్యమూఢావనీ-
 తలనాథుల్ బలుమోటకాఁపుదొరలున్ దట్టంబుగా బిల్చి మం-
@@ -2259,32 +2094,29 @@
 మ్మళులన్ నంబులు క్షౌరకాంత్యజులు రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('లి', '|'), ('కా', 'U'), ('లం', 'U'), ('బు', '|'), ('న', '|'), ('వై', 'U'), ('ద్య', '|'), ('ల', 'U'), ('క్ష', '|'), ('ణ', '|'), ('ప', '|'), ('రీ', 'U'), ('క్షా', 'U'), ('శూ', 'U'), ('న్య', '|'), ('మూ', 'U'), ('ఢా', 'U'), ('వ', '|'), ('నీ', 'U'), ('త', '|'), ('ల', '|'), ('నా', 'U'), ('థుల్', 'U'), ('బ', '|'), ('లు', '|'), ('మో', 'U'), ('ట', '|'), ('కా', 'U'), ('పు', '|'), ('దొ', '|'), ('ర', '|'), ('లున్', 'U'), ('ద', 'U'), ('ట్టం', 'U'), ('బు', '|'), ('గా', 'U'), ('బి', 'U'), ('ల్చి', '|'), ('మం', 'U'), ('దు', '|'), ('ల', '|'), ('వే', 'U'), ('యిం', 'U'), ('ప', '|'), ('భు', '|'), ('జిం', 'U'), ('చి', 'U'), ('క్రొ', 'U'), ('వ్వి', '|'), ('క', '|'), ('డు', '|'), ('వై', 'U'), ('ద్యుల్', 'U'), ('గా', 'U'), ('రె', '|'), ('సి', 'U'), ('గ్గే', 'U'), ('ది', '|'), ('త', 'U'), ('మ్మ', '|'), ('ళు', '|'), ('లన్', 'U'), ('నం', 'U'), ('బు', '|'), ('లు', 'U'), ('క్షౌ', 'U'), ('ర', '|'), ('కాం', 'U'), ('త్య', '|'), ('జు', '|'), ('లు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
         <is>
           <t>దీనత్వంబునఁ గూడులేక చెడి యెంతే భైక్ష్యముల్ గొంచు ల-
 జ్జానామంబులు లేకయుంబు బలురాజన్యుండు చేపట్టి దా
@@ -2292,32 +2124,29 @@
 మానం జాలునె తొంటినీచగతి రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
           <t>[('దీ', 'U'), ('న', 'U'), ('త్వం', 'U'), ('బు', '|'), ('న', '|'), ('గూ', 'U'), ('డు', '|'), ('లే', 'U'), ('క', '|'), ('చె', '|'), ('డి', '|'), ('యెం', 'U'), ('తే', 'U'), ('భై', 'U'), ('క్ష్య', '|'), ('ముల్', 'U'), ('గొం', 'U'), ('చు', '|'), ('ల', 'U'), ('జ్జా', 'U'), ('నా', 'U'), ('మం', 'U'), ('బు', '|'), ('లు', '|'), ('లే', 'U'), ('క', '|'), ('యుం', 'U'), ('బు', '|'), ('బ', '|'), ('లు', '|'), ('రా', 'U'), ('జ', 'U'), ('న్యుం', 'U'), ('డు', '|'), ('చే', 'U'), ('ప', 'U'), ('ట్టి', '|'), ('దా', 'U'), ('నా', 'U'), ('నా', 'U'), ('వ', 'U'), ('స్తు', '|'), ('వు', '|'), ('లి', 'U'), ('చ్చి', '|'), ('వై', 'U'), ('భ', '|'), ('వ', '|'), ('మి', '|'), ('డన్', 'U'), ('న్యా', 'U'), ('య', 'U'), ('జ్ఞు', '|'), ('డై', 'U'), ('వా', 'U'), ('డి', '|'), ('లన్', 'U'), ('మా', 'U'), ('నం', 'U'), ('జా', 'U'), ('లు', '|'), ('నె', '|'), ('తొం', 'U'), ('టి', '|'), ('నీ', 'U'), ('చ', '|'), ('గ', '|'), ('తి', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
         <is>
           <t>ఎన్నం గార్ధభ ముత్తమాశ్వమగునే; హీనుండు దాతృత్వసం-
 పన్నుండౌనె; ఖలుండు పుణ్యుఁడగునే; పల్గాకి సాధౌనె; క-
@@ -2325,32 +2154,29 @@
 మన్నుం బిల్లి మృగేంద్రమౌనె భువి రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
           <t>[('ఎ', 'U'), ('న్నం', 'U'), ('గా', 'U'), ('ర్ధ', '|'), ('భ', '|'), ('ము', 'U'), ('త్త', '|'), ('మా', 'U'), ('శ్వ', '|'), ('మ', '|'), ('గు', '|'), ('నే', 'U'), ('హీ', 'U'), ('నుం', 'U'), ('డు', '|'), ('దా', 'U'), ('తృ', 'U'), ('త్వ', '|'), ('సం', 'U'), ('ప', 'U'), ('న్నుం', 'U'), ('డౌ', 'U'), ('నె', '|'), ('ఖ', '|'), ('లుం', 'U'), ('డు', '|'), ('పు', 'U'), ('ణ్యు', '|'), ('డ', '|'), ('గు', '|'), ('నే', 'U'), ('ప', 'U'), ('ల్గా', 'U'), ('కి', '|'), ('సా', 'U'), ('ధౌ', 'U'), ('నె', '|'), ('క', 'U'), ('ల్జు', 'U'), ('న్నౌ', 'U'), ('నే', 'U'), ('మ', '|'), ('హి', '|'), ('షం', 'U'), ('బ', '|'), ('హ', 'U'), ('స్తి', '|'), ('య', '|'), ('గు', '|'), ('నే', 'U'), ('జో', 'U'), ('రీ', 'U'), ('గ', '|'), ('దే', 'U'), ('టౌ', 'U'), ('నె', '|'), ('టుల్', 'U'), ('మ', 'U'), ('న్నుం', 'U'), ('బి', 'U'), ('ల్లి', '|'), ('మృ', '|'), ('గేం', 'U'), ('ద్ర', '|'), ('మౌ', 'U'), ('నె', '|'), ('భు', '|'), ('వి', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
         <is>
           <t>బలిభిక్షన్ దయఁ బెట్టఁబూనిన మహాపాపాత్మకుల్ భూమిలో-
 పలఁ గోట్యర్బుదసంఖ్యయైనఁ ద్రిజగత్ప్రఖ్యాతదానవచ్ఛటా-
@@ -2358,32 +2184,29 @@
 మలు వేయైన మదద్విపంబగునె రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
           <t>[('బ', '|'), ('లి', '|'), ('భి', '|'), ('క్షన్', 'U'), ('ద', '|'), ('య', '|'), ('బె', 'U'), ('ట్ట', '|'), ('బూ', 'U'), ('ని', '|'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('పా', 'U'), ('పా', 'U'), ('త్మ', '|'), ('కుల్', 'U'), ('భూ', 'U'), ('మి', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('గో', 'U'), ('ట్య', 'U'), ('ర్బు', '|'), ('ద', '|'), ('సం', 'U'), ('ఖ్య', '|'), ('యై', 'U'), ('న', '|'), ('ద్రి', '|'), ('జ', '|'), ('గ', 'U'), ('త్ప్ర', 'U'), ('ఖ్యా', 'U'), ('త', '|'), ('దా', 'U'), ('న', '|'), ('వ', 'U'), ('చ్ఛ', '|'), ('టా', 'U'), ('క', '|'), ('ల', '|'), ('నా', 'U'), ('వ', 'U'), ('ర్తి', '|'), ('త', '|'), ('పు', 'U'), ('ణ్య', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('య', '|'), ('గు', '|'), ('నే', 'U'), ('గా', 'U'), ('టం', 'U'), ('బు', '|'), ('గా', 'U'), ('బ', 'U'), ('ర్వు', '|'), ('దో', 'U'), ('మ', '|'), ('లు', '|'), ('వే', 'U'), ('యై', 'U'), ('న', '|'), ('మ', '|'), ('ద', 'U'), ('ద్వి', '|'), ('పం', 'U'), ('బ', '|'), ('గు', '|'), ('నె', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
         <is>
           <t>ధరలోనన్ సుకవిప్రణీతబలవద్ధాటీనిరాఘాటభా-
 స్వర సత్కావ్యకథాసుధారసపరీక్షాదీక్ష విద్వన్మహా-
@@ -2391,32 +2214,29 @@
 మరుదాత్మోద్భవసేవితాంఘ్రి నల! రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర', '|'), ('లో', 'U'), ('నన్', 'U'), ('సు', '|'), ('క', '|'), ('వి', 'U'), ('ప్ర', '|'), ('ణీ', 'U'), ('త', '|'), ('బ', '|'), ('ల', '|'), ('వ', 'U'), ('ద్ధా', 'U'), ('టీ', 'U'), ('ని', '|'), ('రా', 'U'), ('ఘా', 'U'), ('ట', '|'), ('భా', 'U'), ('స్వ', '|'), ('ర', '|'), ('స', 'U'), ('త్కా', 'U'), ('వ్య', '|'), ('క', '|'), ('థా', 'U'), ('సు', '|'), ('ధా', 'U'), ('ర', '|'), ('స', '|'), ('ప', '|'), ('రీ', 'U'), ('క్షా', 'U'), ('దీ', 'U'), ('క్ష', '|'), ('వి', 'U'), ('ద్వ', 'U'), ('న్మ', '|'), ('హా', 'U'), ('పు', '|'), ('రు', '|'), ('ష', 'U'), ('శ్రే', 'U'), ('ష్ఠు', '|'), ('న', '|'), ('క', 'U'), ('బ్బు', '|'), ('పా', 'U'), ('మ', '|'), ('రు', '|'), ('న', '|'), ('కే', 'U'), ('పో', 'U'), ('ల్కిన్', 'U'), ('ల', '|'), ('భిం', 'U'), ('చున్', 'U'), ('స', '|'), ('దా', 'U'), ('మ', '|'), ('రు', '|'), ('దా', 'U'), ('త్మో', 'U'), ('ద్భ', '|'), ('వ', '|'), ('సే', 'U'), ('వి', '|'), ('తాం', 'U'), ('ఘ్రి', '|'), ('న', '|'), ('ల', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
         <is>
           <t>పద్యంబేల పిసిండి? కీప్సితము దీర్పన్ లేని జేజేకు నై-
 వేద్యంబేల? పదార్థచోరునకు నుర్విన్ వేదవేదాంతస-
@@ -2424,32 +2244,29 @@
 మద్యం బానెడువానికేల సుధ? రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
           <t>[('ప', 'U'), ('ద్యం', 'U'), ('బే', 'U'), ('ల', '|'), ('పి', '|'), ('సిం', 'U'), ('డి', '|'), ('కీ', 'U'), ('ప్సి', '|'), ('త', '|'), ('ము', '|'), ('దీ', 'U'), ('ర్పన్', 'U'), ('లే', 'U'), ('ని', '|'), ('జే', 'U'), ('జే', 'U'), ('కు', '|'), ('నై', 'U'), ('వే', 'U'), ('ద్యం', 'U'), ('బే', 'U'), ('ల', '|'), ('ప', '|'), ('దా', 'U'), ('ర్థ', '|'), ('చో', 'U'), ('రు', '|'), ('న', '|'), ('కు', '|'), ('ను', '|'), ('ర్విన్', 'U'), ('వే', 'U'), ('ద', '|'), ('వే', 'U'), ('దాం', 'U'), ('త', '|'), ('స', 'U'), ('ద్వి', 'U'), ('ద్యా', 'U'), ('భ్యా', 'U'), ('స', '|'), ('క', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('యే', 'U'), ('ల', '|'), ('మ', '|'), ('ది', '|'), ('భా', 'U'), ('విం', 'U'), ('పం', 'U'), ('గ', '|'), ('నె', 'U'), ('ల్ల', 'U'), ('ప్పు', '|'), ('డున్', 'U'), ('మ', 'U'), ('ద్యం', 'U'), ('బా', 'U'), ('నె', '|'), ('డు', '|'), ('వా', 'U'), ('ని', '|'), ('కే', 'U'), ('ల', '|'), ('సు', '|'), ('ధ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
         <is>
           <t>ముకురంబేటికి గ్రుడ్డివానికి జనామోదానుసంధానరూ-
 పకళాకౌశలకామినీసురతలిప్సాబుద్ధి ధాత్రి న్నపుం-
@@ -2457,32 +2274,29 @@
 మకుటంబేమిటికి మర్కటంబునకు రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
           <t>[('ము', '|'), ('కు', '|'), ('రం', 'U'), ('బే', 'U'), ('టి', '|'), ('కి', 'U'), ('గ్రు', 'U'), ('డ్డి', '|'), ('వా', 'U'), ('ని', '|'), ('కి', '|'), ('జ', '|'), ('నా', 'U'), ('మో', 'U'), ('దా', 'U'), ('ను', '|'), ('సం', 'U'), ('ధా', 'U'), ('న', '|'), ('రూ', 'U'), ('ప', '|'), ('క', '|'), ('ళా', 'U'), ('కౌ', 'U'), ('శ', '|'), ('ల', '|'), ('కా', 'U'), ('మి', '|'), ('నీ', 'U'), ('సు', '|'), ('ర', '|'), ('త', '|'), ('లి', 'U'), ('ప్సా', 'U'), ('బు', 'U'), ('ద్ధి', '|'), ('ధా', 'U'), ('త్రి', 'U'), ('న్న', '|'), ('పుం', 'U'), ('స', '|'), ('క', '|'), ('తం', 'U'), ('గుం', 'U'), ('దె', '|'), ('డు', '|'), ('వా', 'U'), ('ని', '|'), ('కే', 'U'), ('మి', '|'), ('టి', '|'), ('కి', '|'), ('మీ', 'U'), ('సం', 'U'), ('బే', 'U'), ('మి', '|'), ('టి', '|'), ('కిన్', 'U'), ('లో', 'U'), ('భి', '|'), ('కిన్', 'U'), ('మ', '|'), ('కు', '|'), ('టం', 'U'), ('బే', 'U'), ('మి', '|'), ('టి', '|'), ('కి', '|'), ('మ', 'U'), ('ర్క', '|'), ('టం', 'U'), ('బు', '|'), ('న', '|'), ('కు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
         <is>
           <t>కుజనున్ ధర్మతనూజుఁడంచు నతిమూర్ఖున్ భోజరాజంచు ఘో-
 రజరాభారకురూపకారిని రమారామాకుమారుండటం-
@@ -2490,32 +2304,29 @@
 మజరాజోగ్రవిపద్దశాపహర! రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
           <t>[('కు', '|'), ('జ', '|'), ('నున్', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('త', '|'), ('నూ', 'U'), ('జు', '|'), ('డం', 'U'), ('చు', '|'), ('న', '|'), ('తి', '|'), ('మూ', 'U'), ('ర్ఖున్', 'U'), ('భో', 'U'), ('జ', '|'), ('రా', 'U'), ('జం', 'U'), ('చు', '|'), ('ఘో', 'U'), ('ర', '|'), ('జ', '|'), ('రా', 'U'), ('భా', 'U'), ('ర', '|'), ('కు', '|'), ('రూ', 'U'), ('ప', '|'), ('కా', 'U'), ('రి', '|'), ('ని', '|'), ('ర', '|'), ('మా', 'U'), ('రా', 'U'), ('మా', 'U'), ('కు', '|'), ('మా', 'U'), ('రుం', 'U'), ('డ', '|'), ('టం', 'U'), ('చు', '|'), ('జ', '|'), ('డ', 'U'), ('త్వం', 'U'), ('బు', '|'), ('న', '|'), ('వే', 'U'), ('డి', '|'), ('కా', 'U'), ('క', '|'), ('వు', '|'), ('లు', '|'), ('కా', 'U'), ('సుం', 'U'), ('గా', 'U'), ('న', '|'), ('రె', 'U'), ('న్నం', 'U'), ('గ', '|'), ('సా', 'U'), ('మ', '|'), ('జ', '|'), ('రా', 'U'), ('జో', 'U'), ('గ్ర', '|'), ('వి', '|'), ('ప', 'U'), ('ద్ద', '|'), ('శా', 'U'), ('ప', '|'), ('హ', '|'), ('ర', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
         <is>
           <t>చలదశ్వత్థతరుప్రవాళమనుచున్ సారంగహేరంబటం-
 చలరుం దింటెనపూవటంచు ముకురంబంచున్ భ్రమన్ సజ్జనుల్
@@ -2523,32 +2334,29 @@
 మలమూత్రాకరమారమందిరము రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
           <t>[('చ', '|'), ('ల', '|'), ('ద', 'U'), ('శ్వ', 'U'), ('త్థ', '|'), ('త', '|'), ('రు', 'U'), ('ప్ర', '|'), ('వా', 'U'), ('ళ', '|'), ('మ', '|'), ('ను', '|'), ('చున్', 'U'), ('సా', 'U'), ('రం', 'U'), ('గ', '|'), ('హే', 'U'), ('రం', 'U'), ('బ', '|'), ('టం', 'U'), ('చ', '|'), ('ల', '|'), ('రుం', 'U'), ('దిం', 'U'), ('టె', '|'), ('న', '|'), ('పూ', 'U'), ('వ', '|'), ('టం', 'U'), ('చు', '|'), ('ము', '|'), ('కు', '|'), ('రం', 'U'), ('బం', 'U'), ('చున్', 'U'), ('భ్ర', '|'), ('మన్', 'U'), ('స', 'U'), ('జ్జ', '|'), ('నుల్', 'U'), ('క', '|'), ('ళ', '|'), ('లూ', 'U'), ('రం', 'U'), ('గ', '|'), ('ర', '|'), ('మిం', 'U'), ('చు', '|'), ('చున్', 'U'), ('వ', '|'), ('ద', '|'), ('ల', '|'), ('రే', 'U'), ('కా', 'U'), ('లం', 'U'), ('బు', '|'), ('ము', 'U'), ('గ్ధాం', 'U'), ('గ', '|'), ('నా', 'U'), ('మ', '|'), ('ల', '|'), ('మూ', 'U'), ('త్రా', 'U'), ('క', '|'), ('ర', '|'), ('మా', 'U'), ('ర', '|'), ('మం', 'U'), ('ది', '|'), ('ర', '|'), ('ము', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
         <is>
           <t>సుదతీపీనపయోధరద్వయముపై సొంపొందు నెమ్మోముపై
 మదనాగారముపైఁ గపోలములపై మధ్యప్రదేశంబుపై
@@ -2556,32 +2364,29 @@
 ర్మదవృత్తిన్ ఖలుచిత్త మిద్ధరణి రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
           <t>[('సు', '|'), ('ద', '|'), ('తీ', 'U'), ('పీ', 'U'), ('న', '|'), ('ప', '|'), ('యో', 'U'), ('ధ', '|'), ('ర', 'U'), ('ద్వ', '|'), ('య', '|'), ('ము', '|'), ('పై', 'U'), ('సొం', 'U'), ('పొం', 'U'), ('దు', '|'), ('నె', 'U'), ('మ్మో', 'U'), ('ము', '|'), ('పై', 'U'), ('మ', '|'), ('ద', '|'), ('నా', 'U'), ('గా', 'U'), ('ర', '|'), ('ము', '|'), ('పై', 'U'), ('గ', '|'), ('పో', 'U'), ('ల', '|'), ('ము', '|'), ('ల', '|'), ('పై', 'U'), ('మ', 'U'), ('ధ్య', 'U'), ('ప్ర', '|'), ('దే', 'U'), ('శం', 'U'), ('బు', '|'), ('పై', 'U'), ('ర', '|'), ('ద', '|'), ('నా', 'U'), ('వా', 'U'), ('సం', 'U'), ('బు', '|'), ('ప', '|'), ('యి', 'U'), ('న్ని', '|'), ('తం', 'U'), ('బ', '|'), ('ము', '|'), ('ప', '|'), ('యిన్', 'U'), ('రా', 'U'), ('జి', 'U'), ('ల్లు', '|'), ('నెం', 'U'), ('తే', 'U'), ('ని', '|'), ('దు', '|'), ('ర్మ', '|'), ('ద', '|'), ('వృ', '|'), ('త్తిన్', 'U'), ('ఖ', '|'), ('లు', '|'), ('చి', 'U'), ('త్త', '|'), ('మి', 'U'), ('ద్ధ', '|'), ('ర', '|'), ('ణి', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
         <is>
           <t>రసికోత్తంసులు సత్కులీనులు మహాద్రాఘిష్ఠసంసారఘో-
 రసముద్రాంతరమగ్నులై దరికిఁ జేరన్ లేక విభ్రాంతిచేఁ
@@ -2589,32 +2394,29 @@
 మసగాదే యిది యెంచి చూచినను రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
           <t>[('ర', '|'), ('సి', '|'), ('కో', 'U'), ('త్తం', 'U'), ('సు', '|'), ('లు', '|'), ('స', 'U'), ('త్కు', '|'), ('లీ', 'U'), ('ను', '|'), ('లు', '|'), ('మ', '|'), ('హా', 'U'), ('ద్రా', 'U'), ('ఘి', 'U'), ('ష్ఠ', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('ఘో', 'U'), ('ర', '|'), ('స', '|'), ('ము', '|'), ('ద్రాం', 'U'), ('త', '|'), ('ర', '|'), ('మ', 'U'), ('గ్ను', '|'), ('లై', 'U'), ('ద', '|'), ('రి', '|'), ('కి', '|'), ('జే', 'U'), ('రన్', 'U'), ('లే', 'U'), ('క', '|'), ('వి', 'U'), ('భ్రాం', 'U'), ('తి', '|'), ('చే', 'U'), ('బ', '|'), ('సు', '|'), ('లం', 'U'), ('గా', 'U'), ('చి', '|'), ('న', '|'), ('మో', 'U'), ('ట', '|'), ('కొ', 'U'), ('య్య', '|'), ('దొ', '|'), ('ర', '|'), ('లం', 'U'), ('బ్రా', 'U'), ('ర్థిం', 'U'), ('తు', '|'), ('రెం', 'U'), ('తే', 'U'), ('ని', '|'), ('దే', 'U'), ('మ', '|'), ('స', '|'), ('గా', 'U'), ('దే', 'U'), ('యి', '|'), ('ది', '|'), ('యెం', 'U'), ('చి', '|'), ('చూ', 'U'), ('చి', '|'), ('న', '|'), ('ను', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
         <is>
           <t>సరసుం డాతఁడు పెద్ద యాతఁడు మహాసౌందర్యవంతుం డతం
 డరిహృద్భీకరశౌర్యధుర్యుఁ డతఁ డుద్యద్దానకర్ణుం డతం
@@ -2622,32 +2424,29 @@
 మరుదీశోపలనీలమూర్తి ధర! రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('ర', '|'), ('సుం', 'U'), ('డా', 'U'), ('త', '|'), ('డు', '|'), ('పె', 'U'), ('ద్ద', '|'), ('యా', 'U'), ('త', '|'), ('డు', '|'), ('మ', '|'), ('హా', 'U'), ('సౌం', 'U'), ('ద', 'U'), ('ర్య', '|'), ('వం', 'U'), ('తుం', 'U'), ('డ', '|'), ('తం', 'U'), ('డ', '|'), ('రి', '|'), ('హృ', 'U'), ('ద్భీ', 'U'), ('క', '|'), ('ర', '|'), ('శౌ', 'U'), ('ర్య', '|'), ('ధు', 'U'), ('ర్యు', '|'), ('డ', '|'), ('త', '|'), ('డు', 'U'), ('ద్య', 'U'), ('ద్దా', 'U'), ('న', '|'), ('క', 'U'), ('ర్ణుం', 'U'), ('డ', '|'), ('తం', 'U'), ('డు', '|'), ('రు', '|'), ('గో', 'U'), ('త్రో', 'U'), ('ద్భ', '|'), ('వు', '|'), ('డా', 'U'), ('త', '|'), ('డె', 'U'), ('వ్వ', '|'), ('డి', '|'), ('ల', '|'), ('ను', 'U'), ('ద్యో', 'U'), ('గా', 'U'), ('ర్థ', '|'), ('సం', 'U'), ('ప', 'U'), ('న్ను', '|'), ('డౌ', 'U'), ('మ', '|'), ('రు', '|'), ('దీ', 'U'), ('శో', 'U'), ('ప', '|'), ('ల', '|'), ('నీ', 'U'), ('ల', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('ధ', '|'), ('ర', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
         <is>
           <t>విత్తంబొత్తుగఁ గూర్చి మానవుఁడు దుర్వృత్తిం బ్రవర్తించి యు-
 వ్వెత్తుం దేహమెఱుంగలేక తిరుగున్ హేలాగతిన్ బత్తిఁ దాఁ
@@ -2655,32 +2454,29 @@
 మత్తారాతినిశాటసంహరణ! రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
           <t>[('వి', 'U'), ('త్తం', 'U'), ('బొ', 'U'), ('త్తు', '|'), ('గ', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('డు', '|'), ('దు', 'U'), ('ర్వృ', 'U'), ('త్తిం', 'U'), ('బ్ర', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('చి', '|'), ('యు', 'U'), ('వ్వె', 'U'), ('త్తుం', 'U'), ('దే', 'U'), ('హ', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('తి', '|'), ('రు', '|'), ('గున్', 'U'), ('హే', 'U'), ('లా', 'U'), ('గ', '|'), ('తిన్', 'U'), ('బ', 'U'), ('త్తి', '|'), ('దా', 'U'), ('జి', 'U'), ('త్తాం', 'U'), ('బ్జం', 'U'), ('బు', '|'), ('న', '|'), ('మి', 'U'), ('మ్ము', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('డె', '|'), ('పు', '|'), ('డి', 'U'), ('స్సీ', 'U'), ('యెం', 'U'), ('త', '|'), ('పా', 'U'), ('పం', 'U'), ('బొ', '|'), ('కో', 'U'), ('మ', 'U'), ('త్తా', 'U'), ('రా', 'U'), ('తి', '|'), ('ని', '|'), ('శా', 'U'), ('ట', '|'), ('సం', 'U'), ('హ', '|'), ('ర', '|'), ('ణ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
         <is>
           <t>శమ మావంతయుఁ బూననొల్లఁడు గరిష్ఠజ్ఞానవిద్యావిశే-
 షము గోరంతయు నాత్మలోఁ దలఁపఁ డాచారప్రచారంబు ధ-
@@ -2688,32 +2484,29 @@
 మమతన్ దేహమెఱుంగలేక ధర రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
           <t>[('శ', '|'), ('మ', '|'), ('మా', 'U'), ('వం', 'U'), ('త', '|'), ('యు', '|'), ('బూ', 'U'), ('న', '|'), ('నొ', 'U'), ('ల్ల', '|'), ('డు', '|'), ('గ', '|'), ('రి', 'U'), ('ష్ఠ', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('వి', 'U'), ('ద్యా', 'U'), ('వి', '|'), ('శే', 'U'), ('ష', '|'), ('ము', '|'), ('గో', 'U'), ('రం', 'U'), ('త', '|'), ('యు', '|'), ('నా', 'U'), ('త్మ', '|'), ('లో', 'U'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('డా', 'U'), ('చా', 'U'), ('ర', 'U'), ('ప్ర', '|'), ('చా', 'U'), ('రం', 'U'), ('బు', '|'), ('ధ', '|'), ('ర్మ', '|'), ('ము', '|'), ('వీ', 'U'), ('సం', 'U'), ('బు', '|'), ('ను', '|'), ('జే', 'U'), ('య', '|'), ('జా', 'U'), ('ల', '|'), ('డు', '|'), ('గ', '|'), ('దా', 'U'), ('మం', 'U'), ('దుం', 'U'), ('డు', '|'), ('పెన్', 'U'), ('రొ', 'U'), ('క్క', '|'), ('పున్', 'U'), ('మ', '|'), ('మ', '|'), ('తన్', 'U'), ('దే', 'U'), ('హ', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('ధ', '|'), ('ర', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
         <is>
           <t>భువిలో లోభులు కూడఁబెట్టిన ధనంబున్ బందికాం డ్రూడిగల్
 బవినీలున్ దరిబేసులున్ దొరలొగిన్ బచ్చుల్ నటీదాసికా-
@@ -2721,32 +2514,29 @@
 మవతిసన్నుతదివ్యనామ! రఘురామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
           <t>[('భు', '|'), ('వి', '|'), ('లో', 'U'), ('లో', 'U'), ('భు', '|'), ('లు', '|'), ('కూ', 'U'), ('డ', '|'), ('బె', 'U'), ('ట్టి', '|'), ('న', '|'), ('ధ', '|'), ('నం', 'U'), ('బున్', 'U'), ('బం', 'U'), ('ది', '|'), ('కాం', 'U'), ('డ్రూ', 'U'), ('డి', '|'), ('గల్', 'U'), ('బ', '|'), ('వి', '|'), ('నీ', 'U'), ('లున్', 'U'), ('ద', '|'), ('రి', '|'), ('బే', 'U'), ('సు', '|'), ('లున్', 'U'), ('దొ', '|'), ('ర', '|'), ('లొ', '|'), ('గిన్', 'U'), ('బ', '|'), ('చ్చుల్', 'U'), ('న', '|'), ('టీ', 'U'), ('దా', 'U'), ('సి', '|'), ('కా', 'U'), ('యు', '|'), ('వ', '|'), ('తుల్', 'U'), ('గుం', 'U'), ('టె', '|'), ('న', '|'), ('క', 'U'), ('త్తె', '|'), ('లున్', 'U'), ('గొ', '|'), ('ను', '|'), ('దు', '|'), ('రో', 'U'), ('హో', 'U'), ('యె', 'U'), ('ట్టి', '|'), ('క', '|'), ('ర్మం', 'U'), ('బొ', '|'), ('హై', 'U'), ('మ', '|'), ('వ', '|'), ('తి', '|'), ('స', 'U'), ('న్ను', '|'), ('త', '|'), ('ది', 'U'), ('వ్య', '|'), ('నా', 'U'), ('మ', '|'), ('ర', '|'), ('ఘు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
         <is>
           <t>సిరులెంతేనియు నిక్కువంబనుచు దుశ్శీలన్ మదిన్ నమ్మి ని-
 ర్భరగర్వంబున మీఁదు చూతు రహహా! భావంబుతో నెంచినం
@@ -2754,32 +2544,29 @@
 మరుదగ్రార్పితదీపమాలికలు! రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
           <t>[('సి', '|'), ('రు', '|'), ('లెం', 'U'), ('తే', 'U'), ('ని', '|'), ('యు', '|'), ('ని', 'U'), ('క్కు', '|'), ('వం', 'U'), ('బ', '|'), ('ను', '|'), ('చు', '|'), ('దు', 'U'), ('శ్శీ', 'U'), ('లన్', 'U'), ('మ', '|'), ('దిన్', 'U'), ('న', 'U'), ('మ్మి', '|'), ('ని', 'U'), ('ర్భ', '|'), ('ర', '|'), ('గ', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('న', '|'), ('మీ', 'U'), ('దు', '|'), ('చూ', 'U'), ('తు', '|'), ('ర', '|'), ('హ', '|'), ('హా', 'U'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('తో', 'U'), ('నెం', 'U'), ('చి', '|'), ('నం', 'U'), ('గ', '|'), ('రి', '|'), ('క', 'U'), ('ర్ణాం', 'U'), ('త', '|'), ('ము', '|'), ('లం', 'U'), ('బు', '|'), ('బు', 'U'), ('ద్బు', '|'), ('ద', '|'), ('త', '|'), ('తుల్', 'U'), ('ఖ', 'U'), ('ద్యో', 'U'), ('త', '|'), ('కీ', 'U'), ('ట', 'U'), ('ప్ర', '|'), ('భల్', 'U'), ('మ', '|'), ('రు', '|'), ('ద', 'U'), ('గ్రా', 'U'), ('ర్పి', '|'), ('త', '|'), ('దీ', 'U'), ('ప', '|'), ('మా', 'U'), ('లి', '|'), ('క', '|'), ('లు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
         <is>
           <t>ఇటు రా రమ్మని పిల్చి గౌరవముగా హేమాంబరాందోళికా-
 కటకప్రాకటభూషణాదు లిడి వేడ్కన్ ఱేఁడు ప్రార్థింప వి-
@@ -2787,32 +2574,29 @@
 మటి మేనర్కమె బల్మిఁ గట్టఁగను? రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
           <t>[('ఇ', '|'), ('టు', '|'), ('రా', 'U'), ('ర', 'U'), ('మ్మ', '|'), ('ని', '|'), ('పి', 'U'), ('ల్చి', '|'), ('గౌ', 'U'), ('ర', '|'), ('వ', '|'), ('ము', '|'), ('గా', 'U'), ('హే', 'U'), ('మాం', 'U'), ('బ', '|'), ('రాం', 'U'), ('దో', 'U'), ('ళి', '|'), ('కా', 'U'), ('క', '|'), ('ట', '|'), ('క', 'U'), ('ప్రా', 'U'), ('క', '|'), ('ట', '|'), ('భూ', 'U'), ('ష', '|'), ('ణా', 'U'), ('దు', '|'), ('లి', '|'), ('డి', '|'), ('వే', 'U'), ('డ్కన్', 'U'), ('ఱే', 'U'), ('డు', 'U'), ('ప్రా', 'U'), ('ర్థిం', 'U'), ('ప', '|'), ('వి', 'U'), ('స్ఫు', '|'), ('ట', '|'), ('భం', 'U'), ('గిం', 'U'), ('ద', '|'), ('గు', '|'), ('కా', 'U'), ('వ్య', '|'), ('క', 'U'), ('న్య', '|'), ('ని', '|'), ('డ', '|'), ('నొ', '|'), ('ప్పున్', 'U'), ('గా', 'U'), ('ని', '|'), ('చో', 'U'), ('ను', 'U'), ('ర్వి', '|'), ('కో', 'U'), ('మ', '|'), ('టి', '|'), ('మే', 'U'), ('న', 'U'), ('ర్క', '|'), ('మె', '|'), ('బ', 'U'), ('ల్మి', '|'), ('గ', 'U'), ('ట్ట', '|'), ('గ', '|'), ('ను', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
         <is>
           <t>తనకుం బద్యము లల్లి సత్కవులు నిత్యంబుం బ్రసంగింపఁగా
 విని యొత్తుల్ దిను దాసరిం బలె బయల్వీక్షించుచుం గానియై-
@@ -2820,32 +2604,29 @@
 మను మార్గంబు గ్రహింపఁగాఁ గలడె రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('కుం', 'U'), ('బ', 'U'), ('ద్య', '|'), ('ము', '|'), ('ల', 'U'), ('ల్లి', '|'), ('స', 'U'), ('త్క', '|'), ('వు', '|'), ('లు', '|'), ('ని', 'U'), ('త్యం', 'U'), ('బుం', 'U'), ('బ్ర', '|'), ('సం', 'U'), ('గిం', 'U'), ('ప', '|'), ('గా', 'U'), ('వి', '|'), ('ని', '|'), ('యొ', '|'), ('త్తుల్', 'U'), ('ది', '|'), ('ను', '|'), ('దా', 'U'), ('స', '|'), ('రిం', 'U'), ('బ', '|'), ('లె', '|'), ('బ', '|'), ('య', 'U'), ('ల్వీ', 'U'), ('క్షిం', 'U'), ('చు', '|'), ('చుం', 'U'), ('గా', 'U'), ('ని', '|'), ('యై', 'U'), ('న', '|'), ('నొ', '|'), ('సం', 'U'), ('గన్', 'U'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('ద', '|'), ('లం', 'U'), ('ప', '|'), ('ని', '|'), ('మ', '|'), ('దాం', 'U'), ('ధ', 'U'), ('క్షో', 'U'), ('ణి', '|'), ('పా', 'U'), ('లుం', 'U'), ('డి', '|'), ('లన్', 'U'), ('మ', '|'), ('ను', '|'), ('మా', 'U'), ('ర్గం', 'U'), ('బు', 'U'), ('గ్ర', '|'), ('హిం', 'U'), ('ప', '|'), ('గా', 'U'), ('గ', '|'), ('ల', '|'), ('డె', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
         <is>
           <t>ధాటీపాటవచాటుకావ్యరచనోద్యద్ధోరణీసారణీ-
 వాటీకోద్గతి సత్కవీశ్వరుఁడు నిత్యంబుం దమున్ వేఁడఁగా
@@ -2853,32 +2634,29 @@
 మాటే బంగరు నేటి రాజులకు రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
           <t>[('ధా', 'U'), ('టీ', 'U'), ('పా', 'U'), ('ట', '|'), ('వ', '|'), ('చా', 'U'), ('టు', '|'), ('కా', 'U'), ('వ్య', '|'), ('ర', '|'), ('చ', '|'), ('నో', 'U'), ('ద్య', 'U'), ('ద్ధో', 'U'), ('ర', '|'), ('ణీ', 'U'), ('సా', 'U'), ('ర', '|'), ('ణీ', 'U'), ('వా', 'U'), ('టీ', 'U'), ('కో', 'U'), ('ద్గ', '|'), ('తి', '|'), ('స', 'U'), ('త్క', '|'), ('వీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('డు', '|'), ('ని', 'U'), ('త్యం', 'U'), ('బుం', 'U'), ('ద', '|'), ('మున్', 'U'), ('వే', 'U'), ('డ', '|'), ('గా', 'U'), ('వీ', 'U'), ('టీ', 'U'), ('ఘో', 'U'), ('ట', '|'), ('క', '|'), ('హా', 'U'), ('ట', '|'), ('కా', 'U'), ('దు', '|'), ('లి', '|'), ('డ', '|'), ('రు', '|'), ('ర్విన్', 'U'), ('ని', '|'), ('ర్ద', '|'), ('యా', 'U'), ('బు', 'U'), ('ద్ధి', '|'), ('చే', 'U'), ('మా', 'U'), ('టే', 'U'), ('బం', 'U'), ('గ', '|'), ('రు', '|'), ('నే', 'U'), ('టి', '|'), ('రా', 'U'), ('జు', '|'), ('ల', '|'), ('కు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
         <is>
           <t>పలుమాఱుం ద్విజరాజు లొక్కటఁ దముం బాధింతురంచున్ విషా-
 నలఘోరాననము ల్ముండుంచుకొని కానన్ రాక దుర్గస్థలం-
@@ -2886,32 +2664,29 @@
 మలఁకల్మాని చరింపఁగాఁ గలరె? రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('లు', '|'), ('మా', 'U'), ('ఱుం', 'U'), ('ద్వి', '|'), ('జ', '|'), ('రా', 'U'), ('జు', '|'), ('లొ', 'U'), ('క్క', '|'), ('ట', '|'), ('ద', '|'), ('ముం', 'U'), ('బా', 'U'), ('ధిం', 'U'), ('తు', '|'), ('రం', 'U'), ('చున్', 'U'), ('వి', '|'), ('షా', 'U'), ('న', '|'), ('ల', '|'), ('ఘో', 'U'), ('రా', 'U'), ('న', '|'), ('న', '|'), ('ము', 'U'), ('ల్ముం', 'U'), ('డుం', 'U'), ('చు', '|'), ('కొ', '|'), ('ని', '|'), ('కా', 'U'), ('నన్', 'U'), ('రా', 'U'), ('క', '|'), ('దు', 'U'), ('ర్గ', 'U'), ('స్థ', '|'), ('లం', 'U'), ('బు', '|'), ('ల', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('చు', '|'), ('చు', '|'), ('బు', 'U'), ('స్సు', '|'), ('రం', 'U'), ('దు', '|'), ('రి', '|'), ('ల', '|'), ('నా', 'U'), ('భో', 'U'), ('గే', 'U'), ('శు', '|'), ('లెం', 'U'), ('దై', 'U'), ('న', '|'), ('నున్', 'U'), ('మ', '|'), ('ల', '|'), ('క', 'U'), ('ల్మా', 'U'), ('ని', '|'), ('చ', '|'), ('రిం', 'U'), ('ప', '|'), ('గా', 'U'), ('గ', '|'), ('ల', '|'), ('రె', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
         <is>
           <t>గడియల్ రెండిక సైచి రా వెనుక రా కాసంతసేపుండి రా
 విడిదింటం గడె సేద దీర్చుకొని రా వేగంబె బోసేసి రా
@@ -2919,32 +2694,29 @@
 మడఁత ల్వల్కుచుఁ ద్రిప్పుఁ గాసిడక! రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
           <t>[('గ', '|'), ('డి', '|'), ('యల్', 'U'), ('రెం', 'U'), ('డి', '|'), ('క', '|'), ('సై', 'U'), ('చి', '|'), ('రా', 'U'), ('వె', '|'), ('ను', '|'), ('క', '|'), ('రా', 'U'), ('కా', 'U'), ('సం', 'U'), ('త', '|'), ('సే', 'U'), ('పుం', 'U'), ('డి', '|'), ('రా', 'U'), ('వి', '|'), ('డి', '|'), ('దిం', 'U'), ('టం', 'U'), ('గ', '|'), ('డె', '|'), ('సే', 'U'), ('ద', '|'), ('దీ', 'U'), ('ర్చు', '|'), ('కొ', '|'), ('ని', '|'), ('రా', 'U'), ('వే', 'U'), ('గం', 'U'), ('బె', '|'), ('బో', 'U'), ('సే', 'U'), ('సి', '|'), ('రా', 'U'), ('యె', '|'), ('డ', '|'), ('పొ', 'U'), ('ద్ద', 'U'), ('ప్పు', '|'), ('డు', '|'), ('ర', 'U'), ('మ్మ', '|'), ('టం', 'U'), ('చు', '|'), ('సు', '|'), ('క', '|'), ('విన్', 'U'), ('హీ', 'U'), ('న', 'U'), ('ప్ర', '|'), ('భుం', 'U'), ('డీ', 'U'), ('గ', '|'), ('తిన్', 'U'), ('మ', '|'), ('డ', '|'), ('త', 'U'), ('ల్వ', 'U'), ('ల్కు', '|'), ('చు', '|'), ('ద్రి', 'U'), ('ప్పు', '|'), ('గా', 'U'), ('సి', '|'), ('డ', '|'), ('క', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
         <is>
           <t>బలరాజన్యుఁడు ధూర్తకాకవిఁ గనం గంపించి విత్తంబు దా-
 నలఘుప్రక్రియ నిచ్చు సత్కవివరున్ హాస్యంబు గావించు నౌ
@@ -2952,32 +2724,29 @@
 మలయోర్వీధరమారుతంబునకు రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
           <t>[('బ', '|'), ('ల', '|'), ('రా', 'U'), ('జ', 'U'), ('న్యు', '|'), ('డు', '|'), ('ధూ', 'U'), ('ర్త', '|'), ('కా', 'U'), ('క', '|'), ('వి', '|'), ('గ', '|'), ('నం', 'U'), ('గం', 'U'), ('పిం', 'U'), ('చి', '|'), ('వి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('దా', 'U'), ('న', '|'), ('ల', '|'), ('ఘు', 'U'), ('ప్ర', 'U'), ('క్రి', '|'), ('య', '|'), ('ని', 'U'), ('చ్చు', '|'), ('స', 'U'), ('త్క', '|'), ('వి', '|'), ('వ', '|'), ('రున్', 'U'), ('హా', 'U'), ('స్యం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చు', '|'), ('నౌ', 'U'), ('ని', '|'), ('ల', '|'), ('బ', 'U'), ('ర్బూ', 'U'), ('ర', '|'), ('ము', '|'), ('గా', 'U'), ('లి', '|'), ('వా', 'U'), ('న', '|'), ('బ', '|'), ('డు', '|'), ('గా', 'U'), ('కిం', 'U'), ('తై', 'U'), ('న', '|'), ('గం', 'U'), ('పిం', 'U'), ('చు', '|'), ('నే', 'U'), ('మ', '|'), ('ల', '|'), ('యో', 'U'), ('ర్వీ', 'U'), ('ధ', '|'), ('ర', '|'), ('మా', 'U'), ('రు', '|'), ('తం', 'U'), ('బు', '|'), ('న', '|'), ('కు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
         <is>
           <t>కాయస్థు ల్గణికాజనంబులు తురుష్కశ్రేణులున్ దుష్టదా-
 సేయుల్ వైద్యులునుం బురోహితులు దాసీభూతముల్ గాయకుల్
@@ -2985,32 +2754,29 @@
 మాయాజాలము పన్ని లాగుదురు రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('య', 'U'), ('స్థు', 'U'), ('ల్గ', '|'), ('ణి', '|'), ('కా', 'U'), ('జ', '|'), ('నం', 'U'), ('బు', '|'), ('లు', '|'), ('తు', '|'), ('రు', 'U'), ('ష్క', 'U'), ('శ్రే', 'U'), ('ణు', '|'), ('లున్', 'U'), ('దు', 'U'), ('ష్ట', '|'), ('దా', 'U'), ('సే', 'U'), ('యుల్', 'U'), ('వై', 'U'), ('ద్యు', '|'), ('లు', '|'), ('నుం', 'U'), ('బు', '|'), ('రో', 'U'), ('హి', '|'), ('తు', '|'), ('లు', '|'), ('దా', 'U'), ('సీ', 'U'), ('భూ', 'U'), ('త', '|'), ('ముల్', 'U'), ('గా', 'U'), ('య', '|'), ('కుల్', 'U'), ('బో', 'U'), ('యల్', 'U'), ('గొం', 'U'), ('ద', '|'), ('ఱు', '|'), ('లో', 'U'), ('భి', '|'), ('భూ', 'U'), ('వ', '|'), ('రు', '|'), ('ధ', '|'), ('నం', 'U'), ('బున్', 'U'), ('సం', 'U'), ('త', '|'), ('తం', 'U'), ('బున్', 'U'), ('మ', '|'), ('హా', 'U'), ('మా', 'U'), ('యా', 'U'), ('జా', 'U'), ('ల', '|'), ('ము', '|'), ('ప', 'U'), ('న్ని', '|'), ('లా', 'U'), ('గు', '|'), ('దు', '|'), ('రు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
         <is>
           <t>శ్రీలక్ష్మీ మదయుక్తుఁడై నృపుఁడు వాసిం బేర్చు భూదేవునిం
 గేలింబెట్టి తదీయకోపమహిమన్ గీడొంచు నెట్లన్న ది-
@@ -3018,32 +2784,29 @@
 మాలండై చెడిపోవడోట మును, రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('మ', '|'), ('ద', '|'), ('యు', 'U'), ('క్తు', '|'), ('డై', 'U'), ('నృ', '|'), ('పు', '|'), ('డు', '|'), ('వా', 'U'), ('సిం', 'U'), ('బే', 'U'), ('ర్చు', '|'), ('భూ', 'U'), ('దే', 'U'), ('వు', '|'), ('నిం', 'U'), ('గే', 'U'), ('లిం', 'U'), ('బె', 'U'), ('ట్టి', '|'), ('త', '|'), ('దీ', 'U'), ('య', '|'), ('కో', 'U'), ('ప', '|'), ('మ', '|'), ('హి', '|'), ('మన్', 'U'), ('గీ', 'U'), ('డొం', 'U'), ('చు', '|'), ('నె', 'U'), ('ట్ల', 'U'), ('న్న', '|'), ('ది', 'U'), ('క్ఖే', 'U'), ('ల', 'U'), ('త్కీ', 'U'), ('ర్తి', 'U'), ('త్రి', '|'), ('శం', 'U'), ('కుం', 'U'), ('డ', 'U'), ('ల్క', '|'), ('న', '|'), ('ల', '|'), ('శ', 'U'), ('క్తిం', 'U'), ('బ', 'U'), ('ల్కి', '|'), ('త', 'U'), ('ద్వా', 'U'), ('గ్గ', '|'), ('తిన్', 'U'), ('మా', 'U'), ('లం', 'U'), ('డై', 'U'), ('చె', '|'), ('డి', '|'), ('పో', 'U'), ('వ', '|'), ('డో', 'U'), ('ట', '|'), ('ము', '|'), ('ను', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
         <is>
           <t>లసదుద్యజ్జ్వలభవ్యదివ్యకవితాలంకారవిద్యావిశే-
 షసమాటోపవిజృంభమాణకవిరాట్సంక్రందనుం ద్రిప్పిత్రి-
@@ -3051,32 +2814,29 @@
 మసియై పోవరే తత్క్రుధాగ్ని నిల రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
           <t>[('ల', '|'), ('స', '|'), ('దు', 'U'), ('ద్య', 'U'), ('జ్జ్వ', '|'), ('ల', '|'), ('భ', 'U'), ('వ్య', '|'), ('ది', 'U'), ('వ్య', '|'), ('క', '|'), ('వి', '|'), ('తా', 'U'), ('లం', 'U'), ('కా', 'U'), ('ర', '|'), ('వి', 'U'), ('ద్యా', 'U'), ('వి', '|'), ('శే', 'U'), ('ష', '|'), ('స', '|'), ('మా', 'U'), ('టో', 'U'), ('ప', '|'), ('వి', '|'), ('జృం', 'U'), ('భ', '|'), ('మా', 'U'), ('ణ', '|'), ('క', '|'), ('వి', '|'), ('రా', 'U'), ('ట్సం', 'U'), ('క్రం', 'U'), ('ద', '|'), ('నుం', 'U'), ('ద్రి', 'U'), ('ప్పి', 'U'), ('త్రి', 'U'), ('ప్పి', '|'), ('స', '|'), ('మీ', 'U'), ('చా', 'U'), ('న', '|'), ('త', 'U'), ('బ్రో', 'U'), ('వ', '|'), ('కుం', 'U'), ('డు', '|'), ('నృ', '|'), ('ప', '|'), ('తుల్', 'U'), ('పెం', 'U'), ('పే', 'U'), ('ది', '|'), ('ని', 'U'), ('ర్భా', 'U'), ('గ్యు', '|'), ('లై', 'U'), ('మ', '|'), ('సి', '|'), ('యై', 'U'), ('పో', 'U'), ('వ', '|'), ('రే', 'U'), ('త', 'U'), ('త్క్రు', '|'), ('ధా', 'U'), ('గ్ని', '|'), ('ని', '|'), ('ల', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
         <is>
           <t>రసికత్వంబును దానధర్మగుణముం బ్రత్యర్థిశిక్షాకళా-
 భ్యసనప్రౌఢిమ సాధుబంధుజనతాత్యంతావనోపాయలా-
@@ -3084,32 +2844,29 @@
 మసమే మిక్కిలి దుర్నరేంద్రులకు రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
           <t>[('ర', '|'), ('సి', '|'), ('క', 'U'), ('త్వం', 'U'), ('బు', '|'), ('ను', '|'), ('దా', 'U'), ('న', '|'), ('ధ', '|'), ('ర్మ', '|'), ('గు', '|'), ('ణ', '|'), ('ముం', 'U'), ('బ్ర', 'U'), ('త్య', 'U'), ('ర్థి', '|'), ('శి', 'U'), ('క్షా', 'U'), ('క', '|'), ('ళా', 'U'), ('భ్య', '|'), ('స', '|'), ('న', 'U'), ('ప్రౌ', 'U'), ('ఢి', '|'), ('మ', '|'), ('సా', 'U'), ('ధు', '|'), ('బం', 'U'), ('ధు', '|'), ('జ', '|'), ('న', '|'), ('తా', 'U'), ('త్యం', 'U'), ('తా', 'U'), ('వ', '|'), ('నో', 'U'), ('పా', 'U'), ('య', '|'), ('లా', 'U'), ('ల', '|'), ('స', '|'), ('చి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('ను', '|'), ('దృ', 'U'), ('ప్తి', '|'), ('యుం', 'U'), ('గొ', '|'), ('ఱ', '|'), ('త', '|'), ('వా', 'U'), ('లా', 'U'), ('యం', 'U'), ('బు', '|'), ('దా', 'U'), ('నెం', 'U'), ('చ', '|'), ('దా', 'U'), ('మ', '|'), ('స', '|'), ('మే', 'U'), ('మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('దు', 'U'), ('ర్న', '|'), ('రేం', 'U'), ('ద్రు', '|'), ('ల', '|'), ('కు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
         <is>
           <t>ఖలభూనాథుఁడు నిచ్చనిచ్చ జనులన్ గారించి విత్తంబు మి-
 క్కిలిగా గూరిచి పుట్టలో నిఱికి వేఁగింపంగ నుద్దండతం
@@ -3117,32 +2874,29 @@
 మలు చీకాకుగఁ జేయు చందముగ రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
           <t>[('ఖ', '|'), ('ల', '|'), ('భూ', 'U'), ('నా', 'U'), ('థు', '|'), ('డు', '|'), ('ని', 'U'), ('చ్చ', '|'), ('ని', 'U'), ('చ్చ', '|'), ('జ', '|'), ('ను', '|'), ('లన్', 'U'), ('గా', 'U'), ('రిం', 'U'), ('చి', '|'), ('వి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('గా', 'U'), ('గూ', 'U'), ('రి', '|'), ('చి', '|'), ('పు', 'U'), ('ట్ట', '|'), ('లో', 'U'), ('ని', '|'), ('ఱి', '|'), ('కి', '|'), ('వే', 'U'), ('గిం', 'U'), ('పం', 'U'), ('గ', '|'), ('ను', 'U'), ('ద్దం', 'U'), ('డ', '|'), ('తం', 'U'), ('బ', '|'), ('ల', '|'), ('వ', 'U'), ('న్మ్లే', 'U'), ('చ్ఛు', '|'), ('లు', '|'), ('పొం', 'U'), ('ది', '|'), ('లా', 'U'), ('వ', '|'), ('ను', '|'), ('చు', '|'), ('లే', 'U'), ('బా', 'U'), ('ధి', '|'), ('తు', '|'), ('రౌ', 'U'), ('పె', 'U'), ('ట్టి', '|'), ('జె', 'U'), ('ఱ్ఱి', '|'), ('జీ', 'U'), ('మ', '|'), ('లు', '|'), ('చీ', 'U'), ('కా', 'U'), ('కు', '|'), ('గ', '|'), ('జే', 'U'), ('యు', '|'), ('చం', 'U'), ('ద', '|'), ('ము', '|'), ('గ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
         <is>
           <t>అతికష్టం బొనరించి భూమిజనుఁ డత్యాసక్తి విత్తంబు వి-
 స్తృతభంగిం గడియింపఁగా నెఱిఁగి ధాత్రీకాంతు లుద్దండప-
@@ -3150,32 +2904,29 @@
 మ్మతిఁ గైకొండ్రు మఱెంత నిర్దయులొ రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('తి', '|'), ('క', 'U'), ('ష్టం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('భూ', 'U'), ('మి', '|'), ('జ', '|'), ('ను', '|'), ('డ', 'U'), ('త్యా', 'U'), ('స', 'U'), ('క్తి', '|'), ('వి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('వి', 'U'), ('స్తృ', '|'), ('త', '|'), ('భం', 'U'), ('గిం', 'U'), ('గ', '|'), ('డి', '|'), ('యిం', 'U'), ('ప', '|'), ('గా', 'U'), ('నె', '|'), ('ఱి', '|'), ('గి', '|'), ('ధా', 'U'), ('త్రీ', 'U'), ('కాం', 'U'), ('తు', '|'), ('లు', 'U'), ('ద్దం', 'U'), ('డ', '|'), ('ప', 'U'), ('ద్ధ', '|'), ('తి', '|'), ('వా', 'U'), ('నిం', 'U'), ('గొ', '|'), ('ని', '|'), ('పో', 'U'), ('యి', '|'), ('కొ', 'U'), ('ట్టి', '|'), ('మి', '|'), ('గు', '|'), ('లం', 'U'), ('దం', 'U'), ('డిం', 'U'), ('చి', '|'), ('యా', 'U'), ('సొ', 'U'), ('మ్ము', '|'), ('స', 'U'), ('మ్మ', '|'), ('తి', '|'), ('గై', 'U'), ('కొం', 'U'), ('డ్రు', '|'), ('మ', '|'), ('ఱెం', 'U'), ('త', '|'), ('ని', '|'), ('ర్ద', '|'), ('యు', '|'), ('లొ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
         <is>
           <t>దానంబిల్లె, దయారసంబు నహి, సద్ధర్మంబు తీర్, మీ పద-
 ధ్యానంబున్ గడులొచ్చు సత్యవచనవ్యాపారముల్ సున్న సు-
@@ -3183,32 +2934,29 @@
 క్ష్మానాథాధమకోటి కేది గతి రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
           <t>[('దా', 'U'), ('నం', 'U'), ('బి', 'U'), ('ల్లె', '|'), ('ద', '|'), ('యా', 'U'), ('ర', '|'), ('సం', 'U'), ('బు', '|'), ('న', '|'), ('హి', '|'), ('స', 'U'), ('ద్ధ', '|'), ('ర్మం', 'U'), ('బు', '|'), ('తీ', 'U'), ('ర్మీ', 'U'), ('ప', '|'), ('ద', 'U'), ('ధ్యా', 'U'), ('నం', 'U'), ('బున్', 'U'), ('గ', '|'), ('డు', '|'), ('లొ', 'U'), ('చ్చు', '|'), ('స', 'U'), ('త్య', '|'), ('వ', '|'), ('చ', '|'), ('న', 'U'), ('వ్యా', 'U'), ('పా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('సు', 'U'), ('న్న', '|'), ('సు', 'U'), ('జ్ఞా', 'U'), ('నం', 'U'), ('బెం', 'U'), ('త', '|'), ('యు', '|'), ('నా', 'U'), ('స్తి', '|'), ('సా', 'U'), ('ధు', '|'), ('జ', '|'), ('న', '|'), ('స', 'U'), ('న్మా', 'U'), ('నే', 'U'), ('చ్ఛ', '|'), ('లే', 'U'), ('దె', 'U'), ('న్న', '|'), ('నీ', 'U'), ('క్ష్మా', 'U'), ('నా', 'U'), ('థా', 'U'), ('ధ', '|'), ('మ', '|'), ('కో', 'U'), ('టి', '|'), ('కే', 'U'), ('ది', '|'), ('గ', '|'), ('తి', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
         <is>
           <t>తనువుల్ నిక్కములంచు నెంచుకొని యత్యంతదుర్మార్గవ-
 ర్తనులై నిర్దయమీఱ భూమిప్రజలం దండించి విత్తంబు లా-
@@ -3216,32 +2964,29 @@
 మనుజాధీశుల కేఁటి ధర్మములు రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ను', '|'), ('వుల్', 'U'), ('ని', 'U'), ('క్క', '|'), ('ము', '|'), ('లం', 'U'), ('చు', '|'), ('నెం', 'U'), ('చు', '|'), ('కొ', '|'), ('ని', '|'), ('య', 'U'), ('త్యం', 'U'), ('త', '|'), ('దు', '|'), ('ర్మా', 'U'), ('ర్గ', '|'), ('వ', 'U'), ('ర్త', '|'), ('ను', '|'), ('లై', 'U'), ('ని', '|'), ('ర్ద', '|'), ('య', '|'), ('మీ', 'U'), ('ఱ', '|'), ('భూ', 'U'), ('మి', 'U'), ('ప్ర', '|'), ('జ', '|'), ('లం', 'U'), ('దం', 'U'), ('డిం', 'U'), ('చి', '|'), ('వి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('లా', 'U'), ('ర్జ', '|'), ('వ', '|'), ('ము', 'U'), ('ల్సే', 'U'), ('యు', '|'), ('చు', '|'), ('గొం', 'U'), ('దు', '|'), ('లం', 'U'), ('దొ', '|'), ('ది', '|'), ('గి', '|'), ('ని', 'U'), ('చ్చ', 'U'), ('ల్గా', 'U'), ('న', '|'), ('రా', 'U'), ('కుం', 'U'), ('ద్రు', '|'), ('ఛీ', 'U'), ('మ', '|'), ('ను', '|'), ('జా', 'U'), ('ధీ', 'U'), ('శు', '|'), ('ల', '|'), ('కే', 'U'), ('టి', '|'), ('ధ', '|'), ('ర్మ', '|'), ('ము', '|'), ('లు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
         <is>
           <t>మురుగుల్ ప్రోగులు నుంగరాల్సరిపిణీ ల్ముక్తామణిహారముల్
 తురంగంబు ల్గరు లందబులు భటస్తోమంబులున్ రాజ్యమున్
@@ -3249,32 +2994,29 @@
 మరభూవిష్టపదుష్టనాయకులు రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
           <t>[('ము', '|'), ('రు', '|'), ('గుల్', 'U'), ('ప్రో', 'U'), ('గు', '|'), ('లు', '|'), ('నుం', 'U'), ('గ', '|'), ('రా', 'U'), ('ల్స', '|'), ('రి', '|'), ('పి', '|'), ('ణీ', 'U'), ('ల్ము', 'U'), ('క్తా', 'U'), ('మ', '|'), ('ణి', '|'), ('హా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('తు', '|'), ('రం', 'U'), ('గం', 'U'), ('బు', 'U'), ('ల్గ', '|'), ('రు', '|'), ('లం', 'U'), ('ద', '|'), ('బు', '|'), ('లు', '|'), ('భ', '|'), ('ట', 'U'), ('స్తో', 'U'), ('మం', 'U'), ('బు', '|'), ('లున్', 'U'), ('రా', 'U'), ('జ్య', '|'), ('మున్', 'U'), ('స్థి', '|'), ('ర', '|'), ('మం', 'U'), ('చున్', 'U'), ('మ', '|'), ('ది', '|'), ('న', 'U'), ('మ్మి', '|'), ('పా', 'U'), ('ప', '|'), ('ము', '|'), ('లు', '|'), ('వే', 'U'), ('సే', 'U'), ('తు', '|'), ('ర్మ', '|'), ('దో', 'U'), ('న్మ', 'U'), ('త్త', '|'), ('పా', 'U'), ('మ', '|'), ('ర', '|'), ('భూ', 'U'), ('వి', 'U'), ('ష్ట', '|'), ('ప', '|'), ('దు', 'U'), ('ష్ట', '|'), ('నా', 'U'), ('య', '|'), ('కు', '|'), ('లు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
         <is>
           <t>మకరోగ్రక్రకచాగ్రజాగ్రదురుసమ్యక్ఛాతదంష్ట్రాక్షత
 ప్రకటాంఘ్రిద్వయనిర్గళద్రుధిరధారాపూరఘోరవ్యధా-
@@ -3282,32 +3024,29 @@
 మకుటీభూతశశాంకచాపహర! రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('క', '|'), ('రో', 'U'), ('గ్ర', 'U'), ('క్ర', '|'), ('క', '|'), ('చా', 'U'), ('గ్ర', '|'), ('జా', 'U'), ('గ్ర', '|'), ('దు', '|'), ('రు', '|'), ('స', 'U'), ('మ్య', 'U'), ('క్ఛా', 'U'), ('త', '|'), ('దం', 'U'), ('ష్ట్రా', 'U'), ('క్ష', '|'), ('త', 'U'), ('ప్ర', '|'), ('క', '|'), ('టాం', 'U'), ('ఘ్రి', 'U'), ('ద్వ', '|'), ('య', '|'), ('ని', 'U'), ('ర్గ', '|'), ('ళ', '|'), ('ద్రు', '|'), ('ధి', '|'), ('ర', '|'), ('ధా', 'U'), ('రా', 'U'), ('పూ', 'U'), ('ర', '|'), ('ఘో', 'U'), ('ర', 'U'), ('వ్య', '|'), ('ధా', 'U'), ('చ', '|'), ('కి', '|'), ('తుం', 'U'), ('డై', 'U'), ('మొ', '|'), ('ఱ', '|'), ('సే', 'U'), ('య', '|'), ('న', 'U'), ('గ్గ', '|'), ('జ', '|'), ('ప', '|'), ('తిన్', 'U'), ('సం', 'U'), ('ప్రీ', 'U'), ('తి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మ', '|'), ('కు', '|'), ('టీ', 'U'), ('భూ', 'U'), ('త', '|'), ('శ', '|'), ('శాం', 'U'), ('క', '|'), ('చా', 'U'), ('ప', '|'), ('హ', '|'), ('ర', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
         <is>
           <t>అగవిద్వేషణుఁ గూడి వేడుక నహల్యాదేవి గ్రీడింపఁగా
 భగవంతుండగు గౌతముండు గని కోపస్ఫూర్తి శాపింప నీ
@@ -3315,32 +3054,29 @@
 మగువం జేసితి వెంత వింత యది రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('గ', '|'), ('వి', 'U'), ('ద్వే', 'U'), ('ష', '|'), ('ణు', '|'), ('గూ', 'U'), ('డి', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('న', '|'), ('హ', 'U'), ('ల్యా', 'U'), ('దే', 'U'), ('వి', 'U'), ('గ్రీ', 'U'), ('డిం', 'U'), ('ప', '|'), ('గా', 'U'), ('భ', '|'), ('గ', '|'), ('వం', 'U'), ('తుం', 'U'), ('డ', '|'), ('గు', '|'), ('గౌ', 'U'), ('త', '|'), ('ముం', 'U'), ('డు', '|'), ('గ', '|'), ('ని', '|'), ('కో', 'U'), ('ప', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('శా', 'U'), ('పిం', 'U'), ('ప', '|'), ('నీ', 'U'), ('జ', '|'), ('గ', '|'), ('తిం', 'U'), ('ఱా', 'U'), ('ప', '|'), ('డి', '|'), ('తా', 'U'), ('ప', '|'), ('మొం', 'U'), ('ద', '|'), ('గ', '|'), ('ప', '|'), ('దా', 'U'), ('బ్జ', 'U'), ('ప్ర', 'U'), ('స్ఫు', '|'), ('ర', 'U'), ('ద్ధూ', 'U'), ('ళి', '|'), ('చే', 'U'), ('మ', '|'), ('గు', '|'), ('వం', 'U'), ('జే', 'U'), ('సి', '|'), ('తి', '|'), ('వెం', 'U'), ('త', '|'), ('విం', 'U'), ('త', '|'), ('య', '|'), ('ది', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
         <is>
           <t>అమరేంద్రాది సమస్తదేవభయదాహంకారహుంకార దు-
 ర్దదబాహాబలసింహనాద పటుకోదండోగ్రబాణచ్ఛటా-
@@ -3348,32 +3084,29 @@
 మ మును ల్మలని మెచ్చఁ ద్రుంచితివి రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('మ', '|'), ('రేం', 'U'), ('ద్రా', 'U'), ('ది', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('దే', 'U'), ('వ', '|'), ('భ', '|'), ('య', '|'), ('దా', 'U'), ('హం', 'U'), ('కా', 'U'), ('ర', '|'), ('హుం', 'U'), ('కా', 'U'), ('ర', '|'), ('దు', '|'), ('ర్ద', '|'), ('ద', '|'), ('బా', 'U'), ('హా', 'U'), ('బ', '|'), ('ల', '|'), ('సిం', 'U'), ('హ', '|'), ('నా', 'U'), ('ద', '|'), ('ప', '|'), ('టు', '|'), ('కో', 'U'), ('దం', 'U'), ('డో', 'U'), ('గ్ర', '|'), ('బా', 'U'), ('ణ', 'U'), ('చ్ఛ', '|'), ('టా', 'U'), ('స', '|'), ('మ', '|'), ('జా', 'U'), ('గ్ర', 'U'), ('త్ఖ', '|'), ('ర', '|'), ('దూ', 'U'), ('ష', '|'), ('ణా', 'U'), ('సు', '|'), ('రు', '|'), ('ల', '|'), ('భా', 'U'), ('స్వ', 'U'), ('ద్దం', 'U'), ('డ', '|'), ('కా', 'U'), ('ర', 'U'), ('ణ్య', '|'), ('సీ', 'U'), ('మ', '|'), ('ము', '|'), ('ను', 'U'), ('ల్మ', '|'), ('ల', '|'), ('ని', '|'), ('మె', 'U'), ('చ్చ', '|'), ('ద్రుం', 'U'), ('చి', '|'), ('తి', '|'), ('వి', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
         <is>
           <t>నే నీ బంటను నీవు నా దొర విదే నిక్కంబటంచు న్మదిన్
 నానాభంగుల నమ్మి కొల్చితినె యెన్నాళ్ళాయె జీతంబు కా-
@@ -3381,32 +3114,29 @@
 మౌనీంద్రాశయపద్మషట్చరణ! రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
           <t>[('నే', 'U'), ('నీ', 'U'), ('బం', 'U'), ('ట', '|'), ('ను', '|'), ('నీ', 'U'), ('వు', '|'), ('నా', 'U'), ('దొ', '|'), ('ర', '|'), ('వి', '|'), ('దే', 'U'), ('ని', 'U'), ('క్కం', 'U'), ('బ', '|'), ('టం', 'U'), ('చు', 'U'), ('న్మ', '|'), ('దిన్', 'U'), ('నా', 'U'), ('నా', 'U'), ('భం', 'U'), ('గు', '|'), ('ల', '|'), ('న', 'U'), ('మ్మి', '|'), ('కొ', 'U'), ('ల్చి', '|'), ('తి', '|'), ('నె', '|'), ('యె', 'U'), ('న్నా', 'U'), ('ళ్ళా', 'U'), ('యె', '|'), ('జీ', 'U'), ('తం', 'U'), ('బు', '|'), ('కా', 'U'), ('సై', 'U'), ('న', 'U'), ('న్నే', 'U'), ('టి', '|'), ('కొ', '|'), ('సం', 'U'), ('గ', '|'), ('వై', 'U'), ('తి', '|'), ('భ', '|'), ('ళి', '|'), ('యా', 'U'), ('హా', 'U'), ('లె', 'U'), ('స్స', '|'), ('బా', 'U'), ('గా', 'U'), ('యె', '|'), ('గా', 'U'), ('మౌ', 'U'), ('నీం', 'U'), ('ద్రా', 'U'), ('శ', '|'), ('య', '|'), ('ప', 'U'), ('ద్మ', '|'), ('ష', 'U'), ('ట్చ', '|'), ('ర', '|'), ('ణ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
         <is>
           <t>బలదేవుం డతినీచవృ త్తిని సురాపానంబు గావింపఁగా
 జలజాతాస్త్రుఁడు మానినీపురుషలజ్జాత్యాగముల్ సేయఁగా
@@ -3414,32 +3144,29 @@
 మలపం జాల విదే వివేక మిల? రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
           <t>[('బ', '|'), ('ల', '|'), ('దే', 'U'), ('వుం', 'U'), ('డ', '|'), ('తి', '|'), ('నీ', 'U'), ('చ', '|'), ('వృ', 'U'), ('త్తి', '|'), ('ని', '|'), ('సు', '|'), ('రా', 'U'), ('పా', 'U'), ('నం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('ప', '|'), ('గా', 'U'), ('జ', '|'), ('ల', '|'), ('జా', 'U'), ('తా', 'U'), ('స్త్రు', '|'), ('డు', '|'), ('మా', 'U'), ('ని', '|'), ('నీ', 'U'), ('పు', '|'), ('రు', '|'), ('ష', '|'), ('ల', 'U'), ('జ్జా', 'U'), ('త్యా', 'U'), ('గ', '|'), ('ముల్', 'U'), ('సే', 'U'), ('య', '|'), ('గా', 'U'), ('చ', '|'), ('ల', '|'), ('మా', 'U'), ('రం', 'U'), ('గ', '|'), ('న', '|'), ('ల', 'U'), ('క్ష్మి', '|'), ('స', 'U'), ('జ్జ', '|'), ('ను', '|'), ('ల', '|'), ('ని', 'U'), ('చ్చ', '|'), ('ల', '|'), ('ప', 'U'), ('ట్టి', '|'), ('బా', 'U'), ('ధిం', 'U'), ('ప', '|'), ('గా', 'U'), ('మ', '|'), ('ల', '|'), ('పం', 'U'), ('జా', 'U'), ('ల', '|'), ('వి', '|'), ('దే', 'U'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('మి', '|'), ('ల', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
         <is>
           <t>అదిరా! పిల్చినఁ బల్కవేటికి? బరాకా చాలు నింకేలఁగాఁ
 గదరా! మిక్కిలి వేఁడి వేసరిలు బాగా? నీకు శ్రీజానకీ-
@@ -3447,32 +3174,29 @@
 మదుదంచత్ర్పభుతాగుణప్రథిత! రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ది', '|'), ('రా', 'U'), ('పి', 'U'), ('ల్చి', '|'), ('న', '|'), ('బ', 'U'), ('ల్క', '|'), ('వే', 'U'), ('టి', '|'), ('కి', '|'), ('బ', '|'), ('రా', 'U'), ('కా', 'U'), ('చా', 'U'), ('లు', '|'), ('నిం', 'U'), ('కే', 'U'), ('ల', '|'), ('గా', 'U'), ('గ', '|'), ('ద', '|'), ('రా', 'U'), ('మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('వే', 'U'), ('డి', '|'), ('వే', 'U'), ('స', '|'), ('రి', '|'), ('లు', '|'), ('బా', 'U'), ('గా', 'U'), ('నీ', 'U'), ('కు', 'U'), ('శ్రీ', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('మ', '|'), ('ది', '|'), ('రా', 'U'), ('క్షీ', 'U'), ('శ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('లా', 'U'), ('న', '|'), ('న', '|'), ('ను', 'U'), ('బ్రే', 'U'), ('మన్', 'U'), ('ద్రో', 'U'), ('వ', '|'), ('రా', 'U'), ('వే', 'U'), ('డ్క', 'U'), ('శ్రీ', 'U'), ('మ', '|'), ('దు', '|'), ('దం', 'U'), ('చ', 'U'), ('త్ర్ప', '|'), ('భు', '|'), ('తా', 'U'), ('గు', '|'), ('ణ', 'U'), ('ప్ర', '|'), ('థి', '|'), ('త', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
         <is>
           <t>వందిం బోలి భవత్కథావళులనే వర్ణింతు నత్యంత మీ
 చందం బొందఁగఁ గొందలం బుడిపి నిచ్చల్లచ్చి హెచ్చంగ నీ
@@ -3480,32 +3204,29 @@
 మందప్రక్రియ మాని పూనికను రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
           <t>[('వం', 'U'), ('దిం', 'U'), ('బో', 'U'), ('లి', '|'), ('భ', '|'), ('వ', 'U'), ('త్క', '|'), ('థా', 'U'), ('వ', '|'), ('ళు', '|'), ('ల', '|'), ('నే', 'U'), ('వ', 'U'), ('ర్ణిం', 'U'), ('తు', '|'), ('న', 'U'), ('త్యం', 'U'), ('త', '|'), ('మీ', 'U'), ('చం', 'U'), ('దం', 'U'), ('బొం', 'U'), ('ద', '|'), ('గ', '|'), ('గొం', 'U'), ('ద', '|'), ('లం', 'U'), ('బు', '|'), ('డి', '|'), ('పి', '|'), ('ని', 'U'), ('చ్చ', 'U'), ('ల్ల', 'U'), ('చ్చి', '|'), ('హె', 'U'), ('చ్చం', 'U'), ('గ', '|'), ('నీ', 'U'), ('వం', 'U'), ('దం', 'U'), ('దుం', 'U'), ('ది', '|'), ('రు', '|'), ('గం', 'U'), ('గ', '|'), ('బో', 'U'), ('క', '|'), ('ద', '|'), ('య', '|'), ('నా', 'U'), ('యం', 'U'), ('దుం', 'U'), ('డు', '|'), ('మె', 'U'), ('ల్ల', 'U'), ('ప్పు', '|'), ('డున్', 'U'), ('మం', 'U'), ('ద', 'U'), ('ప్ర', 'U'), ('క్రి', '|'), ('య', '|'), ('మా', 'U'), ('ని', '|'), ('పూ', 'U'), ('ని', '|'), ('క', '|'), ('ను', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
         <is>
           <t>అకటా! తావక కావ్యభవ్యరచనావ్యాపారలీలావిలో-
 లకసత్స్వాంతుఁడనైన నా పయిని నీ లక్ష్మీకటాక్షామృతం
@@ -3513,32 +3234,29 @@
 న్మకరందాసవపానకృద్భ్రమర! రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('క', '|'), ('టా', 'U'), ('తా', 'U'), ('వ', '|'), ('క', '|'), ('కా', 'U'), ('వ్య', '|'), ('భ', 'U'), ('వ్య', '|'), ('ర', '|'), ('చ', '|'), ('నా', 'U'), ('వ్యా', 'U'), ('పా', 'U'), ('ర', '|'), ('లీ', 'U'), ('లా', 'U'), ('వి', '|'), ('లో', 'U'), ('ల', '|'), ('క', '|'), ('స', 'U'), ('త్స్వాం', 'U'), ('తు', '|'), ('డ', '|'), ('నై', 'U'), ('న', '|'), ('నా', 'U'), ('ప', '|'), ('యి', '|'), ('ని', '|'), ('నీ', 'U'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('క', '|'), ('టా', 'U'), ('క్షా', 'U'), ('మృ', '|'), ('తం', 'U'), ('బొ', '|'), ('క', '|'), ('వే', 'U'), ('ళం', 'U'), ('జ', '|'), ('ను', '|'), ('దే', 'U'), ('ర', '|'), ('దే', 'U'), ('మి', '|'), ('ద', '|'), ('య', '|'), ('లే', 'U'), ('దో', 'U'), ('యో', 'U'), ('గి', '|'), ('హృ', 'U'), ('త్ప', 'U'), ('ద్మ', '|'), ('స', 'U'), ('న్మ', '|'), ('క', '|'), ('రం', 'U'), ('దా', 'U'), ('స', '|'), ('వ', '|'), ('పా', 'U'), ('న', '|'), ('కృ', '|'), ('ద్భ్ర', '|'), ('మ', '|'), ('ర', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
         <is>
           <t>నతమర్త్యవ్రజవాంఛితార్థఫలదానశ్రీవిరాజన్మహో-
 న్నతమందారమవంచు ధీరజను లానందంబునం దెల్ప నే
@@ -3546,32 +3264,29 @@
 మ్మతమా! తెల్పుము తేటతెల్లముగ రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('త', '|'), ('మ', 'U'), ('ర్త్య', 'U'), ('వ్ర', '|'), ('జ', '|'), ('వాం', 'U'), ('ఛి', '|'), ('తా', 'U'), ('ర్థ', '|'), ('ఫ', '|'), ('ల', '|'), ('దా', 'U'), ('న', 'U'), ('శ్రీ', 'U'), ('వి', '|'), ('రా', 'U'), ('జ', 'U'), ('న్మ', '|'), ('హో', 'U'), ('న్న', '|'), ('త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మ', '|'), ('వం', 'U'), ('చు', '|'), ('ధీ', 'U'), ('ర', '|'), ('జ', '|'), ('ను', '|'), ('లా', 'U'), ('నం', 'U'), ('దం', 'U'), ('బు', '|'), ('నం', 'U'), ('దె', 'U'), ('ల్ప', '|'), ('నే', 'U'), ('వ్ర', '|'), ('త', '|'), ('చ', 'U'), ('ర్య', 'U'), ('న్ని', '|'), ('ను', '|'), ('వే', 'U'), ('డి', '|'), ('వే', 'U'), ('స', '|'), ('రి', '|'), ('తి', 'U'), ('ప్రో', 'U'), ('వన్', 'U'), ('రా', 'U'), ('వి', '|'), ('దే', 'U'), ('నీ', 'U'), ('కు', '|'), ('స', 'U'), ('మ్మ', '|'), ('త', '|'), ('మా', 'U'), ('తె', 'U'), ('ల్పు', '|'), ('ము', '|'), ('తే', 'U'), ('ట', '|'), ('తె', 'U'), ('ల్ల', '|'), ('ము', '|'), ('గ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
         <is>
           <t>పదపద్యంబు లొనర్చి నీకొసగనో ప్రాజ్ఞుల్ నుతింపగ మీ
 పదపద్మంబులు భక్తితోడ మదిలో భావింపనో? యేమిటం
@@ -3579,32 +3294,29 @@
 మదరాతిక్షణదాచరప్రమద! రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ద', '|'), ('ప', 'U'), ('ద్యం', 'U'), ('బు', '|'), ('లొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('నీ', 'U'), ('కొ', '|'), ('స', '|'), ('గ', '|'), ('నో', 'U'), ('ప్రా', 'U'), ('జ్ఞుల్', 'U'), ('ను', '|'), ('తిం', 'U'), ('ప', '|'), ('గ', '|'), ('మీ', 'U'), ('ప', '|'), ('ద', '|'), ('ప', 'U'), ('ద్మం', 'U'), ('బు', '|'), ('లు', '|'), ('భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('డ', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('భా', 'U'), ('విం', 'U'), ('ప', '|'), ('నో', 'U'), ('యే', 'U'), ('మి', '|'), ('టం', 'U'), ('గొ', '|'), ('ద', '|'), ('వే', 'U'), ('దే', 'U'), ('టి', '|'), ('కి', '|'), ('జా', 'U'), ('గు', '|'), ('చే', 'U'), ('సె', '|'), ('ద', '|'), ('వ', '|'), ('కో', 'U'), ('ర్కు', '|'), ('లు', '|'), ('దీ', 'U'), ('ర్పు', '|'), ('వే', 'U'), ('వే', 'U'), ('గ', '|'), ('శా', 'U'), ('మ', '|'), ('ద', '|'), ('రా', 'U'), ('తి', 'U'), ('క్ష', '|'), ('ణ', '|'), ('దా', 'U'), ('చ', '|'), ('ర', 'U'), ('ప్ర', '|'), ('మ', '|'), ('ద', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
         <is>
           <t>క్రతువుల్ సేసెదనంటినా బహుపదార్థంబిల్లె! సంధ్యాజప-
 వ్రతముల్ సేసెదనంటినా దొరలఁ గొల్వంగావలెం గూటికై
@@ -3612,32 +3324,29 @@
 మతి నన్నేగతిఁ బ్రోచెదో యెఁఱుగ రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
           <t>[('క్ర', '|'), ('తు', '|'), ('వుల్', 'U'), ('సే', 'U'), ('సె', '|'), ('ద', '|'), ('నం', 'U'), ('టి', '|'), ('నా', 'U'), ('బ', '|'), ('హు', '|'), ('ప', '|'), ('దా', 'U'), ('ర్థం', 'U'), ('బి', 'U'), ('ల్లె', '|'), ('సం', 'U'), ('ధ్యా', 'U'), ('జ', '|'), ('ప', 'U'), ('వ్ర', '|'), ('త', '|'), ('ముల్', 'U'), ('సే', 'U'), ('సె', '|'), ('ద', '|'), ('నం', 'U'), ('టి', '|'), ('నా', 'U'), ('దొ', '|'), ('ర', '|'), ('ల', '|'), ('గొ', 'U'), ('ల్వం', 'U'), ('గా', 'U'), ('వ', '|'), ('లెం', 'U'), ('గూ', 'U'), ('టి', '|'), ('కై', 'U'), ('ధృ', '|'), ('తి', '|'), ('ని', 'U'), ('న్వే', 'U'), ('డె', '|'), ('ద', '|'), ('నం', 'U'), ('టి', '|'), ('నా', 'U'), ('ని', '|'), ('లు', '|'), ('వ', '|'), ('దొ', 'U'), ('క్కిం', 'U'), ('తై', 'U'), ('న', '|'), ('గా', 'U'), ('నీ', 'U'), ('ద', '|'), ('యా', 'U'), ('మ', '|'), ('తి', '|'), ('న', 'U'), ('న్నే', 'U'), ('గ', '|'), ('తి', 'U'), ('బ్రో', 'U'), ('చె', '|'), ('దో', 'U'), ('యె', '|'), ('ఱు', '|'), ('గ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
         <is>
           <t>తగునా పావన తావకీన పదధ్యాననిష్ఠాగరి
 ష్ఠగతిన్ వర్తిలు మాకు నిప్పు డతికష్టప్రాప్తిఁ గావించి బల్
@@ -3645,32 +3354,29 @@
 హ్మగసమ్రాట్కరకంకణప్రణుత! రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('గు', '|'), ('నా', 'U'), ('పా', 'U'), ('వ', '|'), ('న', '|'), ('తా', 'U'), ('వ', '|'), ('కీ', 'U'), ('న', '|'), ('ప', '|'), ('ద', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('ని', 'U'), ('ష్ఠా', 'U'), ('గ', '|'), ('రి', 'U'), ('ష్ఠ', '|'), ('గ', '|'), ('తిన్', 'U'), ('వ', 'U'), ('ర్తి', '|'), ('లు', '|'), ('మా', 'U'), ('కు', '|'), ('ని', 'U'), ('ప్పు', '|'), ('డ', '|'), ('తి', '|'), ('క', 'U'), ('ష్ట', 'U'), ('ప్రా', 'U'), ('ప్తి', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('బల్', 'U'), ('ప', '|'), ('గ', '|'), ('వా', 'U'), ('నిన్', 'U'), ('బ', '|'), ('లె', '|'), ('జూ', 'U'), ('డ', '|'), ('గా', 'U'), ('గ', '|'), ('ట', '|'), ('క', '|'), ('టా', 'U'), ('పా', 'U'), ('పం', 'U'), ('పు', '|'), ('గా', 'U'), ('దో', 'U'), ('టు', '|'), ('జి', 'U'), ('హ్మ', '|'), ('గ', '|'), ('స', '|'), ('మ్రా', 'U'), ('ట్క', '|'), ('ర', '|'), ('కం', 'U'), ('క', '|'), ('ణ', 'U'), ('ప్ర', '|'), ('ణు', '|'), ('త', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
         <is>
           <t>నిను నా దైవముగా భజించుటకు నే నిత్యంబుఁ గావించు స-
 జ్జనతాకర్ణరసాయనప్రకటభాస్వత్ సోములే సాక్షి నీ
@@ -3678,32 +3384,29 @@
 మనసు న్నా మనసు న్నెఱుఁగు నిది రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('ను', '|'), ('నా', 'U'), ('దై', 'U'), ('వ', '|'), ('ము', '|'), ('గా', 'U'), ('భ', '|'), ('జిం', 'U'), ('చు', '|'), ('ట', '|'), ('కు', '|'), ('నే', 'U'), ('ని', 'U'), ('త్యం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చు', '|'), ('స', 'U'), ('జ్జ', '|'), ('న', '|'), ('తా', 'U'), ('క', 'U'), ('ర్ణ', '|'), ('ర', '|'), ('సా', 'U'), ('య', '|'), ('న', 'U'), ('ప్ర', '|'), ('క', '|'), ('ట', '|'), ('భా', 'U'), ('స్వత్', 'U'), ('సో', 'U'), ('ము', '|'), ('లే', 'U'), ('సా', 'U'), ('క్షి', '|'), ('నీ', 'U'), ('వ', '|'), ('ను', '|'), ('కం', 'U'), ('ప', 'U'), ('న్న', '|'), ('ను', 'U'), ('బ్రో', 'U'), ('చు', '|'), ('చుం', 'U'), ('డు', '|'), ('ట', '|'), ('కు', '|'), ('నీ', 'U'), ('యై', 'U'), ('శ్వ', 'U'), ('ర్య', '|'), ('మె', '|'), ('సా', 'U'), ('క్షి', '|'), ('నీ', 'U'), ('మ', '|'), ('న', '|'), ('సు', 'U'), ('న్నా', 'U'), ('మ', '|'), ('న', '|'), ('సు', 'U'), ('న్నె', '|'), ('ఱు', '|'), ('గు', '|'), ('ని', '|'), ('ది', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B100" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
         <is>
           <t>జయమొప్పార నిను న్మదీయహృదయాబ్జాతంబునం గొల్తు నే-
 రములెల్లన్ క్షమచేసి ప్రోతువనుచున్ రాఁగం జనన్ నీదు చి-
@@ -3711,32 +3414,29 @@
 మమహాకాయవిరామశాతశర! రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('య', '|'), ('మొ', 'U'), ('ప్పా', 'U'), ('ర', '|'), ('ని', '|'), ('ను', 'U'), ('న్మ', '|'), ('దీ', 'U'), ('య', '|'), ('హృ', '|'), ('ద', '|'), ('యా', 'U'), ('బ్జా', 'U'), ('తం', 'U'), ('బు', '|'), ('నం', 'U'), ('గొ', 'U'), ('ల్తు', '|'), ('నే', 'U'), ('ర', '|'), ('ము', '|'), ('లె', '|'), ('ల్లన్', 'U'), ('క్ష', '|'), ('మ', '|'), ('చే', 'U'), ('సి', 'U'), ('ప్రో', 'U'), ('తు', '|'), ('వ', '|'), ('ను', '|'), ('చున్', 'U'), ('రా', 'U'), ('గం', 'U'), ('జ', '|'), ('నన్', 'U'), ('నీ', 'U'), ('దు', '|'), ('చి', 'U'), ('త్త', '|'), ('ము', '|'), ('నా', 'U'), ('భా', 'U'), ('గ్య', '|'), ('మ', '|'), ('దె', 'U'), ('ట్టి', '|'), ('దో', 'U'), ('యె', '|'), ('ఱు', '|'), ('గ', '|'), ('త', 'U'), ('థ్యం', 'U'), ('బి', 'U'), ('ద్ధ', '|'), ('సం', 'U'), ('గ్రా', 'U'), ('మ', '|'), ('ధా', 'U'), ('మ', '|'), ('మ', '|'), ('హా', 'U'), ('కా', 'U'), ('య', '|'), ('వి', '|'), ('రా', 'U'), ('మ', '|'), ('శా', 'U'), ('త', '|'), ('శ', '|'), ('ర', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B101" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
         <is>
           <t>జయ! నారాయణ! భక్తవత్సల! హరే! శౌరే! జగన్నాయకా
 జయ! సీతాహృదయేశ! శేషశయనా! శశ్వద్దయాసాగరా!
@@ -3744,32 +3444,29 @@
 మయ! లీలామనుజావతారధర! రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('య', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణ', '|'), ('భ', 'U'), ('క్త', '|'), ('వ', 'U'), ('త్స', '|'), ('ల', '|'), ('హ', '|'), ('రే', 'U'), ('శౌ', 'U'), ('రే', 'U'), ('జ', '|'), ('గ', 'U'), ('న్నా', 'U'), ('య', '|'), ('కా', 'U'), ('జ', '|'), ('య', '|'), ('సీ', 'U'), ('తా', 'U'), ('హృ', '|'), ('ద', '|'), ('యే', 'U'), ('శ', '|'), ('శే', 'U'), ('ష', '|'), ('శ', '|'), ('య', '|'), ('నా', 'U'), ('శ', 'U'), ('శ్వ', 'U'), ('ద్ద', '|'), ('యా', 'U'), ('సా', 'U'), ('గ', '|'), ('రా', 'U'), ('జ', '|'), ('య', '|'), ('పీ', 'U'), ('తాం', 'U'), ('బ', '|'), ('ర', '|'), ('రా', 'U'), ('మ', '|'), ('చం', 'U'), ('ద్ర', '|'), ('జ', '|'), ('ల', '|'), ('ద', 'U'), ('శ్యా', 'U'), ('మాం', 'U'), ('గ', '|'), ('వి', 'U'), ('ష్ణో', 'U'), ('ని', '|'), ('రా', 'U'), ('మ', '|'), ('య', '|'), ('లీ', 'U'), ('లా', 'U'), ('మ', '|'), ('ను', '|'), ('జా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('ధ', '|'), ('ర', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B102" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
         <is>
           <t>సరసప్రస్తుత కూచిమంచికులభాస్వద్వార్ధిరాకాసుధా-
 కరుఁడన్ గంగనమంత్రినందనుఁడ! రంగత్తిమ్మభూమండలే-
@@ -3777,17 +3474,17 @@
 మ రసజ్ఞుండను బ్రోవు మెప్డు నను రామా! భక్తమందారమా!</t>
         </is>
       </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaktamandaara</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
-        <is>
-          <t>bhaktamandaara</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
         <is>
           <t>[('స', '|'), ('ర', '|'), ('స', 'U'), ('ప్ర', 'U'), ('స్తు', '|'), ('త', '|'), ('కూ', 'U'), ('చి', '|'), ('మం', 'U'), ('చి', '|'), ('కు', '|'), ('ల', '|'), ('భా', 'U'), ('స్వ', 'U'), ('ద్వా', 'U'), ('ర్ధి', '|'), ('రా', 'U'), ('కా', 'U'), ('సు', '|'), ('ధా', 'U'), ('క', '|'), ('రు', '|'), ('డన్', 'U'), ('గం', 'U'), ('గ', '|'), ('న', '|'), ('మం', 'U'), ('త్రి', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('డ', '|'), ('రం', 'U'), ('గ', 'U'), ('త్తి', 'U'), ('మ్మ', '|'), ('భూ', 'U'), ('మం', 'U'), ('డ', '|'), ('లే', 'U'), ('శ్వ', '|'), ('ర', '|'), ('ప', 'U'), ('ర్యా', 'U'), ('ర్పి', '|'), ('త', '|'), ('బే', 'U'), ('బ', '|'), ('ద', 'U'), ('ల్బి', '|'), ('రు', '|'), ('ద', '|'), ('వి', 'U'), ('స్ఫా', 'U'), ('య', 'U'), ('జ్జ', '|'), ('గ', 'U'), ('న్నా', 'U'), ('థ', '|'), ('నా', 'U'), ('మ', '|'), ('ర', '|'), ('స', 'U'), ('జ్ఞుం', 'U'), ('డ', '|'), ('ను', 'U'), ('బ్రో', 'U'), ('వు', '|'), ('మె', 'U'), ('ప్డు', '|'), ('న', '|'), ('ను', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>

--- a/dataset/lg/bhaktamandaara.xlsx
+++ b/dataset/lg/bhaktamandaara.xlsx
@@ -666,7 +666,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('విం', 'U'), ('త', 'U'), ('ల్గా', 'U'), ('గ', '|'), ('డు', '|'), ('మీ', 'U'), ('కు', '|'), ('స', 'U'), ('త్కృ', '|'), ('తు', '|'), ('లు', '|'), ('గా', 'U'), ('విం', 'U'), ('తున్', 'U'), ('దు', '|'), ('షా', 'U'), ('రా', 'U'), ('ద్రి', '|'), ('జా', 'U'), ('కాం', 'U'), ('తా', 'U'), ('క్రాం', 'U'), ('త', '|'), ('జ', '|'), ('టాం', 'U'), ('త', '|'), ('రా', 'U'), ('ళ', '|'), ('వి', '|'), ('లు', '|'), ('ఠ', 'U'), ('ద్గం', 'U'), ('గా', 'U'), ('త', '|'), ('రం', 'U'), ('గ', 'U'), ('చ్ఛ', '|'), ('టో', 'U'), ('త్క్రాం', 'U'), ('తా', 'U'), ('త్యం', 'U'), ('త', '|'), ('ఝ', '|'), ('ళం', 'U'), ('ఝ', '|'), ('ళ', 'U'), ('న్ని', '|'), ('న', '|'), ('ద', '|'), ('రం', 'U'), ('గ', 'U'), ('ద్ధా', 'U'), ('టి', '|'), ('మీ', 'U'), ('ఱం', 'U'), ('గ', '|'), ('సా', 'U'), ('మం', 'U'), ('తా', 'U'), ('సం', 'U'), ('త', '|'), ('త', '|'), ('శాం', 'U'), ('తి', '|'), ('మం', 'U'), ('త', '|'), ('జ', '|'), ('య', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('విం', 'U'), ('త', 'U'), ('ల్గా', 'U'), ('గ', '|'), ('డు', '|'), ('మీ', 'U'), ('కు', '|'), ('స', 'U'), ('త్కృ', '|'), ('తు', '|'), ('లు', '|'), ('గా', 'U'), ('విం', 'U'), ('తు', 'U'), ('న్దు', '|'), ('షా', 'U'), ('రా', 'U'), ('ద్రి', '|'), ('జా', 'U'), ('కాం', 'U'), ('తా', 'U'), ('క్రాం', 'U'), ('త', '|'), ('జ', '|'), ('టాం', 'U'), ('త', '|'), ('రా', 'U'), ('ళ', '|'), ('వి', '|'), ('లు', '|'), ('ఠ', 'U'), ('ద్గం', 'U'), ('గా', 'U'), ('త', '|'), ('రం', 'U'), ('గ', 'U'), ('చ్ఛ', '|'), ('టో', 'U'), ('త్క్రాం', 'U'), ('తా', 'U'), ('త్యం', 'U'), ('త', '|'), ('ఝ', '|'), ('ళం', 'U'), ('ఝ', '|'), ('ళ', 'U'), ('న్ని', '|'), ('న', '|'), ('ద', '|'), ('రం', 'U'), ('గ', 'U'), ('ద్ధా', 'U'), ('టి', '|'), ('మీ', 'U'), ('ఱం', 'U'), ('గ', '|'), ('సా', 'U'), ('మం', 'U'), ('తా', 'U'), ('సం', 'U'), ('త', '|'), ('త', '|'), ('శాం', 'U'), ('తి', '|'), ('మం', 'U'), ('త', '|'), ('జ', '|'), ('య', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('ర', '|'), ('క', '|'), ('పుం', 'U'), ('గా', 'U'), ('వ్య', '|'), ('క', '|'), ('ళా', 'U'), ('క', '|'), ('లా', 'U'), ('ప', '|'), ('ర', '|'), ('చ', '|'), ('నా', 'U'), ('ప్రా', 'U'), ('గ', 'U'), ('ల్భ్య', '|'), ('సం', 'U'), ('సి', 'U'), ('ద్ధి', '|'), ('కై', 'U'), ('ప్ర', '|'), ('క', '|'), ('ట', '|'), ('ప్రే', 'U'), ('మ', '|'), ('భ', '|'), ('జిం', 'U'), ('తు', '|'), ('నీ', 'U'), ('శ', '|'), ('మ', '|'), ('కు', '|'), ('ట', '|'), ('ప్ర', 'U'), ('స్ఫీ', 'U'), ('త', '|'), ('గం', 'U'), ('గా', 'U'), ('జ', '|'), ('లా', 'U'), ('ధి', '|'), ('క', '|'), ('మా', 'U'), ('ధు', 'U'), ('ర్య', '|'), ('క', '|'), ('వి', 'U'), ('త్వ', '|'), ('ధూ', 'U'), ('ర్వ', '|'), ('హ', '|'), ('న', '|'), ('ధీ', 'U'), ('ది', 'U'), ('వ్య', '|'), ('ప్ర', '|'), ('భా', 'U'), ('వా', 'U'), ('ఢ్య', '|'), ('ది', 'U'), ('మ్మ', '|'), ('క', '|'), ('వి', '|'), ('శ్రే', 'U'), ('ష్ఠు', '|'), ('మ', '|'), ('ద', '|'), ('గ్ర', '|'), ('జున్', 'U'), ('మ', '|'), ('ది', '|'), ('ని', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('ర', '|'), ('క', '|'), ('పుం', 'U'), ('గా', 'U'), ('వ్య', '|'), ('క', '|'), ('ళా', 'U'), ('క', '|'), ('లా', 'U'), ('ప', '|'), ('ర', '|'), ('చ', '|'), ('నా', 'U'), ('ప్రా', 'U'), ('గ', 'U'), ('ల్భ్య', '|'), ('సం', 'U'), ('సి', 'U'), ('ద్ధి', '|'), ('కై', 'U'), ('ప్ర', '|'), ('క', '|'), ('ట', '|'), ('ప్రే', 'U'), ('మ', '|'), ('భ', '|'), ('జిం', 'U'), ('తు', '|'), ('నీ', 'U'), ('శ', '|'), ('మ', '|'), ('కు', '|'), ('ట', '|'), ('ప్ర', 'U'), ('స్ఫీ', 'U'), ('త', '|'), ('గం', 'U'), ('గా', 'U'), ('జ', '|'), ('లా', 'U'), ('ధి', '|'), ('క', '|'), ('మా', 'U'), ('ధు', 'U'), ('ర్య', '|'), ('క', '|'), ('వి', 'U'), ('త్వ', '|'), ('ధూ', 'U'), ('ర్వ', '|'), ('హ', '|'), ('న', '|'), ('ధీ', 'U'), ('ది', 'U'), ('వ్య', '|'), ('ప్ర', '|'), ('భా', 'U'), ('వా', 'U'), ('ఢ్య', '|'), ('ది', 'U'), ('మ్మ', '|'), ('క', '|'), ('వి', '|'), ('శ్రే', 'U'), ('ష్ఠు', '|'), ('మ', '|'), ('ద', '|'), ('గ్ర', '|'), ('జు', 'U'), ('న్మ', '|'), ('ది', '|'), ('ని', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('స', '|'), ('క', '|'), ('లా', 'U'), ('భీ', 'U'), ('ష్ట', '|'), ('ఫ', '|'), ('ల', '|'), ('ప్ర', '|'), ('దా', 'U'), ('య', '|'), ('కు', '|'), ('డ', '|'), ('వై', 'U'), ('చం', 'U'), ('చ', 'U'), ('ద్ద', '|'), ('యా', 'U'), ('శా', 'U'), ('లి', '|'), ('వై', 'U'), ('ప్ర', '|'), ('క', '|'), ('ట', 'U'), ('స్నే', 'U'), ('హ', '|'), ('ర', '|'), ('సా', 'U'), ('ర్ద్ర', '|'), ('మా', 'U'), ('న', '|'), ('సు', '|'), ('డ', '|'), ('వై', 'U'), ('భం', 'U'), ('గీ', 'U'), ('కృ', '|'), ('తా', 'U'), ('నే', 'U'), ('క', '|'), ('పా', 'U'), ('త', '|'), ('క', '|'), ('ఘో', 'U'), ('రా', 'U'), ('మ', '|'), ('య', '|'), ('శా', 'U'), ('త్ర', '|'), ('వో', 'U'), ('త్క', '|'), ('రు', '|'), ('డ', '|'), ('వై', 'U'), ('ధా', 'U'), ('త్రీ', 'U'), ('సు', '|'), ('తం', 'U'), ('గూ', 'U'), ('డి', '|'), ('మా', 'U'), ('మ', '|'), ('క', '|'), ('చి', 'U'), ('త్తా', 'U'), ('బ్జ', '|'), ('ము', '|'), ('నన్', 'U'), ('వ', '|'), ('సిం', 'U'), ('చు', '|'), ('మొ', '|'), ('గి', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('స', '|'), ('క', '|'), ('లా', 'U'), ('భీ', 'U'), ('ష్ట', '|'), ('ఫ', '|'), ('ల', '|'), ('ప్ర', '|'), ('దా', 'U'), ('య', '|'), ('కు', '|'), ('డ', '|'), ('వై', 'U'), ('చం', 'U'), ('చ', 'U'), ('ద్ద', '|'), ('యా', 'U'), ('శా', 'U'), ('లి', '|'), ('వై', 'U'), ('ప్ర', '|'), ('క', '|'), ('ట', 'U'), ('స్నే', 'U'), ('హ', '|'), ('ర', '|'), ('సా', 'U'), ('ర్ద్ర', '|'), ('మా', 'U'), ('న', '|'), ('సు', '|'), ('డ', '|'), ('వై', 'U'), ('భం', 'U'), ('గీ', 'U'), ('కృ', '|'), ('తా', 'U'), ('నే', 'U'), ('క', '|'), ('పా', 'U'), ('త', '|'), ('క', '|'), ('ఘో', 'U'), ('రా', 'U'), ('మ', '|'), ('య', '|'), ('శా', 'U'), ('త్ర', '|'), ('వో', 'U'), ('త్క', '|'), ('రు', '|'), ('డ', '|'), ('వై', 'U'), ('ధా', 'U'), ('త్రీ', 'U'), ('సు', '|'), ('తం', 'U'), ('గూ', 'U'), ('డి', '|'), ('మా', 'U'), ('మ', '|'), ('క', '|'), ('చి', 'U'), ('త్తా', 'U'), ('బ్జ', '|'), ('ము', '|'), ('న', 'U'), ('న్వ', '|'), ('సిం', 'U'), ('చు', '|'), ('మొ', '|'), ('గి', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('లు', '|'), ('మా', 'U'), ('ఱున్', 'U'), ('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', '|'), ('కా', 'U'), ('వ్య', '|'), ('ర', '|'), ('చ', '|'), ('నా', 'U'), ('ప్రా', 'U'), ('గ', 'U'), ('ల్భ్య', '|'), ('మొ', 'U'), ('ప్పా', 'U'), ('ర', '|'), ('ని', 'U'), ('న్గొ', '|'), ('లు', '|'), ('తున్', 'U'), ('మా', 'U'), ('మ', '|'), ('క', '|'), ('మా', 'U'), ('న', '|'), ('సా', 'U'), ('బ్జ', '|'), ('ము', '|'), ('న', '|'), ('బొం', 'U'), ('కుల్', 'U'), ('గా', 'U'), ('వు', '|'), ('నీ', 'U'), ('వె', 'U'), ('చ్చ', '|'), ('టం', 'U'), ('గ', '|'), ('ల', '|'), ('లో', 'U'), ('నం', 'U'), ('బొ', '|'), ('డ', '|'), ('క', 'U'), ('ట్ట', '|'), ('వి', 'U'), ('ట్టి', '|'), ('వ', '|'), ('గ', '|'), ('బా', 'U'), ('గా', 'U'), ('మే', 'U'), ('ల్బ', '|'), ('ళా', 'U'), ('శ్యా', 'U'), ('మ', '|'), ('కో', 'U'), ('మ', '|'), ('ల', '|'), ('వి', '|'), ('భ్రా', 'U'), ('జి', '|'), ('త', '|'), ('మం', 'U'), ('ద', '|'), ('రా', 'U'), ('వ', '|'), ('య', '|'), ('వ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('ప', '|'), ('లు', '|'), ('మా', 'U'), ('ఱు', 'U'), ('న్భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', '|'), ('కా', 'U'), ('వ్య', '|'), ('ర', '|'), ('చ', '|'), ('నా', 'U'), ('ప్రా', 'U'), ('గ', 'U'), ('ల్భ్య', '|'), ('మొ', 'U'), ('ప్పా', 'U'), ('ర', '|'), ('ని', 'U'), ('న్గొ', '|'), ('లు', '|'), ('తు', 'U'), ('న్మా', 'U'), ('మ', '|'), ('క', '|'), ('మా', 'U'), ('న', '|'), ('సా', 'U'), ('బ్జ', '|'), ('ము', '|'), ('న', '|'), ('బొం', 'U'), ('కు', 'U'), ('ల్గా', 'U'), ('వు', '|'), ('నీ', 'U'), ('వె', 'U'), ('చ్చ', '|'), ('టం', 'U'), ('గ', '|'), ('ల', '|'), ('లో', 'U'), ('నం', 'U'), ('బొ', '|'), ('డ', '|'), ('క', 'U'), ('ట్ట', '|'), ('వి', 'U'), ('ట్టి', '|'), ('వ', '|'), ('గ', '|'), ('బా', 'U'), ('గా', 'U'), ('మే', 'U'), ('ల్బ', '|'), ('ళా', 'U'), ('శ్యా', 'U'), ('మ', '|'), ('కో', 'U'), ('మ', '|'), ('ల', '|'), ('వి', '|'), ('భ్రా', 'U'), ('జి', '|'), ('త', '|'), ('మం', 'U'), ('ద', '|'), ('రా', 'U'), ('వ', '|'), ('య', '|'), ('వ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('గ', '|'), ('ణు', '|'), ('తిం', 'U'), ('తున్', 'U'), ('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణ', '|'), ('క', '|'), ('థల్', 'U'), ('కౌ', 'U'), ('తూ', 'U'), ('హ', '|'), ('లం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గా', 'U'), ('బ్ర', '|'), ('ణు', '|'), ('తిం', 'U'), ('తున్', 'U'), ('స', '|'), ('చ', '|'), ('రా', 'U'), ('చ', '|'), ('రా', 'U'), ('ది', '|'), ('క', '|'), ('మ', '|'), ('హా', 'U'), ('బ్ర', 'U'), ('హ్మాం', 'U'), ('డ', '|'), ('భాం', 'U'), ('డ', 'U'), ('చ్ఛ', '|'), ('టా', 'U'), ('గ', '|'), ('ణి', '|'), ('త', '|'), ('ప్రా', 'U'), ('ణి', '|'), ('జ', '|'), ('నాం', 'U'), ('త', '|'), ('రా', 'U'), ('త్మ', '|'), ('వ', '|'), ('ని', '|'), ('వే', 'U'), ('డ్కన్', 'U'), ('సం', 'U'), ('త', '|'), ('తం', 'U'), ('బున్', 'U'), ('న', '|'), ('భో', 'U'), ('మ', '|'), ('ణి', '|'), ('వం', 'U'), ('శాం', 'U'), ('బు', '|'), ('ధి', '|'), ('శీ', 'U'), ('త', '|'), ('భా', 'U'), ('ను', '|'), ('ర', '|'), ('ఘు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('గ', '|'), ('ణు', '|'), ('తిం', 'U'), ('తు', 'U'), ('న్భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణ', '|'), ('క', '|'), ('థ', 'U'), ('ల్కౌ', 'U'), ('తూ', 'U'), ('హ', '|'), ('లం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గా', 'U'), ('బ్ర', '|'), ('ణు', '|'), ('తిం', 'U'), ('తు', 'U'), ('న్స', '|'), ('చ', '|'), ('రా', 'U'), ('చ', '|'), ('రా', 'U'), ('ది', '|'), ('క', '|'), ('మ', '|'), ('హా', 'U'), ('బ్ర', 'U'), ('హ్మాం', 'U'), ('డ', '|'), ('భాం', 'U'), ('డ', 'U'), ('చ్ఛ', '|'), ('టా', 'U'), ('గ', '|'), ('ణి', '|'), ('త', '|'), ('ప్రా', 'U'), ('ణి', '|'), ('జ', '|'), ('నాం', 'U'), ('త', '|'), ('రా', 'U'), ('త్మ', '|'), ('వ', '|'), ('ని', '|'), ('వే', 'U'), ('డ్క', 'U'), ('న్సం', 'U'), ('త', '|'), ('తం', 'U'), ('బు', 'U'), ('న్న', '|'), ('భో', 'U'), ('మ', '|'), ('ణి', '|'), ('వం', 'U'), ('శాం', 'U'), ('బు', '|'), ('ధి', '|'), ('శీ', 'U'), ('త', '|'), ('భా', 'U'), ('ను', '|'), ('ర', '|'), ('ఘు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('సా', 'U'), ('రా', 'U'), ('సా', 'U'), ('ర', '|'), ('వి', '|'), ('చా', 'U'), ('ర', '|'), ('ధీ', 'U'), ('ర', '|'), ('జ', '|'), ('న', '|'), ('తా', 'U'), ('సం', 'U'), ('ర', 'U'), ('క్ష', '|'), ('ణా', 'U'), ('ధా', 'U'), ('ర', '|'), ('స', 'U'), ('త్కా', 'U'), ('రు', 'U'), ('ణ్యా', 'U'), ('క', '|'), ('ర', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వం', 'U'), ('చు', '|'), ('నె', '|'), ('ద', '|'), ('న', 'U'), ('త్యం', 'U'), ('తం', 'U'), ('బు', '|'), ('మీ', 'U'), ('ది', 'U'), ('వ్య', '|'), ('శృం', 'U'), ('గా', 'U'), ('రా', 'U'), ('గా', 'U'), ('ర', '|'), ('ప', '|'), ('దా', 'U'), ('ర', '|'), ('విం', 'U'), ('ద', '|'), ('ము', '|'), ('లు', '|'), ('వే', 'U'), ('డ్కన్', 'U'), ('గొ', 'U'), ('ల్తు', '|'), ('నన్', 'U'), ('బ్రో', 'U'), ('వు', '|'), ('మీ', 'U'), ('మా', 'U'), ('రీ', 'U'), ('చ', '|'), ('ప్ర', '|'), ('మ', '|'), ('ద', '|'), ('ప్ర', '|'), ('హా', 'U'), ('ర', '|'), ('శ', '|'), ('ర', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('సా', 'U'), ('రా', 'U'), ('సా', 'U'), ('ర', '|'), ('వి', '|'), ('చా', 'U'), ('ర', '|'), ('ధీ', 'U'), ('ర', '|'), ('జ', '|'), ('న', '|'), ('తా', 'U'), ('సం', 'U'), ('ర', 'U'), ('క్ష', '|'), ('ణా', 'U'), ('ధా', 'U'), ('ర', '|'), ('స', 'U'), ('త్కా', 'U'), ('రు', 'U'), ('ణ్యా', 'U'), ('క', '|'), ('ర', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వం', 'U'), ('చు', '|'), ('నె', '|'), ('ద', '|'), ('న', 'U'), ('త్యం', 'U'), ('తం', 'U'), ('బు', '|'), ('మీ', 'U'), ('ది', 'U'), ('వ్య', '|'), ('శృం', 'U'), ('గా', 'U'), ('రా', 'U'), ('గా', 'U'), ('ర', '|'), ('ప', '|'), ('దా', 'U'), ('ర', '|'), ('విం', 'U'), ('ద', '|'), ('ము', '|'), ('లు', '|'), ('వే', 'U'), ('డ్క', 'U'), ('న్గొ', 'U'), ('ల్తు', '|'), ('న', 'U'), ('న్బ్రో', 'U'), ('వు', '|'), ('మీ', 'U'), ('మా', 'U'), ('రీ', 'U'), ('చ', '|'), ('ప్ర', '|'), ('మ', '|'), ('ద', '|'), ('ప్ర', '|'), ('హా', 'U'), ('ర', '|'), ('శ', '|'), ('ర', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('మి', '|'), ('హి', '|'), ('కాం', 'U'), ('శూ', 'U'), ('ప', '|'), ('మ', '|'), ('సుం', 'U'), ('ద', '|'), ('రా', 'U'), ('న', '|'), ('న', '|'), ('ము', '|'), ('తో', 'U'), ('మే', 'U'), ('లీ', 'U'), ('ను', '|'), ('కం', 'U'), ('దో', 'U'), ('యి', '|'), ('తో', 'U'), ('న', '|'), ('హి', '|'), ('జి', '|'), ('ద్ర', 'U'), ('త్న', '|'), ('వి', '|'), ('నీ', 'U'), ('ల', '|'), ('వి', '|'), ('గ్ర', '|'), ('హ', '|'), ('ము', '|'), ('తో', 'U'), ('నం', 'U'), ('చ', 'U'), ('త్కి', '|'), ('రీ', 'U'), ('టం', 'U'), ('బు', '|'), ('తో', 'U'), ('వి', '|'), ('హ', '|'), ('గా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('నె', 'U'), ('క్కి', '|'), ('నా', 'U'), ('యె', '|'), ('దు', '|'), ('టి', '|'), ('కిన్', 'U'), ('వి', 'U'), ('చ్చే', 'U'), ('య', '|'), ('వే', 'U'), ('యో', 'U'), ('పి', '|'), ('తా', 'U'), ('మ', '|'), ('హ', '|'), ('సు', '|'), ('త్రా', 'U'), ('మ', '|'), ('ము', '|'), ('ఖా', 'U'), ('మ', '|'), ('ర', '|'), ('ప్ర', '|'), ('ణు', '|'), ('త', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('మి', '|'), ('హి', '|'), ('కాం', 'U'), ('శూ', 'U'), ('ప', '|'), ('మ', '|'), ('సుం', 'U'), ('ద', '|'), ('రా', 'U'), ('న', '|'), ('న', '|'), ('ము', '|'), ('తో', 'U'), ('మే', 'U'), ('లీ', 'U'), ('ను', '|'), ('కం', 'U'), ('దో', 'U'), ('యి', '|'), ('తో', 'U'), ('న', '|'), ('హి', '|'), ('జి', '|'), ('ద్ర', 'U'), ('త్న', '|'), ('వి', '|'), ('నీ', 'U'), ('ల', '|'), ('వి', '|'), ('గ్ర', '|'), ('హ', '|'), ('ము', '|'), ('తో', 'U'), ('నం', 'U'), ('చ', 'U'), ('త్కి', '|'), ('రీ', 'U'), ('టం', 'U'), ('బు', '|'), ('తో', 'U'), ('వి', '|'), ('హ', '|'), ('గా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('నె', 'U'), ('క్కి', '|'), ('నా', 'U'), ('యె', '|'), ('దు', '|'), ('టి', '|'), ('కి', 'U'), ('న్వి', 'U'), ('చ్చే', 'U'), ('య', '|'), ('వే', 'U'), ('యో', 'U'), ('పి', '|'), ('తా', 'U'), ('మ', '|'), ('హ', '|'), ('సు', '|'), ('త్రా', 'U'), ('మ', '|'), ('ము', '|'), ('ఖా', 'U'), ('మ', '|'), ('ర', '|'), ('ప్ర', '|'), ('ణు', '|'), ('త', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[('కం', 'U'), ('జా', 'U'), ('త', '|'), ('ప్ర', '|'), ('భ', '|'), ('వాం', 'U'), ('డ', '|'), ('భాం', 'U'), ('డ', '|'), ('చ', '|'), ('య', '|'), ('రం', 'U'), ('గ', 'U'), ('చ్చే', 'U'), ('త', '|'), ('నా', 'U'), ('చే', 'U'), ('త', '|'), ('నా', 'U'), ('ళిం', 'U'), ('జె', 'U'), ('న్నా', 'U'), ('ర', '|'), ('గ', '|'), ('బ్రో', 'U'), ('ది', '|'), ('సే', 'U'), ('తు', '|'), ('వ', '|'), ('ని', '|'), ('హా', 'U'), ('ళిన్', 'U'), ('ధీ', 'U'), ('జ', '|'), ('నుల్', 'U'), ('దె', 'U'), ('ల్ప', '|'), ('హృత్', 'U'), ('కం', 'U'), ('జా', 'U'), ('తం', 'U'), ('బు', '|'), ('న', '|'), ('మి', 'U'), ('మ్ము', '|'), ('గొ', 'U'), ('ల్తు', '|'), ('న', '|'), ('ను', '|'), ('వే', 'U'), ('డ్కన్', 'U'), ('వే', 'U'), ('గ', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('పు', '|'), ('మీ', 'U'), ('మం', 'U'), ('జు', '|'), ('శ్రీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('ము', '|'), ('న', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('కం', 'U'), ('జా', 'U'), ('త', '|'), ('ప్ర', '|'), ('భ', '|'), ('వాం', 'U'), ('డ', '|'), ('భాం', 'U'), ('డ', '|'), ('చ', '|'), ('య', '|'), ('రం', 'U'), ('గ', 'U'), ('చ్చే', 'U'), ('త', '|'), ('నా', 'U'), ('చే', 'U'), ('త', '|'), ('నా', 'U'), ('ళిం', 'U'), ('జె', 'U'), ('న్నా', 'U'), ('ర', '|'), ('గ', '|'), ('బ్రో', 'U'), ('ది', '|'), ('సే', 'U'), ('తు', '|'), ('వ', '|'), ('ని', '|'), ('హా', 'U'), ('ళి', 'U'), ('న్ధీ', 'U'), ('జ', '|'), ('ను', 'U'), ('ల్దె', 'U'), ('ల్ప', '|'), ('హృత్', 'U'), ('కం', 'U'), ('జా', 'U'), ('తం', 'U'), ('బు', '|'), ('న', '|'), ('మి', 'U'), ('మ్ము', '|'), ('గొ', 'U'), ('ల్తు', '|'), ('న', '|'), ('ను', '|'), ('వే', 'U'), ('డ్క', 'U'), ('న్వే', 'U'), ('గ', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('పు', '|'), ('మీ', 'U'), ('మం', 'U'), ('జు', '|'), ('శ్రీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('ము', '|'), ('న', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('ళు', '|'), ('కుం', 'U'), ('బం', 'U'), ('గ', '|'), ('రు', '|'), ('కా', 'U'), ('మ', '|'), ('గు', 'U'), ('బ్బ', '|'), ('గొ', '|'), ('డు', '|'), ('గం', 'U'), ('దం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('శ', '|'), ('త్రు', 'U'), ('ఘ్ను', '|'), ('డ', 'U'), ('ర్మ', '|'), ('లి', '|'), ('బ', 'U'), ('ట్టన్', 'U'), ('భ', '|'), ('ర', '|'), ('తుం', 'U'), ('డు', '|'), ('చా', 'U'), ('మ', '|'), ('ర', '|'), ('ము', '|'), ('గూ', 'U'), ('ర్మి', 'U'), ('న్వీ', 'U'), ('వ', '|'), ('గా', 'U'), ('ల', 'U'), ('క్ష్మ', '|'), ('ణుం', 'U'), ('డ', '|'), ('ల', '|'), ('దుం', 'U'), ('దూ', 'U'), ('పు', '|'), ('ల', '|'), ('వి', 'U'), ('ల్లు', '|'), ('డా', 'U'), ('ల్ప', '|'), ('గ', '|'), ('పి', '|'), ('సే', 'U'), ('నా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('రుల్', 'U'), ('గొ', 'U'), ('ల్వ', '|'), ('ని', 'U'), ('ర్మ', '|'), ('ల', '|'), ('లీ', 'U'), ('లం', 'U'), ('గొ', '|'), ('లు', '|'), ('వుం', 'U'), ('డు', '|'), ('నిన్', 'U'), ('ద', '|'), ('ల', '|'), ('తు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('త', '|'), ('ళు', '|'), ('కుం', 'U'), ('బం', 'U'), ('గ', '|'), ('రు', '|'), ('కా', 'U'), ('మ', '|'), ('గు', 'U'), ('బ్బ', '|'), ('గొ', '|'), ('డు', '|'), ('గం', 'U'), ('దం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('శ', '|'), ('త్రు', 'U'), ('ఘ్ను', '|'), ('డ', 'U'), ('ర్మ', '|'), ('లి', '|'), ('బ', 'U'), ('ట్ట', 'U'), ('న్భ', '|'), ('ర', '|'), ('తుం', 'U'), ('డు', '|'), ('చా', 'U'), ('మ', '|'), ('ర', '|'), ('ము', '|'), ('గూ', 'U'), ('ర్మి', 'U'), ('న్వీ', 'U'), ('వ', '|'), ('గా', 'U'), ('ల', 'U'), ('క్ష్మ', '|'), ('ణుం', 'U'), ('డ', '|'), ('ల', '|'), ('దుం', 'U'), ('దూ', 'U'), ('పు', '|'), ('ల', '|'), ('వి', 'U'), ('ల్లు', '|'), ('డా', 'U'), ('ల్ప', '|'), ('గ', '|'), ('పి', '|'), ('సే', 'U'), ('నా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('రు', 'U'), ('ల్గొ', 'U'), ('ల్వ', '|'), ('ని', 'U'), ('ర్మ', '|'), ('ల', '|'), ('లీ', 'U'), ('లం', 'U'), ('గొ', '|'), ('లు', '|'), ('వుం', 'U'), ('డు', '|'), ('ని', 'U'), ('న్ద', '|'), ('ల', '|'), ('తు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[('ని', 'U'), ('క్కం', 'U'), ('బా', 'U'), ('ర', '|'), ('య', '|'), ('దా', 'U'), ('వ', '|'), ('కాం', 'U'), ('ఘ్రి', '|'), ('వి', '|'), ('ల', '|'), ('స', 'U'), ('న్నీ', 'U'), ('రే', 'U'), ('రు', '|'), ('హ', 'U'), ('ద్వం', 'U'), ('ద్వ', '|'), ('మే', 'U'), ('ది', 'U'), ('క్కె', 'U'), ('ల్ల', 'U'), ('ప్పు', '|'), ('డు', '|'), ('మా', 'U'), ('క', '|'), ('టం', 'U'), ('చు', '|'), ('మ', '|'), ('ది', '|'), ('నెం', 'U'), ('తే', 'U'), ('వే', 'U'), ('డ్క', '|'), ('భా', 'U'), ('విం', 'U'), ('చె', '|'), ('దన్', 'U'), ('జి', 'U'), ('క్కుల్', 'U'), ('ప', 'U'), ('న్న', '|'), ('క', '|'), ('న', 'U'), ('మ్మి', '|'), ('కి', 'U'), ('చ్చి', '|'), ('స', '|'), ('ర', '|'), ('గం', 'U'), ('జే', 'U'), ('ప', 'U'), ('ట్టి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('పు', '|'), ('స', 'U'), ('మ్య', 'U'), ('క్కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('వీ', 'U'), ('క్ష', '|'), ('న', '|'), ('ను', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('ని', 'U'), ('క్కం', 'U'), ('బా', 'U'), ('ర', '|'), ('య', '|'), ('దా', 'U'), ('వ', '|'), ('కాం', 'U'), ('ఘ్రి', '|'), ('వి', '|'), ('ల', '|'), ('స', 'U'), ('న్నీ', 'U'), ('రే', 'U'), ('రు', '|'), ('హ', 'U'), ('ద్వం', 'U'), ('ద్వ', '|'), ('మే', 'U'), ('ది', 'U'), ('క్కె', 'U'), ('ల్ల', 'U'), ('ప్పు', '|'), ('డు', '|'), ('మా', 'U'), ('క', '|'), ('టం', 'U'), ('చు', '|'), ('మ', '|'), ('ది', '|'), ('నెం', 'U'), ('తే', 'U'), ('వే', 'U'), ('డ్క', '|'), ('భా', 'U'), ('విం', 'U'), ('చె', '|'), ('దన్', 'U'), ('జి', 'U'), ('క్కు', 'U'), ('ల్ప', 'U'), ('న్న', '|'), ('క', '|'), ('న', 'U'), ('మ్మి', '|'), ('కి', 'U'), ('చ్చి', '|'), ('స', '|'), ('ర', '|'), ('గం', 'U'), ('జే', 'U'), ('ప', 'U'), ('ట్టి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('పు', '|'), ('స', 'U'), ('మ్య', 'U'), ('క్కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('వీ', 'U'), ('క్ష', '|'), ('న', '|'), ('ను', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('త', '|'), ('సీ', 'U'), ('పు', 'U'), ('ష్ప', '|'), ('స', '|'), ('మా', 'U'), ('న', '|'), ('కో', 'U'), ('మ', '|'), ('ల', '|'), ('వి', '|'), ('నీ', 'U'), ('లాం', 'U'), ('గున్', 'U'), ('స', '|'), ('ము', 'U'), ('ద్య', 'U'), ('న్మ', '|'), ('హో', 'U'), ('న్న', '|'), ('త', '|'), ('కో', 'U'), ('దం', 'U'), ('డ', '|'), ('ని', '|'), ('షం', 'U'), ('గ', '|'), ('గం', 'U'), ('గు', '|'), ('బ', '|'), ('ల', '|'), ('వ', 'U'), ('న్న', 'U'), ('క్తం', 'U'), ('చ', '|'), ('రా', 'U'), ('ఖ', 'U'), ('ర్వ', '|'), ('ప', 'U'), ('ర్వ', '|'), ('త', '|'), ('జీ', 'U'), ('మూ', 'U'), ('త', '|'), ('తు', '|'), ('రం', 'U'), ('గు', '|'), ('గిం', 'U'), ('క', '|'), ('ర', '|'), ('జ', '|'), ('న', '|'), ('వ్రా', 'U'), ('తా', 'U'), ('వ', '|'), ('నా', 'U'), ('త్యం', 'U'), ('త', '|'), ('ర', 'U'), ('మ్య', '|'), ('త', '|'), ('రా', 'U'), ('పాం', 'U'), ('గు', '|'), ('ని', '|'), ('నిన్', 'U'), ('భ', '|'), ('జిం', 'U'), ('తు', '|'), ('మ', '|'), ('ది', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('అ', '|'), ('త', '|'), ('సీ', 'U'), ('పు', 'U'), ('ష్ప', '|'), ('స', '|'), ('మా', 'U'), ('న', '|'), ('కో', 'U'), ('మ', '|'), ('ల', '|'), ('వి', '|'), ('నీ', 'U'), ('లాం', 'U'), ('గు', 'U'), ('న్స', '|'), ('ము', 'U'), ('ద్య', 'U'), ('న్మ', '|'), ('హో', 'U'), ('న్న', '|'), ('త', '|'), ('కో', 'U'), ('దం', 'U'), ('డ', '|'), ('ని', '|'), ('షం', 'U'), ('గ', '|'), ('గం', 'U'), ('గు', '|'), ('బ', '|'), ('ల', '|'), ('వ', 'U'), ('న్న', 'U'), ('క్తం', 'U'), ('చ', '|'), ('రా', 'U'), ('ఖ', 'U'), ('ర్వ', '|'), ('ప', 'U'), ('ర్వ', '|'), ('త', '|'), ('జీ', 'U'), ('మూ', 'U'), ('త', '|'), ('తు', '|'), ('రం', 'U'), ('గు', '|'), ('గిం', 'U'), ('క', '|'), ('ర', '|'), ('జ', '|'), ('న', '|'), ('వ్రా', 'U'), ('తా', 'U'), ('వ', '|'), ('నా', 'U'), ('త్యం', 'U'), ('త', '|'), ('ర', 'U'), ('మ్య', '|'), ('త', '|'), ('రా', 'U'), ('పాం', 'U'), ('గు', '|'), ('ని', '|'), ('ని', 'U'), ('న్భ', '|'), ('జిం', 'U'), ('తు', '|'), ('మ', '|'), ('ది', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[('ఆ', 'U'), ('ర్త', '|'), ('త్రా', 'U'), ('ణ', '|'), ('ప', '|'), ('రా', 'U'), ('య', '|'), ('ణుం', 'U'), ('డ', '|'), ('వ', '|'), ('ని', '|'), ('ని', 'U'), ('న్న', 'U'), ('త్యం', 'U'), ('త', '|'), ('మున్', 'U'), ('స', 'U'), ('జ్జ', '|'), ('ను', 'U'), ('ల్గీ', 'U'), ('ర్తిం', 'U'), ('పన్', 'U'), ('వి', '|'), ('ని', '|'), ('తా', 'U'), ('వ', '|'), ('కీ', 'U'), ('న', '|'), ('ప', '|'), ('ద', '|'), ('నా', 'U'), ('ళీ', 'U'), ('క', 'U'), ('ద్వ', '|'), ('యం', 'U'), ('బా', 'U'), ('త్మ', '|'), ('వి', 'U'), ('స్ఫూ', 'U'), ('ర్తిం', 'U'), ('జెం', 'U'), ('ద', '|'), ('గ', '|'), ('నెం', 'U'), ('తు', '|'), ('నె', 'U'), ('ల్ల', '|'), ('పు', '|'), ('డు', '|'), ('న', 'U'), ('న్బో', 'U'), ('షిం', 'U'), ('పు', '|'), ('మీ', 'U'), ('స', 'U'), ('త్కృ', '|'), ('పన్', 'U'), ('మా', 'U'), ('ర్తాం', 'U'), ('డ', 'U'), ('ద్వి', '|'), ('జ', '|'), ('రా', 'U'), ('జ', '|'), ('స', 'U'), ('న్న', '|'), ('య', '|'), ('న', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('ఆ', 'U'), ('ర్త', '|'), ('త్రా', 'U'), ('ణ', '|'), ('ప', '|'), ('రా', 'U'), ('య', '|'), ('ణుం', 'U'), ('డ', '|'), ('వ', '|'), ('ని', '|'), ('ని', 'U'), ('న్న', 'U'), ('త్యం', 'U'), ('త', '|'), ('ము', 'U'), ('న్స', 'U'), ('జ్జ', '|'), ('ను', 'U'), ('ల్గీ', 'U'), ('ర్తిం', 'U'), ('ప', 'U'), ('న్వి', '|'), ('ని', '|'), ('తా', 'U'), ('వ', '|'), ('కీ', 'U'), ('న', '|'), ('ప', '|'), ('ద', '|'), ('నా', 'U'), ('ళీ', 'U'), ('క', 'U'), ('ద్వ', '|'), ('యం', 'U'), ('బా', 'U'), ('త్మ', '|'), ('వి', 'U'), ('స్ఫూ', 'U'), ('ర్తిం', 'U'), ('జెం', 'U'), ('ద', '|'), ('గ', '|'), ('నెం', 'U'), ('తు', '|'), ('నె', 'U'), ('ల్ల', '|'), ('పు', '|'), ('డు', '|'), ('న', 'U'), ('న్బో', 'U'), ('షిం', 'U'), ('పు', '|'), ('మీ', 'U'), ('స', 'U'), ('త్కృ', '|'), ('పన్', 'U'), ('మా', 'U'), ('ర్తాం', 'U'), ('డ', 'U'), ('ద్వి', '|'), ('జ', '|'), ('రా', 'U'), ('జ', '|'), ('స', 'U'), ('న్న', '|'), ('య', '|'), ('న', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[('శ్రీ', 'U'), ('కం', 'U'), ('ఠాం', 'U'), ('బు', '|'), ('జ', '|'), ('సం', 'U'), ('భ', '|'), ('వేం', 'U'), ('ద్ర', '|'), ('ర', '|'), ('వి', '|'), ('శో', 'U'), ('చి', 'U'), ('ష్కే', 'U'), ('శ', '|'), ('ము', 'U'), ('ఖ్యా', 'U'), ('మ', '|'), ('రా', 'U'), ('నీ', 'U'), ('కం', 'U'), ('బుల్', 'U'), ('గ', '|'), ('డు', '|'), ('భ', 'U'), ('క్తి', '|'), ('నిన్', 'U'), ('గొ', '|'), ('లి', '|'), ('చి', '|'), ('పూ', 'U'), ('న్కిన్', 'U'), ('ధ', 'U'), ('న్యు', '|'), ('లై', 'U'), ('నా', 'U'), ('రు', '|'), ('నే', 'U'), ('డా', 'U'), ('కాం', 'U'), ('క్షన్', 'U'), ('భ', '|'), ('జి', '|'), ('యిం', 'U'), ('తు', '|'), ('మే', 'U'), ('మ', '|'), ('ఱ', '|'), ('క', '|'), ('చి', 'U'), ('త్తా', 'U'), ('నం', 'U'), ('ద', '|'), ('మొం', 'U'), ('దిం', 'U'), ('పు', '|'), ('మా', 'U'), ('మా', 'U'), ('కుం', 'U'), ('బ్రా', 'U'), ('పు', '|'), ('ను', '|'), ('దా', 'U'), ('పు', '|'), ('నీ', 'U'), ('వ', '|'), ('గు', '|'), ('చు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('శ్రీ', 'U'), ('కం', 'U'), ('ఠాం', 'U'), ('బు', '|'), ('జ', '|'), ('సం', 'U'), ('భ', '|'), ('వేం', 'U'), ('ద్ర', '|'), ('ర', '|'), ('వి', '|'), ('శో', 'U'), ('చి', 'U'), ('ష్కే', 'U'), ('శ', '|'), ('ము', 'U'), ('ఖ్యా', 'U'), ('మ', '|'), ('రా', 'U'), ('నీ', 'U'), ('కం', 'U'), ('బు', 'U'), ('ల్గ', '|'), ('డు', '|'), ('భ', 'U'), ('క్తి', '|'), ('ని', 'U'), ('న్గొ', '|'), ('లి', '|'), ('చి', '|'), ('పూ', 'U'), ('న్కి', 'U'), ('న్ధ', 'U'), ('న్యు', '|'), ('లై', 'U'), ('నా', 'U'), ('రు', '|'), ('నే', 'U'), ('డా', 'U'), ('కాం', 'U'), ('క్ష', 'U'), ('న్భ', '|'), ('జి', '|'), ('యిం', 'U'), ('తు', '|'), ('మే', 'U'), ('మ', '|'), ('ఱ', '|'), ('క', '|'), ('చి', 'U'), ('త్తా', 'U'), ('నం', 'U'), ('ద', '|'), ('మొం', 'U'), ('దిం', 'U'), ('పు', '|'), ('మా', 'U'), ('మా', 'U'), ('కుం', 'U'), ('బ్రా', 'U'), ('పు', '|'), ('ను', '|'), ('దా', 'U'), ('పు', '|'), ('నీ', 'U'), ('వ', '|'), ('గు', '|'), ('చు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('హి', '|'), ('తా', 'U'), ('ర్తుల్', 'U'), ('వె', '|'), ('డ', '|'), ('బా', 'U'), ('యు', '|'), ('లే', 'U'), ('ము', '|'), ('లె', '|'), ('డ', '|'), ('లున్', 'U'), ('వ్యా', 'U'), ('ధుల్', 'U'), ('దొ', '|'), ('లం', 'U'), ('గు', 'U'), ('న్న', '|'), ('వ', '|'), ('గ్ర', '|'), ('హ', '|'), ('దో', 'U'), ('షం', 'U'), ('బు', '|'), ('లు', '|'), ('శాం', 'U'), ('తి', '|'), ('బొం', 'U'), ('దు', '|'), ('గ', '|'), ('లు', '|'), ('ష', '|'), ('వ్రా', 'U'), ('తం', 'U'), ('బు', '|'), ('జా', 'U'), ('ఱున్', 'U'), ('శు', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('మౌ', 'U'), ('తా', 'U'), ('వ', '|'), ('క', '|'), ('ది', 'U'), ('వ్య', '|'), ('నా', 'U'), ('మ', '|'), ('మె', '|'), ('ల', '|'), ('మిన్', 'U'), ('వా', 'U'), ('క్రు', 'U'), ('చ్చి', '|'), ('నన్', 'U'), ('ధా', 'U'), ('త్రి', '|'), ('పై', 'U'), ('మ', '|'), ('హి', '|'), ('తో', 'U'), ('ద్దం', 'U'), ('డ', '|'), ('త', '|'), ('ర', '|'), ('ప్ర', '|'), ('తా', 'U'), ('ప', '|'), ('గు', '|'), ('ణ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('అ', '|'), ('హి', '|'), ('తా', 'U'), ('ర్తు', 'U'), ('ల్వె', '|'), ('డ', '|'), ('బా', 'U'), ('యు', '|'), ('లే', 'U'), ('ము', '|'), ('లె', '|'), ('డ', '|'), ('లు', 'U'), ('న్వ్యా', 'U'), ('ధు', 'U'), ('ల్దొ', '|'), ('లం', 'U'), ('గు', 'U'), ('న్న', '|'), ('వ', '|'), ('గ్ర', '|'), ('హ', '|'), ('దో', 'U'), ('షం', 'U'), ('బు', '|'), ('లు', '|'), ('శాం', 'U'), ('తి', '|'), ('బొం', 'U'), ('దు', '|'), ('గ', '|'), ('లు', '|'), ('ష', '|'), ('వ్రా', 'U'), ('తం', 'U'), ('బు', '|'), ('జా', 'U'), ('ఱు', 'U'), ('న్శు', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('మౌ', 'U'), ('తా', 'U'), ('వ', '|'), ('క', '|'), ('ది', 'U'), ('వ్య', '|'), ('నా', 'U'), ('మ', '|'), ('మె', '|'), ('ల', '|'), ('మి', 'U'), ('న్వా', 'U'), ('క్రు', 'U'), ('చ్చి', '|'), ('న', 'U'), ('న్ధా', 'U'), ('త్రి', '|'), ('పై', 'U'), ('మ', '|'), ('హి', '|'), ('తో', 'U'), ('ద్దం', 'U'), ('డ', '|'), ('త', '|'), ('ర', '|'), ('ప్ర', '|'), ('తా', 'U'), ('ప', '|'), ('గు', '|'), ('ణ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[('ఇ', '|'), ('ను', '|'), ('డ', 'U'), ('ద్దం', 'U'), ('బ', '|'), ('గు', '|'), ('న', 'U'), ('గ్ని', '|'), ('నీ', 'U'), ('ర', '|'), ('గు', '|'), ('భు', '|'), ('జ', '|'), ('గేం', 'U'), ('ద్రుం', 'U'), ('డు', '|'), ('పూ', 'U'), ('దం', 'U'), ('డ', '|'), ('యౌ', 'U'), ('వ', '|'), ('న', '|'), ('ధుల్', 'U'), ('ప', 'U'), ('ల్వ', '|'), ('ల', '|'), ('పం', 'U'), ('క్తు', '|'), ('లే', 'U'), ('జ', '|'), ('ల', '|'), ('ధ', '|'), ('రా', 'U'), ('ధ్వం', 'U'), ('బి', 'U'), ('ల్లె', '|'), ('యౌ', 'U'), ('రా', 'U'), ('జ', '|'), ('యో', 'U'), ('గ', '|'), ('ని', '|'), ('రూ', 'U'), ('ఢ', 'U'), ('స్థి', '|'), ('తి', '|'), ('దా', 'U'), ('వ', '|'), ('కీ', 'U'), ('న', '|'), ('ప', '|'), ('ద', '|'), ('యు', 'U'), ('గ్మం', 'U'), ('బె', 'U'), ('ల్ల', '|'), ('కా', 'U'), ('లం', 'U'), ('బు', '|'), ('ప్రే', 'U'), ('మ', '|'), ('నె', '|'), ('దం', 'U'), ('బూ', 'U'), ('ని', '|'), ('భ', '|'), ('జిం', 'U'), ('చు', '|'), ('ధ', 'U'), ('న్యు', '|'), ('ల', '|'), ('కు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('ఇ', '|'), ('ను', '|'), ('డ', 'U'), ('ద్దం', 'U'), ('బ', '|'), ('గు', '|'), ('న', 'U'), ('గ్ని', '|'), ('నీ', 'U'), ('ర', '|'), ('గు', '|'), ('భు', '|'), ('జ', '|'), ('గేం', 'U'), ('ద్రుం', 'U'), ('డు', '|'), ('పూ', 'U'), ('దం', 'U'), ('డ', '|'), ('యౌ', 'U'), ('వ', '|'), ('న', '|'), ('ధు', 'U'), ('ల్ప', 'U'), ('ల్వ', '|'), ('ల', '|'), ('పం', 'U'), ('క్తు', '|'), ('లే', 'U'), ('జ', '|'), ('ల', '|'), ('ధ', '|'), ('రా', 'U'), ('ధ్వం', 'U'), ('బి', 'U'), ('ల్లె', '|'), ('యౌ', 'U'), ('రా', 'U'), ('జ', '|'), ('యో', 'U'), ('గ', '|'), ('ని', '|'), ('రూ', 'U'), ('ఢ', 'U'), ('స్థి', '|'), ('తి', '|'), ('దా', 'U'), ('వ', '|'), ('కీ', 'U'), ('న', '|'), ('ప', '|'), ('ద', '|'), ('యు', 'U'), ('గ్మం', 'U'), ('బె', 'U'), ('ల్ల', '|'), ('కా', 'U'), ('లం', 'U'), ('బు', '|'), ('ప్రే', 'U'), ('మ', '|'), ('నె', '|'), ('దం', 'U'), ('బూ', 'U'), ('ని', '|'), ('భ', '|'), ('జిం', 'U'), ('చు', '|'), ('ధ', 'U'), ('న్యు', '|'), ('ల', '|'), ('కు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[('ఖం', 'U'), ('డిం', 'U'), ('చున్', 'U'), ('బ', '|'), ('హు', '|'), ('జ', 'U'), ('న్మ', '|'), ('సం', 'U'), ('చి', '|'), ('త', '|'), ('చ', '|'), ('ల', 'U'), ('ద్గా', 'U'), ('ఢో', 'U'), ('గ్ర', '|'), ('దో', 'U'), ('షా', 'U'), ('వ', '|'), ('లిం', 'U'), ('జం', 'U'), ('డ', '|'), ('ప్ర', '|'), ('క్రి', '|'), ('య', '|'), ('శై', 'U'), ('ల', '|'), ('జా', 'U'), ('వి', '|'), ('ను', '|'), ('త', '|'), ('భా', 'U'), ('స్వ', 'U'), ('చ్చా', 'U'), ('రు', '|'), ('ది', 'U'), ('వ్య', 'U'), ('న్మ', '|'), ('హో', 'U'), ('ద్దం', 'U'), ('డ', '|'), ('శ్రీ', 'U'), ('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', '|'), ('నా', 'U'), ('మ', '|'), ('మి', '|'), ('ల', '|'), ('మీ', 'U'), ('దన్', 'U'), ('భూ', 'U'), ('త', '|'), ('భే', 'U'), ('తా', 'U'), ('ళ', '|'), ('కూ', 'U'), ('ష్మాం', 'U'), ('డ', '|'), ('వ్రా', 'U'), ('త', '|'), ('ఘ', '|'), ('నా', 'U'), ('ఘ', '|'), ('న', 'U'), ('శ్వ', '|'), ('న', '|'), ('న', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('ఖం', 'U'), ('డిం', 'U'), ('చు', 'U'), ('న్బ', '|'), ('హు', '|'), ('జ', 'U'), ('న్మ', '|'), ('సం', 'U'), ('చి', '|'), ('త', '|'), ('చ', '|'), ('ల', 'U'), ('ద్గా', 'U'), ('ఢో', 'U'), ('గ్ర', '|'), ('దో', 'U'), ('షా', 'U'), ('వ', '|'), ('లిం', 'U'), ('జం', 'U'), ('డ', '|'), ('ప్ర', '|'), ('క్రి', '|'), ('య', '|'), ('శై', 'U'), ('ల', '|'), ('జా', 'U'), ('వి', '|'), ('ను', '|'), ('త', '|'), ('భా', 'U'), ('స్వ', 'U'), ('చ్చా', 'U'), ('రు', '|'), ('ది', 'U'), ('వ్య', 'U'), ('న్మ', '|'), ('హో', 'U'), ('ద్దం', 'U'), ('డ', '|'), ('శ్రీ', 'U'), ('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', '|'), ('నా', 'U'), ('మ', '|'), ('మి', '|'), ('ల', '|'), ('మీ', 'U'), ('ద', 'U'), ('న్భూ', 'U'), ('త', '|'), ('భే', 'U'), ('తా', 'U'), ('ళ', '|'), ('కూ', 'U'), ('ష్మాం', 'U'), ('డ', '|'), ('వ్రా', 'U'), ('త', '|'), ('ఘ', '|'), ('నా', 'U'), ('ఘ', '|'), ('న', 'U'), ('శ్వ', '|'), ('న', '|'), ('న', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[('సా', 'U'), ('రా', 'U'), ('సా', 'U'), ('ర', '|'), ('కృ', '|'), ('పా', 'U'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('ము', '|'), ('న', '|'), ('ని', 'U'), ('చ్చల్', 'U'), ('భూ', 'U'), ('ర్భు', '|'), ('వ', 'U'), ('స్వః', 'U'), ('త్రి', '|'), ('లో', 'U'), ('కా', 'U'), ('రూ', 'U'), ('ఢా', 'U'), ('ఖి', '|'), ('ల', '|'), ('జం', 'U'), ('తు', '|'), ('జా', 'U'), ('ల', '|'), ('ము', '|'), ('ల', '|'), ('నె', 'U'), ('య్యం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గా', 'U'), ('బ్రో', 'U'), ('చు', '|'), ('ని', 'U'), ('న్నా', 'U'), ('రా', 'U'), ('ధిం', 'U'), ('చి', '|'), ('సు', '|'), ('ఖిం', 'U'), ('ప', '|'), ('లే', 'U'), ('క', '|'), ('శి', '|'), ('ల', '|'), ('లం', 'U'), ('బ్రా', 'U'), ('ర్థిం', 'U'), ('తు', '|'), ('రెం', 'U'), ('తే', 'U'), ('న', '|'), ('ప', 'U'), ('స్మా', 'U'), ('ర', '|'), ('భ్రాం', 'U'), ('తి', '|'), ('మ', '|'), ('దా', 'U'), ('త్మ', '|'), ('మూ', 'U'), ('ఢు', '|'), ('లి', '|'), ('ల', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('సా', 'U'), ('రా', 'U'), ('సా', 'U'), ('ర', '|'), ('కృ', '|'), ('పా', 'U'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('ము', '|'), ('న', '|'), ('ని', 'U'), ('చ్చ', 'U'), ('ల్భూ', 'U'), ('ర్భు', '|'), ('వ', 'U'), ('స్వః', 'U'), ('త్రి', '|'), ('లో', 'U'), ('కా', 'U'), ('రూ', 'U'), ('ఢా', 'U'), ('ఖి', '|'), ('ల', '|'), ('జం', 'U'), ('తు', '|'), ('జా', 'U'), ('ల', '|'), ('ము', '|'), ('ల', '|'), ('నె', 'U'), ('య్యం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గా', 'U'), ('బ్రో', 'U'), ('చు', '|'), ('ని', 'U'), ('న్నా', 'U'), ('రా', 'U'), ('ధిం', 'U'), ('చి', '|'), ('సు', '|'), ('ఖిం', 'U'), ('ప', '|'), ('లే', 'U'), ('క', '|'), ('శి', '|'), ('ల', '|'), ('లం', 'U'), ('బ్రా', 'U'), ('ర్థిం', 'U'), ('తు', '|'), ('రెం', 'U'), ('తే', 'U'), ('న', '|'), ('ప', 'U'), ('స్మా', 'U'), ('ర', '|'), ('భ్రాం', 'U'), ('తి', '|'), ('మ', '|'), ('దా', 'U'), ('త్మ', '|'), ('మూ', 'U'), ('ఢు', '|'), ('లి', '|'), ('ల', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[('స', '|'), ('ర', '|'), ('సీ', 'U'), ('జా', 'U'), ('త', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('రుల్', 'U'), ('చ', 'U'), ('ర్చిం', 'U'), ('ప', '|'), ('మీ', 'U'), ('మా', 'U'), ('య', '|'), ('గా', 'U'), ('న', '|'), ('ర', '|'), ('టం', 'U'), ('చున్', 'U'), ('స', '|'), ('త', '|'), ('తం', 'U'), ('బు', '|'), ('ప్రా', 'U'), ('జ', '|'), ('దు', '|'), ('వు', '|'), ('లు', 'U'), ('న్నా', 'U'), ('నా', 'U'), ('పు', '|'), ('రా', 'U'), ('ణం', 'U'), ('బు', '|'), ('లున్', 'U'), ('స', '|'), ('ర', '|'), ('స', '|'), ('ప్ర', '|'), ('క్రి', '|'), ('య', '|'), ('జా', 'U'), ('టు', '|'), ('చుం', 'U'), ('డ', '|'), ('గ', '|'), ('బి', '|'), ('శా', 'U'), ('చ', '|'), ('ప్రా', 'U'), ('యు', '|'), ('లెం', 'U'), ('తే', 'U'), ('ని', '|'), ('సో', 'U'), ('మ', '|'), ('రి', '|'), ('పో', 'U'), ('తుల్', 'U'), ('న', '|'), ('రు', '|'), ('లె', 'U'), ('ట్లు', '|'), ('గాం', 'U'), ('చె', '|'), ('ద', '|'), ('రు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('స', '|'), ('ర', '|'), ('సీ', 'U'), ('జా', 'U'), ('త', '|'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('వా', 'U'), ('మ', '|'), ('రు', 'U'), ('ల్చ', 'U'), ('ర్చిం', 'U'), ('ప', '|'), ('మీ', 'U'), ('మా', 'U'), ('య', '|'), ('గా', 'U'), ('న', '|'), ('ర', '|'), ('టం', 'U'), ('చు', 'U'), ('న్స', '|'), ('త', '|'), ('తం', 'U'), ('బు', '|'), ('ప్రా', 'U'), ('జ', '|'), ('దు', '|'), ('వు', '|'), ('లు', 'U'), ('న్నా', 'U'), ('నా', 'U'), ('పు', '|'), ('రా', 'U'), ('ణం', 'U'), ('బు', '|'), ('లున్', 'U'), ('స', '|'), ('ర', '|'), ('స', '|'), ('ప్ర', '|'), ('క్రి', '|'), ('య', '|'), ('జా', 'U'), ('టు', '|'), ('చుం', 'U'), ('డ', '|'), ('గ', '|'), ('బి', '|'), ('శా', 'U'), ('చ', '|'), ('ప్రా', 'U'), ('యు', '|'), ('లెం', 'U'), ('తే', 'U'), ('ని', '|'), ('సో', 'U'), ('మ', '|'), ('రి', '|'), ('పో', 'U'), ('తు', 'U'), ('ల్న', '|'), ('రు', '|'), ('లె', 'U'), ('ట్లు', '|'), ('గాం', 'U'), ('చె', '|'), ('ద', '|'), ('రు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[('ధ', 'U'), ('ర్మం', 'U'), ('బం', 'U'), ('చు', '|'), ('న', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('మం', 'U'), ('చు', '|'), ('గ', '|'), ('డు', '|'), ('మి', 'U'), ('థ్యా', 'U'), ('లీ', 'U'), ('ల', '|'), ('లే', 'U'), ('పా', 'U'), ('ర', '|'), ('గా', 'U'), ('ని', 'U'), ('ర్మా', 'U'), ('ణం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('ప్రా', 'U'), ('ణు', '|'), ('ల', '|'), ('ను', '|'), ('ని', 'U'), ('ర్ని', '|'), ('ద్ర', '|'), ('ప్ర', '|'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('లన్', 'U'), ('బే', 'U'), ('ర్మిం', 'U'), ('జెం', 'U'), ('ద', '|'), ('గ', '|'), ('జే', 'U'), ('సి', '|'), ('యం', 'U'), ('త్ర', '|'), ('కు', '|'), ('గ', '|'), ('తిన్', 'U'), ('బి', 'U'), ('ట్టూ', 'U'), ('ర', '|'), ('కే', 'U'), ('త్రి', 'U'), ('ప్పు', '|'), ('నీ', 'U'), ('మ', 'U'), ('ర్మం', 'U'), ('బె', 'U'), ('వ్వ', '|'), ('రె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('గా', 'U'), ('గ', '|'), ('ల', '|'), ('రు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('ధ', 'U'), ('ర్మం', 'U'), ('బం', 'U'), ('చు', '|'), ('న', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('మం', 'U'), ('చు', '|'), ('గ', '|'), ('డు', '|'), ('మి', 'U'), ('థ్యా', 'U'), ('లీ', 'U'), ('ల', '|'), ('లే', 'U'), ('పా', 'U'), ('ర', '|'), ('గా', 'U'), ('ని', 'U'), ('ర్మా', 'U'), ('ణం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('ప్రా', 'U'), ('ణు', '|'), ('ల', '|'), ('ను', '|'), ('ని', 'U'), ('ర్ని', '|'), ('ద్ర', '|'), ('ప్ర', '|'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('లన్', 'U'), ('బే', 'U'), ('ర్మిం', 'U'), ('జెం', 'U'), ('ద', '|'), ('గ', '|'), ('జే', 'U'), ('సి', '|'), ('యం', 'U'), ('త్ర', '|'), ('కు', '|'), ('గ', '|'), ('తి', 'U'), ('న్బి', 'U'), ('ట్టూ', 'U'), ('ర', '|'), ('కే', 'U'), ('త్రి', 'U'), ('ప్పు', '|'), ('నీ', 'U'), ('మ', 'U'), ('ర్మం', 'U'), ('బె', 'U'), ('వ్వ', '|'), ('రె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('గా', 'U'), ('గ', '|'), ('ల', '|'), ('రు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[('వ్ర', '|'), ('త', '|'), ('ముల్', 'U'), ('ప', 'U'), ('ట్టి', '|'), ('న', '|'), ('దే', 'U'), ('వ', '|'), ('భూ', 'U'), ('సు', '|'), ('ర', '|'), ('గు', '|'), ('రు', '|'), ('వ్రా', 'U'), ('తం', 'U'), ('బు', '|'), ('లం', 'U'), ('గొ', 'U'), ('ల్చి', '|'), ('నం', 'U'), ('గ్ర', '|'), ('తు', '|'), ('తం', 'U'), ('త్రం', 'U'), ('బు', '|'), ('లు', '|'), ('దా', 'U'), ('న', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('ము', '|'), ('ల', '|'), ('పా', 'U'), ('రం', 'U'), ('బౌ', 'U'), ('న', '|'), ('టుల్', 'U'), ('చే', 'U'), ('సి', '|'), ('నన్', 'U'), ('శ', '|'), ('త', '|'), ('వ', 'U'), ('ర్షం', 'U'), ('బు', '|'), ('లు', '|'), ('గం', 'U'), ('గ', '|'), ('లో', 'U'), ('ము', '|'), ('ని', '|'), ('గి', '|'), ('నన్', 'U'), ('సం', 'U'), ('ధి', 'U'), ('ల్లు', '|'), ('నే', 'U'), ('ము', 'U'), ('క్తి', '|'), ('దు', 'U'), ('ర్మ', '|'), ('తి', '|'), ('కిం', 'U'), ('దా', 'U'), ('వ', '|'), ('క', '|'), ('భ', 'U'), ('క్తి', '|'), ('గ', 'U'), ('ల్గ', '|'), ('మి', '|'), ('ని', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('వ్ర', '|'), ('త', '|'), ('ము', 'U'), ('ల్ప', 'U'), ('ట్టి', '|'), ('న', '|'), ('దే', 'U'), ('వ', '|'), ('భూ', 'U'), ('సు', '|'), ('ర', '|'), ('గు', '|'), ('రు', '|'), ('వ్రా', 'U'), ('తం', 'U'), ('బు', '|'), ('లం', 'U'), ('గొ', 'U'), ('ల్చి', '|'), ('నం', 'U'), ('గ్ర', '|'), ('తు', '|'), ('తం', 'U'), ('త్రం', 'U'), ('బు', '|'), ('లు', '|'), ('దా', 'U'), ('న', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('ము', '|'), ('ల', '|'), ('పా', 'U'), ('రం', 'U'), ('బౌ', 'U'), ('న', '|'), ('టు', 'U'), ('ల్చే', 'U'), ('సి', '|'), ('నన్', 'U'), ('శ', '|'), ('త', '|'), ('వ', 'U'), ('ర్షం', 'U'), ('బు', '|'), ('లు', '|'), ('గం', 'U'), ('గ', '|'), ('లో', 'U'), ('ము', '|'), ('ని', '|'), ('గి', '|'), ('న', 'U'), ('న్సం', 'U'), ('ధి', 'U'), ('ల్లు', '|'), ('నే', 'U'), ('ము', 'U'), ('క్తి', '|'), ('దు', 'U'), ('ర్మ', '|'), ('తి', '|'), ('కిం', 'U'), ('దా', 'U'), ('వ', '|'), ('క', '|'), ('భ', 'U'), ('క్తి', '|'), ('గ', 'U'), ('ల్గ', '|'), ('మి', '|'), ('ని', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('రి', '|'), ('ష', 'U'), ('డ్వ', 'U'), ('ర్గ', '|'), ('ము', '|'), ('బా', 'U'), ('ఱ', '|'), ('ద్రో', 'U'), ('లి', '|'), ('స', '|'), ('క', '|'), ('ల', 'U'), ('వ్యా', 'U'), ('మో', 'U'), ('హ', '|'), ('ముల్', 'U'), ('వీ', 'U'), ('డి', '|'), ('సు', 'U'), ('స్థి', '|'), ('ర', '|'), ('యో', 'U'), ('గాం', 'U'), ('త', '|'), ('ర', '|'), ('దృ', 'U'), ('ష్టి', '|'), ('మీ', 'U'), ('చ', '|'), ('ర', '|'), ('ణ', '|'), ('ముల్', 'U'), ('సే', 'U'), ('విం', 'U'), ('చు', '|'), ('పు', 'U'), ('ణ్యా', 'U'), ('త్మ', '|'), ('కుల్', 'U'), ('వ', '|'), ('ర', '|'), ('వై', 'U'), ('కుం', 'U'), ('ఠ', '|'), ('పు', '|'), ('రాం', 'U'), ('త', '|'), ('రా', 'U'), ('ళ', '|'), ('ము', '|'), ('న', '|'), ('భా', 'U'), ('స్వ', 'U'), ('ల్లీ', 'U'), ('ల', '|'), ('లన్', 'U'), ('ము', 'U'), ('క్తి', '|'), ('తా', 'U'), ('మ', '|'), ('ర', '|'), ('సా', 'U'), ('క్షీ', 'U'), ('ర', '|'), ('తి', '|'), ('కే', 'U'), ('లి', '|'), ('జొ', 'U'), ('క్కు', '|'), ('దు', '|'), ('రు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('అ', '|'), ('రి', '|'), ('ష', 'U'), ('డ్వ', 'U'), ('ర్గ', '|'), ('ము', '|'), ('బా', 'U'), ('ఱ', '|'), ('ద్రో', 'U'), ('లి', '|'), ('స', '|'), ('క', '|'), ('ల', 'U'), ('వ్యా', 'U'), ('మో', 'U'), ('హ', '|'), ('ము', 'U'), ('ల్వీ', 'U'), ('డి', '|'), ('సు', 'U'), ('స్థి', '|'), ('ర', '|'), ('యో', 'U'), ('గాం', 'U'), ('త', '|'), ('ర', '|'), ('దృ', 'U'), ('ష్టి', '|'), ('మీ', 'U'), ('చ', '|'), ('ర', '|'), ('ణ', '|'), ('ము', 'U'), ('ల్సే', 'U'), ('విం', 'U'), ('చు', '|'), ('పు', 'U'), ('ణ్యా', 'U'), ('త్మ', '|'), ('కుల్', 'U'), ('వ', '|'), ('ర', '|'), ('వై', 'U'), ('కుం', 'U'), ('ఠ', '|'), ('పు', '|'), ('రాం', 'U'), ('త', '|'), ('రా', 'U'), ('ళ', '|'), ('ము', '|'), ('న', '|'), ('భా', 'U'), ('స్వ', 'U'), ('ల్లీ', 'U'), ('ల', '|'), ('ల', 'U'), ('న్ము', 'U'), ('క్తి', '|'), ('తా', 'U'), ('మ', '|'), ('ర', '|'), ('సా', 'U'), ('క్షీ', 'U'), ('ర', '|'), ('తి', '|'), ('కే', 'U'), ('లి', '|'), ('జొ', 'U'), ('క్కు', '|'), ('దు', '|'), ('రు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[('ఉ', '|'), ('ద', '|'), ('యా', 'U'), ('ర్కాం', 'U'), ('శు', '|'), ('వి', '|'), ('క', 'U'), ('స్వ', '|'), ('రాం', 'U'), ('బు', '|'), ('జ', '|'), ('ర', '|'), ('మా', 'U'), ('యు', 'U'), ('క్తం', 'U'), ('బు', '|'), ('లై', 'U'), ('యొ', 'U'), ('ప్పు', '|'), ('నీ', 'U'), ('ప', '|'), ('ద', '|'), ('ముల్', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('ము', '|'), ('చే', 'U'), ('సి', '|'), ('ము', 'U'), ('క్తి', '|'), ('యు', '|'), ('వ', '|'), ('తిం', 'U'), ('బ్రా', 'U'), ('పిం', 'U'), ('ప', '|'), ('గా', 'U'), ('లే', 'U'), ('క', '|'), ('దు', 'U'), ('ర్మ', '|'), ('ద', '|'), ('వృ', 'U'), ('త్తిన్', 'U'), ('బ', '|'), ('శు', '|'), ('మాం', 'U'), ('స', '|'), ('మ', 'U'), ('గ్ని', '|'), ('ద', '|'), ('న', '|'), ('రా', 'U'), ('రన్', 'U'), ('వే', 'U'), ('ల్చు', '|'), ('గా', 'U'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('మ', '|'), ('ది', '|'), ('రా', 'U'), ('క్షీ', 'U'), ('సు', '|'), ('ర', '|'), ('తే', 'U'), ('చ్ఛ', '|'), ('భూ', 'U'), ('సు', '|'), ('రు', '|'), ('డు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('ఉ', '|'), ('ద', '|'), ('యా', 'U'), ('ర్కాం', 'U'), ('శు', '|'), ('వి', '|'), ('క', 'U'), ('స్వ', '|'), ('రాం', 'U'), ('బు', '|'), ('జ', '|'), ('ర', '|'), ('మా', 'U'), ('యు', 'U'), ('క్తం', 'U'), ('బు', '|'), ('లై', 'U'), ('యొ', 'U'), ('ప్పు', '|'), ('నీ', 'U'), ('ప', '|'), ('ద', '|'), ('ము', 'U'), ('ల్ధ్యా', 'U'), ('న', '|'), ('ము', '|'), ('చే', 'U'), ('సి', '|'), ('ము', 'U'), ('క్తి', '|'), ('యు', '|'), ('వ', '|'), ('తిం', 'U'), ('బ్రా', 'U'), ('పిం', 'U'), ('ప', '|'), ('గా', 'U'), ('లే', 'U'), ('క', '|'), ('దు', 'U'), ('ర్మ', '|'), ('ద', '|'), ('వృ', 'U'), ('త్తి', 'U'), ('న్బ', '|'), ('శు', '|'), ('మాం', 'U'), ('స', '|'), ('మ', 'U'), ('గ్ని', '|'), ('ద', '|'), ('న', '|'), ('రా', 'U'), ('ర', 'U'), ('న్వే', 'U'), ('ల్చు', '|'), ('గా', 'U'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('మ', '|'), ('ది', '|'), ('రా', 'U'), ('క్షీ', 'U'), ('సు', '|'), ('ర', '|'), ('తే', 'U'), ('చ్ఛ', '|'), ('భూ', 'U'), ('సు', '|'), ('రు', '|'), ('డు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[('ఇం', 'U'), ('దం', 'U'), ('దున్', 'U'), ('సు', '|'), ('ఖ', '|'), ('మీ', 'U'), ('య', '|'), ('జా', 'U'), ('ల', '|'), ('ని', '|'), ('మ', '|'), ('హా', 'U'), ('హే', 'U'), ('యా', 'U'), ('ర్థ', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('ఘో', 'U'), ('రాం', 'U'), ('ధూ', 'U'), ('బృం', 'U'), ('ద', '|'), ('ని', '|'), ('బ', 'U'), ('ద్ధు', '|'), ('లై', 'U'), ('స', '|'), ('త', '|'), ('త', '|'), ('మ', 'U'), ('న్యా', 'U'), ('య', '|'), ('ప్ర', '|'), ('చా', 'U'), ('రం', 'U'), ('బు', '|'), ('లన్', 'U'), ('గ్రిం', 'U'), ('దు', 'U'), ('న్మీ', 'U'), ('దు', '|'), ('ను', '|'), ('గా', 'U'), ('న', '|'), ('కెం', 'U'), ('త', '|'), ('యు', '|'), ('ను', '|'), ('ర', 'U'), ('క్తిన్', 'U'), ('ధా', 'U'), ('త్రి', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('తు', '|'), ('రౌ', 'U'), ('మం', 'U'), ('దుల్', 'U'), ('సుం', 'U'), ('ద', '|'), ('ర', '|'), ('మం', 'U'), ('ద', '|'), ('హా', 'U'), ('స', '|'), ('ము', '|'), ('ఖ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('ఇం', 'U'), ('దం', 'U'), ('దు', 'U'), ('న్సు', '|'), ('ఖ', '|'), ('మీ', 'U'), ('య', '|'), ('జా', 'U'), ('ల', '|'), ('ని', '|'), ('మ', '|'), ('హా', 'U'), ('హే', 'U'), ('యా', 'U'), ('ర్థ', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('ఘో', 'U'), ('రాం', 'U'), ('ధూ', 'U'), ('బృం', 'U'), ('ద', '|'), ('ని', '|'), ('బ', 'U'), ('ద్ధు', '|'), ('లై', 'U'), ('స', '|'), ('త', '|'), ('త', '|'), ('మ', 'U'), ('న్యా', 'U'), ('య', '|'), ('ప్ర', '|'), ('చా', 'U'), ('రం', 'U'), ('బు', '|'), ('లన్', 'U'), ('గ్రిం', 'U'), ('దు', 'U'), ('న్మీ', 'U'), ('దు', '|'), ('ను', '|'), ('గా', 'U'), ('న', '|'), ('కెం', 'U'), ('త', '|'), ('యు', '|'), ('ను', '|'), ('ర', 'U'), ('క్తి', 'U'), ('న్ధా', 'U'), ('త్రి', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('తు', '|'), ('రౌ', 'U'), ('మం', 'U'), ('దు', 'U'), ('ల్సుం', 'U'), ('ద', '|'), ('ర', '|'), ('మం', 'U'), ('ద', '|'), ('హా', 'U'), ('స', '|'), ('ము', '|'), ('ఖ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[('న', '|'), ('రు', '|'), ('డె', 'U'), ('ల్ల', 'U'), ('ప్పు', '|'), ('డు', '|'), ('నా', 'U'), ('జ', '|'), ('వం', 'U'), ('జ', '|'), ('వ', '|'), ('భ', '|'), ('రా', 'U'), ('న', '|'), ('మ్రా', 'U'), ('త్ము', '|'), ('డై', 'U'), ('యు', 'U'), ('న్న', '|'), ('గా', 'U'), ('ని', '|'), ('ర', '|'), ('హ', 'U'), ('స్యం', 'U'), ('బు', '|'), ('గ', '|'), ('నీ', 'U'), ('ప', '|'), ('ద', 'U'), ('ద్వ', '|'), ('య', '|'), ('ము', 'U'), ('ధ్యా', 'U'), ('నిం', 'U'), ('పన్', 'U'), ('వ', '|'), ('లెన్', 'U'), ('భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('బ', '|'), ('ర', '|'), ('మా', 'U'), ('నం', 'U'), ('ద', '|'), ('సు', '|'), ('ధా', 'U'), ('సా', 'U'), ('ర', '|'), ('ను', '|'), ('భ', '|'), ('వ', '|'), ('లి', 'U'), ('ప్సా', 'U'), ('బు', 'U'), ('ద్ధి', '|'), ('యై', 'U'), ('ను', 'U'), ('ర్వి', '|'), ('గు', 'U'), ('మ్మ', '|'), ('రి', '|'), ('పు', 'U'), ('ర్వుం', 'U'), ('బ', '|'), ('లె', '|'), ('బం', 'U'), ('క', '|'), ('దూ', 'U'), ('ర', '|'), ('గ', '|'), ('తి', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('న', '|'), ('రు', '|'), ('డె', 'U'), ('ల్ల', 'U'), ('ప్పు', '|'), ('డు', '|'), ('నా', 'U'), ('జ', '|'), ('వం', 'U'), ('జ', '|'), ('వ', '|'), ('భ', '|'), ('రా', 'U'), ('న', '|'), ('మ్రా', 'U'), ('త్ము', '|'), ('డై', 'U'), ('యు', 'U'), ('న్న', '|'), ('గా', 'U'), ('ని', '|'), ('ర', '|'), ('హ', 'U'), ('స్యం', 'U'), ('బు', '|'), ('గ', '|'), ('నీ', 'U'), ('ప', '|'), ('ద', 'U'), ('ద్వ', '|'), ('య', '|'), ('ము', 'U'), ('ధ్యా', 'U'), ('నిం', 'U'), ('ప', 'U'), ('న్వ', '|'), ('లె', 'U'), ('న్భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('బ', '|'), ('ర', '|'), ('మా', 'U'), ('నం', 'U'), ('ద', '|'), ('సు', '|'), ('ధా', 'U'), ('సా', 'U'), ('ర', '|'), ('ను', '|'), ('భ', '|'), ('వ', '|'), ('లి', 'U'), ('ప్సా', 'U'), ('బు', 'U'), ('ద్ధి', '|'), ('యై', 'U'), ('ను', 'U'), ('ర్వి', '|'), ('గు', 'U'), ('మ్మ', '|'), ('రి', '|'), ('పు', 'U'), ('ర్వుం', 'U'), ('బ', '|'), ('లె', '|'), ('బం', 'U'), ('క', '|'), ('దూ', 'U'), ('ర', '|'), ('గ', '|'), ('తి', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[('దా', 'U'), ('నం', 'U'), ('బా', 'U'), ('భ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('హ', 'U'), ('స్త', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('ద', 'U'), ('ద్జ్ఞా', 'U'), ('ని', '|'), ('కి', 'U'), ('న్నీ', 'U'), ('ప', '|'), ('ద', 'U'), ('ధ్యా', 'U'), ('నం', 'U'), ('బా', 'U'), ('భ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('భూ', 'U'), ('సు', '|'), ('రు', '|'), ('న', '|'), ('క', 'U'), ('త్యం', 'U'), ('తం', 'U'), ('బ', '|'), ('గం', 'U'), ('గా', 'U'), ('న', '|'), ('దీ', 'U'), ('స్నా', 'U'), ('నం', 'U'), ('బా', 'U'), ('భ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('భూ', 'U'), ('త', '|'), ('ల', '|'), ('ము', '|'), ('నన్', 'U'), ('నా', 'U'), ('డెం', 'U'), ('పు', '|'), ('టి', 'U'), ('ల్లా', 'U'), ('లి', '|'), ('కిన్', 'U'), ('మా', 'U'), ('నం', 'U'), ('బా', 'U'), ('భ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('త', 'U'), ('థ్య', '|'), ('మి', '|'), ('ది', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('దా', 'U'), ('నం', 'U'), ('బా', 'U'), ('భ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('హ', 'U'), ('స్త', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('ద', 'U'), ('ద్జ్ఞా', 'U'), ('ని', '|'), ('కి', 'U'), ('న్నీ', 'U'), ('ప', '|'), ('ద', 'U'), ('ధ్యా', 'U'), ('నం', 'U'), ('బా', 'U'), ('భ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('భూ', 'U'), ('సు', '|'), ('రు', '|'), ('న', '|'), ('క', 'U'), ('త్యం', 'U'), ('తం', 'U'), ('బ', '|'), ('గం', 'U'), ('గా', 'U'), ('న', '|'), ('దీ', 'U'), ('స్నా', 'U'), ('నం', 'U'), ('బా', 'U'), ('భ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('భూ', 'U'), ('త', '|'), ('ల', '|'), ('ము', '|'), ('న', 'U'), ('న్నా', 'U'), ('డెం', 'U'), ('పు', '|'), ('టి', 'U'), ('ల్లా', 'U'), ('లి', '|'), ('కిన్', 'U'), ('మా', 'U'), ('నం', 'U'), ('బా', 'U'), ('భ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('త', 'U'), ('థ్య', '|'), ('మి', '|'), ('ది', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('ద', '|'), ('న', 'U'), ('న్వే', 'U'), ('డి', '|'), ('న', '|'), ('యా', 'U'), ('చ', '|'), ('క', '|'), ('ప్ర', '|'), ('త', '|'), ('తి', '|'), ('కీ', 'U'), ('యం', 'U'), ('గా', 'U'), ('వ', '|'), ('లెన్', 'U'), ('రొ', 'U'), ('క్క', '|'), ('మిం', 'U'), ('పొ', '|'), ('ద', '|'), ('వన్', 'U'), ('మీ', 'U'), ('క', '|'), ('థ', '|'), ('లా', 'U'), ('ల', '|'), ('కిం', 'U'), ('ప', '|'), ('వ', '|'), ('లె', '|'), ('మే', 'U'), ('ను', 'U'), ('ప్పొం', 'U'), ('గ', '|'), ('గం', 'U'), ('గా', 'U'), ('మ', '|'), ('హా', 'U'), ('న', '|'), ('ది', '|'), ('లో', 'U'), ('స్నా', 'U'), ('న', '|'), ('ము', '|'), ('లా', 'U'), ('చ', '|'), ('రిం', 'U'), ('ప', '|'), ('వ', '|'), ('లె', '|'), ('హీ', 'U'), ('న', '|'), ('ప్ర', '|'), ('క్రి', '|'), ('య', 'U'), ('న్మా', 'U'), ('ని', '|'), ('స', 'U'), ('మ్మ', '|'), ('ద', '|'), ('చి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('న', '|'), ('మ', 'U'), ('ర్త్యు', '|'), ('డె', 'U'), ('ల్ల', '|'), ('పు', '|'), ('డు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('అ', '|'), ('ద', '|'), ('న', 'U'), ('న్వే', 'U'), ('డి', '|'), ('న', '|'), ('యా', 'U'), ('చ', '|'), ('క', '|'), ('ప్ర', '|'), ('త', '|'), ('తి', '|'), ('కీ', 'U'), ('యం', 'U'), ('గా', 'U'), ('వ', '|'), ('లె', '|'), ('న్రొ', 'U'), ('క్క', '|'), ('మిం', 'U'), ('పొ', '|'), ('ద', '|'), ('వ', 'U'), ('న్మీ', 'U'), ('క', '|'), ('థ', '|'), ('లా', 'U'), ('ల', '|'), ('కిం', 'U'), ('ప', '|'), ('వ', '|'), ('లె', '|'), ('మే', 'U'), ('ను', 'U'), ('ప్పొం', 'U'), ('గ', '|'), ('గం', 'U'), ('గా', 'U'), ('మ', '|'), ('హా', 'U'), ('న', '|'), ('ది', '|'), ('లో', 'U'), ('స్నా', 'U'), ('న', '|'), ('ము', '|'), ('లా', 'U'), ('చ', '|'), ('రిం', 'U'), ('ప', '|'), ('వ', '|'), ('లె', '|'), ('హీ', 'U'), ('న', '|'), ('ప్ర', '|'), ('క్రి', '|'), ('య', 'U'), ('న్మా', 'U'), ('ని', '|'), ('స', 'U'), ('మ్మ', '|'), ('ద', '|'), ('చి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('న', '|'), ('మ', 'U'), ('ర్త్యు', '|'), ('డె', 'U'), ('ల్ల', '|'), ('పు', '|'), ('డు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[('ఉ', 'U'), ('ద్యా', 'U'), ('నా', 'U'), ('ది', '|'), ('క', '|'), ('స', 'U'), ('ప్త', '|'), ('సం', 'U'), ('త', '|'), ('తు', '|'), ('ల', '|'), ('బా', 'U'), ('గొ', 'U'), ('ప్పా', 'U'), ('ర', '|'), ('ని', 'U'), ('ల్పన్', 'U'), ('వ', '|'), ('లెన్', 'U'), ('స', 'U'), ('ద్యో', 'U'), ('దా', 'U'), ('న', '|'), ('ము', '|'), ('నన్', 'U'), ('బు', '|'), ('ధా', 'U'), ('ళి', '|'), ('కె', '|'), ('పు', '|'), ('డున్', 'U'), ('సం', 'U'), ('ప్రీ', 'U'), ('తి', '|'), ('స', 'U'), ('ల్పన్', 'U'), ('వ', '|'), ('లెన్', 'U'), ('ప్రో', 'U'), ('ద్య', 'U'), ('ద్వి', 'U'), ('ద్య', '|'), ('లు', '|'), ('సం', 'U'), ('గ్ర', '|'), ('హిం', 'U'), ('ప', '|'), ('వ', '|'), ('లె', '|'), ('ని', 'U'), ('త్యో', 'U'), ('త్సా', 'U'), ('హి', '|'), ('యై', 'U'), ('మ', 'U'), ('ర్త్యు', '|'), ('డో', 'U'), ('మా', 'U'), ('ద్య', 'U'), ('ద్దా', 'U'), ('న', '|'), ('వ', '|'), ('కా', 'U'), ('న', '|'), ('న', 'U'), ('జ్వ', '|'), ('ల', '|'), ('న', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('ఉ', 'U'), ('ద్యా', 'U'), ('నా', 'U'), ('ది', '|'), ('క', '|'), ('స', 'U'), ('ప్త', '|'), ('సం', 'U'), ('త', '|'), ('తు', '|'), ('ల', '|'), ('బా', 'U'), ('గొ', 'U'), ('ప్పా', 'U'), ('ర', '|'), ('ని', 'U'), ('ల్ప', 'U'), ('న్వ', '|'), ('లెన్', 'U'), ('స', 'U'), ('ద్యో', 'U'), ('దా', 'U'), ('న', '|'), ('ము', '|'), ('న', 'U'), ('న్బు', '|'), ('ధా', 'U'), ('ళి', '|'), ('కె', '|'), ('పు', '|'), ('డు', 'U'), ('న్సం', 'U'), ('ప్రీ', 'U'), ('తి', '|'), ('స', 'U'), ('ల్ప', 'U'), ('న్వ', '|'), ('లెన్', 'U'), ('ప్రో', 'U'), ('ద్య', 'U'), ('ద్వి', 'U'), ('ద్య', '|'), ('లు', '|'), ('సం', 'U'), ('గ్ర', '|'), ('హిం', 'U'), ('ప', '|'), ('వ', '|'), ('లె', '|'), ('ని', 'U'), ('త్యో', 'U'), ('త్సా', 'U'), ('హి', '|'), ('యై', 'U'), ('మ', 'U'), ('ర్త్యు', '|'), ('డో', 'U'), ('మా', 'U'), ('ద్య', 'U'), ('ద్దా', 'U'), ('న', '|'), ('వ', '|'), ('కా', 'U'), ('న', '|'), ('న', 'U'), ('జ్వ', '|'), ('ల', '|'), ('న', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[('ని', '|'), ('ను', '|'), ('భ', 'U'), ('క్తిన్', 'U'), ('భ', '|'), ('జి', '|'), ('యిం', 'U'), ('చి', '|'), ('నన్', 'U'), ('గు', '|'), ('రు', '|'), ('వు', '|'), ('ల', 'U'), ('న్ని', 'U'), ('త్యం', 'U'), ('బు', '|'), ('సే', 'U'), ('విం', 'U'), ('చి', '|'), ('నన్', 'U'), ('ధ', '|'), ('న', '|'), ('వం', 'U'), ('తుం', 'U'), ('డ', '|'), ('యి', '|'), ('గ', 'U'), ('ర్వ', '|'), ('దూ', 'U'), ('రు', '|'), ('డ', '|'), ('గు', '|'), ('చున్', 'U'), ('ధ', 'U'), ('ర్మం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('నన్', 'U'), ('జ', '|'), ('న', '|'), ('తా', 'U'), ('మో', 'U'), ('ద', '|'), ('క', '|'), ('ప', 'U'), ('ద్ధ', '|'), ('తి', 'U'), ('న్మె', '|'), ('ల', '|'), ('గి', '|'), ('నన్', 'U'), ('జా', 'U'), ('రుం', 'U'), ('డు', '|'), ('గా', 'U'), ('కుం', 'U'), ('డి', '|'), ('నన్', 'U'), ('మ', '|'), ('ను', '|'), ('జుం', 'U'), ('డా', 'U'), ('ర', '|'), ('య', '|'), ('దే', 'U'), ('వు', '|'), ('డి', 'U'), ('మ్మ', '|'), ('హి', '|'), ('ని', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('ని', '|'), ('ను', '|'), ('భ', 'U'), ('క్తి', 'U'), ('న్భ', '|'), ('జి', '|'), ('యిం', 'U'), ('చి', '|'), ('న', 'U'), ('న్గు', '|'), ('రు', '|'), ('వు', '|'), ('ల', 'U'), ('న్ని', 'U'), ('త్యం', 'U'), ('బు', '|'), ('సే', 'U'), ('విం', 'U'), ('చి', '|'), ('నన్', 'U'), ('ధ', '|'), ('న', '|'), ('వం', 'U'), ('తుం', 'U'), ('డ', '|'), ('యి', '|'), ('గ', 'U'), ('ర్వ', '|'), ('దూ', 'U'), ('రు', '|'), ('డ', '|'), ('గు', '|'), ('చు', 'U'), ('న్ధ', 'U'), ('ర్మం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('నన్', 'U'), ('జ', '|'), ('న', '|'), ('తా', 'U'), ('మో', 'U'), ('ద', '|'), ('క', '|'), ('ప', 'U'), ('ద్ధ', '|'), ('తి', 'U'), ('న్మె', '|'), ('ల', '|'), ('గి', '|'), ('న', 'U'), ('న్జా', 'U'), ('రుం', 'U'), ('డు', '|'), ('గా', 'U'), ('కుం', 'U'), ('డి', '|'), ('నన్', 'U'), ('మ', '|'), ('ను', '|'), ('జుం', 'U'), ('డా', 'U'), ('ర', '|'), ('య', '|'), ('దే', 'U'), ('వు', '|'), ('డి', 'U'), ('మ్మ', '|'), ('హి', '|'), ('ని', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[('అ', 'U'), ('న్యా', 'U'), ('యం', 'U'), ('బు', '|'), ('దొ', '|'), ('ఱం', 'U'), ('గి', '|'), ('యె', 'U'), ('ల్ల', '|'), ('ర', '|'), ('కు', '|'), ('న', 'U'), ('త్యా', 'U'), ('నం', 'U'), ('ద', '|'), ('మిం', 'U'), ('పొం', 'U'), ('ద', '|'), ('సౌ', 'U'), ('జ', 'U'), ('న్య', '|'), ('ప్ర', '|'), ('క్రి', '|'), ('య', '|'), ('నే', 'U'), ('ల', '|'), ('యే', 'U'), ('లు', '|'), ('న', '|'), ('త', '|'), ('డున్', 'U'), ('శా', 'U'), ('స్త్రా', 'U'), ('ను', '|'), ('సా', 'U'), ('రం', 'U'), ('బు', '|'), ('గా', 'U'), ('గ', 'U'), ('న్యా', 'U'), ('దా', 'U'), ('న', '|'), ('ము', '|'), ('సే', 'U'), ('యు', '|'), ('నా', 'U'), ('త', '|'), ('డు', '|'), ('ను', '|'), ('వే', 'U'), ('డ్కన్', 'U'), ('భూ', 'U'), ('సు', '|'), ('రున్', 'U'), ('బి', 'U'), ('ల్చి', '|'), ('స', 'U'), ('న్మా', 'U'), ('న్యం', 'U'), ('బి', 'U'), ('చ్చి', '|'), ('న', '|'), ('వా', 'U'), ('డు', '|'), ('ధ', 'U'), ('న్యు', '|'), ('డి', '|'), ('ల', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('అ', 'U'), ('న్యా', 'U'), ('యం', 'U'), ('బు', '|'), ('దొ', '|'), ('ఱం', 'U'), ('గి', '|'), ('యె', 'U'), ('ల్ల', '|'), ('ర', '|'), ('కు', '|'), ('న', 'U'), ('త్యా', 'U'), ('నం', 'U'), ('ద', '|'), ('మిం', 'U'), ('పొం', 'U'), ('ద', '|'), ('సౌ', 'U'), ('జ', 'U'), ('న్య', '|'), ('ప్ర', '|'), ('క్రి', '|'), ('య', '|'), ('నే', 'U'), ('ల', '|'), ('యే', 'U'), ('లు', '|'), ('న', '|'), ('త', '|'), ('డు', 'U'), ('న్శా', 'U'), ('స్త్రా', 'U'), ('ను', '|'), ('సా', 'U'), ('రం', 'U'), ('బు', '|'), ('గా', 'U'), ('గ', 'U'), ('న్యా', 'U'), ('దా', 'U'), ('న', '|'), ('ము', '|'), ('సే', 'U'), ('యు', '|'), ('నా', 'U'), ('త', '|'), ('డు', '|'), ('ను', '|'), ('వే', 'U'), ('డ్క', 'U'), ('న్భూ', 'U'), ('సు', '|'), ('రు', 'U'), ('న్బి', 'U'), ('ల్చి', '|'), ('స', 'U'), ('న్మా', 'U'), ('న్యం', 'U'), ('బి', 'U'), ('చ్చి', '|'), ('న', '|'), ('వా', 'U'), ('డు', '|'), ('ధ', 'U'), ('న్యు', '|'), ('డి', '|'), ('ల', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[('చె', '|'), ('ఱు', '|'), ('వున్', 'U'), ('సూ', 'U'), ('ను', '|'), ('డు', '|'), ('దో', 'U'), ('ట', '|'), ('యుం', 'U'), ('గృ', '|'), ('తి', '|'), ('యు', '|'), ('ని', 'U'), ('క్షే', 'U'), ('పం', 'U'), ('బు', '|'), ('నుం', 'U'), ('దే', 'U'), ('వ', '|'), ('మం', 'U'), ('ది', '|'), ('ర', '|'), ('మున్', 'U'), ('వి', '|'), ('ప్ర', '|'), ('వి', '|'), ('వా', 'U'), ('హ', '|'), ('మున్', 'U'), ('జ', '|'), ('గ', '|'), ('తి', '|'), ('నెం', 'U'), ('తే', 'U'), ('వే', 'U'), ('డ్క', '|'), ('గా', 'U'), ('విం', 'U'), ('చు', '|'), ('చున్', 'U'), ('ని', '|'), ('ర', '|'), ('తం', 'U'), ('బున్', 'U'), ('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', '|'), ('పా', 'U'), ('ద', '|'), ('వి', '|'), ('ల', '|'), ('స', 'U'), ('న్నీ', 'U'), ('రే', 'U'), ('రు', '|'), ('హ', 'U'), ('ద్వం', 'U'), ('ద్వ', '|'), ('సం', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణం', 'U'), ('బూ', 'U'), ('నె', '|'), ('డు', '|'), ('వా', 'U'), ('డు', '|'), ('ము', 'U'), ('క్తు', '|'), ('డ', '|'), ('గు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('చె', '|'), ('ఱు', '|'), ('వు', 'U'), ('న్సూ', 'U'), ('ను', '|'), ('డు', '|'), ('దో', 'U'), ('ట', '|'), ('యుం', 'U'), ('గృ', '|'), ('తి', '|'), ('యు', '|'), ('ని', 'U'), ('క్షే', 'U'), ('పం', 'U'), ('బు', '|'), ('నుం', 'U'), ('దే', 'U'), ('వ', '|'), ('మం', 'U'), ('ది', '|'), ('ర', '|'), ('ము', 'U'), ('న్వి', '|'), ('ప్ర', '|'), ('వి', '|'), ('వా', 'U'), ('హ', '|'), ('ము', 'U'), ('న్జ', '|'), ('గ', '|'), ('తి', '|'), ('నెం', 'U'), ('తే', 'U'), ('వే', 'U'), ('డ్క', '|'), ('గా', 'U'), ('విం', 'U'), ('చు', '|'), ('చున్', 'U'), ('ని', '|'), ('ర', '|'), ('తం', 'U'), ('బు', 'U'), ('న్భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', '|'), ('పా', 'U'), ('ద', '|'), ('వి', '|'), ('ల', '|'), ('స', 'U'), ('న్నీ', 'U'), ('రే', 'U'), ('రు', '|'), ('హ', 'U'), ('ద్వం', 'U'), ('ద్వ', '|'), ('సం', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణం', 'U'), ('బూ', 'U'), ('నె', '|'), ('డు', '|'), ('వా', 'U'), ('డు', '|'), ('ము', 'U'), ('క్తు', '|'), ('డ', '|'), ('గు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[('ఆ', 'U'), ('కాం', 'U'), ('క్షన్', 'U'), ('గృ', '|'), ('హ', '|'), ('దా', 'U'), ('సి', '|'), ('కా', 'U'), ('సు', '|'), ('ర', '|'), ('త', '|'), ('లీ', 'U'), ('లా', 'U'), ('స', 'U'), ('క్తి', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('చి', '|'), ('నన్', 'U'), ('లో', 'U'), ('క', 'U'), ('స్తు', 'U'), ('త్య', '|'), ('చ', '|'), ('రి', '|'), ('త్ర', '|'), ('స', 'U'), ('త్కు', '|'), ('ల', '|'), ('వ', '|'), ('ధూ', 'U'), ('లో', 'U'), ('లుం', 'U'), ('డు', '|'), ('గా', 'U'), ('కుం', 'U'), ('డి', '|'), ('నన్', 'U'), ('కో', 'U'), ('కా', 'U'), ('ప్తా', 'U'), ('స్త', '|'), ('మ', '|'), ('యో', 'U'), ('ద', '|'), ('యం', 'U'), ('బు', '|'), ('ల', '|'), ('యె', '|'), ('డన్', 'U'), ('గూ', 'U'), ('ర్కూ', 'U'), ('ని', '|'), ('నన్', 'U'), ('మ', 'U'), ('ర్త్యు', '|'), ('పై', 'U'), ('మా', 'U'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('మూ', 'U'), ('న', '|'), ('ది', '|'), ('ల', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('ఆ', 'U'), ('కాం', 'U'), ('క్ష', 'U'), ('న్గృ', '|'), ('హ', '|'), ('దా', 'U'), ('సి', '|'), ('కా', 'U'), ('సు', '|'), ('ర', '|'), ('త', '|'), ('లీ', 'U'), ('లా', 'U'), ('స', 'U'), ('క్తి', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('చి', '|'), ('నన్', 'U'), ('లో', 'U'), ('క', 'U'), ('స్తు', 'U'), ('త్య', '|'), ('చ', '|'), ('రి', '|'), ('త్ర', '|'), ('స', 'U'), ('త్కు', '|'), ('ల', '|'), ('వ', '|'), ('ధూ', 'U'), ('లో', 'U'), ('లుం', 'U'), ('డు', '|'), ('గా', 'U'), ('కుం', 'U'), ('డి', '|'), ('నన్', 'U'), ('కో', 'U'), ('కా', 'U'), ('ప్తా', 'U'), ('స్త', '|'), ('మ', '|'), ('యో', 'U'), ('ద', '|'), ('యం', 'U'), ('బు', '|'), ('ల', '|'), ('యె', '|'), ('డ', 'U'), ('న్గూ', 'U'), ('ర్కూ', 'U'), ('ని', '|'), ('న', 'U'), ('న్మ', 'U'), ('ర్త్యు', '|'), ('పై', 'U'), ('మా', 'U'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('మూ', 'U'), ('న', '|'), ('ది', '|'), ('ల', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[('గ', '|'), ('ణు', '|'), ('తిం', 'U'), ('పం', 'U'), ('గ', '|'), ('న', '|'), ('రా', 'U'), ('ధ', '|'), ('ముల్', 'U'), ('సు', '|'), ('క', '|'), ('వి', '|'), ('కిం', 'U'), ('గా', 'U'), ('సీ', 'U'), ('ని', '|'), ('వా', 'U'), ('డున్', 'U'), ('ద', '|'), ('యా', 'U'), ('గు', '|'), ('ణ', '|'), ('మొ', 'U'), ('క్కిం', 'U'), ('త', '|'), ('యు', '|'), ('లే', 'U'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('నొ', '|'), ('రు', '|'), ('పై', 'U'), ('గొం', 'U'), ('డెం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చు', '|'), ('వా', 'U'), ('డ', '|'), ('ణు', '|'), ('మ', 'U'), ('ధ్యన్', 'U'), ('స', '|'), ('తి', '|'), ('బా', 'U'), ('సి', '|'), ('దా', 'U'), ('సి', '|'), ('పొం', 'U'), ('దా', 'U'), ('సిం', 'U'), ('చు', '|'), ('వా', 'U'), ('డు', 'U'), ('ర్వి', '|'), ('బ్రా', 'U'), ('హ్మ', '|'), ('ణ', '|'), ('వి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('హ', '|'), ('రిం', 'U'), ('చు', '|'), ('వా', 'U'), ('డ', '|'), ('ర', '|'), ('య', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('గ', '|'), ('ణు', '|'), ('తిం', 'U'), ('పం', 'U'), ('గ', '|'), ('న', '|'), ('రా', 'U'), ('ధ', '|'), ('ము', 'U'), ('ల్సు', '|'), ('క', '|'), ('వి', '|'), ('కిం', 'U'), ('గా', 'U'), ('సీ', 'U'), ('ని', '|'), ('వా', 'U'), ('డు', 'U'), ('న్ద', '|'), ('యా', 'U'), ('గు', '|'), ('ణ', '|'), ('మొ', 'U'), ('క్కిం', 'U'), ('త', '|'), ('యు', '|'), ('లే', 'U'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('నొ', '|'), ('రు', '|'), ('పై', 'U'), ('గొం', 'U'), ('డెం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చు', '|'), ('వా', 'U'), ('డ', '|'), ('ణు', '|'), ('మ', 'U'), ('ధ్య', 'U'), ('న్స', '|'), ('తి', '|'), ('బా', 'U'), ('సి', '|'), ('దా', 'U'), ('సి', '|'), ('పొం', 'U'), ('దా', 'U'), ('సిం', 'U'), ('చు', '|'), ('వా', 'U'), ('డు', 'U'), ('ర్వి', '|'), ('బ్రా', 'U'), ('హ్మ', '|'), ('ణ', '|'), ('వి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('హ', '|'), ('రిం', 'U'), ('చు', '|'), ('వా', 'U'), ('డ', '|'), ('ర', '|'), ('య', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[('వృ', '|'), ('ష', '|'), ('లీ', 'U'), ('భ', 'U'), ('ర్త', '|'), ('యు', '|'), ('దే', 'U'), ('వ', '|'), ('లుం', 'U'), ('డు', '|'), ('న', '|'), ('టు', '|'), ('డున్', 'U'), ('వే', 'U'), ('దా', 'U'), ('భి', '|'), ('శ', 'U'), ('స్తుం', 'U'), ('డు', '|'), ('మా', 'U'), ('హి', '|'), ('షి', '|'), ('కుం', 'U'), ('డ', 'U'), ('గ్ని', '|'), ('ద', '|'), ('కుం', 'U'), ('డ', '|'), ('గో', 'U'), ('ళ', '|'), ('కు', '|'), ('లు', '|'), ('నున్', 'U'), ('హిం', 'U'), ('సా', 'U'), ('ప', '|'), ('ర', 'U'), ('స్వాం', 'U'), ('తు', '|'), ('డున్', 'U'), ('వి', '|'), ('ష', '|'), ('దుం', 'U'), ('డుం', 'U'), ('గొ', '|'), ('ఱ', '|'), ('గా', 'U'), ('డు', '|'), ('పం', 'U'), ('క్తి', '|'), ('కె', '|'), ('పు', '|'), ('డు', 'U'), ('ర్విన్', 'U'), ('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('ఘా', 'U'), ('త', '|'), ('క', 'U'), ('ల్మ', '|'), ('ష', '|'), ('మ', 'U'), ('త్త', 'U'), ('ద్వి', '|'), ('ర', '|'), ('దౌ', 'U'), ('ఘ', '|'), ('పం', 'U'), ('చ', '|'), ('ము', '|'), ('ఖ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('వృ', '|'), ('ష', '|'), ('లీ', 'U'), ('భ', 'U'), ('ర్త', '|'), ('యు', '|'), ('దే', 'U'), ('వ', '|'), ('లుం', 'U'), ('డు', '|'), ('న', '|'), ('టు', '|'), ('డు', 'U'), ('న్వే', 'U'), ('దా', 'U'), ('భి', '|'), ('శ', 'U'), ('స్తుం', 'U'), ('డు', '|'), ('మా', 'U'), ('హి', '|'), ('షి', '|'), ('కుం', 'U'), ('డ', 'U'), ('గ్ని', '|'), ('ద', '|'), ('కుం', 'U'), ('డ', '|'), ('గో', 'U'), ('ళ', '|'), ('కు', '|'), ('లు', '|'), ('ను', 'U'), ('న్హిం', 'U'), ('సా', 'U'), ('ప', '|'), ('ర', 'U'), ('స్వాం', 'U'), ('తు', '|'), ('డున్', 'U'), ('వి', '|'), ('ష', '|'), ('దుం', 'U'), ('డుం', 'U'), ('గొ', '|'), ('ఱ', '|'), ('గా', 'U'), ('డు', '|'), ('పం', 'U'), ('క్తి', '|'), ('కె', '|'), ('పు', '|'), ('డు', 'U'), ('ర్వి', 'U'), ('న్భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('ఘా', 'U'), ('త', '|'), ('క', 'U'), ('ల్మ', '|'), ('ష', '|'), ('మ', 'U'), ('త్త', 'U'), ('ద్వి', '|'), ('ర', '|'), ('దౌ', 'U'), ('ఘ', '|'), ('పం', 'U'), ('చ', '|'), ('ము', '|'), ('ఖ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('గ', '|'), ('సా', 'U'), ('లిన్', 'U'), ('ది', '|'), ('ల', '|'), ('ఘా', 'U'), ('త', '|'), ('కున్', 'U'), ('య', '|'), ('వ', '|'), ('ను', '|'), ('నిన్', 'U'), ('వ్యా', 'U'), ('పా', 'U'), ('రి', '|'), ('దా', 'U'), ('సున్', 'U'), ('వి', '|'), ('టున్', 'U'), ('జ', '|'), ('గ', '|'), ('తీ', 'U'), ('నా', 'U'), ('థు', '|'), ('ని', '|'), ('వే', 'U'), ('ట', '|'), ('కా', 'U'), ('ని', '|'), ('గ', '|'), ('ణి', '|'), ('కన్', 'U'), ('జం', 'U'), ('డా', 'U'), ('లు', '|'), ('నిన్', 'U'), ('జో', 'U'), ('రు', '|'), ('నిన్', 'U'), ('బ్రె', '|'), ('గ', '|'), ('డం', 'U'), ('గో', 'U'), ('మ', '|'), ('టి', '|'), ('జూ', 'U'), ('ద', '|'), ('రిన్', 'U'), ('బు', '|'), ('ధ', '|'), ('జ', '|'), ('నుల్', 'U'), ('పె', '|'), ('న్రొ', 'U'), ('క్క', '|'), ('మ', 'U'), ('ర్పిం', 'U'), ('ప', '|'), ('న', 'U'), ('మ్మ', '|'), ('గ', '|'), ('రా', 'U'), ('దెం', 'U'), ('త', '|'), ('యు', '|'), ('ద', 'U'), ('థ్య', '|'), ('మి', 'U'), ('ద్ధ', '|'), ('ర', '|'), ('ణి', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('అ', '|'), ('గ', '|'), ('సా', 'U'), ('లి', 'U'), ('న్ది', '|'), ('ల', '|'), ('ఘా', 'U'), ('త', '|'), ('కు', 'U'), ('న్య', '|'), ('వ', '|'), ('ను', '|'), ('ని', 'U'), ('న్వ్యా', 'U'), ('పా', 'U'), ('రి', '|'), ('దా', 'U'), ('సు', 'U'), ('న్వి', '|'), ('టున్', 'U'), ('జ', '|'), ('గ', '|'), ('తీ', 'U'), ('నా', 'U'), ('థు', '|'), ('ని', '|'), ('వే', 'U'), ('ట', '|'), ('కా', 'U'), ('ని', '|'), ('గ', '|'), ('ణి', '|'), ('క', 'U'), ('న్జం', 'U'), ('డా', 'U'), ('లు', '|'), ('ని', 'U'), ('న్జో', 'U'), ('రు', '|'), ('నిన్', 'U'), ('బ్రె', '|'), ('గ', '|'), ('డం', 'U'), ('గో', 'U'), ('మ', '|'), ('టి', '|'), ('జూ', 'U'), ('ద', '|'), ('రి', 'U'), ('న్బు', '|'), ('ధ', '|'), ('జ', '|'), ('ను', 'U'), ('ల్పె', '|'), ('న్రొ', 'U'), ('క్క', '|'), ('మ', 'U'), ('ర్పిం', 'U'), ('ప', '|'), ('న', 'U'), ('మ్మ', '|'), ('గ', '|'), ('రా', 'U'), ('దెం', 'U'), ('త', '|'), ('యు', '|'), ('ద', 'U'), ('థ్య', '|'), ('మి', 'U'), ('ద్ధ', '|'), ('ర', '|'), ('ణి', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('లు', '|'), ('కన్', 'U'), ('మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('సా', 'U'), ('హ', '|'), ('సం', 'U'), ('బు', '|'), ('ఘ', '|'), ('న', '|'), ('మ', 'U'), ('న్యా', 'U'), ('య', '|'), ('ప్ర', '|'), ('చా', 'U'), ('రం', 'U'), ('బు', '|'), ('నుం', 'U'), ('జ', '|'), ('ల', '|'), ('ముం', 'U'), ('ద', 'U'), ('ట్ట', '|'), ('ము', '|'), ('కా', 'U'), ('మ', '|'), ('మె', 'U'), ('క్కు', '|'), ('డు', '|'), ('మ', '|'), ('హా', 'U'), ('జా', 'U'), ('లం', 'U'), ('బు', '|'), ('శీ', 'U'), ('లం', 'U'), ('బ', '|'), ('హో', 'U'), ('త', '|'), ('ల', '|'), ('పై', 'U'), ('జే', 'U'), ('యి', '|'), ('డి', '|'), ('బా', 'U'), ('స', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('య', '|'), ('థా', 'U'), ('ర్థం', 'U'), ('బు', 'U'), ('ర్వి', '|'), ('పై', 'U'), ('బు', 'U'), ('ష్ప', '|'), ('కో', 'U'), ('మ', '|'), ('లు', '|'), ('ల', 'U'), ('న్న', 'U'), ('మ్మ', '|'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('పూ', 'U'), ('రు', '|'), ('షు', '|'), ('లు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('అ', '|'), ('లు', '|'), ('క', 'U'), ('న్మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('సా', 'U'), ('హ', '|'), ('సం', 'U'), ('బు', '|'), ('ఘ', '|'), ('న', '|'), ('మ', 'U'), ('న్యా', 'U'), ('య', '|'), ('ప్ర', '|'), ('చా', 'U'), ('రం', 'U'), ('బు', '|'), ('నుం', 'U'), ('జ', '|'), ('ల', '|'), ('ముం', 'U'), ('ద', 'U'), ('ట్ట', '|'), ('ము', '|'), ('కా', 'U'), ('మ', '|'), ('మె', 'U'), ('క్కు', '|'), ('డు', '|'), ('మ', '|'), ('హా', 'U'), ('జా', 'U'), ('లం', 'U'), ('బు', '|'), ('శీ', 'U'), ('లం', 'U'), ('బ', '|'), ('హో', 'U'), ('త', '|'), ('ల', '|'), ('పై', 'U'), ('జే', 'U'), ('యి', '|'), ('డి', '|'), ('బా', 'U'), ('స', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('య', '|'), ('థా', 'U'), ('ర్థం', 'U'), ('బు', 'U'), ('ర్వి', '|'), ('పై', 'U'), ('బు', 'U'), ('ష్ప', '|'), ('కో', 'U'), ('మ', '|'), ('లు', '|'), ('ల', 'U'), ('న్న', 'U'), ('మ్మ', '|'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('పూ', 'U'), ('రు', '|'), ('షు', '|'), ('లు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[('కు', '|'), ('క', '|'), ('వుల్', 'U'), ('కూ', 'U'), ('ళ', '|'), ('లు', '|'), ('కొం', 'U'), ('టె', '|'), ('తొ', 'U'), ('త్తు', '|'), ('కొ', '|'), ('డు', '|'), ('కుల్', 'U'), ('కొం', 'U'), ('డీ', 'U'), ('లు', '|'), ('కో', 'U'), ('నా', 'U'), ('రు', '|'), ('లుం', 'U'), ('ద', '|'), ('క', '|'), ('తై', 'U'), ('త', 'U'), ('త్త', '|'), ('ల', '|'), ('వా', 'U'), ('రు', '|'), ('పా', 'U'), ('చ', '|'), ('కు', '|'), ('లు', '|'), ('జూ', 'U'), ('దం', 'U'), ('బా', 'U'), ('డు', '|'), ('వా', 'U'), ('రు', 'U'), ('న్మ', '|'), ('హిం', 'U'), ('బ్ర', '|'), ('క', '|'), ('టం', 'U'), ('బై', 'U'), ('సి', '|'), ('రి', '|'), ('గాం', 'U'), ('చి', '|'), ('రీ', 'U'), ('క', '|'), ('లి', '|'), ('యు', '|'), ('గ', '|'), ('ప్రా', 'U'), ('మా', 'U'), ('ణ్య', '|'), ('మా', 'U'), ('శ్చ', 'U'), ('ర్య', '|'), ('మో', 'U'), ('మ', '|'), ('క', '|'), ('రా', 'U'), ('క్షా', 'U'), ('సు', '|'), ('ర', '|'), ('గ', 'U'), ('ర్వ', '|'), ('సం', 'U'), ('హ', '|'), ('ర', '|'), ('ణ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('కు', '|'), ('క', '|'), ('వు', 'U'), ('ల్కూ', 'U'), ('ళ', '|'), ('లు', '|'), ('కొం', 'U'), ('టె', '|'), ('తొ', 'U'), ('త్తు', '|'), ('కొ', '|'), ('డు', '|'), ('కు', 'U'), ('ల్కొం', 'U'), ('డీ', 'U'), ('లు', '|'), ('కో', 'U'), ('నా', 'U'), ('రు', '|'), ('లుం', 'U'), ('ద', '|'), ('క', '|'), ('తై', 'U'), ('త', 'U'), ('త్త', '|'), ('ల', '|'), ('వా', 'U'), ('రు', '|'), ('పా', 'U'), ('చ', '|'), ('కు', '|'), ('లు', '|'), ('జూ', 'U'), ('దం', 'U'), ('బా', 'U'), ('డు', '|'), ('వా', 'U'), ('రు', 'U'), ('న్మ', '|'), ('హిం', 'U'), ('బ్ర', '|'), ('క', '|'), ('టం', 'U'), ('బై', 'U'), ('సి', '|'), ('రి', '|'), ('గాం', 'U'), ('చి', '|'), ('రీ', 'U'), ('క', '|'), ('లి', '|'), ('యు', '|'), ('గ', '|'), ('ప్రా', 'U'), ('మా', 'U'), ('ణ్య', '|'), ('మా', 'U'), ('శ్చ', 'U'), ('ర్య', '|'), ('మో', 'U'), ('మ', '|'), ('క', '|'), ('రా', 'U'), ('క్షా', 'U'), ('సు', '|'), ('ర', '|'), ('గ', 'U'), ('ర్వ', '|'), ('సం', 'U'), ('హ', '|'), ('ర', '|'), ('ణ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('లి', '|'), ('కా', 'U'), ('లం', 'U'), ('బు', '|'), ('న', '|'), ('వై', 'U'), ('ద్య', '|'), ('ల', 'U'), ('క్ష', '|'), ('ణ', '|'), ('ప', '|'), ('రీ', 'U'), ('క్షా', 'U'), ('శూ', 'U'), ('న్య', '|'), ('మూ', 'U'), ('ఢా', 'U'), ('వ', '|'), ('నీ', 'U'), ('త', '|'), ('ల', '|'), ('నా', 'U'), ('థుల్', 'U'), ('బ', '|'), ('లు', '|'), ('మో', 'U'), ('ట', '|'), ('కా', 'U'), ('పు', '|'), ('దొ', '|'), ('ర', '|'), ('లున్', 'U'), ('ద', 'U'), ('ట్టం', 'U'), ('బు', '|'), ('గా', 'U'), ('బి', 'U'), ('ల్చి', '|'), ('మం', 'U'), ('దు', '|'), ('ల', '|'), ('వే', 'U'), ('యిం', 'U'), ('ప', '|'), ('భు', '|'), ('జిం', 'U'), ('చి', '|'), ('క్రొ', 'U'), ('వ్వి', '|'), ('క', '|'), ('డు', '|'), ('వై', 'U'), ('ద్యుల్', 'U'), ('గా', 'U'), ('రె', '|'), ('సి', 'U'), ('గ్గే', 'U'), ('ది', '|'), ('త', 'U'), ('మ్మ', '|'), ('ళు', '|'), ('లన్', 'U'), ('నం', 'U'), ('బు', '|'), ('లు', 'U'), ('క్షౌ', 'U'), ('ర', '|'), ('కాం', 'U'), ('త్య', '|'), ('జు', '|'), ('లు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('క', '|'), ('లి', '|'), ('కా', 'U'), ('లం', 'U'), ('బు', '|'), ('న', '|'), ('వై', 'U'), ('ద్య', '|'), ('ల', 'U'), ('క్ష', '|'), ('ణ', '|'), ('ప', '|'), ('రీ', 'U'), ('క్షా', 'U'), ('శూ', 'U'), ('న్య', '|'), ('మూ', 'U'), ('ఢా', 'U'), ('వ', '|'), ('నీ', 'U'), ('త', '|'), ('ల', '|'), ('నా', 'U'), ('థు', 'U'), ('ల్బ', '|'), ('లు', '|'), ('మో', 'U'), ('ట', '|'), ('కా', 'U'), ('పు', '|'), ('దొ', '|'), ('ర', '|'), ('లు', 'U'), ('న్ద', 'U'), ('ట్టం', 'U'), ('బు', '|'), ('గా', 'U'), ('బి', 'U'), ('ల్చి', '|'), ('మం', 'U'), ('దు', '|'), ('ల', '|'), ('వే', 'U'), ('యిం', 'U'), ('ప', '|'), ('భు', '|'), ('జిం', 'U'), ('చి', '|'), ('క్రొ', 'U'), ('వ్వి', '|'), ('క', '|'), ('డు', '|'), ('వై', 'U'), ('ద్యు', 'U'), ('ల్గా', 'U'), ('రె', '|'), ('సి', 'U'), ('గ్గే', 'U'), ('ది', '|'), ('త', 'U'), ('మ్మ', '|'), ('ళు', '|'), ('ల', 'U'), ('న్నం', 'U'), ('బు', '|'), ('లు', 'U'), ('క్షౌ', 'U'), ('ర', '|'), ('కాం', 'U'), ('త్య', '|'), ('జు', '|'), ('లు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[('దీ', 'U'), ('న', 'U'), ('త్వం', 'U'), ('బు', '|'), ('న', '|'), ('గూ', 'U'), ('డు', '|'), ('లే', 'U'), ('క', '|'), ('చె', '|'), ('డి', '|'), ('యెం', 'U'), ('తే', 'U'), ('భై', 'U'), ('క్ష్య', '|'), ('ముల్', 'U'), ('గొం', 'U'), ('చు', '|'), ('ల', 'U'), ('జ్జా', 'U'), ('నా', 'U'), ('మం', 'U'), ('బు', '|'), ('లు', '|'), ('లే', 'U'), ('క', '|'), ('యుం', 'U'), ('బు', '|'), ('బ', '|'), ('లు', '|'), ('రా', 'U'), ('జ', 'U'), ('న్యుం', 'U'), ('డు', '|'), ('చే', 'U'), ('ప', 'U'), ('ట్టి', '|'), ('దా', 'U'), ('నా', 'U'), ('నా', 'U'), ('వ', 'U'), ('స్తు', '|'), ('వు', '|'), ('లి', 'U'), ('చ్చి', '|'), ('వై', 'U'), ('భ', '|'), ('వ', '|'), ('మి', '|'), ('డన్', 'U'), ('న్యా', 'U'), ('య', 'U'), ('జ్ఞు', '|'), ('డై', 'U'), ('వా', 'U'), ('డి', '|'), ('లన్', 'U'), ('మా', 'U'), ('నం', 'U'), ('జా', 'U'), ('లు', '|'), ('నె', '|'), ('తొం', 'U'), ('టి', '|'), ('నీ', 'U'), ('చ', '|'), ('గ', '|'), ('తి', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('దీ', 'U'), ('న', 'U'), ('త్వం', 'U'), ('బు', '|'), ('న', '|'), ('గూ', 'U'), ('డు', '|'), ('లే', 'U'), ('క', '|'), ('చె', '|'), ('డి', '|'), ('యెం', 'U'), ('తే', 'U'), ('భై', 'U'), ('క్ష్య', '|'), ('ము', 'U'), ('ల్గొం', 'U'), ('చు', '|'), ('ల', 'U'), ('జ్జా', 'U'), ('నా', 'U'), ('మం', 'U'), ('బు', '|'), ('లు', '|'), ('లే', 'U'), ('క', '|'), ('యుం', 'U'), ('బు', '|'), ('బ', '|'), ('లు', '|'), ('రా', 'U'), ('జ', 'U'), ('న్యుం', 'U'), ('డు', '|'), ('చే', 'U'), ('ప', 'U'), ('ట్టి', '|'), ('దా', 'U'), ('నా', 'U'), ('నా', 'U'), ('వ', 'U'), ('స్తు', '|'), ('వు', '|'), ('లి', 'U'), ('చ్చి', '|'), ('వై', 'U'), ('భ', '|'), ('వ', '|'), ('మి', '|'), ('డ', 'U'), ('న్న్యా', 'U'), ('య', 'U'), ('జ్ఞు', '|'), ('డై', 'U'), ('వా', 'U'), ('డి', '|'), ('లన్', 'U'), ('మా', 'U'), ('నం', 'U'), ('జా', 'U'), ('లు', '|'), ('నె', '|'), ('తొం', 'U'), ('టి', '|'), ('నీ', 'U'), ('చ', '|'), ('గ', '|'), ('తి', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[('బ', '|'), ('లి', '|'), ('భి', 'U'), ('క్షన్', 'U'), ('ద', '|'), ('య', '|'), ('బె', 'U'), ('ట్ట', '|'), ('బూ', 'U'), ('ని', '|'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('పా', 'U'), ('పా', 'U'), ('త్మ', '|'), ('కుల్', 'U'), ('భూ', 'U'), ('మి', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('గో', 'U'), ('ట్య', 'U'), ('ర్బు', '|'), ('ద', '|'), ('సం', 'U'), ('ఖ్య', '|'), ('యై', 'U'), ('న', '|'), ('ద్రి', '|'), ('జ', '|'), ('గ', 'U'), ('త్ప్ర', 'U'), ('ఖ్యా', 'U'), ('త', '|'), ('దా', 'U'), ('న', '|'), ('వ', 'U'), ('చ్ఛ', '|'), ('టా', 'U'), ('క', '|'), ('ల', '|'), ('నా', 'U'), ('వ', 'U'), ('ర్తి', '|'), ('త', '|'), ('పు', 'U'), ('ణ్య', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('య', '|'), ('గు', '|'), ('నే', 'U'), ('గా', 'U'), ('టం', 'U'), ('బు', '|'), ('గా', 'U'), ('బ', 'U'), ('ర్వు', '|'), ('దో', 'U'), ('మ', '|'), ('లు', '|'), ('వే', 'U'), ('యై', 'U'), ('న', '|'), ('మ', '|'), ('ద', 'U'), ('ద్వి', '|'), ('పం', 'U'), ('బ', '|'), ('గు', '|'), ('నె', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('బ', '|'), ('లి', '|'), ('భి', 'U'), ('క్ష', 'U'), ('న్ద', '|'), ('య', '|'), ('బె', 'U'), ('ట్ట', '|'), ('బూ', 'U'), ('ని', '|'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('పా', 'U'), ('పా', 'U'), ('త్మ', '|'), ('కు', 'U'), ('ల్భూ', 'U'), ('మి', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('గో', 'U'), ('ట్య', 'U'), ('ర్బు', '|'), ('ద', '|'), ('సం', 'U'), ('ఖ్య', '|'), ('యై', 'U'), ('న', '|'), ('ద్రి', '|'), ('జ', '|'), ('గ', 'U'), ('త్ప్ర', 'U'), ('ఖ్యా', 'U'), ('త', '|'), ('దా', 'U'), ('న', '|'), ('వ', 'U'), ('చ్ఛ', '|'), ('టా', 'U'), ('క', '|'), ('ల', '|'), ('నా', 'U'), ('వ', 'U'), ('ర్తి', '|'), ('త', '|'), ('పు', 'U'), ('ణ్య', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('య', '|'), ('గు', '|'), ('నే', 'U'), ('గా', 'U'), ('టం', 'U'), ('బు', '|'), ('గా', 'U'), ('బ', 'U'), ('ర్వు', '|'), ('దో', 'U'), ('మ', '|'), ('లు', '|'), ('వే', 'U'), ('యై', 'U'), ('న', '|'), ('మ', '|'), ('ద', 'U'), ('ద్వి', '|'), ('పం', 'U'), ('బ', '|'), ('గు', '|'), ('నె', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[('ధ', '|'), ('ర', '|'), ('లో', 'U'), ('నన్', 'U'), ('సు', '|'), ('క', '|'), ('వి', '|'), ('ప్ర', '|'), ('ణీ', 'U'), ('త', '|'), ('బ', '|'), ('ల', '|'), ('వ', 'U'), ('ద్ధా', 'U'), ('టీ', 'U'), ('ని', '|'), ('రా', 'U'), ('ఘా', 'U'), ('ట', '|'), ('భా', 'U'), ('స్వ', '|'), ('ర', '|'), ('స', 'U'), ('త్కా', 'U'), ('వ్య', '|'), ('క', '|'), ('థా', 'U'), ('సు', '|'), ('ధా', 'U'), ('ర', '|'), ('స', '|'), ('ప', '|'), ('రీ', 'U'), ('క్షా', 'U'), ('దీ', 'U'), ('క్ష', '|'), ('వి', 'U'), ('ద్వ', 'U'), ('న్మ', '|'), ('హా', 'U'), ('పు', '|'), ('రు', '|'), ('ష', '|'), ('శ్రే', 'U'), ('ష్ఠు', '|'), ('న', '|'), ('క', 'U'), ('బ్బు', '|'), ('పా', 'U'), ('మ', '|'), ('రు', '|'), ('న', '|'), ('కే', 'U'), ('పో', 'U'), ('ల్కిన్', 'U'), ('ల', '|'), ('భిం', 'U'), ('చున్', 'U'), ('స', '|'), ('దా', 'U'), ('మ', '|'), ('రు', '|'), ('దా', 'U'), ('త్మో', 'U'), ('ద్భ', '|'), ('వ', '|'), ('సే', 'U'), ('వి', '|'), ('తాం', 'U'), ('ఘ్రి', '|'), ('న', '|'), ('ల', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('ధ', '|'), ('ర', '|'), ('లో', 'U'), ('న', 'U'), ('న్సు', '|'), ('క', '|'), ('వి', '|'), ('ప్ర', '|'), ('ణీ', 'U'), ('త', '|'), ('బ', '|'), ('ల', '|'), ('వ', 'U'), ('ద్ధా', 'U'), ('టీ', 'U'), ('ని', '|'), ('రా', 'U'), ('ఘా', 'U'), ('ట', '|'), ('భా', 'U'), ('స్వ', '|'), ('ర', '|'), ('స', 'U'), ('త్కా', 'U'), ('వ్య', '|'), ('క', '|'), ('థా', 'U'), ('సు', '|'), ('ధా', 'U'), ('ర', '|'), ('స', '|'), ('ప', '|'), ('రీ', 'U'), ('క్షా', 'U'), ('దీ', 'U'), ('క్ష', '|'), ('వి', 'U'), ('ద్వ', 'U'), ('న్మ', '|'), ('హా', 'U'), ('పు', '|'), ('రు', '|'), ('ష', '|'), ('శ్రే', 'U'), ('ష్ఠు', '|'), ('న', '|'), ('క', 'U'), ('బ్బు', '|'), ('పా', 'U'), ('మ', '|'), ('రు', '|'), ('న', '|'), ('కే', 'U'), ('పో', 'U'), ('ల్కి', 'U'), ('న్ల', '|'), ('భిం', 'U'), ('చు', 'U'), ('న్స', '|'), ('దా', 'U'), ('మ', '|'), ('రు', '|'), ('దా', 'U'), ('త్మో', 'U'), ('ద్భ', '|'), ('వ', '|'), ('సే', 'U'), ('వి', '|'), ('తాం', 'U'), ('ఘ్రి', '|'), ('న', '|'), ('ల', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[('ప', 'U'), ('ద్యం', 'U'), ('బే', 'U'), ('ల', '|'), ('పి', '|'), ('సిం', 'U'), ('డి', '|'), ('కీ', 'U'), ('ప్సి', '|'), ('త', '|'), ('ము', '|'), ('దీ', 'U'), ('ర్పన్', 'U'), ('లే', 'U'), ('ని', '|'), ('జే', 'U'), ('జే', 'U'), ('కు', '|'), ('నై', 'U'), ('వే', 'U'), ('ద్యం', 'U'), ('బే', 'U'), ('ల', '|'), ('ప', '|'), ('దా', 'U'), ('ర్థ', '|'), ('చో', 'U'), ('రు', '|'), ('న', '|'), ('కు', '|'), ('ను', 'U'), ('ర్విన్', 'U'), ('వే', 'U'), ('ద', '|'), ('వే', 'U'), ('దాం', 'U'), ('త', '|'), ('స', 'U'), ('ద్వి', 'U'), ('ద్యా', 'U'), ('భ్యా', 'U'), ('స', '|'), ('క', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('యే', 'U'), ('ల', '|'), ('మ', '|'), ('ది', '|'), ('భా', 'U'), ('విం', 'U'), ('పం', 'U'), ('గ', '|'), ('నె', 'U'), ('ల్ల', 'U'), ('ప్పు', '|'), ('డున్', 'U'), ('మ', 'U'), ('ద్యం', 'U'), ('బా', 'U'), ('నె', '|'), ('డు', '|'), ('వా', 'U'), ('ని', '|'), ('కే', 'U'), ('ల', '|'), ('సు', '|'), ('ధ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('ప', 'U'), ('ద్యం', 'U'), ('బే', 'U'), ('ల', '|'), ('పి', '|'), ('సిం', 'U'), ('డి', '|'), ('కీ', 'U'), ('ప్సి', '|'), ('త', '|'), ('ము', '|'), ('దీ', 'U'), ('ర్ప', 'U'), ('న్లే', 'U'), ('ని', '|'), ('జే', 'U'), ('జే', 'U'), ('కు', '|'), ('నై', 'U'), ('వే', 'U'), ('ద్యం', 'U'), ('బే', 'U'), ('ల', '|'), ('ప', '|'), ('దా', 'U'), ('ర్థ', '|'), ('చో', 'U'), ('రు', '|'), ('న', '|'), ('కు', '|'), ('ను', 'U'), ('ర్వి', 'U'), ('న్వే', 'U'), ('ద', '|'), ('వే', 'U'), ('దాం', 'U'), ('త', '|'), ('స', 'U'), ('ద్వి', 'U'), ('ద్యా', 'U'), ('భ్యా', 'U'), ('స', '|'), ('క', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('యే', 'U'), ('ల', '|'), ('మ', '|'), ('ది', '|'), ('భా', 'U'), ('విం', 'U'), ('పం', 'U'), ('గ', '|'), ('నె', 'U'), ('ల్ల', 'U'), ('ప్పు', '|'), ('డున్', 'U'), ('మ', 'U'), ('ద్యం', 'U'), ('బా', 'U'), ('నె', '|'), ('డు', '|'), ('వా', 'U'), ('ని', '|'), ('కే', 'U'), ('ల', '|'), ('సు', '|'), ('ధ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[('ము', '|'), ('కు', '|'), ('రం', 'U'), ('బే', 'U'), ('టి', '|'), ('కి', '|'), ('గ్రు', 'U'), ('డ్డి', '|'), ('వా', 'U'), ('ని', '|'), ('కి', '|'), ('జ', '|'), ('నా', 'U'), ('మో', 'U'), ('దా', 'U'), ('ను', '|'), ('సం', 'U'), ('ధా', 'U'), ('న', '|'), ('రూ', 'U'), ('ప', '|'), ('క', '|'), ('ళా', 'U'), ('కౌ', 'U'), ('శ', '|'), ('ల', '|'), ('కా', 'U'), ('మి', '|'), ('నీ', 'U'), ('సు', '|'), ('ర', '|'), ('త', '|'), ('లి', 'U'), ('ప్సా', 'U'), ('బు', 'U'), ('ద్ధి', '|'), ('ధా', 'U'), ('త్రి', 'U'), ('న్న', '|'), ('పుం', 'U'), ('స', '|'), ('క', '|'), ('తం', 'U'), ('గుం', 'U'), ('దె', '|'), ('డు', '|'), ('వా', 'U'), ('ని', '|'), ('కే', 'U'), ('మి', '|'), ('టి', '|'), ('కి', '|'), ('మీ', 'U'), ('సం', 'U'), ('బే', 'U'), ('మి', '|'), ('టి', '|'), ('కిన్', 'U'), ('లో', 'U'), ('భి', '|'), ('కిన్', 'U'), ('మ', '|'), ('కు', '|'), ('టం', 'U'), ('బే', 'U'), ('మి', '|'), ('టి', '|'), ('కి', '|'), ('మ', 'U'), ('ర్క', '|'), ('టం', 'U'), ('బు', '|'), ('న', '|'), ('కు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('ము', '|'), ('కు', '|'), ('రం', 'U'), ('బే', 'U'), ('టి', '|'), ('కి', '|'), ('గ్రు', 'U'), ('డ్డి', '|'), ('వా', 'U'), ('ని', '|'), ('కి', '|'), ('జ', '|'), ('నా', 'U'), ('మో', 'U'), ('దా', 'U'), ('ను', '|'), ('సం', 'U'), ('ధా', 'U'), ('న', '|'), ('రూ', 'U'), ('ప', '|'), ('క', '|'), ('ళా', 'U'), ('కౌ', 'U'), ('శ', '|'), ('ల', '|'), ('కా', 'U'), ('మి', '|'), ('నీ', 'U'), ('సు', '|'), ('ర', '|'), ('త', '|'), ('లి', 'U'), ('ప్సా', 'U'), ('బు', 'U'), ('ద్ధి', '|'), ('ధా', 'U'), ('త్రి', 'U'), ('న్న', '|'), ('పుం', 'U'), ('స', '|'), ('క', '|'), ('తం', 'U'), ('గుం', 'U'), ('దె', '|'), ('డు', '|'), ('వా', 'U'), ('ని', '|'), ('కే', 'U'), ('మి', '|'), ('టి', '|'), ('కి', '|'), ('మీ', 'U'), ('సం', 'U'), ('బే', 'U'), ('మి', '|'), ('టి', '|'), ('కి', 'U'), ('న్లో', 'U'), ('భి', '|'), ('కిన్', 'U'), ('మ', '|'), ('కు', '|'), ('టం', 'U'), ('బే', 'U'), ('మి', '|'), ('టి', '|'), ('కి', '|'), ('మ', 'U'), ('ర్క', '|'), ('టం', 'U'), ('బు', '|'), ('న', '|'), ('కు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[('కు', '|'), ('జ', '|'), ('నున్', 'U'), ('ధ', 'U'), ('ర్మ', '|'), ('త', '|'), ('నూ', 'U'), ('జు', '|'), ('డం', 'U'), ('చు', '|'), ('న', '|'), ('తి', '|'), ('మూ', 'U'), ('ర్ఖున్', 'U'), ('భో', 'U'), ('జ', '|'), ('రా', 'U'), ('జం', 'U'), ('చు', '|'), ('ఘో', 'U'), ('ర', '|'), ('జ', '|'), ('రా', 'U'), ('భా', 'U'), ('ర', '|'), ('కు', '|'), ('రూ', 'U'), ('ప', '|'), ('కా', 'U'), ('రి', '|'), ('ని', '|'), ('ర', '|'), ('మా', 'U'), ('రా', 'U'), ('మా', 'U'), ('కు', '|'), ('మా', 'U'), ('రుం', 'U'), ('డ', '|'), ('టం', 'U'), ('చు', '|'), ('జ', '|'), ('డ', 'U'), ('త్వం', 'U'), ('బు', '|'), ('న', '|'), ('వే', 'U'), ('డి', '|'), ('కా', 'U'), ('క', '|'), ('వు', '|'), ('లు', '|'), ('కా', 'U'), ('సుం', 'U'), ('గా', 'U'), ('న', '|'), ('రె', 'U'), ('న్నం', 'U'), ('గ', '|'), ('సా', 'U'), ('మ', '|'), ('జ', '|'), ('రా', 'U'), ('జో', 'U'), ('గ్ర', '|'), ('వి', '|'), ('ప', 'U'), ('ద్ద', '|'), ('శా', 'U'), ('ప', '|'), ('హ', '|'), ('ర', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('కు', '|'), ('జ', '|'), ('ను', 'U'), ('న్ధ', 'U'), ('ర్మ', '|'), ('త', '|'), ('నూ', 'U'), ('జు', '|'), ('డం', 'U'), ('చు', '|'), ('న', '|'), ('తి', '|'), ('మూ', 'U'), ('ర్ఖు', 'U'), ('న్భో', 'U'), ('జ', '|'), ('రా', 'U'), ('జం', 'U'), ('చు', '|'), ('ఘో', 'U'), ('ర', '|'), ('జ', '|'), ('రా', 'U'), ('భా', 'U'), ('ర', '|'), ('కు', '|'), ('రూ', 'U'), ('ప', '|'), ('కా', 'U'), ('రి', '|'), ('ని', '|'), ('ర', '|'), ('మా', 'U'), ('రా', 'U'), ('మా', 'U'), ('కు', '|'), ('మా', 'U'), ('రుం', 'U'), ('డ', '|'), ('టం', 'U'), ('చు', '|'), ('జ', '|'), ('డ', 'U'), ('త్వం', 'U'), ('బు', '|'), ('న', '|'), ('వే', 'U'), ('డి', '|'), ('కా', 'U'), ('క', '|'), ('వు', '|'), ('లు', '|'), ('కా', 'U'), ('సుం', 'U'), ('గా', 'U'), ('న', '|'), ('రె', 'U'), ('న్నం', 'U'), ('గ', '|'), ('సా', 'U'), ('మ', '|'), ('జ', '|'), ('రా', 'U'), ('జో', 'U'), ('గ్ర', '|'), ('వి', '|'), ('ప', 'U'), ('ద్ద', '|'), ('శా', 'U'), ('ప', '|'), ('హ', '|'), ('ర', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[('చ', '|'), ('ల', '|'), ('ద', 'U'), ('శ్వ', 'U'), ('త్థ', '|'), ('త', '|'), ('రు', '|'), ('ప్ర', '|'), ('వా', 'U'), ('ళ', '|'), ('మ', '|'), ('ను', '|'), ('చున్', 'U'), ('సా', 'U'), ('రం', 'U'), ('గ', '|'), ('హే', 'U'), ('రం', 'U'), ('బ', '|'), ('టం', 'U'), ('చ', '|'), ('ల', '|'), ('రుం', 'U'), ('దిం', 'U'), ('టె', '|'), ('న', '|'), ('పూ', 'U'), ('వ', '|'), ('టం', 'U'), ('చు', '|'), ('ము', '|'), ('కు', '|'), ('రం', 'U'), ('బం', 'U'), ('చున్', 'U'), ('భ్ర', '|'), ('మన్', 'U'), ('స', 'U'), ('జ్జ', '|'), ('నుల్', 'U'), ('క', '|'), ('ళ', '|'), ('లూ', 'U'), ('రం', 'U'), ('గ', '|'), ('ర', '|'), ('మిం', 'U'), ('చు', '|'), ('చున్', 'U'), ('వ', '|'), ('ద', '|'), ('ల', '|'), ('రే', 'U'), ('కా', 'U'), ('లం', 'U'), ('బు', '|'), ('ము', 'U'), ('గ్ధాం', 'U'), ('గ', '|'), ('నా', 'U'), ('మ', '|'), ('ల', '|'), ('మూ', 'U'), ('త్రా', 'U'), ('క', '|'), ('ర', '|'), ('మా', 'U'), ('ర', '|'), ('మం', 'U'), ('ది', '|'), ('ర', '|'), ('ము', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('చ', '|'), ('ల', '|'), ('ద', 'U'), ('శ్వ', 'U'), ('త్థ', '|'), ('త', '|'), ('రు', '|'), ('ప్ర', '|'), ('వా', 'U'), ('ళ', '|'), ('మ', '|'), ('ను', '|'), ('చు', 'U'), ('న్సా', 'U'), ('రం', 'U'), ('గ', '|'), ('హే', 'U'), ('రం', 'U'), ('బ', '|'), ('టం', 'U'), ('చ', '|'), ('ల', '|'), ('రుం', 'U'), ('దిం', 'U'), ('టె', '|'), ('న', '|'), ('పూ', 'U'), ('వ', '|'), ('టం', 'U'), ('చు', '|'), ('ము', '|'), ('కు', '|'), ('రం', 'U'), ('బం', 'U'), ('చు', 'U'), ('న్భ్ర', '|'), ('మ', 'U'), ('న్స', 'U'), ('జ్జ', '|'), ('నుల్', 'U'), ('క', '|'), ('ళ', '|'), ('లూ', 'U'), ('రం', 'U'), ('గ', '|'), ('ర', '|'), ('మిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్వ', '|'), ('ద', '|'), ('ల', '|'), ('రే', 'U'), ('కా', 'U'), ('లం', 'U'), ('బు', '|'), ('ము', 'U'), ('గ్ధాం', 'U'), ('గ', '|'), ('నా', 'U'), ('మ', '|'), ('ల', '|'), ('మూ', 'U'), ('త్రా', 'U'), ('క', '|'), ('ర', '|'), ('మా', 'U'), ('ర', '|'), ('మం', 'U'), ('ది', '|'), ('ర', '|'), ('ము', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[('సు', '|'), ('ద', '|'), ('తీ', 'U'), ('పీ', 'U'), ('న', '|'), ('ప', '|'), ('యో', 'U'), ('ధ', '|'), ('ర', 'U'), ('ద్వ', '|'), ('య', '|'), ('ము', '|'), ('పై', 'U'), ('సొం', 'U'), ('పొం', 'U'), ('దు', '|'), ('నె', 'U'), ('మ్మో', 'U'), ('ము', '|'), ('పై', 'U'), ('మ', '|'), ('ద', '|'), ('నా', 'U'), ('గా', 'U'), ('ర', '|'), ('ము', '|'), ('పై', 'U'), ('గ', '|'), ('పో', 'U'), ('ల', '|'), ('ము', '|'), ('ల', '|'), ('పై', 'U'), ('మ', 'U'), ('ధ్య', '|'), ('ప్ర', '|'), ('దే', 'U'), ('శం', 'U'), ('బు', '|'), ('పై', 'U'), ('ర', '|'), ('ద', '|'), ('నా', 'U'), ('వా', 'U'), ('సం', 'U'), ('బు', '|'), ('ప', '|'), ('యి', 'U'), ('న్ని', '|'), ('తం', 'U'), ('బ', '|'), ('ము', '|'), ('ప', '|'), ('యిన్', 'U'), ('రా', 'U'), ('జి', 'U'), ('ల్లు', '|'), ('నెం', 'U'), ('తే', 'U'), ('ని', '|'), ('దు', 'U'), ('ర్మ', '|'), ('ద', '|'), ('వృ', 'U'), ('త్తిన్', 'U'), ('ఖ', '|'), ('లు', '|'), ('చి', 'U'), ('త్త', '|'), ('మి', 'U'), ('ద్ధ', '|'), ('ర', '|'), ('ణి', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('సు', '|'), ('ద', '|'), ('తీ', 'U'), ('పీ', 'U'), ('న', '|'), ('ప', '|'), ('యో', 'U'), ('ధ', '|'), ('ర', 'U'), ('ద్వ', '|'), ('య', '|'), ('ము', '|'), ('పై', 'U'), ('సొం', 'U'), ('పొం', 'U'), ('దు', '|'), ('నె', 'U'), ('మ్మో', 'U'), ('ము', '|'), ('పై', 'U'), ('మ', '|'), ('ద', '|'), ('నా', 'U'), ('గా', 'U'), ('ర', '|'), ('ము', '|'), ('పై', 'U'), ('గ', '|'), ('పో', 'U'), ('ల', '|'), ('ము', '|'), ('ల', '|'), ('పై', 'U'), ('మ', 'U'), ('ధ్య', '|'), ('ప్ర', '|'), ('దే', 'U'), ('శం', 'U'), ('బు', '|'), ('పై', 'U'), ('ర', '|'), ('ద', '|'), ('నా', 'U'), ('వా', 'U'), ('సం', 'U'), ('బు', '|'), ('ప', '|'), ('యి', 'U'), ('న్ని', '|'), ('తం', 'U'), ('బ', '|'), ('ము', '|'), ('ప', '|'), ('యి', '|'), ('న్రా', 'U'), ('జి', 'U'), ('ల్లు', '|'), ('నెం', 'U'), ('తే', 'U'), ('ని', '|'), ('దు', 'U'), ('ర్మ', '|'), ('ద', '|'), ('వృ', 'U'), ('త్తి', 'U'), ('న్ఖ', '|'), ('లు', '|'), ('చి', 'U'), ('త్త', '|'), ('మి', 'U'), ('ద్ధ', '|'), ('ర', '|'), ('ణి', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[('ర', '|'), ('సి', '|'), ('కో', 'U'), ('త్తం', 'U'), ('సు', '|'), ('లు', '|'), ('స', 'U'), ('త్కు', '|'), ('లీ', 'U'), ('ను', '|'), ('లు', '|'), ('మ', '|'), ('హా', 'U'), ('ద్రా', 'U'), ('ఘి', 'U'), ('ష్ఠ', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('ఘో', 'U'), ('ర', '|'), ('స', '|'), ('ము', '|'), ('ద్రాం', 'U'), ('త', '|'), ('ర', '|'), ('మ', 'U'), ('గ్ను', '|'), ('లై', 'U'), ('ద', '|'), ('రి', '|'), ('కి', '|'), ('జే', 'U'), ('రన్', 'U'), ('లే', 'U'), ('క', '|'), ('వి', '|'), ('భ్రాం', 'U'), ('తి', '|'), ('చే', 'U'), ('బ', '|'), ('సు', '|'), ('లం', 'U'), ('గా', 'U'), ('చి', '|'), ('న', '|'), ('మో', 'U'), ('ట', '|'), ('కొ', 'U'), ('య్య', '|'), ('దొ', '|'), ('ర', '|'), ('లం', 'U'), ('బ్రా', 'U'), ('ర్థిం', 'U'), ('తు', '|'), ('రెం', 'U'), ('తే', 'U'), ('ని', '|'), ('దే', 'U'), ('మ', '|'), ('స', '|'), ('గా', 'U'), ('దే', 'U'), ('యి', '|'), ('ది', '|'), ('యెం', 'U'), ('చి', '|'), ('చూ', 'U'), ('చి', '|'), ('న', '|'), ('ను', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('ర', '|'), ('సి', '|'), ('కో', 'U'), ('త్తం', 'U'), ('సు', '|'), ('లు', '|'), ('స', 'U'), ('త్కు', '|'), ('లీ', 'U'), ('ను', '|'), ('లు', '|'), ('మ', '|'), ('హా', 'U'), ('ద్రా', 'U'), ('ఘి', 'U'), ('ష్ఠ', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('ఘో', 'U'), ('ర', '|'), ('స', '|'), ('ము', '|'), ('ద్రాం', 'U'), ('త', '|'), ('ర', '|'), ('మ', 'U'), ('గ్ను', '|'), ('లై', 'U'), ('ద', '|'), ('రి', '|'), ('కి', '|'), ('జే', 'U'), ('ర', 'U'), ('న్లే', 'U'), ('క', '|'), ('వి', '|'), ('భ్రాం', 'U'), ('తి', '|'), ('చే', 'U'), ('బ', '|'), ('సు', '|'), ('లం', 'U'), ('గా', 'U'), ('చి', '|'), ('న', '|'), ('మో', 'U'), ('ట', '|'), ('కొ', 'U'), ('య్య', '|'), ('దొ', '|'), ('ర', '|'), ('లం', 'U'), ('బ్రా', 'U'), ('ర్థిం', 'U'), ('తు', '|'), ('రెం', 'U'), ('తే', 'U'), ('ని', '|'), ('దే', 'U'), ('మ', '|'), ('స', '|'), ('గా', 'U'), ('దే', 'U'), ('యి', '|'), ('ది', '|'), ('యెం', 'U'), ('చి', '|'), ('చూ', 'U'), ('చి', '|'), ('న', '|'), ('ను', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[('వి', 'U'), ('త్తం', 'U'), ('బొ', 'U'), ('త్తు', '|'), ('గ', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('డు', '|'), ('దు', 'U'), ('ర్వృ', 'U'), ('త్తిం', 'U'), ('బ్ర', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('చి', '|'), ('యు', 'U'), ('వ్వె', 'U'), ('త్తుం', 'U'), ('దే', 'U'), ('హ', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('తి', '|'), ('రు', '|'), ('గున్', 'U'), ('హే', 'U'), ('లా', 'U'), ('గ', '|'), ('తిన్', 'U'), ('బ', 'U'), ('త్తి', '|'), ('దా', 'U'), ('జి', 'U'), ('త్తాం', 'U'), ('బ్జం', 'U'), ('బు', '|'), ('న', '|'), ('మి', 'U'), ('మ్ము', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('డె', '|'), ('పు', '|'), ('డి', 'U'), ('స్సీ', 'U'), ('యెం', 'U'), ('త', '|'), ('పా', 'U'), ('పం', 'U'), ('బొ', '|'), ('కో', 'U'), ('మ', 'U'), ('త్తా', 'U'), ('రా', 'U'), ('తి', '|'), ('ని', '|'), ('శా', 'U'), ('ట', '|'), ('సం', 'U'), ('హ', '|'), ('ర', '|'), ('ణ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('వి', 'U'), ('త్తం', 'U'), ('బొ', 'U'), ('త్తు', '|'), ('గ', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('డు', '|'), ('దు', 'U'), ('ర్వృ', 'U'), ('త్తిం', 'U'), ('బ్ర', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('చి', '|'), ('యు', 'U'), ('వ్వె', 'U'), ('త్తుం', 'U'), ('దే', 'U'), ('హ', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('తి', '|'), ('రు', '|'), ('గు', 'U'), ('న్హే', 'U'), ('లా', 'U'), ('గ', '|'), ('తి', 'U'), ('న్బ', 'U'), ('త్తి', '|'), ('దా', 'U'), ('జి', 'U'), ('త్తాం', 'U'), ('బ్జం', 'U'), ('బు', '|'), ('న', '|'), ('మి', 'U'), ('మ్ము', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('డె', '|'), ('పు', '|'), ('డి', 'U'), ('స్సీ', 'U'), ('యెం', 'U'), ('త', '|'), ('పా', 'U'), ('పం', 'U'), ('బొ', '|'), ('కో', 'U'), ('మ', 'U'), ('త్తా', 'U'), ('రా', 'U'), ('తి', '|'), ('ని', '|'), ('శా', 'U'), ('ట', '|'), ('సం', 'U'), ('హ', '|'), ('ర', '|'), ('ణ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[('శ', '|'), ('మ', '|'), ('మా', 'U'), ('వం', 'U'), ('త', '|'), ('యు', '|'), ('బూ', 'U'), ('న', '|'), ('నొ', 'U'), ('ల్ల', '|'), ('డు', '|'), ('గ', '|'), ('రి', 'U'), ('ష్ఠ', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('వి', 'U'), ('ద్యా', 'U'), ('వి', '|'), ('శే', 'U'), ('ష', '|'), ('ము', '|'), ('గో', 'U'), ('రం', 'U'), ('త', '|'), ('యు', '|'), ('నా', 'U'), ('త్మ', '|'), ('లో', 'U'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('డా', 'U'), ('చా', 'U'), ('ర', '|'), ('ప్ర', '|'), ('చా', 'U'), ('రం', 'U'), ('బు', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('ము', '|'), ('వీ', 'U'), ('సం', 'U'), ('బు', '|'), ('ను', '|'), ('జే', 'U'), ('య', '|'), ('జా', 'U'), ('ల', '|'), ('డు', '|'), ('గ', '|'), ('దా', 'U'), ('మం', 'U'), ('దుం', 'U'), ('డు', '|'), ('పెన్', 'U'), ('రొ', 'U'), ('క్క', '|'), ('పున్', 'U'), ('మ', '|'), ('మ', '|'), ('తన్', 'U'), ('దే', 'U'), ('హ', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('ధ', '|'), ('ర', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('శ', '|'), ('మ', '|'), ('మా', 'U'), ('వం', 'U'), ('త', '|'), ('యు', '|'), ('బూ', 'U'), ('న', '|'), ('నొ', 'U'), ('ల్ల', '|'), ('డు', '|'), ('గ', '|'), ('రి', 'U'), ('ష్ఠ', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('వి', 'U'), ('ద్యా', 'U'), ('వి', '|'), ('శే', 'U'), ('ష', '|'), ('ము', '|'), ('గో', 'U'), ('రం', 'U'), ('త', '|'), ('యు', '|'), ('నా', 'U'), ('త్మ', '|'), ('లో', 'U'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('డా', 'U'), ('చా', 'U'), ('ర', '|'), ('ప్ర', '|'), ('చా', 'U'), ('రం', 'U'), ('బు', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('ము', '|'), ('వీ', 'U'), ('సం', 'U'), ('బు', '|'), ('ను', '|'), ('జే', 'U'), ('య', '|'), ('జా', 'U'), ('ల', '|'), ('డు', '|'), ('గ', '|'), ('దా', 'U'), ('మం', 'U'), ('దుం', 'U'), ('డు', '|'), ('పె', '|'), ('న్రొ', 'U'), ('క్క', '|'), ('పున్', 'U'), ('మ', '|'), ('మ', '|'), ('త', 'U'), ('న్దే', 'U'), ('హ', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('ధ', '|'), ('ర', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[('భు', '|'), ('వి', '|'), ('లో', 'U'), ('లో', 'U'), ('భు', '|'), ('లు', '|'), ('కూ', 'U'), ('డ', '|'), ('బె', 'U'), ('ట్టి', '|'), ('న', '|'), ('ధ', '|'), ('నం', 'U'), ('బున్', 'U'), ('బం', 'U'), ('ది', '|'), ('కాం', 'U'), ('డ్రూ', 'U'), ('డి', '|'), ('గల్', 'U'), ('బ', '|'), ('వి', '|'), ('నీ', 'U'), ('లున్', 'U'), ('ద', '|'), ('రి', '|'), ('బే', 'U'), ('సు', '|'), ('లున్', 'U'), ('దొ', '|'), ('ర', '|'), ('లొ', '|'), ('గిన్', 'U'), ('బ', 'U'), ('చ్చుల్', 'U'), ('న', '|'), ('టీ', 'U'), ('దా', 'U'), ('సి', '|'), ('కా', 'U'), ('యు', '|'), ('వ', '|'), ('తుల్', 'U'), ('గుం', 'U'), ('టె', '|'), ('న', '|'), ('క', 'U'), ('త్తె', '|'), ('లున్', 'U'), ('గొ', '|'), ('ను', '|'), ('దు', '|'), ('రో', 'U'), ('హో', 'U'), ('యె', 'U'), ('ట్టి', '|'), ('క', 'U'), ('ర్మం', 'U'), ('బొ', '|'), ('హై', 'U'), ('మ', '|'), ('వ', '|'), ('తి', '|'), ('స', 'U'), ('న్ను', '|'), ('త', '|'), ('ది', 'U'), ('వ్య', '|'), ('నా', 'U'), ('మ', '|'), ('ర', '|'), ('ఘు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('భు', '|'), ('వి', '|'), ('లో', 'U'), ('లో', 'U'), ('భు', '|'), ('లు', '|'), ('కూ', 'U'), ('డ', '|'), ('బె', 'U'), ('ట్టి', '|'), ('న', '|'), ('ధ', '|'), ('నం', 'U'), ('బు', 'U'), ('న్బం', 'U'), ('ది', '|'), ('కాం', 'U'), ('డ్రూ', 'U'), ('డి', '|'), ('గల్', 'U'), ('బ', '|'), ('వి', '|'), ('నీ', 'U'), ('లు', 'U'), ('న్ద', '|'), ('రి', '|'), ('బే', 'U'), ('సు', '|'), ('లు', 'U'), ('న్దొ', '|'), ('ర', '|'), ('లొ', '|'), ('గి', 'U'), ('న్బ', 'U'), ('చ్చు', 'U'), ('ల్న', '|'), ('టీ', 'U'), ('దా', 'U'), ('సి', '|'), ('కా', 'U'), ('యు', '|'), ('వ', '|'), ('తు', 'U'), ('ల్గుం', 'U'), ('టె', '|'), ('న', '|'), ('క', 'U'), ('త్తె', '|'), ('లు', 'U'), ('న్గొ', '|'), ('ను', '|'), ('దు', '|'), ('రో', 'U'), ('హో', 'U'), ('యె', 'U'), ('ట్టి', '|'), ('క', 'U'), ('ర్మం', 'U'), ('బొ', '|'), ('హై', 'U'), ('మ', '|'), ('వ', '|'), ('తి', '|'), ('స', 'U'), ('న్ను', '|'), ('త', '|'), ('ది', 'U'), ('వ్య', '|'), ('నా', 'U'), ('మ', '|'), ('ర', '|'), ('ఘు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[('సి', '|'), ('రు', '|'), ('లెం', 'U'), ('తే', 'U'), ('ని', '|'), ('యు', '|'), ('ని', 'U'), ('క్కు', '|'), ('వం', 'U'), ('బ', '|'), ('ను', '|'), ('చు', '|'), ('దు', 'U'), ('శ్శీ', 'U'), ('లన్', 'U'), ('మ', '|'), ('దిన్', 'U'), ('న', 'U'), ('మ్మి', '|'), ('ని', 'U'), ('ర్భ', '|'), ('ర', '|'), ('గ', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('న', '|'), ('మీ', 'U'), ('దు', '|'), ('చూ', 'U'), ('తు', '|'), ('ర', '|'), ('హ', '|'), ('హా', 'U'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('తో', 'U'), ('నెం', 'U'), ('చి', '|'), ('నం', 'U'), ('గ', '|'), ('రి', '|'), ('క', 'U'), ('ర్ణాం', 'U'), ('త', '|'), ('ము', '|'), ('లం', 'U'), ('బు', '|'), ('బు', 'U'), ('ద్బు', '|'), ('ద', '|'), ('త', '|'), ('తుల్', 'U'), ('ఖ', 'U'), ('ద్యో', 'U'), ('త', '|'), ('కీ', 'U'), ('ట', '|'), ('ప్ర', '|'), ('భల్', 'U'), ('మ', '|'), ('రు', '|'), ('ద', '|'), ('గ్రా', 'U'), ('ర్పి', '|'), ('త', '|'), ('దీ', 'U'), ('ప', '|'), ('మా', 'U'), ('లి', '|'), ('క', '|'), ('లు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('సి', '|'), ('రు', '|'), ('లెం', 'U'), ('తే', 'U'), ('ని', '|'), ('యు', '|'), ('ని', 'U'), ('క్కు', '|'), ('వం', 'U'), ('బ', '|'), ('ను', '|'), ('చు', '|'), ('దు', 'U'), ('శ్శీ', 'U'), ('ల', 'U'), ('న్మ', '|'), ('ది', 'U'), ('న్న', 'U'), ('మ్మి', '|'), ('ని', 'U'), ('ర్భ', '|'), ('ర', '|'), ('గ', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('న', '|'), ('మీ', 'U'), ('దు', '|'), ('చూ', 'U'), ('తు', '|'), ('ర', '|'), ('హ', '|'), ('హా', 'U'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('తో', 'U'), ('నెం', 'U'), ('చి', '|'), ('నం', 'U'), ('గ', '|'), ('రి', '|'), ('క', 'U'), ('ర్ణాం', 'U'), ('త', '|'), ('ము', '|'), ('లం', 'U'), ('బు', '|'), ('బు', 'U'), ('ద్బు', '|'), ('ద', '|'), ('త', '|'), ('తు', 'U'), ('ల్ఖ', 'U'), ('ద్యో', 'U'), ('త', '|'), ('కీ', 'U'), ('ట', '|'), ('ప్ర', '|'), ('భల్', 'U'), ('మ', '|'), ('రు', '|'), ('ద', '|'), ('గ్రా', 'U'), ('ర్పి', '|'), ('త', '|'), ('దీ', 'U'), ('ప', '|'), ('మా', 'U'), ('లి', '|'), ('క', '|'), ('లు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[('ఇ', '|'), ('టు', '|'), ('రా', 'U'), ('ర', 'U'), ('మ్మ', '|'), ('ని', '|'), ('పి', 'U'), ('ల్చి', '|'), ('గౌ', 'U'), ('ర', '|'), ('వ', '|'), ('ము', '|'), ('గా', 'U'), ('హే', 'U'), ('మాం', 'U'), ('బ', '|'), ('రాం', 'U'), ('దో', 'U'), ('ళి', '|'), ('కా', 'U'), ('క', '|'), ('ట', '|'), ('క', '|'), ('ప్రా', 'U'), ('క', '|'), ('ట', '|'), ('భూ', 'U'), ('ష', '|'), ('ణా', 'U'), ('దు', '|'), ('లి', '|'), ('డి', '|'), ('వే', 'U'), ('డ్కన్', 'U'), ('ఱే', 'U'), ('డు', '|'), ('ప్రా', 'U'), ('ర్థిం', 'U'), ('ప', '|'), ('వి', 'U'), ('స్ఫు', '|'), ('ట', '|'), ('భం', 'U'), ('గిం', 'U'), ('ద', '|'), ('గు', '|'), ('కా', 'U'), ('వ్య', '|'), ('క', 'U'), ('న్య', '|'), ('ని', '|'), ('డ', '|'), ('నొ', 'U'), ('ప్పున్', 'U'), ('గా', 'U'), ('ని', '|'), ('చో', 'U'), ('ను', 'U'), ('ర్వి', '|'), ('కో', 'U'), ('మ', '|'), ('టి', '|'), ('మే', 'U'), ('న', 'U'), ('ర్క', '|'), ('మె', '|'), ('బ', 'U'), ('ల్మి', '|'), ('గ', 'U'), ('ట్ట', '|'), ('గ', '|'), ('ను', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('ఇ', '|'), ('టు', '|'), ('రా', 'U'), ('ర', 'U'), ('మ్మ', '|'), ('ని', '|'), ('పి', 'U'), ('ల్చి', '|'), ('గౌ', 'U'), ('ర', '|'), ('వ', '|'), ('ము', '|'), ('గా', 'U'), ('హే', 'U'), ('మాం', 'U'), ('బ', '|'), ('రాం', 'U'), ('దో', 'U'), ('ళి', '|'), ('కా', 'U'), ('క', '|'), ('ట', '|'), ('క', '|'), ('ప్రా', 'U'), ('క', '|'), ('ట', '|'), ('భూ', 'U'), ('ష', '|'), ('ణా', 'U'), ('దు', '|'), ('లి', '|'), ('డి', '|'), ('వే', 'U'), ('డ్క', 'U'), ('న్ఱే', 'U'), ('డు', '|'), ('ప్రా', 'U'), ('ర్థిం', 'U'), ('ప', '|'), ('వి', 'U'), ('స్ఫు', '|'), ('ట', '|'), ('భం', 'U'), ('గిం', 'U'), ('ద', '|'), ('గు', '|'), ('కా', 'U'), ('వ్య', '|'), ('క', 'U'), ('న్య', '|'), ('ని', '|'), ('డ', '|'), ('నొ', 'U'), ('ప్పు', 'U'), ('న్గా', 'U'), ('ని', '|'), ('చో', 'U'), ('ను', 'U'), ('ర్వి', '|'), ('కో', 'U'), ('మ', '|'), ('టి', '|'), ('మే', 'U'), ('న', 'U'), ('ర్క', '|'), ('మె', '|'), ('బ', 'U'), ('ల్మి', '|'), ('గ', 'U'), ('ట్ట', '|'), ('గ', '|'), ('ను', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('న', '|'), ('కుం', 'U'), ('బ', 'U'), ('ద్య', '|'), ('ము', '|'), ('ల', 'U'), ('ల్లి', '|'), ('స', 'U'), ('త్క', '|'), ('వు', '|'), ('లు', '|'), ('ని', 'U'), ('త్యం', 'U'), ('బుం', 'U'), ('బ్ర', '|'), ('సం', 'U'), ('గిం', 'U'), ('ప', '|'), ('గా', 'U'), ('వి', '|'), ('ని', '|'), ('యొ', 'U'), ('త్తుల్', 'U'), ('ది', '|'), ('ను', '|'), ('దా', 'U'), ('స', '|'), ('రిం', 'U'), ('బ', '|'), ('లె', '|'), ('బ', '|'), ('య', 'U'), ('ల్వీ', 'U'), ('క్షిం', 'U'), ('చు', '|'), ('చుం', 'U'), ('గా', 'U'), ('ని', '|'), ('యై', 'U'), ('న', '|'), ('నొ', '|'), ('సం', 'U'), ('గన్', 'U'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('ద', '|'), ('లం', 'U'), ('ప', '|'), ('ని', '|'), ('మ', '|'), ('దాం', 'U'), ('ధ', 'U'), ('క్షో', 'U'), ('ణి', '|'), ('పా', 'U'), ('లుం', 'U'), ('డి', '|'), ('లన్', 'U'), ('మ', '|'), ('ను', '|'), ('మా', 'U'), ('ర్గం', 'U'), ('బు', '|'), ('గ్ర', '|'), ('హిం', 'U'), ('ప', '|'), ('గా', 'U'), ('గ', '|'), ('ల', '|'), ('డె', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('త', '|'), ('న', '|'), ('కుం', 'U'), ('బ', 'U'), ('ద్య', '|'), ('ము', '|'), ('ల', 'U'), ('ల్లి', '|'), ('స', 'U'), ('త్క', '|'), ('వు', '|'), ('లు', '|'), ('ని', 'U'), ('త్యం', 'U'), ('బుం', 'U'), ('బ్ర', '|'), ('సం', 'U'), ('గిం', 'U'), ('ప', '|'), ('గా', 'U'), ('వి', '|'), ('ని', '|'), ('యొ', 'U'), ('త్తు', 'U'), ('ల్ది', '|'), ('ను', '|'), ('దా', 'U'), ('స', '|'), ('రిం', 'U'), ('బ', '|'), ('లె', '|'), ('బ', '|'), ('య', 'U'), ('ల్వీ', 'U'), ('క్షిం', 'U'), ('చు', '|'), ('చుం', 'U'), ('గా', 'U'), ('ని', '|'), ('యై', 'U'), ('న', '|'), ('నొ', '|'), ('సం', 'U'), ('గ', 'U'), ('న్మ', '|'), ('ది', '|'), ('లో', 'U'), ('ద', '|'), ('లం', 'U'), ('ప', '|'), ('ని', '|'), ('మ', '|'), ('దాం', 'U'), ('ధ', 'U'), ('క్షో', 'U'), ('ణి', '|'), ('పా', 'U'), ('లుం', 'U'), ('డి', '|'), ('లన్', 'U'), ('మ', '|'), ('ను', '|'), ('మా', 'U'), ('ర్గం', 'U'), ('బు', '|'), ('గ్ర', '|'), ('హిం', 'U'), ('ప', '|'), ('గా', 'U'), ('గ', '|'), ('ల', '|'), ('డె', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[('ధా', 'U'), ('టీ', 'U'), ('పా', 'U'), ('ట', '|'), ('వ', '|'), ('చా', 'U'), ('టు', '|'), ('కా', 'U'), ('వ్య', '|'), ('ర', '|'), ('చ', '|'), ('నో', 'U'), ('ద్య', 'U'), ('ద్ధో', 'U'), ('ర', '|'), ('ణీ', 'U'), ('సా', 'U'), ('ర', '|'), ('ణీ', 'U'), ('వా', 'U'), ('టీ', 'U'), ('కో', 'U'), ('ద్గ', '|'), ('తి', '|'), ('స', 'U'), ('త్క', '|'), ('వీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('డు', '|'), ('ని', 'U'), ('త్యం', 'U'), ('బుం', 'U'), ('ద', '|'), ('మున్', 'U'), ('వే', 'U'), ('డ', '|'), ('గా', 'U'), ('వీ', 'U'), ('టీ', 'U'), ('ఘో', 'U'), ('ట', '|'), ('క', '|'), ('హా', 'U'), ('ట', '|'), ('కా', 'U'), ('దు', '|'), ('లి', '|'), ('డ', '|'), ('రు', 'U'), ('ర్విన్', 'U'), ('ని', 'U'), ('ర్ద', '|'), ('యా', 'U'), ('బు', 'U'), ('ద్ధి', '|'), ('చే', 'U'), ('మా', 'U'), ('టే', 'U'), ('బం', 'U'), ('గ', '|'), ('రు', '|'), ('నే', 'U'), ('టి', '|'), ('రా', 'U'), ('జు', '|'), ('ల', '|'), ('కు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('ధా', 'U'), ('టీ', 'U'), ('పా', 'U'), ('ట', '|'), ('వ', '|'), ('చా', 'U'), ('టు', '|'), ('కా', 'U'), ('వ్య', '|'), ('ర', '|'), ('చ', '|'), ('నో', 'U'), ('ద్య', 'U'), ('ద్ధో', 'U'), ('ర', '|'), ('ణీ', 'U'), ('సా', 'U'), ('ర', '|'), ('ణీ', 'U'), ('వా', 'U'), ('టీ', 'U'), ('కో', 'U'), ('ద్గ', '|'), ('తి', '|'), ('స', 'U'), ('త్క', '|'), ('వీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('డు', '|'), ('ని', 'U'), ('త్యం', 'U'), ('బుం', 'U'), ('ద', '|'), ('ము', 'U'), ('న్వే', 'U'), ('డ', '|'), ('గా', 'U'), ('వీ', 'U'), ('టీ', 'U'), ('ఘో', 'U'), ('ట', '|'), ('క', '|'), ('హా', 'U'), ('ట', '|'), ('కా', 'U'), ('దు', '|'), ('లి', '|'), ('డ', '|'), ('రు', 'U'), ('ర్వి', 'U'), ('న్ని', 'U'), ('ర్ద', '|'), ('యా', 'U'), ('బు', 'U'), ('ద్ధి', '|'), ('చే', 'U'), ('మా', 'U'), ('టే', 'U'), ('బం', 'U'), ('గ', '|'), ('రు', '|'), ('నే', 'U'), ('టి', '|'), ('రా', 'U'), ('జు', '|'), ('ల', '|'), ('కు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('లు', '|'), ('మా', 'U'), ('ఱుం', 'U'), ('ద్వి', '|'), ('జ', '|'), ('రా', 'U'), ('జు', '|'), ('లొ', 'U'), ('క్క', '|'), ('ట', '|'), ('ద', '|'), ('ముం', 'U'), ('బా', 'U'), ('ధిం', 'U'), ('తు', '|'), ('రం', 'U'), ('చున్', 'U'), ('వి', '|'), ('షా', 'U'), ('న', '|'), ('ల', '|'), ('ఘో', 'U'), ('రా', 'U'), ('న', '|'), ('న', '|'), ('ము', 'U'), ('ల్ముం', 'U'), ('డుం', 'U'), ('చు', '|'), ('కొ', '|'), ('ని', '|'), ('కా', 'U'), ('నన్', 'U'), ('రా', 'U'), ('క', '|'), ('దు', 'U'), ('ర్గ', 'U'), ('స్థ', '|'), ('లం', 'U'), ('బు', '|'), ('ల', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('చు', '|'), ('చు', '|'), ('బు', 'U'), ('స్సు', '|'), ('రం', 'U'), ('దు', '|'), ('రి', '|'), ('ల', '|'), ('నా', 'U'), ('భో', 'U'), ('గే', 'U'), ('శు', '|'), ('లెం', 'U'), ('దై', 'U'), ('న', '|'), ('నున్', 'U'), ('మ', '|'), ('ల', '|'), ('క', 'U'), ('ల్మా', 'U'), ('ని', '|'), ('చ', '|'), ('రిం', 'U'), ('ప', '|'), ('గా', 'U'), ('గ', '|'), ('ల', '|'), ('రె', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('ప', '|'), ('లు', '|'), ('మా', 'U'), ('ఱుం', 'U'), ('ద్వి', '|'), ('జ', '|'), ('రా', 'U'), ('జు', '|'), ('లొ', 'U'), ('క్క', '|'), ('ట', '|'), ('ద', '|'), ('ముం', 'U'), ('బా', 'U'), ('ధిం', 'U'), ('తు', '|'), ('రం', 'U'), ('చు', 'U'), ('న్వి', '|'), ('షా', 'U'), ('న', '|'), ('ల', '|'), ('ఘో', 'U'), ('రా', 'U'), ('న', '|'), ('న', '|'), ('ము', 'U'), ('ల్ముం', 'U'), ('డుం', 'U'), ('చు', '|'), ('కొ', '|'), ('ని', '|'), ('కా', 'U'), ('న', '|'), ('న్రా', 'U'), ('క', '|'), ('దు', 'U'), ('ర్గ', 'U'), ('స్థ', '|'), ('లం', 'U'), ('బు', '|'), ('ల', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('చు', '|'), ('చు', '|'), ('బు', 'U'), ('స్సు', '|'), ('రం', 'U'), ('దు', '|'), ('రి', '|'), ('ల', '|'), ('నా', 'U'), ('భో', 'U'), ('గే', 'U'), ('శు', '|'), ('లెం', 'U'), ('దై', 'U'), ('న', '|'), ('నున్', 'U'), ('మ', '|'), ('ల', '|'), ('క', 'U'), ('ల్మా', 'U'), ('ని', '|'), ('చ', '|'), ('రిం', 'U'), ('ప', '|'), ('గా', 'U'), ('గ', '|'), ('ల', '|'), ('రె', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[('గ', '|'), ('డి', '|'), ('యల్', 'U'), ('రెం', 'U'), ('డి', '|'), ('క', '|'), ('సై', 'U'), ('చి', '|'), ('రా', 'U'), ('వె', '|'), ('ను', '|'), ('క', '|'), ('రా', 'U'), ('కా', 'U'), ('సం', 'U'), ('త', '|'), ('సే', 'U'), ('పుం', 'U'), ('డి', '|'), ('రా', 'U'), ('వి', '|'), ('డి', '|'), ('దిం', 'U'), ('టం', 'U'), ('గ', '|'), ('డె', '|'), ('సే', 'U'), ('ద', '|'), ('దీ', 'U'), ('ర్చు', '|'), ('కొ', '|'), ('ని', '|'), ('రా', 'U'), ('వే', 'U'), ('గం', 'U'), ('బె', '|'), ('బో', 'U'), ('సే', 'U'), ('సి', '|'), ('రా', 'U'), ('యె', '|'), ('డ', '|'), ('పొ', 'U'), ('ద్ద', 'U'), ('ప్పు', '|'), ('డు', '|'), ('ర', 'U'), ('మ్మ', '|'), ('టం', 'U'), ('చు', '|'), ('సు', '|'), ('క', '|'), ('విన్', 'U'), ('హీ', 'U'), ('న', '|'), ('ప్ర', '|'), ('భుం', 'U'), ('డీ', 'U'), ('గ', '|'), ('తిన్', 'U'), ('మ', '|'), ('డ', '|'), ('త', 'U'), ('ల్వ', 'U'), ('ల్కు', '|'), ('చు', '|'), ('ద్రి', 'U'), ('ప్పు', '|'), ('గా', 'U'), ('సి', '|'), ('డ', '|'), ('క', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('గ', '|'), ('డి', '|'), ('య', '|'), ('ల్రెం', 'U'), ('డి', '|'), ('క', '|'), ('సై', 'U'), ('చి', '|'), ('రా', 'U'), ('వె', '|'), ('ను', '|'), ('క', '|'), ('రా', 'U'), ('కా', 'U'), ('సం', 'U'), ('త', '|'), ('సే', 'U'), ('పుం', 'U'), ('డి', '|'), ('రా', 'U'), ('వి', '|'), ('డి', '|'), ('దిం', 'U'), ('టం', 'U'), ('గ', '|'), ('డె', '|'), ('సే', 'U'), ('ద', '|'), ('దీ', 'U'), ('ర్చు', '|'), ('కొ', '|'), ('ని', '|'), ('రా', 'U'), ('వే', 'U'), ('గం', 'U'), ('బె', '|'), ('బో', 'U'), ('సే', 'U'), ('సి', '|'), ('రా', 'U'), ('యె', '|'), ('డ', '|'), ('పొ', 'U'), ('ద్ద', 'U'), ('ప్పు', '|'), ('డు', '|'), ('ర', 'U'), ('మ్మ', '|'), ('టం', 'U'), ('చు', '|'), ('సు', '|'), ('క', '|'), ('వి', 'U'), ('న్హీ', 'U'), ('న', '|'), ('ప్ర', '|'), ('భుం', 'U'), ('డీ', 'U'), ('గ', '|'), ('తిన్', 'U'), ('మ', '|'), ('డ', '|'), ('త', 'U'), ('ల్వ', 'U'), ('ల్కు', '|'), ('చు', '|'), ('ద్రి', 'U'), ('ప్పు', '|'), ('గా', 'U'), ('సి', '|'), ('డ', '|'), ('క', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[('బ', '|'), ('ల', '|'), ('రా', 'U'), ('జ', 'U'), ('న్యు', '|'), ('డు', '|'), ('ధూ', 'U'), ('ర్త', '|'), ('కా', 'U'), ('క', '|'), ('వి', '|'), ('గ', '|'), ('నం', 'U'), ('గం', 'U'), ('పిం', 'U'), ('చి', '|'), ('వి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('దా', 'U'), ('న', '|'), ('ల', '|'), ('ఘు', '|'), ('ప్ర', '|'), ('క్రి', '|'), ('య', '|'), ('ని', 'U'), ('చ్చు', '|'), ('స', 'U'), ('త్క', '|'), ('వి', '|'), ('వ', '|'), ('రున్', 'U'), ('హా', 'U'), ('స్యం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చు', '|'), ('నౌ', 'U'), ('ని', '|'), ('ల', '|'), ('బ', 'U'), ('ర్బూ', 'U'), ('ర', '|'), ('ము', '|'), ('గా', 'U'), ('లి', '|'), ('వా', 'U'), ('న', '|'), ('బ', '|'), ('డు', '|'), ('గా', 'U'), ('కిం', 'U'), ('తై', 'U'), ('న', '|'), ('గం', 'U'), ('పిం', 'U'), ('చు', '|'), ('నే', 'U'), ('మ', '|'), ('ల', '|'), ('యో', 'U'), ('ర్వీ', 'U'), ('ధ', '|'), ('ర', '|'), ('మా', 'U'), ('రు', '|'), ('తం', 'U'), ('బు', '|'), ('న', '|'), ('కు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('బ', '|'), ('ల', '|'), ('రా', 'U'), ('జ', 'U'), ('న్యు', '|'), ('డు', '|'), ('ధూ', 'U'), ('ర్త', '|'), ('కా', 'U'), ('క', '|'), ('వి', '|'), ('గ', '|'), ('నం', 'U'), ('గం', 'U'), ('పిం', 'U'), ('చి', '|'), ('వి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('దా', 'U'), ('న', '|'), ('ల', '|'), ('ఘు', '|'), ('ప్ర', '|'), ('క్రి', '|'), ('య', '|'), ('ని', 'U'), ('చ్చు', '|'), ('స', 'U'), ('త్క', '|'), ('వి', '|'), ('వ', '|'), ('రు', 'U'), ('న్హా', 'U'), ('స్యం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చు', '|'), ('నౌ', 'U'), ('ని', '|'), ('ల', '|'), ('బ', 'U'), ('ర్బూ', 'U'), ('ర', '|'), ('ము', '|'), ('గా', 'U'), ('లి', '|'), ('వా', 'U'), ('న', '|'), ('బ', '|'), ('డు', '|'), ('గా', 'U'), ('కిం', 'U'), ('తై', 'U'), ('న', '|'), ('గం', 'U'), ('పిం', 'U'), ('చు', '|'), ('నే', 'U'), ('మ', '|'), ('ల', '|'), ('యో', 'U'), ('ర్వీ', 'U'), ('ధ', '|'), ('ర', '|'), ('మా', 'U'), ('రు', '|'), ('తం', 'U'), ('బు', '|'), ('న', '|'), ('కు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[('కా', 'U'), ('య', 'U'), ('స్థు', 'U'), ('ల్గ', '|'), ('ణి', '|'), ('కా', 'U'), ('జ', '|'), ('నం', 'U'), ('బు', '|'), ('లు', '|'), ('తు', '|'), ('రు', 'U'), ('ష్క', '|'), ('శ్రే', 'U'), ('ణు', '|'), ('లున్', 'U'), ('దు', 'U'), ('ష్ట', '|'), ('దా', 'U'), ('సే', 'U'), ('యుల్', 'U'), ('వై', 'U'), ('ద్యు', '|'), ('లు', '|'), ('నుం', 'U'), ('బు', '|'), ('రో', 'U'), ('హి', '|'), ('తు', '|'), ('లు', '|'), ('దా', 'U'), ('సీ', 'U'), ('భూ', 'U'), ('త', '|'), ('ముల్', 'U'), ('గా', 'U'), ('య', '|'), ('కుల్', 'U'), ('బో', 'U'), ('యల్', 'U'), ('గొం', 'U'), ('ద', '|'), ('ఱు', '|'), ('లో', 'U'), ('భి', '|'), ('భూ', 'U'), ('వ', '|'), ('రు', '|'), ('ధ', '|'), ('నం', 'U'), ('బున్', 'U'), ('సం', 'U'), ('త', '|'), ('తం', 'U'), ('బున్', 'U'), ('మ', '|'), ('హా', 'U'), ('మా', 'U'), ('యా', 'U'), ('జా', 'U'), ('ల', '|'), ('ము', '|'), ('ప', 'U'), ('న్ని', '|'), ('లా', 'U'), ('గు', '|'), ('దు', '|'), ('రు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('కా', 'U'), ('య', 'U'), ('స్థు', 'U'), ('ల్గ', '|'), ('ణి', '|'), ('కా', 'U'), ('జ', '|'), ('నం', 'U'), ('బు', '|'), ('లు', '|'), ('తు', '|'), ('రు', 'U'), ('ష్క', '|'), ('శ్రే', 'U'), ('ణు', '|'), ('లు', 'U'), ('న్దు', 'U'), ('ష్ట', '|'), ('దా', 'U'), ('సే', 'U'), ('యు', 'U'), ('ల్వై', 'U'), ('ద్యు', '|'), ('లు', '|'), ('నుం', 'U'), ('బు', '|'), ('రో', 'U'), ('హి', '|'), ('తు', '|'), ('లు', '|'), ('దా', 'U'), ('సీ', 'U'), ('భూ', 'U'), ('త', '|'), ('ము', 'U'), ('ల్గా', 'U'), ('య', '|'), ('కుల్', 'U'), ('బో', 'U'), ('య', 'U'), ('ల్గొం', 'U'), ('ద', '|'), ('ఱు', '|'), ('లో', 'U'), ('భి', '|'), ('భూ', 'U'), ('వ', '|'), ('రు', '|'), ('ధ', '|'), ('నం', 'U'), ('బు', 'U'), ('న్సం', 'U'), ('త', '|'), ('తం', 'U'), ('బు', 'U'), ('న్మ', '|'), ('హా', 'U'), ('మా', 'U'), ('యా', 'U'), ('జా', 'U'), ('ల', '|'), ('ము', '|'), ('ప', 'U'), ('న్ని', '|'), ('లా', 'U'), ('గు', '|'), ('దు', '|'), ('రు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[('శ్రీ', 'U'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('మ', '|'), ('ద', '|'), ('యు', 'U'), ('క్తు', '|'), ('డై', 'U'), ('నృ', '|'), ('పు', '|'), ('డు', '|'), ('వా', 'U'), ('సిం', 'U'), ('బే', 'U'), ('ర్చు', '|'), ('భూ', 'U'), ('దే', 'U'), ('వు', '|'), ('నిం', 'U'), ('గే', 'U'), ('లిం', 'U'), ('బె', 'U'), ('ట్టి', '|'), ('త', '|'), ('దీ', 'U'), ('య', '|'), ('కో', 'U'), ('ప', '|'), ('మ', '|'), ('హి', '|'), ('మన్', 'U'), ('గీ', 'U'), ('డొం', 'U'), ('చు', '|'), ('నె', 'U'), ('ట్ల', 'U'), ('న్న', '|'), ('ది', 'U'), ('క్ఖే', 'U'), ('ల', 'U'), ('త్కీ', 'U'), ('ర్తి', '|'), ('త్రి', '|'), ('శం', 'U'), ('కుం', 'U'), ('డ', 'U'), ('ల్క', '|'), ('న', '|'), ('ల', '|'), ('శ', 'U'), ('క్తిం', 'U'), ('బ', 'U'), ('ల్కి', '|'), ('త', 'U'), ('ద్వా', 'U'), ('గ్గ', '|'), ('తిన్', 'U'), ('మా', 'U'), ('లం', 'U'), ('డై', 'U'), ('చె', '|'), ('డి', '|'), ('పో', 'U'), ('వ', '|'), ('డో', 'U'), ('ట', '|'), ('ము', '|'), ('ను', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('శ్రీ', 'U'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('మ', '|'), ('ద', '|'), ('యు', 'U'), ('క్తు', '|'), ('డై', 'U'), ('నృ', '|'), ('పు', '|'), ('డు', '|'), ('వా', 'U'), ('సిం', 'U'), ('బే', 'U'), ('ర్చు', '|'), ('భూ', 'U'), ('దే', 'U'), ('వు', '|'), ('నిం', 'U'), ('గే', 'U'), ('లిం', 'U'), ('బె', 'U'), ('ట్టి', '|'), ('త', '|'), ('దీ', 'U'), ('య', '|'), ('కో', 'U'), ('ప', '|'), ('మ', '|'), ('హి', '|'), ('మ', 'U'), ('న్గీ', 'U'), ('డొం', 'U'), ('చు', '|'), ('నె', 'U'), ('ట్ల', 'U'), ('న్న', '|'), ('ది', 'U'), ('క్ఖే', 'U'), ('ల', 'U'), ('త్కీ', 'U'), ('ర్తి', '|'), ('త్రి', '|'), ('శం', 'U'), ('కుం', 'U'), ('డ', 'U'), ('ల్క', '|'), ('న', '|'), ('ల', '|'), ('శ', 'U'), ('క్తిం', 'U'), ('బ', 'U'), ('ల్కి', '|'), ('త', 'U'), ('ద్వా', 'U'), ('గ్గ', '|'), ('తిన్', 'U'), ('మా', 'U'), ('లం', 'U'), ('డై', 'U'), ('చె', '|'), ('డి', '|'), ('పో', 'U'), ('వ', '|'), ('డో', 'U'), ('ట', '|'), ('ము', '|'), ('ను', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[('ల', '|'), ('స', '|'), ('దు', 'U'), ('ద్య', 'U'), ('జ్జ్వ', '|'), ('ల', '|'), ('భ', 'U'), ('వ్య', '|'), ('ది', 'U'), ('వ్య', '|'), ('క', '|'), ('వి', '|'), ('తా', 'U'), ('లం', 'U'), ('కా', 'U'), ('ర', '|'), ('వి', 'U'), ('ద్యా', 'U'), ('వి', '|'), ('శే', 'U'), ('ష', '|'), ('స', '|'), ('మా', 'U'), ('టో', 'U'), ('ప', '|'), ('వి', '|'), ('జృం', 'U'), ('భ', '|'), ('మా', 'U'), ('ణ', '|'), ('క', '|'), ('వి', '|'), ('రా', 'U'), ('ట్సం', 'U'), ('క్రం', 'U'), ('ద', '|'), ('నుం', 'U'), ('ద్రి', 'U'), ('ప్పి', '|'), ('త్రి', 'U'), ('ప్పి', '|'), ('స', '|'), ('మీ', 'U'), ('చా', 'U'), ('న', '|'), ('త', '|'), ('బ్రో', 'U'), ('వ', '|'), ('కుం', 'U'), ('డు', '|'), ('నృ', '|'), ('ప', '|'), ('తుల్', 'U'), ('పెం', 'U'), ('పే', 'U'), ('ది', '|'), ('ని', 'U'), ('ర్భా', 'U'), ('గ్యు', '|'), ('లై', 'U'), ('మ', '|'), ('సి', '|'), ('యై', 'U'), ('పో', 'U'), ('వ', '|'), ('రే', 'U'), ('త', 'U'), ('త్క్రు', '|'), ('ధా', 'U'), ('గ్ని', '|'), ('ని', '|'), ('ల', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('ల', '|'), ('స', '|'), ('దు', 'U'), ('ద్య', 'U'), ('జ్జ్వ', '|'), ('ల', '|'), ('భ', 'U'), ('వ్య', '|'), ('ది', 'U'), ('వ్య', '|'), ('క', '|'), ('వి', '|'), ('తా', 'U'), ('లం', 'U'), ('కా', 'U'), ('ర', '|'), ('వి', 'U'), ('ద్యా', 'U'), ('వి', '|'), ('శే', 'U'), ('ష', '|'), ('స', '|'), ('మా', 'U'), ('టో', 'U'), ('ప', '|'), ('వి', '|'), ('జృం', 'U'), ('భ', '|'), ('మా', 'U'), ('ణ', '|'), ('క', '|'), ('వి', '|'), ('రా', 'U'), ('ట్సం', 'U'), ('క్రం', 'U'), ('ద', '|'), ('నుం', 'U'), ('ద్రి', 'U'), ('ప్పి', '|'), ('త్రి', 'U'), ('ప్పి', '|'), ('స', '|'), ('మీ', 'U'), ('చా', 'U'), ('న', '|'), ('త', '|'), ('బ్రో', 'U'), ('వ', '|'), ('కుం', 'U'), ('డు', '|'), ('నృ', '|'), ('ప', '|'), ('తు', 'U'), ('ల్పెం', 'U'), ('పే', 'U'), ('ది', '|'), ('ని', 'U'), ('ర్భా', 'U'), ('గ్యు', '|'), ('లై', 'U'), ('మ', '|'), ('సి', '|'), ('యై', 'U'), ('పో', 'U'), ('వ', '|'), ('రే', 'U'), ('త', 'U'), ('త్క్రు', '|'), ('ధా', 'U'), ('గ్ని', '|'), ('ని', '|'), ('ల', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[('ఖ', '|'), ('ల', '|'), ('భూ', 'U'), ('నా', 'U'), ('థు', '|'), ('డు', '|'), ('ని', 'U'), ('చ్చ', '|'), ('ని', 'U'), ('చ్చ', '|'), ('జ', '|'), ('ను', '|'), ('లన్', 'U'), ('గా', 'U'), ('రిం', 'U'), ('చి', '|'), ('వి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('గా', 'U'), ('గూ', 'U'), ('రి', '|'), ('చి', '|'), ('పు', 'U'), ('ట్ట', '|'), ('లో', 'U'), ('ని', '|'), ('ఱి', '|'), ('కి', '|'), ('వే', 'U'), ('గిం', 'U'), ('పం', 'U'), ('గ', '|'), ('ను', 'U'), ('ద్దం', 'U'), ('డ', '|'), ('తం', 'U'), ('బ', '|'), ('ల', '|'), ('వ', 'U'), ('న్మ్లే', 'U'), ('చ్ఛు', '|'), ('లు', '|'), ('పొం', 'U'), ('ది', '|'), ('లా', 'U'), ('వ', '|'), ('ను', '|'), ('చు', '|'), ('లే', 'U'), ('బా', 'U'), ('ధి', '|'), ('తు', '|'), ('రౌ', 'U'), ('పె', 'U'), ('ట్టి', '|'), ('జె', 'U'), ('ఱ్ఱి', '|'), ('జీ', 'U'), ('మ', '|'), ('లు', '|'), ('చీ', 'U'), ('కా', 'U'), ('కు', '|'), ('గ', '|'), ('జే', 'U'), ('యు', '|'), ('చం', 'U'), ('ద', '|'), ('ము', '|'), ('గ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('ఖ', '|'), ('ల', '|'), ('భూ', 'U'), ('నా', 'U'), ('థు', '|'), ('డు', '|'), ('ని', 'U'), ('చ్చ', '|'), ('ని', 'U'), ('చ్చ', '|'), ('జ', '|'), ('ను', '|'), ('ల', 'U'), ('న్గా', 'U'), ('రిం', 'U'), ('చి', '|'), ('వి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('గా', 'U'), ('గూ', 'U'), ('రి', '|'), ('చి', '|'), ('పు', 'U'), ('ట్ట', '|'), ('లో', 'U'), ('ని', '|'), ('ఱి', '|'), ('కి', '|'), ('వే', 'U'), ('గిం', 'U'), ('పం', 'U'), ('గ', '|'), ('ను', 'U'), ('ద్దం', 'U'), ('డ', '|'), ('తం', 'U'), ('బ', '|'), ('ల', '|'), ('వ', 'U'), ('న్మ్లే', 'U'), ('చ్ఛు', '|'), ('లు', '|'), ('పొం', 'U'), ('ది', '|'), ('లా', 'U'), ('వ', '|'), ('ను', '|'), ('చు', '|'), ('లే', 'U'), ('బా', 'U'), ('ధి', '|'), ('తు', '|'), ('రౌ', 'U'), ('పె', 'U'), ('ట్టి', '|'), ('జె', 'U'), ('ఱ్ఱి', '|'), ('జీ', 'U'), ('మ', '|'), ('లు', '|'), ('చీ', 'U'), ('కా', 'U'), ('కు', '|'), ('గ', '|'), ('జే', 'U'), ('యు', '|'), ('చం', 'U'), ('ద', '|'), ('ము', '|'), ('గ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[('దా', 'U'), ('నం', 'U'), ('బి', 'U'), ('ల్లె', '|'), ('ద', '|'), ('యా', 'U'), ('ర', '|'), ('సం', 'U'), ('బు', '|'), ('న', '|'), ('హి', '|'), ('స', 'U'), ('ద్ధ', 'U'), ('ర్మం', 'U'), ('బు', '|'), ('తీ', 'U'), ('ర్మీ', 'U'), ('ప', '|'), ('ద', 'U'), ('ధ్యా', 'U'), ('నం', 'U'), ('బున్', 'U'), ('గ', '|'), ('డు', '|'), ('లొ', 'U'), ('చ్చు', '|'), ('స', 'U'), ('త్య', '|'), ('వ', '|'), ('చ', '|'), ('న', 'U'), ('వ్యా', 'U'), ('పా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('సు', 'U'), ('న్న', '|'), ('సు', 'U'), ('జ్ఞా', 'U'), ('నం', 'U'), ('బెం', 'U'), ('త', '|'), ('యు', '|'), ('నా', 'U'), ('స్తి', '|'), ('సా', 'U'), ('ధు', '|'), ('జ', '|'), ('న', '|'), ('స', 'U'), ('న్మా', 'U'), ('నే', 'U'), ('చ్ఛ', '|'), ('లే', 'U'), ('దె', 'U'), ('న్న', '|'), ('నీ', 'U'), ('క్ష్మా', 'U'), ('నా', 'U'), ('థా', 'U'), ('ధ', '|'), ('మ', '|'), ('కో', 'U'), ('టి', '|'), ('కే', 'U'), ('ది', '|'), ('గ', '|'), ('తి', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('దా', 'U'), ('నం', 'U'), ('బి', 'U'), ('ల్లె', '|'), ('ద', '|'), ('యా', 'U'), ('ర', '|'), ('సం', 'U'), ('బు', '|'), ('న', '|'), ('హి', '|'), ('స', 'U'), ('ద్ధ', 'U'), ('ర్మం', 'U'), ('బు', '|'), ('తీ', 'U'), ('ర్మీ', 'U'), ('ప', '|'), ('ద', 'U'), ('ధ్యా', 'U'), ('నం', 'U'), ('బు', 'U'), ('న్గ', '|'), ('డు', '|'), ('లొ', 'U'), ('చ్చు', '|'), ('స', 'U'), ('త్య', '|'), ('వ', '|'), ('చ', '|'), ('న', 'U'), ('వ్యా', 'U'), ('పా', 'U'), ('ర', '|'), ('ము', 'U'), ('ల్సు', 'U'), ('న్న', '|'), ('సు', 'U'), ('జ్ఞా', 'U'), ('నం', 'U'), ('బెం', 'U'), ('త', '|'), ('యు', '|'), ('నా', 'U'), ('స్తి', '|'), ('సా', 'U'), ('ధు', '|'), ('జ', '|'), ('న', '|'), ('స', 'U'), ('న్మా', 'U'), ('నే', 'U'), ('చ్ఛ', '|'), ('లే', 'U'), ('దె', 'U'), ('న్న', '|'), ('నీ', 'U'), ('క్ష్మా', 'U'), ('నా', 'U'), ('థా', 'U'), ('ధ', '|'), ('మ', '|'), ('కో', 'U'), ('టి', '|'), ('కే', 'U'), ('ది', '|'), ('గ', '|'), ('తి', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('ను', '|'), ('వుల్', 'U'), ('ని', 'U'), ('క్క', '|'), ('ము', '|'), ('లం', 'U'), ('చు', '|'), ('నెం', 'U'), ('చు', '|'), ('కొ', '|'), ('ని', '|'), ('య', 'U'), ('త్యం', 'U'), ('త', '|'), ('దు', 'U'), ('ర్మా', 'U'), ('ర్గ', '|'), ('వ', 'U'), ('ర్త', '|'), ('ను', '|'), ('లై', 'U'), ('ని', 'U'), ('ర్ద', '|'), ('య', '|'), ('మీ', 'U'), ('ఱ', '|'), ('భూ', 'U'), ('మి', '|'), ('ప్ర', '|'), ('జ', '|'), ('లం', 'U'), ('దం', 'U'), ('డిం', 'U'), ('చి', '|'), ('వి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('లా', 'U'), ('ర్జ', '|'), ('వ', '|'), ('ము', 'U'), ('ల్సే', 'U'), ('యు', '|'), ('చు', '|'), ('గొం', 'U'), ('దు', '|'), ('లం', 'U'), ('దొ', '|'), ('ది', '|'), ('గి', '|'), ('ని', 'U'), ('చ్చ', 'U'), ('ల్గా', 'U'), ('న', '|'), ('రా', 'U'), ('కుం', 'U'), ('ద్రు', '|'), ('ఛీ', 'U'), ('మ', '|'), ('ను', '|'), ('జా', 'U'), ('ధీ', 'U'), ('శు', '|'), ('ల', '|'), ('కే', 'U'), ('టి', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('ము', '|'), ('లు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('త', '|'), ('ను', '|'), ('వు', 'U'), ('ల్ని', 'U'), ('క్క', '|'), ('ము', '|'), ('లం', 'U'), ('చు', '|'), ('నెం', 'U'), ('చు', '|'), ('కొ', '|'), ('ని', '|'), ('య', 'U'), ('త్యం', 'U'), ('త', '|'), ('దు', 'U'), ('ర్మా', 'U'), ('ర్గ', '|'), ('వ', 'U'), ('ర్త', '|'), ('ను', '|'), ('లై', 'U'), ('ని', 'U'), ('ర్ద', '|'), ('య', '|'), ('మీ', 'U'), ('ఱ', '|'), ('భూ', 'U'), ('మి', '|'), ('ప్ర', '|'), ('జ', '|'), ('లం', 'U'), ('దం', 'U'), ('డిం', 'U'), ('చి', '|'), ('వి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('లా', 'U'), ('ర్జ', '|'), ('వ', '|'), ('ము', 'U'), ('ల్సే', 'U'), ('యు', '|'), ('చు', '|'), ('గొం', 'U'), ('దు', '|'), ('లం', 'U'), ('దొ', '|'), ('ది', '|'), ('గి', '|'), ('ని', 'U'), ('చ్చ', 'U'), ('ల్గా', 'U'), ('న', '|'), ('రా', 'U'), ('కుం', 'U'), ('ద్రు', '|'), ('ఛీ', 'U'), ('మ', '|'), ('ను', '|'), ('జా', 'U'), ('ధీ', 'U'), ('శు', '|'), ('ల', '|'), ('కే', 'U'), ('టి', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('ము', '|'), ('లు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[('ము', '|'), ('రు', '|'), ('గుల్', 'U'), ('ప్రో', 'U'), ('గు', '|'), ('లు', '|'), ('నుం', 'U'), ('గ', '|'), ('రా', 'U'), ('ల్స', '|'), ('రి', '|'), ('పి', '|'), ('ణీ', 'U'), ('ల్ము', 'U'), ('క్తా', 'U'), ('మ', '|'), ('ణి', '|'), ('హా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('తు', '|'), ('రం', 'U'), ('గం', 'U'), ('బు', 'U'), ('ల్గ', '|'), ('రు', '|'), ('లం', 'U'), ('ద', '|'), ('బు', '|'), ('లు', '|'), ('భ', '|'), ('ట', 'U'), ('స్తో', 'U'), ('మం', 'U'), ('బు', '|'), ('లున్', 'U'), ('రా', 'U'), ('జ్య', '|'), ('మున్', 'U'), ('స్థి', '|'), ('ర', '|'), ('మం', 'U'), ('చున్', 'U'), ('మ', '|'), ('ది', '|'), ('న', 'U'), ('మ్మి', '|'), ('పా', 'U'), ('ప', '|'), ('ము', '|'), ('లు', '|'), ('వే', 'U'), ('సే', 'U'), ('తు', 'U'), ('ర్మ', '|'), ('దో', 'U'), ('న్మ', 'U'), ('త్త', '|'), ('పా', 'U'), ('మ', '|'), ('ర', '|'), ('భూ', 'U'), ('వి', 'U'), ('ష్ట', '|'), ('ప', '|'), ('దు', 'U'), ('ష్ట', '|'), ('నా', 'U'), ('య', '|'), ('కు', '|'), ('లు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('ము', '|'), ('రు', '|'), ('గు', 'U'), ('ల్ప్రో', 'U'), ('గు', '|'), ('లు', '|'), ('నుం', 'U'), ('గ', '|'), ('రా', 'U'), ('ల్స', '|'), ('రి', '|'), ('పి', '|'), ('ణీ', 'U'), ('ల్ము', 'U'), ('క్తా', 'U'), ('మ', '|'), ('ణి', '|'), ('హా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('తు', '|'), ('రం', 'U'), ('గం', 'U'), ('బు', 'U'), ('ల్గ', '|'), ('రు', '|'), ('లం', 'U'), ('ద', '|'), ('బు', '|'), ('లు', '|'), ('భ', '|'), ('ట', 'U'), ('స్తో', 'U'), ('మం', 'U'), ('బు', '|'), ('లు', '|'), ('న్రా', 'U'), ('జ్య', '|'), ('మున్', 'U'), ('స్థి', '|'), ('ర', '|'), ('మం', 'U'), ('చు', 'U'), ('న్మ', '|'), ('ది', '|'), ('న', 'U'), ('మ్మి', '|'), ('పా', 'U'), ('ప', '|'), ('ము', '|'), ('లు', '|'), ('వే', 'U'), ('సే', 'U'), ('తు', 'U'), ('ర్మ', '|'), ('దో', 'U'), ('న్మ', 'U'), ('త్త', '|'), ('పా', 'U'), ('మ', '|'), ('ర', '|'), ('భూ', 'U'), ('వి', 'U'), ('ష్ట', '|'), ('ప', '|'), ('దు', 'U'), ('ష్ట', '|'), ('నా', 'U'), ('య', '|'), ('కు', '|'), ('లు', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[('మ', '|'), ('క', '|'), ('రో', 'U'), ('గ్ర', '|'), ('క్ర', '|'), ('క', '|'), ('చా', 'U'), ('గ్ర', '|'), ('జా', 'U'), ('గ్ర', '|'), ('దు', '|'), ('రు', '|'), ('స', 'U'), ('మ్య', 'U'), ('క్ఛా', 'U'), ('త', '|'), ('దం', 'U'), ('ష్ట్రా', 'U'), ('క్ష', '|'), ('త', '|'), ('ప్ర', '|'), ('క', '|'), ('టాం', 'U'), ('ఘ్రి', 'U'), ('ద్వ', '|'), ('య', '|'), ('ని', 'U'), ('ర్గ', '|'), ('ళ', '|'), ('ద్రు', '|'), ('ధి', '|'), ('ర', '|'), ('ధా', 'U'), ('రా', 'U'), ('పూ', 'U'), ('ర', '|'), ('ఘో', 'U'), ('ర', 'U'), ('వ్య', '|'), ('ధా', 'U'), ('చ', '|'), ('కి', '|'), ('తుం', 'U'), ('డై', 'U'), ('మొ', '|'), ('ఱ', '|'), ('సే', 'U'), ('య', '|'), ('న', 'U'), ('గ్గ', '|'), ('జ', '|'), ('ప', '|'), ('తిన్', 'U'), ('సం', 'U'), ('ప్రీ', 'U'), ('తి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మ', '|'), ('కు', '|'), ('టీ', 'U'), ('భూ', 'U'), ('త', '|'), ('శ', '|'), ('శాం', 'U'), ('క', '|'), ('చా', 'U'), ('ప', '|'), ('హ', '|'), ('ర', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('మ', '|'), ('క', '|'), ('రో', 'U'), ('గ్ర', '|'), ('క్ర', '|'), ('క', '|'), ('చా', 'U'), ('గ్ర', '|'), ('జా', 'U'), ('గ్ర', '|'), ('దు', '|'), ('రు', '|'), ('స', 'U'), ('మ్య', 'U'), ('క్ఛా', 'U'), ('త', '|'), ('దం', 'U'), ('ష్ట్రా', 'U'), ('క్ష', '|'), ('త', '|'), ('ప్ర', '|'), ('క', '|'), ('టాం', 'U'), ('ఘ్రి', 'U'), ('ద్వ', '|'), ('య', '|'), ('ని', 'U'), ('ర్గ', '|'), ('ళ', '|'), ('ద్రు', '|'), ('ధి', '|'), ('ర', '|'), ('ధా', 'U'), ('రా', 'U'), ('పూ', 'U'), ('ర', '|'), ('ఘో', 'U'), ('ర', 'U'), ('వ్య', '|'), ('ధా', 'U'), ('చ', '|'), ('కి', '|'), ('తుం', 'U'), ('డై', 'U'), ('మొ', '|'), ('ఱ', '|'), ('సే', 'U'), ('య', '|'), ('న', 'U'), ('గ్గ', '|'), ('జ', '|'), ('ప', '|'), ('తి', 'U'), ('న్సం', 'U'), ('ప్రీ', 'U'), ('తి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మ', '|'), ('కు', '|'), ('టీ', 'U'), ('భూ', 'U'), ('త', '|'), ('శ', '|'), ('శాం', 'U'), ('క', '|'), ('చా', 'U'), ('ప', '|'), ('హ', '|'), ('ర', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[('బ', '|'), ('ల', '|'), ('దే', 'U'), ('వుం', 'U'), ('డ', '|'), ('తి', '|'), ('నీ', 'U'), ('చ', '|'), ('వృ', 'U'), ('త్తి', '|'), ('ని', '|'), ('సు', '|'), ('రా', 'U'), ('పా', 'U'), ('నం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('ప', '|'), ('గా', 'U'), ('జ', '|'), ('ల', '|'), ('జా', 'U'), ('తా', 'U'), ('స్త్రు', '|'), ('డు', '|'), ('మా', 'U'), ('ని', '|'), ('నీ', 'U'), ('పు', '|'), ('రు', '|'), ('ష', '|'), ('ల', 'U'), ('జ్జా', 'U'), ('త్యా', 'U'), ('గ', '|'), ('ముల్', 'U'), ('సే', 'U'), ('య', '|'), ('గా', 'U'), ('చ', '|'), ('ల', '|'), ('మా', 'U'), ('రం', 'U'), ('గ', '|'), ('న', '|'), ('ల', 'U'), ('క్ష్మి', '|'), ('స', 'U'), ('జ్జ', '|'), ('ను', '|'), ('ల', '|'), ('ని', 'U'), ('చ్చ', '|'), ('ల', '|'), ('ప', 'U'), ('ట్టి', '|'), ('బా', 'U'), ('ధిం', 'U'), ('ప', '|'), ('గా', 'U'), ('మ', '|'), ('ల', '|'), ('పం', 'U'), ('జా', 'U'), ('ల', '|'), ('వి', '|'), ('దే', 'U'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('మి', '|'), ('ల', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('బ', '|'), ('ల', '|'), ('దే', 'U'), ('వుం', 'U'), ('డ', '|'), ('తి', '|'), ('నీ', 'U'), ('చ', '|'), ('వృ', 'U'), ('త్తి', '|'), ('ని', '|'), ('సు', '|'), ('రా', 'U'), ('పా', 'U'), ('నం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('ప', '|'), ('గా', 'U'), ('జ', '|'), ('ల', '|'), ('జా', 'U'), ('తా', 'U'), ('స్త్రు', '|'), ('డు', '|'), ('మా', 'U'), ('ని', '|'), ('నీ', 'U'), ('పు', '|'), ('రు', '|'), ('ష', '|'), ('ల', 'U'), ('జ్జా', 'U'), ('త్యా', 'U'), ('గ', '|'), ('ము', 'U'), ('ల్సే', 'U'), ('య', '|'), ('గా', 'U'), ('చ', '|'), ('ల', '|'), ('మా', 'U'), ('రం', 'U'), ('గ', '|'), ('న', '|'), ('ల', 'U'), ('క్ష్మి', '|'), ('స', 'U'), ('జ్జ', '|'), ('ను', '|'), ('ల', '|'), ('ని', 'U'), ('చ్చ', '|'), ('ల', '|'), ('ప', 'U'), ('ట్టి', '|'), ('బా', 'U'), ('ధిం', 'U'), ('ప', '|'), ('గా', 'U'), ('మ', '|'), ('ల', '|'), ('పం', 'U'), ('జా', 'U'), ('ల', '|'), ('వి', '|'), ('దే', 'U'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('మి', '|'), ('ల', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('ది', '|'), ('రా', 'U'), ('పి', 'U'), ('ల్చి', '|'), ('న', '|'), ('బ', 'U'), ('ల్క', '|'), ('వే', 'U'), ('టి', '|'), ('కి', '|'), ('బ', '|'), ('రా', 'U'), ('కా', 'U'), ('చా', 'U'), ('లు', '|'), ('నిం', 'U'), ('కే', 'U'), ('ల', '|'), ('గా', 'U'), ('గ', '|'), ('ద', '|'), ('రా', 'U'), ('మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('వే', 'U'), ('డి', '|'), ('వే', 'U'), ('స', '|'), ('రి', '|'), ('లు', '|'), ('బా', 'U'), ('గా', 'U'), ('నీ', 'U'), ('కు', '|'), ('శ్రీ', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('మ', '|'), ('ది', '|'), ('రా', 'U'), ('క్షీ', 'U'), ('శ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('లా', 'U'), ('న', '|'), ('న', '|'), ('ను', '|'), ('బ్రే', 'U'), ('మన్', 'U'), ('ద్రో', 'U'), ('వ', '|'), ('రా', 'U'), ('వే', 'U'), ('డ్క', '|'), ('శ్రీ', 'U'), ('మ', '|'), ('దు', '|'), ('దం', 'U'), ('చ', 'U'), ('త్ర్ప', '|'), ('భు', '|'), ('తా', 'U'), ('గు', '|'), ('ణ', '|'), ('ప్ర', '|'), ('థి', '|'), ('త', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('అ', '|'), ('ది', '|'), ('రా', 'U'), ('పి', 'U'), ('ల్చి', '|'), ('న', '|'), ('బ', 'U'), ('ల్క', '|'), ('వే', 'U'), ('టి', '|'), ('కి', '|'), ('బ', '|'), ('రా', 'U'), ('కా', 'U'), ('చా', 'U'), ('లు', '|'), ('నిం', 'U'), ('కే', 'U'), ('ల', '|'), ('గా', 'U'), ('గ', '|'), ('ద', '|'), ('రా', 'U'), ('మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('వే', 'U'), ('డి', '|'), ('వే', 'U'), ('స', '|'), ('రి', '|'), ('లు', '|'), ('బా', 'U'), ('గా', 'U'), ('నీ', 'U'), ('కు', '|'), ('శ్రీ', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('మ', '|'), ('ది', '|'), ('రా', 'U'), ('క్షీ', 'U'), ('శ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('లా', 'U'), ('న', '|'), ('న', '|'), ('ను', '|'), ('బ్రే', 'U'), ('మ', 'U'), ('న్ద్రో', 'U'), ('వ', '|'), ('రా', 'U'), ('వే', 'U'), ('డ్క', '|'), ('శ్రీ', 'U'), ('మ', '|'), ('దు', '|'), ('దం', 'U'), ('చ', 'U'), ('త్ర్ప', '|'), ('భు', '|'), ('తా', 'U'), ('గు', '|'), ('ణ', '|'), ('ప్ర', '|'), ('థి', '|'), ('త', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[('న', '|'), ('త', '|'), ('మ', 'U'), ('ర్త్య', '|'), ('వ్ర', '|'), ('జ', '|'), ('వాం', 'U'), ('ఛి', '|'), ('తా', 'U'), ('ర్థ', '|'), ('ఫ', '|'), ('ల', '|'), ('దా', 'U'), ('న', '|'), ('శ్రీ', 'U'), ('వి', '|'), ('రా', 'U'), ('జ', 'U'), ('న్మ', '|'), ('హో', 'U'), ('న్న', '|'), ('త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మ', '|'), ('వం', 'U'), ('చు', '|'), ('ధీ', 'U'), ('ర', '|'), ('జ', '|'), ('ను', '|'), ('లా', 'U'), ('నం', 'U'), ('దం', 'U'), ('బు', '|'), ('నం', 'U'), ('దె', 'U'), ('ల్ప', '|'), ('నే', 'U'), ('వ్ర', '|'), ('త', '|'), ('చ', 'U'), ('ర్య', 'U'), ('న్ని', '|'), ('ను', '|'), ('వే', 'U'), ('డి', '|'), ('వే', 'U'), ('స', '|'), ('రి', '|'), ('తి', '|'), ('ప్రో', 'U'), ('వన్', 'U'), ('రా', 'U'), ('వి', '|'), ('దే', 'U'), ('నీ', 'U'), ('కు', '|'), ('స', 'U'), ('మ్మ', '|'), ('త', '|'), ('మా', 'U'), ('తె', 'U'), ('ల్పు', '|'), ('ము', '|'), ('తే', 'U'), ('ట', '|'), ('తె', 'U'), ('ల్ల', '|'), ('ము', '|'), ('గ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('న', '|'), ('త', '|'), ('మ', 'U'), ('ర్త్య', '|'), ('వ్ర', '|'), ('జ', '|'), ('వాం', 'U'), ('ఛి', '|'), ('తా', 'U'), ('ర్థ', '|'), ('ఫ', '|'), ('ల', '|'), ('దా', 'U'), ('న', '|'), ('శ్రీ', 'U'), ('వి', '|'), ('రా', 'U'), ('జ', 'U'), ('న్మ', '|'), ('హో', 'U'), ('న్న', '|'), ('త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మ', '|'), ('వం', 'U'), ('చు', '|'), ('ధీ', 'U'), ('ర', '|'), ('జ', '|'), ('ను', '|'), ('లా', 'U'), ('నం', 'U'), ('దం', 'U'), ('బు', '|'), ('నం', 'U'), ('దె', 'U'), ('ల్ప', '|'), ('నే', 'U'), ('వ్ర', '|'), ('త', '|'), ('చ', 'U'), ('ర్య', 'U'), ('న్ని', '|'), ('ను', '|'), ('వే', 'U'), ('డి', '|'), ('వే', 'U'), ('స', '|'), ('రి', '|'), ('తి', '|'), ('ప్రో', 'U'), ('వ', '|'), ('న్రా', 'U'), ('వి', '|'), ('దే', 'U'), ('నీ', 'U'), ('కు', '|'), ('స', 'U'), ('మ్మ', '|'), ('త', '|'), ('మా', 'U'), ('తె', 'U'), ('ల్పు', '|'), ('ము', '|'), ('తే', 'U'), ('ట', '|'), ('తె', 'U'), ('ల్ల', '|'), ('ము', '|'), ('గ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('ద', '|'), ('ప', 'U'), ('ద్యం', 'U'), ('బు', '|'), ('లొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('నీ', 'U'), ('కొ', '|'), ('స', '|'), ('గ', '|'), ('నో', 'U'), ('ప్రా', 'U'), ('జ్ఞుల్', 'U'), ('ను', '|'), ('తిం', 'U'), ('ప', '|'), ('గ', '|'), ('మీ', 'U'), ('ప', '|'), ('ద', '|'), ('ప', 'U'), ('ద్మం', 'U'), ('బు', '|'), ('లు', '|'), ('భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('డ', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('భా', 'U'), ('విం', 'U'), ('ప', '|'), ('నో', 'U'), ('యే', 'U'), ('మి', '|'), ('టం', 'U'), ('గొ', '|'), ('ద', '|'), ('వే', 'U'), ('దే', 'U'), ('టి', '|'), ('కి', '|'), ('జా', 'U'), ('గు', '|'), ('చే', 'U'), ('సె', '|'), ('ద', '|'), ('వ', '|'), ('కో', 'U'), ('ర్కు', '|'), ('లు', '|'), ('దీ', 'U'), ('ర్పు', '|'), ('వే', 'U'), ('వే', 'U'), ('గ', '|'), ('శా', 'U'), ('మ', '|'), ('ద', '|'), ('రా', 'U'), ('తి', 'U'), ('క్ష', '|'), ('ణ', '|'), ('దా', 'U'), ('చ', '|'), ('ర', '|'), ('ప్ర', '|'), ('మ', '|'), ('ద', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('ప', '|'), ('ద', '|'), ('ప', 'U'), ('ద్యం', 'U'), ('బు', '|'), ('లొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('నీ', 'U'), ('కొ', '|'), ('స', '|'), ('గ', '|'), ('నో', 'U'), ('ప్రా', 'U'), ('జ్ఞు', 'U'), ('ల్ను', '|'), ('తిం', 'U'), ('ప', '|'), ('గ', '|'), ('మీ', 'U'), ('ప', '|'), ('ద', '|'), ('ప', 'U'), ('ద్మం', 'U'), ('బు', '|'), ('లు', '|'), ('భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('డ', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('భా', 'U'), ('విం', 'U'), ('ప', '|'), ('నో', 'U'), ('యే', 'U'), ('మి', '|'), ('టం', 'U'), ('గొ', '|'), ('ద', '|'), ('వే', 'U'), ('దే', 'U'), ('టి', '|'), ('కి', '|'), ('జా', 'U'), ('గు', '|'), ('చే', 'U'), ('సె', '|'), ('ద', '|'), ('వ', '|'), ('కో', 'U'), ('ర్కు', '|'), ('లు', '|'), ('దీ', 'U'), ('ర్పు', '|'), ('వే', 'U'), ('వే', 'U'), ('గ', '|'), ('శా', 'U'), ('మ', '|'), ('ద', '|'), ('రా', 'U'), ('తి', 'U'), ('క్ష', '|'), ('ణ', '|'), ('దా', 'U'), ('చ', '|'), ('ర', '|'), ('ప్ర', '|'), ('మ', '|'), ('ద', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[('క్ర', '|'), ('తు', '|'), ('వుల్', 'U'), ('సే', 'U'), ('సె', '|'), ('ద', '|'), ('నం', 'U'), ('టి', '|'), ('నా', 'U'), ('బ', '|'), ('హు', '|'), ('ప', '|'), ('దా', 'U'), ('ర్థం', 'U'), ('బి', 'U'), ('ల్లె', '|'), ('సం', 'U'), ('ధ్యా', 'U'), ('జ', '|'), ('ప', '|'), ('వ్ర', '|'), ('త', '|'), ('ముల్', 'U'), ('సే', 'U'), ('సె', '|'), ('ద', '|'), ('నం', 'U'), ('టి', '|'), ('నా', 'U'), ('దొ', '|'), ('ర', '|'), ('ల', '|'), ('గొ', 'U'), ('ల్వం', 'U'), ('గా', 'U'), ('వ', '|'), ('లెం', 'U'), ('గూ', 'U'), ('టి', '|'), ('కై', 'U'), ('ధృ', '|'), ('తి', '|'), ('ని', 'U'), ('న్వే', 'U'), ('డె', '|'), ('ద', '|'), ('నం', 'U'), ('టి', '|'), ('నా', 'U'), ('ని', '|'), ('లు', '|'), ('వ', '|'), ('దొ', 'U'), ('క్కిం', 'U'), ('తై', 'U'), ('న', '|'), ('గా', 'U'), ('నీ', 'U'), ('ద', '|'), ('యా', 'U'), ('మ', '|'), ('తి', '|'), ('న', 'U'), ('న్నే', 'U'), ('గ', '|'), ('తి', '|'), ('బ్రో', 'U'), ('చె', '|'), ('దో', 'U'), ('యె', '|'), ('ఱు', '|'), ('గ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('క్ర', '|'), ('తు', '|'), ('వు', 'U'), ('ల్సే', 'U'), ('సె', '|'), ('ద', '|'), ('నం', 'U'), ('టి', '|'), ('నా', 'U'), ('బ', '|'), ('హు', '|'), ('ప', '|'), ('దా', 'U'), ('ర్థం', 'U'), ('బి', 'U'), ('ల్లె', '|'), ('సం', 'U'), ('ధ్యా', 'U'), ('జ', '|'), ('ప', '|'), ('వ్ర', '|'), ('త', '|'), ('ము', 'U'), ('ల్సే', 'U'), ('సె', '|'), ('ద', '|'), ('నం', 'U'), ('టి', '|'), ('నా', 'U'), ('దొ', '|'), ('ర', '|'), ('ల', '|'), ('గొ', 'U'), ('ల్వం', 'U'), ('గా', 'U'), ('వ', '|'), ('లెం', 'U'), ('గూ', 'U'), ('టి', '|'), ('కై', 'U'), ('ధృ', '|'), ('తి', '|'), ('ని', 'U'), ('న్వే', 'U'), ('డె', '|'), ('ద', '|'), ('నం', 'U'), ('టి', '|'), ('నా', 'U'), ('ని', '|'), ('లు', '|'), ('వ', '|'), ('దొ', 'U'), ('క్కిం', 'U'), ('తై', 'U'), ('న', '|'), ('గా', 'U'), ('నీ', 'U'), ('ద', '|'), ('యా', 'U'), ('మ', '|'), ('తి', '|'), ('న', 'U'), ('న్నే', 'U'), ('గ', '|'), ('తి', '|'), ('బ్రో', 'U'), ('చె', '|'), ('దో', 'U'), ('యె', '|'), ('ఱు', '|'), ('గ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('గు', '|'), ('నా', 'U'), ('పా', 'U'), ('వ', '|'), ('న', '|'), ('తా', 'U'), ('వ', '|'), ('కీ', 'U'), ('న', '|'), ('ప', '|'), ('ద', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('ని', 'U'), ('ష్ఠా', 'U'), ('గ', '|'), ('రి', 'U'), ('ష్ఠ', '|'), ('గ', '|'), ('తిన్', 'U'), ('వ', 'U'), ('ర్తి', '|'), ('లు', '|'), ('మా', 'U'), ('కు', '|'), ('ని', 'U'), ('ప్పు', '|'), ('డ', '|'), ('తి', '|'), ('క', 'U'), ('ష్ట', '|'), ('ప్రా', 'U'), ('ప్తి', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('బల్', 'U'), ('ప', '|'), ('గ', '|'), ('వా', 'U'), ('నిన్', 'U'), ('బ', '|'), ('లె', '|'), ('జూ', 'U'), ('డ', '|'), ('గా', 'U'), ('గ', '|'), ('ట', '|'), ('క', '|'), ('టా', 'U'), ('పా', 'U'), ('పం', 'U'), ('పు', '|'), ('గా', 'U'), ('దో', 'U'), ('టు', '|'), ('జి', 'U'), ('హ్మ', '|'), ('గ', '|'), ('స', '|'), ('మ్రా', 'U'), ('ట్క', '|'), ('ర', '|'), ('కం', 'U'), ('క', '|'), ('ణ', '|'), ('ప్ర', '|'), ('ణు', '|'), ('త', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('త', '|'), ('గు', '|'), ('నా', 'U'), ('పా', 'U'), ('వ', '|'), ('న', '|'), ('తా', 'U'), ('వ', '|'), ('కీ', 'U'), ('న', '|'), ('ప', '|'), ('ద', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('ని', 'U'), ('ష్ఠా', 'U'), ('గ', '|'), ('రి', 'U'), ('ష్ఠ', '|'), ('గ', '|'), ('తి', 'U'), ('న్వ', 'U'), ('ర్తి', '|'), ('లు', '|'), ('మా', 'U'), ('కు', '|'), ('ని', 'U'), ('ప్పు', '|'), ('డ', '|'), ('తి', '|'), ('క', 'U'), ('ష్ట', '|'), ('ప్రా', 'U'), ('ప్తి', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('బల్', 'U'), ('ప', '|'), ('గ', '|'), ('వా', 'U'), ('ని', 'U'), ('న్బ', '|'), ('లె', '|'), ('జూ', 'U'), ('డ', '|'), ('గా', 'U'), ('గ', '|'), ('ట', '|'), ('క', '|'), ('టా', 'U'), ('పా', 'U'), ('పం', 'U'), ('పు', '|'), ('గా', 'U'), ('దో', 'U'), ('టు', '|'), ('జి', 'U'), ('హ్మ', '|'), ('గ', '|'), ('స', '|'), ('మ్రా', 'U'), ('ట్క', '|'), ('ర', '|'), ('కం', 'U'), ('క', '|'), ('ణ', '|'), ('ప్ర', '|'), ('ణు', '|'), ('త', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[('ని', '|'), ('ను', '|'), ('నా', 'U'), ('దై', 'U'), ('వ', '|'), ('ము', '|'), ('గా', 'U'), ('భ', '|'), ('జిం', 'U'), ('చు', '|'), ('ట', '|'), ('కు', '|'), ('నే', 'U'), ('ని', 'U'), ('త్యం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చు', '|'), ('స', 'U'), ('జ్జ', '|'), ('న', '|'), ('తా', 'U'), ('క', 'U'), ('ర్ణ', '|'), ('ర', '|'), ('సా', 'U'), ('య', '|'), ('న', '|'), ('ప్ర', '|'), ('క', '|'), ('ట', '|'), ('భా', 'U'), ('స్వత్', 'U'), ('సో', 'U'), ('ము', '|'), ('లే', 'U'), ('సా', 'U'), ('క్షి', '|'), ('నీ', 'U'), ('వ', '|'), ('ను', '|'), ('కం', 'U'), ('ప', 'U'), ('న్న', '|'), ('ను', '|'), ('బ్రో', 'U'), ('చు', '|'), ('చుం', 'U'), ('డు', '|'), ('ట', '|'), ('కు', '|'), ('నీ', 'U'), ('యై', 'U'), ('శ్వ', 'U'), ('ర్య', '|'), ('మె', '|'), ('సా', 'U'), ('క్షి', '|'), ('నీ', 'U'), ('మ', '|'), ('న', '|'), ('సు', 'U'), ('న్నా', 'U'), ('మ', '|'), ('న', '|'), ('సు', 'U'), ('న్నె', '|'), ('ఱు', '|'), ('గు', '|'), ('ని', '|'), ('ది', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('ని', '|'), ('ను', '|'), ('నా', 'U'), ('దై', 'U'), ('వ', '|'), ('ము', '|'), ('గా', 'U'), ('భ', '|'), ('జిం', 'U'), ('చు', '|'), ('ట', '|'), ('కు', '|'), ('నే', 'U'), ('ని', 'U'), ('త్యం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చు', '|'), ('స', 'U'), ('జ్జ', '|'), ('న', '|'), ('తా', 'U'), ('క', 'U'), ('ర్ణ', '|'), ('ర', '|'), ('సా', 'U'), ('య', '|'), ('న', '|'), ('ప్ర', '|'), ('క', '|'), ('ట', '|'), ('భా', 'U'), ('స్వ', 'U'), ('త్సో', 'U'), ('ము', '|'), ('లే', 'U'), ('సా', 'U'), ('క్షి', '|'), ('నీ', 'U'), ('వ', '|'), ('ను', '|'), ('కం', 'U'), ('ప', 'U'), ('న్న', '|'), ('ను', '|'), ('బ్రో', 'U'), ('చు', '|'), ('చుం', 'U'), ('డు', '|'), ('ట', '|'), ('కు', '|'), ('నీ', 'U'), ('యై', 'U'), ('శ్వ', 'U'), ('ర్య', '|'), ('మె', '|'), ('సా', 'U'), ('క్షి', '|'), ('నీ', 'U'), ('మ', '|'), ('న', '|'), ('సు', 'U'), ('న్నా', 'U'), ('మ', '|'), ('న', '|'), ('సు', 'U'), ('న్నె', '|'), ('ఱు', '|'), ('గు', '|'), ('ని', '|'), ('ది', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[('జ', '|'), ('య', '|'), ('మొ', 'U'), ('ప్పా', 'U'), ('ర', '|'), ('ని', '|'), ('ను', 'U'), ('న్మ', '|'), ('దీ', 'U'), ('య', '|'), ('హృ', '|'), ('ద', '|'), ('యా', 'U'), ('బ్జా', 'U'), ('తం', 'U'), ('బు', '|'), ('నం', 'U'), ('గొ', 'U'), ('ల్తు', '|'), ('నే', 'U'), ('ర', '|'), ('ము', '|'), ('లె', 'U'), ('ల్లన్', 'U'), ('క్ష', '|'), ('మ', '|'), ('చే', 'U'), ('సి', '|'), ('ప్రో', 'U'), ('తు', '|'), ('వ', '|'), ('ను', '|'), ('చున్', 'U'), ('రా', 'U'), ('గం', 'U'), ('జ', '|'), ('నన్', 'U'), ('నీ', 'U'), ('దు', '|'), ('చి', 'U'), ('త్త', '|'), ('ము', '|'), ('నా', 'U'), ('భా', 'U'), ('గ్య', '|'), ('మ', '|'), ('దె', 'U'), ('ట్టి', '|'), ('దో', 'U'), ('యె', '|'), ('ఱు', '|'), ('గ', '|'), ('త', 'U'), ('థ్యం', 'U'), ('బి', 'U'), ('ద్ధ', '|'), ('సం', 'U'), ('గ్రా', 'U'), ('మ', '|'), ('ధా', 'U'), ('మ', '|'), ('మ', '|'), ('హా', 'U'), ('కా', 'U'), ('య', '|'), ('వి', '|'), ('రా', 'U'), ('మ', '|'), ('శా', 'U'), ('త', '|'), ('శ', '|'), ('ర', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('జ', '|'), ('య', '|'), ('మొ', 'U'), ('ప్పా', 'U'), ('ర', '|'), ('ని', '|'), ('ను', 'U'), ('న్మ', '|'), ('దీ', 'U'), ('య', '|'), ('హృ', '|'), ('ద', '|'), ('యా', 'U'), ('బ్జా', 'U'), ('తం', 'U'), ('బు', '|'), ('నం', 'U'), ('గొ', 'U'), ('ల్తు', '|'), ('నే', 'U'), ('ర', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', 'U'), ('న్క్ష', '|'), ('మ', '|'), ('చే', 'U'), ('సి', '|'), ('ప్రో', 'U'), ('తు', '|'), ('వ', '|'), ('ను', '|'), ('చు', '|'), ('న్రా', 'U'), ('గం', 'U'), ('జ', '|'), ('న', 'U'), ('న్నీ', 'U'), ('దు', '|'), ('చి', 'U'), ('త్త', '|'), ('ము', '|'), ('నా', 'U'), ('భా', 'U'), ('గ్య', '|'), ('మ', '|'), ('దె', 'U'), ('ట్టి', '|'), ('దో', 'U'), ('యె', '|'), ('ఱు', '|'), ('గ', '|'), ('త', 'U'), ('థ్యం', 'U'), ('బి', 'U'), ('ద్ధ', '|'), ('సం', 'U'), ('గ్రా', 'U'), ('మ', '|'), ('ధా', 'U'), ('మ', '|'), ('మ', '|'), ('హా', 'U'), ('కా', 'U'), ('య', '|'), ('వి', '|'), ('రా', 'U'), ('మ', '|'), ('శా', 'U'), ('త', '|'), ('శ', '|'), ('ర', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[('స', '|'), ('ర', '|'), ('స', '|'), ('ప్ర', 'U'), ('స్తు', '|'), ('త', '|'), ('కూ', 'U'), ('చి', '|'), ('మం', 'U'), ('చి', '|'), ('కు', '|'), ('ల', '|'), ('భా', 'U'), ('స్వ', 'U'), ('ద్వా', 'U'), ('ర్ధి', '|'), ('రా', 'U'), ('కా', 'U'), ('సు', '|'), ('ధా', 'U'), ('క', '|'), ('రు', '|'), ('డన్', 'U'), ('గం', 'U'), ('గ', '|'), ('న', '|'), ('మం', 'U'), ('త్రి', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('డ', '|'), ('రం', 'U'), ('గ', 'U'), ('త్తి', 'U'), ('మ్మ', '|'), ('భూ', 'U'), ('మం', 'U'), ('డ', '|'), ('లే', 'U'), ('శ్వ', '|'), ('ర', '|'), ('ప', 'U'), ('ర్యా', 'U'), ('ర్పి', '|'), ('త', '|'), ('బే', 'U'), ('బ', '|'), ('ద', 'U'), ('ల్బి', '|'), ('రు', '|'), ('ద', '|'), ('వి', 'U'), ('స్ఫా', 'U'), ('య', 'U'), ('జ్జ', '|'), ('గ', 'U'), ('న్నా', 'U'), ('థ', '|'), ('నా', 'U'), ('మ', '|'), ('ర', '|'), ('స', 'U'), ('జ్ఞుం', 'U'), ('డ', '|'), ('ను', '|'), ('బ్రో', 'U'), ('వు', '|'), ('మె', 'U'), ('ప్డు', '|'), ('న', '|'), ('ను', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
+          <t>[('స', '|'), ('ర', '|'), ('స', '|'), ('ప్ర', 'U'), ('స్తు', '|'), ('త', '|'), ('కూ', 'U'), ('చి', '|'), ('మం', 'U'), ('చి', '|'), ('కు', '|'), ('ల', '|'), ('భా', 'U'), ('స్వ', 'U'), ('ద్వా', 'U'), ('ర్ధి', '|'), ('రా', 'U'), ('కా', 'U'), ('సు', '|'), ('ధా', 'U'), ('క', '|'), ('రు', '|'), ('డ', 'U'), ('న్గం', 'U'), ('గ', '|'), ('న', '|'), ('మం', 'U'), ('త్రి', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('డ', '|'), ('రం', 'U'), ('గ', 'U'), ('త్తి', 'U'), ('మ్మ', '|'), ('భూ', 'U'), ('మం', 'U'), ('డ', '|'), ('లే', 'U'), ('శ్వ', '|'), ('ర', '|'), ('ప', 'U'), ('ర్యా', 'U'), ('ర్పి', '|'), ('త', '|'), ('బే', 'U'), ('బ', '|'), ('ద', 'U'), ('ల్బి', '|'), ('రు', '|'), ('ద', '|'), ('వి', 'U'), ('స్ఫా', 'U'), ('య', 'U'), ('జ్జ', '|'), ('గ', 'U'), ('న్నా', 'U'), ('థ', '|'), ('నా', 'U'), ('మ', '|'), ('ర', '|'), ('స', 'U'), ('జ్ఞుం', 'U'), ('డ', '|'), ('ను', '|'), ('బ్రో', 'U'), ('వు', '|'), ('మె', 'U'), ('ప్డు', '|'), ('న', '|'), ('ను', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
